--- a/Ultimate Excel Gantt Chart 1 year.xlsx
+++ b/Ultimate Excel Gantt Chart 1 year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Template\Ultimate Excel Gantt Chart\1.5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A5933B-8494-42FE-AAD7-B6D8D15732AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35130D-F41B-4860-8C04-973AA23F8E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
   <si>
     <t>ids</t>
   </si>
@@ -560,6 +560,12 @@
   <si>
     <t>* Maximum 14 roles</t>
   </si>
+  <si>
+    <t>Github link for more update</t>
+  </si>
+  <si>
+    <t>edward-0116/UltiExcelGantt: Ultimate Excel Gantt Chart (github.com)</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +575,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +790,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1397,7 +1419,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1749,7 +1771,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1773,6 +1794,51 @@
     <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,51 +1860,9 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2636,7 +2660,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>26</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3121,71 +3145,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="81" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
     </row>
     <row r="2" spans="2:35" s="81" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="P2" s="138" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="P2" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="139"/>
+      <c r="Q2" s="138"/>
     </row>
     <row r="3" spans="2:35" s="82" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="G6" s="136" t="s">
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="G6" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="M6" s="136" t="s">
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="M6" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="S6" s="136" t="s">
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="S6" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="X6" s="136" t="s">
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="X6" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AG6" s="136" t="s">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+      <c r="AG6" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="AH6" s="136"/>
-      <c r="AI6" s="136"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="84"/>
@@ -10490,28 +10514,28 @@
       <c r="AC2" s="152"/>
       <c r="AD2" s="152"/>
       <c r="AE2" s="152"/>
-      <c r="AF2" s="161" cm="1">
+      <c r="AF2" s="144" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="161"/>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
       <c r="AJ2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="161" cm="1">
+      <c r="AK2" s="144" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44531</v>
       </c>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="162" t="str" cm="1">
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="149" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(202)</v>
       </c>
-      <c r="AP2" s="162"/>
+      <c r="AP2" s="149"/>
       <c r="AT2" s="152" t="s">
         <v>28</v>
       </c>
@@ -10530,14 +10554,14 @@
       <c r="BD2" s="153"/>
       <c r="BE2" s="153"/>
       <c r="BF2" s="153"/>
-      <c r="BL2" s="158" t="s">
+      <c r="BL2" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="159"/>
-      <c r="BN2" s="159"/>
-      <c r="BO2" s="159"/>
-      <c r="BP2" s="159"/>
-      <c r="BQ2" s="160"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="142"/>
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="143"/>
     </row>
     <row r="3" spans="1:394" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="151"/>
@@ -10566,76 +10590,76 @@
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="154" t="s">
+      <c r="X5" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="156"/>
-      <c r="AG5" s="154" t="s">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="147"/>
+      <c r="AG5" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="155"/>
-      <c r="AK5" s="155"/>
-      <c r="AL5" s="156"/>
-      <c r="AP5" s="154" t="s">
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="147"/>
+      <c r="AP5" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="155"/>
-      <c r="AR5" s="155"/>
-      <c r="AS5" s="155"/>
-      <c r="AT5" s="155"/>
-      <c r="AU5" s="156"/>
-      <c r="BL5" s="154" t="s">
+      <c r="AQ5" s="146"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="147"/>
+      <c r="BL5" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="BM5" s="155"/>
-      <c r="BN5" s="155"/>
-      <c r="BO5" s="155"/>
-      <c r="BP5" s="155"/>
-      <c r="BQ5" s="156"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="146"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="147"/>
     </row>
     <row r="6" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="157" t="s">
+      <c r="X6" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AG6" s="157" t="s">
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AG6" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AP6" s="157" t="s">
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
+      <c r="AP6" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="AQ6" s="157"/>
-      <c r="AR6" s="157"/>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="157"/>
-      <c r="AU6" s="157"/>
-      <c r="BL6" s="163" t="s">
+      <c r="AQ6" s="148"/>
+      <c r="AR6" s="148"/>
+      <c r="AS6" s="148"/>
+      <c r="AT6" s="148"/>
+      <c r="AU6" s="148"/>
+      <c r="BL6" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="BM6" s="163"/>
-      <c r="BN6" s="163"/>
-      <c r="BO6" s="163"/>
-      <c r="BP6" s="163"/>
-      <c r="BQ6" s="163"/>
+      <c r="BM6" s="150"/>
+      <c r="BN6" s="150"/>
+      <c r="BO6" s="150"/>
+      <c r="BP6" s="150"/>
+      <c r="BQ6" s="150"/>
     </row>
     <row r="7" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
@@ -12152,2303 +12176,2303 @@
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="143" t="s">
+      <c r="K11" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="144" t="s">
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="144"/>
+      <c r="V11" s="158"/>
       <c r="W11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="141" cm="1">
+      <c r="X11" s="140" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">timeline_start+scroll_increment</f>
         <v>44326</v>
       </c>
-      <c r="Y11" s="141">
+      <c r="Y11" s="140">
         <f ca="1">X11+1</f>
         <v>44327</v>
       </c>
-      <c r="Z11" s="141">
+      <c r="Z11" s="140">
         <f t="shared" ref="Z11:CK11" ca="1" si="8">Y11+1</f>
         <v>44328</v>
       </c>
-      <c r="AA11" s="141">
+      <c r="AA11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44329</v>
       </c>
-      <c r="AB11" s="141">
+      <c r="AB11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44330</v>
       </c>
-      <c r="AC11" s="141">
+      <c r="AC11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44331</v>
       </c>
-      <c r="AD11" s="141">
+      <c r="AD11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44332</v>
       </c>
-      <c r="AE11" s="141">
+      <c r="AE11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44333</v>
       </c>
-      <c r="AF11" s="141">
+      <c r="AF11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44334</v>
       </c>
-      <c r="AG11" s="141">
+      <c r="AG11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44335</v>
       </c>
-      <c r="AH11" s="141">
+      <c r="AH11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44336</v>
       </c>
-      <c r="AI11" s="141">
+      <c r="AI11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44337</v>
       </c>
-      <c r="AJ11" s="141">
+      <c r="AJ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44338</v>
       </c>
-      <c r="AK11" s="141">
+      <c r="AK11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44339</v>
       </c>
-      <c r="AL11" s="141">
+      <c r="AL11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44340</v>
       </c>
-      <c r="AM11" s="141">
+      <c r="AM11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44341</v>
       </c>
-      <c r="AN11" s="141">
+      <c r="AN11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44342</v>
       </c>
-      <c r="AO11" s="141">
+      <c r="AO11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44343</v>
       </c>
-      <c r="AP11" s="141">
+      <c r="AP11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44344</v>
       </c>
-      <c r="AQ11" s="141">
+      <c r="AQ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44345</v>
       </c>
-      <c r="AR11" s="141">
+      <c r="AR11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44346</v>
       </c>
-      <c r="AS11" s="141">
+      <c r="AS11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44347</v>
       </c>
-      <c r="AT11" s="141">
+      <c r="AT11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44348</v>
       </c>
-      <c r="AU11" s="141">
+      <c r="AU11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44349</v>
       </c>
-      <c r="AV11" s="141">
+      <c r="AV11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44350</v>
       </c>
-      <c r="AW11" s="141">
+      <c r="AW11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44351</v>
       </c>
-      <c r="AX11" s="141">
+      <c r="AX11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44352</v>
       </c>
-      <c r="AY11" s="141">
+      <c r="AY11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44353</v>
       </c>
-      <c r="AZ11" s="141">
+      <c r="AZ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44354</v>
       </c>
-      <c r="BA11" s="141">
+      <c r="BA11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44355</v>
       </c>
-      <c r="BB11" s="141">
+      <c r="BB11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44356</v>
       </c>
-      <c r="BC11" s="141">
+      <c r="BC11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44357</v>
       </c>
-      <c r="BD11" s="141">
+      <c r="BD11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44358</v>
       </c>
-      <c r="BE11" s="141">
+      <c r="BE11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44359</v>
       </c>
-      <c r="BF11" s="141">
+      <c r="BF11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44360</v>
       </c>
-      <c r="BG11" s="141">
+      <c r="BG11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44361</v>
       </c>
-      <c r="BH11" s="141">
+      <c r="BH11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44362</v>
       </c>
-      <c r="BI11" s="141">
+      <c r="BI11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44363</v>
       </c>
-      <c r="BJ11" s="141">
+      <c r="BJ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44364</v>
       </c>
-      <c r="BK11" s="141">
+      <c r="BK11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44365</v>
       </c>
-      <c r="BL11" s="141">
+      <c r="BL11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44366</v>
       </c>
-      <c r="BM11" s="141">
+      <c r="BM11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44367</v>
       </c>
-      <c r="BN11" s="141">
+      <c r="BN11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44368</v>
       </c>
-      <c r="BO11" s="141">
+      <c r="BO11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44369</v>
       </c>
-      <c r="BP11" s="141">
+      <c r="BP11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44370</v>
       </c>
-      <c r="BQ11" s="141">
+      <c r="BQ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44371</v>
       </c>
-      <c r="BR11" s="141">
+      <c r="BR11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44372</v>
       </c>
-      <c r="BS11" s="141">
+      <c r="BS11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44373</v>
       </c>
-      <c r="BT11" s="141">
+      <c r="BT11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44374</v>
       </c>
-      <c r="BU11" s="141">
+      <c r="BU11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44375</v>
       </c>
-      <c r="BV11" s="141">
+      <c r="BV11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44376</v>
       </c>
-      <c r="BW11" s="141">
+      <c r="BW11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44377</v>
       </c>
-      <c r="BX11" s="141">
+      <c r="BX11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44378</v>
       </c>
-      <c r="BY11" s="141">
+      <c r="BY11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44379</v>
       </c>
-      <c r="BZ11" s="141">
+      <c r="BZ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44380</v>
       </c>
-      <c r="CA11" s="141">
+      <c r="CA11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44381</v>
       </c>
-      <c r="CB11" s="141">
+      <c r="CB11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44382</v>
       </c>
-      <c r="CC11" s="141">
+      <c r="CC11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44383</v>
       </c>
-      <c r="CD11" s="141">
+      <c r="CD11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44384</v>
       </c>
-      <c r="CE11" s="141">
+      <c r="CE11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44385</v>
       </c>
-      <c r="CF11" s="141">
+      <c r="CF11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44386</v>
       </c>
-      <c r="CG11" s="141">
+      <c r="CG11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44387</v>
       </c>
-      <c r="CH11" s="141">
+      <c r="CH11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44388</v>
       </c>
-      <c r="CI11" s="141">
+      <c r="CI11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44389</v>
       </c>
-      <c r="CJ11" s="141">
+      <c r="CJ11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44390</v>
       </c>
-      <c r="CK11" s="141">
+      <c r="CK11" s="140">
         <f t="shared" ca="1" si="8"/>
         <v>44391</v>
       </c>
-      <c r="CL11" s="141">
+      <c r="CL11" s="140">
         <f t="shared" ref="CL11:EW11" ca="1" si="9">CK11+1</f>
         <v>44392</v>
       </c>
-      <c r="CM11" s="141">
+      <c r="CM11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44393</v>
       </c>
-      <c r="CN11" s="141">
+      <c r="CN11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44394</v>
       </c>
-      <c r="CO11" s="141">
+      <c r="CO11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44395</v>
       </c>
-      <c r="CP11" s="141">
+      <c r="CP11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44396</v>
       </c>
-      <c r="CQ11" s="141">
+      <c r="CQ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44397</v>
       </c>
-      <c r="CR11" s="141">
+      <c r="CR11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44398</v>
       </c>
-      <c r="CS11" s="141">
+      <c r="CS11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44399</v>
       </c>
-      <c r="CT11" s="141">
+      <c r="CT11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44400</v>
       </c>
-      <c r="CU11" s="141">
+      <c r="CU11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44401</v>
       </c>
-      <c r="CV11" s="141">
+      <c r="CV11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44402</v>
       </c>
-      <c r="CW11" s="141">
+      <c r="CW11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44403</v>
       </c>
-      <c r="CX11" s="141">
+      <c r="CX11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44404</v>
       </c>
-      <c r="CY11" s="141">
+      <c r="CY11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44405</v>
       </c>
-      <c r="CZ11" s="141">
+      <c r="CZ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44406</v>
       </c>
-      <c r="DA11" s="141">
+      <c r="DA11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44407</v>
       </c>
-      <c r="DB11" s="141">
+      <c r="DB11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44408</v>
       </c>
-      <c r="DC11" s="141">
+      <c r="DC11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44409</v>
       </c>
-      <c r="DD11" s="141">
+      <c r="DD11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44410</v>
       </c>
-      <c r="DE11" s="141">
+      <c r="DE11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44411</v>
       </c>
-      <c r="DF11" s="141">
+      <c r="DF11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44412</v>
       </c>
-      <c r="DG11" s="141">
+      <c r="DG11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44413</v>
       </c>
-      <c r="DH11" s="141">
+      <c r="DH11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44414</v>
       </c>
-      <c r="DI11" s="141">
+      <c r="DI11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44415</v>
       </c>
-      <c r="DJ11" s="141">
+      <c r="DJ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44416</v>
       </c>
-      <c r="DK11" s="141">
+      <c r="DK11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44417</v>
       </c>
-      <c r="DL11" s="141">
+      <c r="DL11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44418</v>
       </c>
-      <c r="DM11" s="141">
+      <c r="DM11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44419</v>
       </c>
-      <c r="DN11" s="141">
+      <c r="DN11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44420</v>
       </c>
-      <c r="DO11" s="141">
+      <c r="DO11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44421</v>
       </c>
-      <c r="DP11" s="141">
+      <c r="DP11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44422</v>
       </c>
-      <c r="DQ11" s="141">
+      <c r="DQ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44423</v>
       </c>
-      <c r="DR11" s="141">
+      <c r="DR11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44424</v>
       </c>
-      <c r="DS11" s="141">
+      <c r="DS11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44425</v>
       </c>
-      <c r="DT11" s="141">
+      <c r="DT11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44426</v>
       </c>
-      <c r="DU11" s="141">
+      <c r="DU11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44427</v>
       </c>
-      <c r="DV11" s="141">
+      <c r="DV11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44428</v>
       </c>
-      <c r="DW11" s="141">
+      <c r="DW11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44429</v>
       </c>
-      <c r="DX11" s="141">
+      <c r="DX11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44430</v>
       </c>
-      <c r="DY11" s="141">
+      <c r="DY11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44431</v>
       </c>
-      <c r="DZ11" s="141">
+      <c r="DZ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44432</v>
       </c>
-      <c r="EA11" s="141">
+      <c r="EA11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44433</v>
       </c>
-      <c r="EB11" s="141">
+      <c r="EB11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44434</v>
       </c>
-      <c r="EC11" s="141">
+      <c r="EC11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44435</v>
       </c>
-      <c r="ED11" s="141">
+      <c r="ED11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44436</v>
       </c>
-      <c r="EE11" s="141">
+      <c r="EE11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44437</v>
       </c>
-      <c r="EF11" s="141">
+      <c r="EF11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44438</v>
       </c>
-      <c r="EG11" s="141">
+      <c r="EG11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44439</v>
       </c>
-      <c r="EH11" s="141">
+      <c r="EH11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44440</v>
       </c>
-      <c r="EI11" s="141">
+      <c r="EI11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44441</v>
       </c>
-      <c r="EJ11" s="141">
+      <c r="EJ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44442</v>
       </c>
-      <c r="EK11" s="141">
+      <c r="EK11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44443</v>
       </c>
-      <c r="EL11" s="141">
+      <c r="EL11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44444</v>
       </c>
-      <c r="EM11" s="141">
+      <c r="EM11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44445</v>
       </c>
-      <c r="EN11" s="141">
+      <c r="EN11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44446</v>
       </c>
-      <c r="EO11" s="141">
+      <c r="EO11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44447</v>
       </c>
-      <c r="EP11" s="141">
+      <c r="EP11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44448</v>
       </c>
-      <c r="EQ11" s="141">
+      <c r="EQ11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44449</v>
       </c>
-      <c r="ER11" s="141">
+      <c r="ER11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44450</v>
       </c>
-      <c r="ES11" s="141">
+      <c r="ES11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44451</v>
       </c>
-      <c r="ET11" s="141">
+      <c r="ET11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44452</v>
       </c>
-      <c r="EU11" s="141">
+      <c r="EU11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44453</v>
       </c>
-      <c r="EV11" s="141">
+      <c r="EV11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44454</v>
       </c>
-      <c r="EW11" s="141">
+      <c r="EW11" s="140">
         <f t="shared" ca="1" si="9"/>
         <v>44455</v>
       </c>
-      <c r="EX11" s="141">
+      <c r="EX11" s="140">
         <f t="shared" ref="EX11:HI11" ca="1" si="10">EW11+1</f>
         <v>44456</v>
       </c>
-      <c r="EY11" s="141">
+      <c r="EY11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44457</v>
       </c>
-      <c r="EZ11" s="141">
+      <c r="EZ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44458</v>
       </c>
-      <c r="FA11" s="141">
+      <c r="FA11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44459</v>
       </c>
-      <c r="FB11" s="141">
+      <c r="FB11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44460</v>
       </c>
-      <c r="FC11" s="141">
+      <c r="FC11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44461</v>
       </c>
-      <c r="FD11" s="141">
+      <c r="FD11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44462</v>
       </c>
-      <c r="FE11" s="141">
+      <c r="FE11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44463</v>
       </c>
-      <c r="FF11" s="141">
+      <c r="FF11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44464</v>
       </c>
-      <c r="FG11" s="141">
+      <c r="FG11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44465</v>
       </c>
-      <c r="FH11" s="141">
+      <c r="FH11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44466</v>
       </c>
-      <c r="FI11" s="141">
+      <c r="FI11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44467</v>
       </c>
-      <c r="FJ11" s="141">
+      <c r="FJ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44468</v>
       </c>
-      <c r="FK11" s="141">
+      <c r="FK11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44469</v>
       </c>
-      <c r="FL11" s="141">
+      <c r="FL11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44470</v>
       </c>
-      <c r="FM11" s="141">
+      <c r="FM11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44471</v>
       </c>
-      <c r="FN11" s="141">
+      <c r="FN11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44472</v>
       </c>
-      <c r="FO11" s="141">
+      <c r="FO11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44473</v>
       </c>
-      <c r="FP11" s="141">
+      <c r="FP11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44474</v>
       </c>
-      <c r="FQ11" s="141">
+      <c r="FQ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44475</v>
       </c>
-      <c r="FR11" s="141">
+      <c r="FR11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44476</v>
       </c>
-      <c r="FS11" s="141">
+      <c r="FS11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44477</v>
       </c>
-      <c r="FT11" s="141">
+      <c r="FT11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44478</v>
       </c>
-      <c r="FU11" s="141">
+      <c r="FU11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44479</v>
       </c>
-      <c r="FV11" s="141">
+      <c r="FV11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44480</v>
       </c>
-      <c r="FW11" s="141">
+      <c r="FW11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44481</v>
       </c>
-      <c r="FX11" s="141">
+      <c r="FX11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44482</v>
       </c>
-      <c r="FY11" s="141">
+      <c r="FY11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44483</v>
       </c>
-      <c r="FZ11" s="141">
+      <c r="FZ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44484</v>
       </c>
-      <c r="GA11" s="141">
+      <c r="GA11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44485</v>
       </c>
-      <c r="GB11" s="141">
+      <c r="GB11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44486</v>
       </c>
-      <c r="GC11" s="141">
+      <c r="GC11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44487</v>
       </c>
-      <c r="GD11" s="141">
+      <c r="GD11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44488</v>
       </c>
-      <c r="GE11" s="141">
+      <c r="GE11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44489</v>
       </c>
-      <c r="GF11" s="141">
+      <c r="GF11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44490</v>
       </c>
-      <c r="GG11" s="141">
+      <c r="GG11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44491</v>
       </c>
-      <c r="GH11" s="141">
+      <c r="GH11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44492</v>
       </c>
-      <c r="GI11" s="141">
+      <c r="GI11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44493</v>
       </c>
-      <c r="GJ11" s="141">
+      <c r="GJ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44494</v>
       </c>
-      <c r="GK11" s="141">
+      <c r="GK11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44495</v>
       </c>
-      <c r="GL11" s="141">
+      <c r="GL11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44496</v>
       </c>
-      <c r="GM11" s="141">
+      <c r="GM11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44497</v>
       </c>
-      <c r="GN11" s="141">
+      <c r="GN11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44498</v>
       </c>
-      <c r="GO11" s="141">
+      <c r="GO11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44499</v>
       </c>
-      <c r="GP11" s="141">
+      <c r="GP11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44500</v>
       </c>
-      <c r="GQ11" s="141">
+      <c r="GQ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44501</v>
       </c>
-      <c r="GR11" s="141">
+      <c r="GR11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44502</v>
       </c>
-      <c r="GS11" s="141">
+      <c r="GS11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44503</v>
       </c>
-      <c r="GT11" s="141">
+      <c r="GT11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44504</v>
       </c>
-      <c r="GU11" s="141">
+      <c r="GU11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44505</v>
       </c>
-      <c r="GV11" s="141">
+      <c r="GV11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44506</v>
       </c>
-      <c r="GW11" s="141">
+      <c r="GW11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44507</v>
       </c>
-      <c r="GX11" s="141">
+      <c r="GX11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44508</v>
       </c>
-      <c r="GY11" s="141">
+      <c r="GY11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44509</v>
       </c>
-      <c r="GZ11" s="141">
+      <c r="GZ11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44510</v>
       </c>
-      <c r="HA11" s="141">
+      <c r="HA11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44511</v>
       </c>
-      <c r="HB11" s="141">
+      <c r="HB11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44512</v>
       </c>
-      <c r="HC11" s="141">
+      <c r="HC11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44513</v>
       </c>
-      <c r="HD11" s="141">
+      <c r="HD11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44514</v>
       </c>
-      <c r="HE11" s="141">
+      <c r="HE11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44515</v>
       </c>
-      <c r="HF11" s="141">
+      <c r="HF11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44516</v>
       </c>
-      <c r="HG11" s="141">
+      <c r="HG11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44517</v>
       </c>
-      <c r="HH11" s="141">
+      <c r="HH11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44518</v>
       </c>
-      <c r="HI11" s="141">
+      <c r="HI11" s="140">
         <f t="shared" ca="1" si="10"/>
         <v>44519</v>
       </c>
-      <c r="HJ11" s="141">
+      <c r="HJ11" s="140">
         <f t="shared" ref="HJ11:JU11" ca="1" si="11">HI11+1</f>
         <v>44520</v>
       </c>
-      <c r="HK11" s="141">
+      <c r="HK11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44521</v>
       </c>
-      <c r="HL11" s="141">
+      <c r="HL11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44522</v>
       </c>
-      <c r="HM11" s="141">
+      <c r="HM11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44523</v>
       </c>
-      <c r="HN11" s="141">
+      <c r="HN11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44524</v>
       </c>
-      <c r="HO11" s="141">
+      <c r="HO11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44525</v>
       </c>
-      <c r="HP11" s="141">
+      <c r="HP11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44526</v>
       </c>
-      <c r="HQ11" s="141">
+      <c r="HQ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44527</v>
       </c>
-      <c r="HR11" s="141">
+      <c r="HR11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44528</v>
       </c>
-      <c r="HS11" s="141">
+      <c r="HS11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44529</v>
       </c>
-      <c r="HT11" s="141">
+      <c r="HT11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44530</v>
       </c>
-      <c r="HU11" s="141">
+      <c r="HU11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44531</v>
       </c>
-      <c r="HV11" s="141">
+      <c r="HV11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44532</v>
       </c>
-      <c r="HW11" s="141">
+      <c r="HW11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44533</v>
       </c>
-      <c r="HX11" s="141">
+      <c r="HX11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44534</v>
       </c>
-      <c r="HY11" s="141">
+      <c r="HY11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44535</v>
       </c>
-      <c r="HZ11" s="141">
+      <c r="HZ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44536</v>
       </c>
-      <c r="IA11" s="141">
+      <c r="IA11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44537</v>
       </c>
-      <c r="IB11" s="141">
+      <c r="IB11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44538</v>
       </c>
-      <c r="IC11" s="141">
+      <c r="IC11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44539</v>
       </c>
-      <c r="ID11" s="141">
+      <c r="ID11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44540</v>
       </c>
-      <c r="IE11" s="141">
+      <c r="IE11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44541</v>
       </c>
-      <c r="IF11" s="141">
+      <c r="IF11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44542</v>
       </c>
-      <c r="IG11" s="141">
+      <c r="IG11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44543</v>
       </c>
-      <c r="IH11" s="141">
+      <c r="IH11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44544</v>
       </c>
-      <c r="II11" s="141">
+      <c r="II11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44545</v>
       </c>
-      <c r="IJ11" s="141">
+      <c r="IJ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44546</v>
       </c>
-      <c r="IK11" s="141">
+      <c r="IK11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44547</v>
       </c>
-      <c r="IL11" s="141">
+      <c r="IL11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44548</v>
       </c>
-      <c r="IM11" s="141">
+      <c r="IM11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44549</v>
       </c>
-      <c r="IN11" s="141">
+      <c r="IN11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44550</v>
       </c>
-      <c r="IO11" s="141">
+      <c r="IO11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44551</v>
       </c>
-      <c r="IP11" s="141">
+      <c r="IP11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44552</v>
       </c>
-      <c r="IQ11" s="141">
+      <c r="IQ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44553</v>
       </c>
-      <c r="IR11" s="141">
+      <c r="IR11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44554</v>
       </c>
-      <c r="IS11" s="141">
+      <c r="IS11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44555</v>
       </c>
-      <c r="IT11" s="141">
+      <c r="IT11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44556</v>
       </c>
-      <c r="IU11" s="141">
+      <c r="IU11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44557</v>
       </c>
-      <c r="IV11" s="141">
+      <c r="IV11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44558</v>
       </c>
-      <c r="IW11" s="141">
+      <c r="IW11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44559</v>
       </c>
-      <c r="IX11" s="141">
+      <c r="IX11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44560</v>
       </c>
-      <c r="IY11" s="141">
+      <c r="IY11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44561</v>
       </c>
-      <c r="IZ11" s="141">
+      <c r="IZ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44562</v>
       </c>
-      <c r="JA11" s="141">
+      <c r="JA11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44563</v>
       </c>
-      <c r="JB11" s="141">
+      <c r="JB11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44564</v>
       </c>
-      <c r="JC11" s="141">
+      <c r="JC11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44565</v>
       </c>
-      <c r="JD11" s="141">
+      <c r="JD11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44566</v>
       </c>
-      <c r="JE11" s="141">
+      <c r="JE11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44567</v>
       </c>
-      <c r="JF11" s="141">
+      <c r="JF11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44568</v>
       </c>
-      <c r="JG11" s="141">
+      <c r="JG11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44569</v>
       </c>
-      <c r="JH11" s="141">
+      <c r="JH11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44570</v>
       </c>
-      <c r="JI11" s="141">
+      <c r="JI11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44571</v>
       </c>
-      <c r="JJ11" s="141">
+      <c r="JJ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44572</v>
       </c>
-      <c r="JK11" s="141">
+      <c r="JK11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44573</v>
       </c>
-      <c r="JL11" s="141">
+      <c r="JL11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44574</v>
       </c>
-      <c r="JM11" s="141">
+      <c r="JM11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44575</v>
       </c>
-      <c r="JN11" s="141">
+      <c r="JN11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44576</v>
       </c>
-      <c r="JO11" s="141">
+      <c r="JO11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44577</v>
       </c>
-      <c r="JP11" s="141">
+      <c r="JP11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44578</v>
       </c>
-      <c r="JQ11" s="141">
+      <c r="JQ11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44579</v>
       </c>
-      <c r="JR11" s="141">
+      <c r="JR11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44580</v>
       </c>
-      <c r="JS11" s="141">
+      <c r="JS11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44581</v>
       </c>
-      <c r="JT11" s="141">
+      <c r="JT11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44582</v>
       </c>
-      <c r="JU11" s="141">
+      <c r="JU11" s="140">
         <f t="shared" ca="1" si="11"/>
         <v>44583</v>
       </c>
-      <c r="JV11" s="141">
+      <c r="JV11" s="140">
         <f t="shared" ref="JV11:MG11" ca="1" si="12">JU11+1</f>
         <v>44584</v>
       </c>
-      <c r="JW11" s="141">
+      <c r="JW11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44585</v>
       </c>
-      <c r="JX11" s="141">
+      <c r="JX11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44586</v>
       </c>
-      <c r="JY11" s="141">
+      <c r="JY11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44587</v>
       </c>
-      <c r="JZ11" s="141">
+      <c r="JZ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44588</v>
       </c>
-      <c r="KA11" s="141">
+      <c r="KA11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44589</v>
       </c>
-      <c r="KB11" s="141">
+      <c r="KB11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44590</v>
       </c>
-      <c r="KC11" s="141">
+      <c r="KC11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44591</v>
       </c>
-      <c r="KD11" s="141">
+      <c r="KD11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44592</v>
       </c>
-      <c r="KE11" s="141">
+      <c r="KE11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44593</v>
       </c>
-      <c r="KF11" s="141">
+      <c r="KF11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44594</v>
       </c>
-      <c r="KG11" s="141">
+      <c r="KG11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44595</v>
       </c>
-      <c r="KH11" s="141">
+      <c r="KH11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44596</v>
       </c>
-      <c r="KI11" s="141">
+      <c r="KI11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44597</v>
       </c>
-      <c r="KJ11" s="141">
+      <c r="KJ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44598</v>
       </c>
-      <c r="KK11" s="141">
+      <c r="KK11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44599</v>
       </c>
-      <c r="KL11" s="141">
+      <c r="KL11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44600</v>
       </c>
-      <c r="KM11" s="141">
+      <c r="KM11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44601</v>
       </c>
-      <c r="KN11" s="141">
+      <c r="KN11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44602</v>
       </c>
-      <c r="KO11" s="141">
+      <c r="KO11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44603</v>
       </c>
-      <c r="KP11" s="141">
+      <c r="KP11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44604</v>
       </c>
-      <c r="KQ11" s="141">
+      <c r="KQ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44605</v>
       </c>
-      <c r="KR11" s="141">
+      <c r="KR11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44606</v>
       </c>
-      <c r="KS11" s="141">
+      <c r="KS11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44607</v>
       </c>
-      <c r="KT11" s="141">
+      <c r="KT11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44608</v>
       </c>
-      <c r="KU11" s="141">
+      <c r="KU11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44609</v>
       </c>
-      <c r="KV11" s="141">
+      <c r="KV11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44610</v>
       </c>
-      <c r="KW11" s="141">
+      <c r="KW11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44611</v>
       </c>
-      <c r="KX11" s="141">
+      <c r="KX11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44612</v>
       </c>
-      <c r="KY11" s="141">
+      <c r="KY11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44613</v>
       </c>
-      <c r="KZ11" s="141">
+      <c r="KZ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44614</v>
       </c>
-      <c r="LA11" s="141">
+      <c r="LA11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44615</v>
       </c>
-      <c r="LB11" s="141">
+      <c r="LB11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44616</v>
       </c>
-      <c r="LC11" s="141">
+      <c r="LC11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44617</v>
       </c>
-      <c r="LD11" s="141">
+      <c r="LD11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44618</v>
       </c>
-      <c r="LE11" s="141">
+      <c r="LE11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44619</v>
       </c>
-      <c r="LF11" s="141">
+      <c r="LF11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44620</v>
       </c>
-      <c r="LG11" s="141">
+      <c r="LG11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44621</v>
       </c>
-      <c r="LH11" s="141">
+      <c r="LH11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44622</v>
       </c>
-      <c r="LI11" s="141">
+      <c r="LI11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44623</v>
       </c>
-      <c r="LJ11" s="141">
+      <c r="LJ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44624</v>
       </c>
-      <c r="LK11" s="141">
+      <c r="LK11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44625</v>
       </c>
-      <c r="LL11" s="141">
+      <c r="LL11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44626</v>
       </c>
-      <c r="LM11" s="141">
+      <c r="LM11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44627</v>
       </c>
-      <c r="LN11" s="141">
+      <c r="LN11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44628</v>
       </c>
-      <c r="LO11" s="141">
+      <c r="LO11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44629</v>
       </c>
-      <c r="LP11" s="141">
+      <c r="LP11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44630</v>
       </c>
-      <c r="LQ11" s="141">
+      <c r="LQ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44631</v>
       </c>
-      <c r="LR11" s="141">
+      <c r="LR11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44632</v>
       </c>
-      <c r="LS11" s="141">
+      <c r="LS11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44633</v>
       </c>
-      <c r="LT11" s="141">
+      <c r="LT11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44634</v>
       </c>
-      <c r="LU11" s="141">
+      <c r="LU11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44635</v>
       </c>
-      <c r="LV11" s="141">
+      <c r="LV11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44636</v>
       </c>
-      <c r="LW11" s="141">
+      <c r="LW11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44637</v>
       </c>
-      <c r="LX11" s="141">
+      <c r="LX11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44638</v>
       </c>
-      <c r="LY11" s="141">
+      <c r="LY11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44639</v>
       </c>
-      <c r="LZ11" s="141">
+      <c r="LZ11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44640</v>
       </c>
-      <c r="MA11" s="141">
+      <c r="MA11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44641</v>
       </c>
-      <c r="MB11" s="141">
+      <c r="MB11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44642</v>
       </c>
-      <c r="MC11" s="141">
+      <c r="MC11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44643</v>
       </c>
-      <c r="MD11" s="141">
+      <c r="MD11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44644</v>
       </c>
-      <c r="ME11" s="141">
+      <c r="ME11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44645</v>
       </c>
-      <c r="MF11" s="141">
+      <c r="MF11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44646</v>
       </c>
-      <c r="MG11" s="141">
+      <c r="MG11" s="140">
         <f t="shared" ca="1" si="12"/>
         <v>44647</v>
       </c>
-      <c r="MH11" s="141">
+      <c r="MH11" s="140">
         <f t="shared" ref="MH11:OD11" ca="1" si="13">MG11+1</f>
         <v>44648</v>
       </c>
-      <c r="MI11" s="141">
+      <c r="MI11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44649</v>
       </c>
-      <c r="MJ11" s="141">
+      <c r="MJ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44650</v>
       </c>
-      <c r="MK11" s="141">
+      <c r="MK11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44651</v>
       </c>
-      <c r="ML11" s="141">
+      <c r="ML11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44652</v>
       </c>
-      <c r="MM11" s="141">
+      <c r="MM11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44653</v>
       </c>
-      <c r="MN11" s="141">
+      <c r="MN11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44654</v>
       </c>
-      <c r="MO11" s="141">
+      <c r="MO11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44655</v>
       </c>
-      <c r="MP11" s="141">
+      <c r="MP11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44656</v>
       </c>
-      <c r="MQ11" s="141">
+      <c r="MQ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44657</v>
       </c>
-      <c r="MR11" s="141">
+      <c r="MR11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44658</v>
       </c>
-      <c r="MS11" s="141">
+      <c r="MS11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44659</v>
       </c>
-      <c r="MT11" s="141">
+      <c r="MT11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44660</v>
       </c>
-      <c r="MU11" s="141">
+      <c r="MU11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44661</v>
       </c>
-      <c r="MV11" s="141">
+      <c r="MV11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44662</v>
       </c>
-      <c r="MW11" s="141">
+      <c r="MW11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44663</v>
       </c>
-      <c r="MX11" s="141">
+      <c r="MX11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44664</v>
       </c>
-      <c r="MY11" s="141">
+      <c r="MY11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44665</v>
       </c>
-      <c r="MZ11" s="141">
+      <c r="MZ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44666</v>
       </c>
-      <c r="NA11" s="141">
+      <c r="NA11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44667</v>
       </c>
-      <c r="NB11" s="141">
+      <c r="NB11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44668</v>
       </c>
-      <c r="NC11" s="141">
+      <c r="NC11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44669</v>
       </c>
-      <c r="ND11" s="141">
+      <c r="ND11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44670</v>
       </c>
-      <c r="NE11" s="141">
+      <c r="NE11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44671</v>
       </c>
-      <c r="NF11" s="141">
+      <c r="NF11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44672</v>
       </c>
-      <c r="NG11" s="141">
+      <c r="NG11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44673</v>
       </c>
-      <c r="NH11" s="141">
+      <c r="NH11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44674</v>
       </c>
-      <c r="NI11" s="141">
+      <c r="NI11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44675</v>
       </c>
-      <c r="NJ11" s="141">
+      <c r="NJ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44676</v>
       </c>
-      <c r="NK11" s="141">
+      <c r="NK11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44677</v>
       </c>
-      <c r="NL11" s="141">
+      <c r="NL11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44678</v>
       </c>
-      <c r="NM11" s="141">
+      <c r="NM11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44679</v>
       </c>
-      <c r="NN11" s="141">
+      <c r="NN11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44680</v>
       </c>
-      <c r="NO11" s="141">
+      <c r="NO11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44681</v>
       </c>
-      <c r="NP11" s="141">
+      <c r="NP11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44682</v>
       </c>
-      <c r="NQ11" s="141">
+      <c r="NQ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44683</v>
       </c>
-      <c r="NR11" s="141">
+      <c r="NR11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44684</v>
       </c>
-      <c r="NS11" s="141">
+      <c r="NS11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44685</v>
       </c>
-      <c r="NT11" s="141">
+      <c r="NT11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44686</v>
       </c>
-      <c r="NU11" s="141">
+      <c r="NU11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44687</v>
       </c>
-      <c r="NV11" s="141">
+      <c r="NV11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44688</v>
       </c>
-      <c r="NW11" s="141">
+      <c r="NW11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44689</v>
       </c>
-      <c r="NX11" s="141">
+      <c r="NX11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44690</v>
       </c>
-      <c r="NY11" s="141">
+      <c r="NY11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44691</v>
       </c>
-      <c r="NZ11" s="141">
+      <c r="NZ11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44692</v>
       </c>
-      <c r="OA11" s="141">
+      <c r="OA11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44693</v>
       </c>
-      <c r="OB11" s="141">
+      <c r="OB11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44694</v>
       </c>
-      <c r="OC11" s="141">
+      <c r="OC11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44695</v>
       </c>
-      <c r="OD11" s="141">
+      <c r="OD11" s="140">
         <f t="shared" ca="1" si="13"/>
         <v>44696</v>
       </c>
     </row>
     <row r="12" spans="1:394" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="145" t="s">
+      <c r="K12" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="146" t="s">
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="146"/>
+      <c r="V12" s="160"/>
       <c r="W12" s="62">
         <v>0</v>
       </c>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="141"/>
-      <c r="AJ12" s="141"/>
-      <c r="AK12" s="141"/>
-      <c r="AL12" s="141"/>
-      <c r="AM12" s="141"/>
-      <c r="AN12" s="141"/>
-      <c r="AO12" s="141"/>
-      <c r="AP12" s="141"/>
-      <c r="AQ12" s="141"/>
-      <c r="AR12" s="141"/>
-      <c r="AS12" s="141"/>
-      <c r="AT12" s="141"/>
-      <c r="AU12" s="141"/>
-      <c r="AV12" s="141"/>
-      <c r="AW12" s="141"/>
-      <c r="AX12" s="141"/>
-      <c r="AY12" s="141"/>
-      <c r="AZ12" s="141"/>
-      <c r="BA12" s="141"/>
-      <c r="BB12" s="141"/>
-      <c r="BC12" s="141"/>
-      <c r="BD12" s="141"/>
-      <c r="BE12" s="141"/>
-      <c r="BF12" s="141"/>
-      <c r="BG12" s="141"/>
-      <c r="BH12" s="141"/>
-      <c r="BI12" s="141"/>
-      <c r="BJ12" s="141"/>
-      <c r="BK12" s="141"/>
-      <c r="BL12" s="141"/>
-      <c r="BM12" s="141"/>
-      <c r="BN12" s="141"/>
-      <c r="BO12" s="141"/>
-      <c r="BP12" s="141"/>
-      <c r="BQ12" s="141"/>
-      <c r="BR12" s="141"/>
-      <c r="BS12" s="141"/>
-      <c r="BT12" s="141"/>
-      <c r="BU12" s="141"/>
-      <c r="BV12" s="141"/>
-      <c r="BW12" s="141"/>
-      <c r="BX12" s="141"/>
-      <c r="BY12" s="141"/>
-      <c r="BZ12" s="141"/>
-      <c r="CA12" s="141"/>
-      <c r="CB12" s="141"/>
-      <c r="CC12" s="141"/>
-      <c r="CD12" s="141"/>
-      <c r="CE12" s="141"/>
-      <c r="CF12" s="141"/>
-      <c r="CG12" s="141"/>
-      <c r="CH12" s="141"/>
-      <c r="CI12" s="141"/>
-      <c r="CJ12" s="141"/>
-      <c r="CK12" s="141"/>
-      <c r="CL12" s="141"/>
-      <c r="CM12" s="141"/>
-      <c r="CN12" s="141"/>
-      <c r="CO12" s="141"/>
-      <c r="CP12" s="141"/>
-      <c r="CQ12" s="141"/>
-      <c r="CR12" s="141"/>
-      <c r="CS12" s="141"/>
-      <c r="CT12" s="141"/>
-      <c r="CU12" s="141"/>
-      <c r="CV12" s="141"/>
-      <c r="CW12" s="141"/>
-      <c r="CX12" s="141"/>
-      <c r="CY12" s="141"/>
-      <c r="CZ12" s="141"/>
-      <c r="DA12" s="141"/>
-      <c r="DB12" s="141"/>
-      <c r="DC12" s="141"/>
-      <c r="DD12" s="141"/>
-      <c r="DE12" s="141"/>
-      <c r="DF12" s="141"/>
-      <c r="DG12" s="141"/>
-      <c r="DH12" s="141"/>
-      <c r="DI12" s="141"/>
-      <c r="DJ12" s="141"/>
-      <c r="DK12" s="141"/>
-      <c r="DL12" s="141"/>
-      <c r="DM12" s="141"/>
-      <c r="DN12" s="141"/>
-      <c r="DO12" s="141"/>
-      <c r="DP12" s="141"/>
-      <c r="DQ12" s="141"/>
-      <c r="DR12" s="141"/>
-      <c r="DS12" s="141"/>
-      <c r="DT12" s="141"/>
-      <c r="DU12" s="141"/>
-      <c r="DV12" s="141"/>
-      <c r="DW12" s="141"/>
-      <c r="DX12" s="141"/>
-      <c r="DY12" s="141"/>
-      <c r="DZ12" s="141"/>
-      <c r="EA12" s="141"/>
-      <c r="EB12" s="141"/>
-      <c r="EC12" s="141"/>
-      <c r="ED12" s="141"/>
-      <c r="EE12" s="141"/>
-      <c r="EF12" s="141"/>
-      <c r="EG12" s="141"/>
-      <c r="EH12" s="141"/>
-      <c r="EI12" s="141"/>
-      <c r="EJ12" s="141"/>
-      <c r="EK12" s="141"/>
-      <c r="EL12" s="141"/>
-      <c r="EM12" s="141"/>
-      <c r="EN12" s="141"/>
-      <c r="EO12" s="141"/>
-      <c r="EP12" s="141"/>
-      <c r="EQ12" s="141"/>
-      <c r="ER12" s="141"/>
-      <c r="ES12" s="141"/>
-      <c r="ET12" s="141"/>
-      <c r="EU12" s="141"/>
-      <c r="EV12" s="141"/>
-      <c r="EW12" s="141"/>
-      <c r="EX12" s="141"/>
-      <c r="EY12" s="141"/>
-      <c r="EZ12" s="141"/>
-      <c r="FA12" s="141"/>
-      <c r="FB12" s="141"/>
-      <c r="FC12" s="141"/>
-      <c r="FD12" s="141"/>
-      <c r="FE12" s="141"/>
-      <c r="FF12" s="141"/>
-      <c r="FG12" s="141"/>
-      <c r="FH12" s="141"/>
-      <c r="FI12" s="141"/>
-      <c r="FJ12" s="141"/>
-      <c r="FK12" s="141"/>
-      <c r="FL12" s="141"/>
-      <c r="FM12" s="141"/>
-      <c r="FN12" s="141"/>
-      <c r="FO12" s="141"/>
-      <c r="FP12" s="141"/>
-      <c r="FQ12" s="141"/>
-      <c r="FR12" s="141"/>
-      <c r="FS12" s="141"/>
-      <c r="FT12" s="141"/>
-      <c r="FU12" s="141"/>
-      <c r="FV12" s="141"/>
-      <c r="FW12" s="141"/>
-      <c r="FX12" s="141"/>
-      <c r="FY12" s="141"/>
-      <c r="FZ12" s="141"/>
-      <c r="GA12" s="141"/>
-      <c r="GB12" s="141"/>
-      <c r="GC12" s="141"/>
-      <c r="GD12" s="141"/>
-      <c r="GE12" s="141"/>
-      <c r="GF12" s="141"/>
-      <c r="GG12" s="141"/>
-      <c r="GH12" s="141"/>
-      <c r="GI12" s="141"/>
-      <c r="GJ12" s="141"/>
-      <c r="GK12" s="141"/>
-      <c r="GL12" s="141"/>
-      <c r="GM12" s="141"/>
-      <c r="GN12" s="141"/>
-      <c r="GO12" s="141"/>
-      <c r="GP12" s="141"/>
-      <c r="GQ12" s="141"/>
-      <c r="GR12" s="141"/>
-      <c r="GS12" s="141"/>
-      <c r="GT12" s="141"/>
-      <c r="GU12" s="141"/>
-      <c r="GV12" s="141"/>
-      <c r="GW12" s="141"/>
-      <c r="GX12" s="141"/>
-      <c r="GY12" s="141"/>
-      <c r="GZ12" s="141"/>
-      <c r="HA12" s="141"/>
-      <c r="HB12" s="141"/>
-      <c r="HC12" s="141"/>
-      <c r="HD12" s="141"/>
-      <c r="HE12" s="141"/>
-      <c r="HF12" s="141"/>
-      <c r="HG12" s="141"/>
-      <c r="HH12" s="141"/>
-      <c r="HI12" s="141"/>
-      <c r="HJ12" s="141"/>
-      <c r="HK12" s="141"/>
-      <c r="HL12" s="141"/>
-      <c r="HM12" s="141"/>
-      <c r="HN12" s="141"/>
-      <c r="HO12" s="141"/>
-      <c r="HP12" s="141"/>
-      <c r="HQ12" s="141"/>
-      <c r="HR12" s="141"/>
-      <c r="HS12" s="141"/>
-      <c r="HT12" s="141"/>
-      <c r="HU12" s="141"/>
-      <c r="HV12" s="141"/>
-      <c r="HW12" s="141"/>
-      <c r="HX12" s="141"/>
-      <c r="HY12" s="141"/>
-      <c r="HZ12" s="141"/>
-      <c r="IA12" s="141"/>
-      <c r="IB12" s="141"/>
-      <c r="IC12" s="141"/>
-      <c r="ID12" s="141"/>
-      <c r="IE12" s="141"/>
-      <c r="IF12" s="141"/>
-      <c r="IG12" s="141"/>
-      <c r="IH12" s="141"/>
-      <c r="II12" s="141"/>
-      <c r="IJ12" s="141"/>
-      <c r="IK12" s="141"/>
-      <c r="IL12" s="141"/>
-      <c r="IM12" s="141"/>
-      <c r="IN12" s="141"/>
-      <c r="IO12" s="141"/>
-      <c r="IP12" s="141"/>
-      <c r="IQ12" s="141"/>
-      <c r="IR12" s="141"/>
-      <c r="IS12" s="141"/>
-      <c r="IT12" s="141"/>
-      <c r="IU12" s="141"/>
-      <c r="IV12" s="141"/>
-      <c r="IW12" s="141"/>
-      <c r="IX12" s="141"/>
-      <c r="IY12" s="141"/>
-      <c r="IZ12" s="141"/>
-      <c r="JA12" s="141"/>
-      <c r="JB12" s="141"/>
-      <c r="JC12" s="141"/>
-      <c r="JD12" s="141"/>
-      <c r="JE12" s="141"/>
-      <c r="JF12" s="141"/>
-      <c r="JG12" s="141"/>
-      <c r="JH12" s="141"/>
-      <c r="JI12" s="141"/>
-      <c r="JJ12" s="141"/>
-      <c r="JK12" s="141"/>
-      <c r="JL12" s="141"/>
-      <c r="JM12" s="141"/>
-      <c r="JN12" s="141"/>
-      <c r="JO12" s="141"/>
-      <c r="JP12" s="141"/>
-      <c r="JQ12" s="141"/>
-      <c r="JR12" s="141"/>
-      <c r="JS12" s="141"/>
-      <c r="JT12" s="141"/>
-      <c r="JU12" s="141"/>
-      <c r="JV12" s="141"/>
-      <c r="JW12" s="141"/>
-      <c r="JX12" s="141"/>
-      <c r="JY12" s="141"/>
-      <c r="JZ12" s="141"/>
-      <c r="KA12" s="141"/>
-      <c r="KB12" s="141"/>
-      <c r="KC12" s="141"/>
-      <c r="KD12" s="141"/>
-      <c r="KE12" s="141"/>
-      <c r="KF12" s="141"/>
-      <c r="KG12" s="141"/>
-      <c r="KH12" s="141"/>
-      <c r="KI12" s="141"/>
-      <c r="KJ12" s="141"/>
-      <c r="KK12" s="141"/>
-      <c r="KL12" s="141"/>
-      <c r="KM12" s="141"/>
-      <c r="KN12" s="141"/>
-      <c r="KO12" s="141"/>
-      <c r="KP12" s="141"/>
-      <c r="KQ12" s="141"/>
-      <c r="KR12" s="141"/>
-      <c r="KS12" s="141"/>
-      <c r="KT12" s="141"/>
-      <c r="KU12" s="141"/>
-      <c r="KV12" s="141"/>
-      <c r="KW12" s="141"/>
-      <c r="KX12" s="141"/>
-      <c r="KY12" s="141"/>
-      <c r="KZ12" s="141"/>
-      <c r="LA12" s="141"/>
-      <c r="LB12" s="141"/>
-      <c r="LC12" s="141"/>
-      <c r="LD12" s="141"/>
-      <c r="LE12" s="141"/>
-      <c r="LF12" s="141"/>
-      <c r="LG12" s="141"/>
-      <c r="LH12" s="141"/>
-      <c r="LI12" s="141"/>
-      <c r="LJ12" s="141"/>
-      <c r="LK12" s="141"/>
-      <c r="LL12" s="141"/>
-      <c r="LM12" s="141"/>
-      <c r="LN12" s="141"/>
-      <c r="LO12" s="141"/>
-      <c r="LP12" s="141"/>
-      <c r="LQ12" s="141"/>
-      <c r="LR12" s="141"/>
-      <c r="LS12" s="141"/>
-      <c r="LT12" s="141"/>
-      <c r="LU12" s="141"/>
-      <c r="LV12" s="141"/>
-      <c r="LW12" s="141"/>
-      <c r="LX12" s="141"/>
-      <c r="LY12" s="141"/>
-      <c r="LZ12" s="141"/>
-      <c r="MA12" s="141"/>
-      <c r="MB12" s="141"/>
-      <c r="MC12" s="141"/>
-      <c r="MD12" s="141"/>
-      <c r="ME12" s="141"/>
-      <c r="MF12" s="141"/>
-      <c r="MG12" s="141"/>
-      <c r="MH12" s="141"/>
-      <c r="MI12" s="141"/>
-      <c r="MJ12" s="141"/>
-      <c r="MK12" s="141"/>
-      <c r="ML12" s="141"/>
-      <c r="MM12" s="141"/>
-      <c r="MN12" s="141"/>
-      <c r="MO12" s="141"/>
-      <c r="MP12" s="141"/>
-      <c r="MQ12" s="141"/>
-      <c r="MR12" s="141"/>
-      <c r="MS12" s="141"/>
-      <c r="MT12" s="141"/>
-      <c r="MU12" s="141"/>
-      <c r="MV12" s="141"/>
-      <c r="MW12" s="141"/>
-      <c r="MX12" s="141"/>
-      <c r="MY12" s="141"/>
-      <c r="MZ12" s="141"/>
-      <c r="NA12" s="141"/>
-      <c r="NB12" s="141"/>
-      <c r="NC12" s="141"/>
-      <c r="ND12" s="141"/>
-      <c r="NE12" s="141"/>
-      <c r="NF12" s="141"/>
-      <c r="NG12" s="141"/>
-      <c r="NH12" s="141"/>
-      <c r="NI12" s="141"/>
-      <c r="NJ12" s="141"/>
-      <c r="NK12" s="141"/>
-      <c r="NL12" s="141"/>
-      <c r="NM12" s="141"/>
-      <c r="NN12" s="141"/>
-      <c r="NO12" s="141"/>
-      <c r="NP12" s="141"/>
-      <c r="NQ12" s="141"/>
-      <c r="NR12" s="141"/>
-      <c r="NS12" s="141"/>
-      <c r="NT12" s="141"/>
-      <c r="NU12" s="141"/>
-      <c r="NV12" s="141"/>
-      <c r="NW12" s="141"/>
-      <c r="NX12" s="141"/>
-      <c r="NY12" s="141"/>
-      <c r="NZ12" s="141"/>
-      <c r="OA12" s="141"/>
-      <c r="OB12" s="141"/>
-      <c r="OC12" s="141"/>
-      <c r="OD12" s="141"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="140"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="140"/>
+      <c r="AJ12" s="140"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
+      <c r="AV12" s="140"/>
+      <c r="AW12" s="140"/>
+      <c r="AX12" s="140"/>
+      <c r="AY12" s="140"/>
+      <c r="AZ12" s="140"/>
+      <c r="BA12" s="140"/>
+      <c r="BB12" s="140"/>
+      <c r="BC12" s="140"/>
+      <c r="BD12" s="140"/>
+      <c r="BE12" s="140"/>
+      <c r="BF12" s="140"/>
+      <c r="BG12" s="140"/>
+      <c r="BH12" s="140"/>
+      <c r="BI12" s="140"/>
+      <c r="BJ12" s="140"/>
+      <c r="BK12" s="140"/>
+      <c r="BL12" s="140"/>
+      <c r="BM12" s="140"/>
+      <c r="BN12" s="140"/>
+      <c r="BO12" s="140"/>
+      <c r="BP12" s="140"/>
+      <c r="BQ12" s="140"/>
+      <c r="BR12" s="140"/>
+      <c r="BS12" s="140"/>
+      <c r="BT12" s="140"/>
+      <c r="BU12" s="140"/>
+      <c r="BV12" s="140"/>
+      <c r="BW12" s="140"/>
+      <c r="BX12" s="140"/>
+      <c r="BY12" s="140"/>
+      <c r="BZ12" s="140"/>
+      <c r="CA12" s="140"/>
+      <c r="CB12" s="140"/>
+      <c r="CC12" s="140"/>
+      <c r="CD12" s="140"/>
+      <c r="CE12" s="140"/>
+      <c r="CF12" s="140"/>
+      <c r="CG12" s="140"/>
+      <c r="CH12" s="140"/>
+      <c r="CI12" s="140"/>
+      <c r="CJ12" s="140"/>
+      <c r="CK12" s="140"/>
+      <c r="CL12" s="140"/>
+      <c r="CM12" s="140"/>
+      <c r="CN12" s="140"/>
+      <c r="CO12" s="140"/>
+      <c r="CP12" s="140"/>
+      <c r="CQ12" s="140"/>
+      <c r="CR12" s="140"/>
+      <c r="CS12" s="140"/>
+      <c r="CT12" s="140"/>
+      <c r="CU12" s="140"/>
+      <c r="CV12" s="140"/>
+      <c r="CW12" s="140"/>
+      <c r="CX12" s="140"/>
+      <c r="CY12" s="140"/>
+      <c r="CZ12" s="140"/>
+      <c r="DA12" s="140"/>
+      <c r="DB12" s="140"/>
+      <c r="DC12" s="140"/>
+      <c r="DD12" s="140"/>
+      <c r="DE12" s="140"/>
+      <c r="DF12" s="140"/>
+      <c r="DG12" s="140"/>
+      <c r="DH12" s="140"/>
+      <c r="DI12" s="140"/>
+      <c r="DJ12" s="140"/>
+      <c r="DK12" s="140"/>
+      <c r="DL12" s="140"/>
+      <c r="DM12" s="140"/>
+      <c r="DN12" s="140"/>
+      <c r="DO12" s="140"/>
+      <c r="DP12" s="140"/>
+      <c r="DQ12" s="140"/>
+      <c r="DR12" s="140"/>
+      <c r="DS12" s="140"/>
+      <c r="DT12" s="140"/>
+      <c r="DU12" s="140"/>
+      <c r="DV12" s="140"/>
+      <c r="DW12" s="140"/>
+      <c r="DX12" s="140"/>
+      <c r="DY12" s="140"/>
+      <c r="DZ12" s="140"/>
+      <c r="EA12" s="140"/>
+      <c r="EB12" s="140"/>
+      <c r="EC12" s="140"/>
+      <c r="ED12" s="140"/>
+      <c r="EE12" s="140"/>
+      <c r="EF12" s="140"/>
+      <c r="EG12" s="140"/>
+      <c r="EH12" s="140"/>
+      <c r="EI12" s="140"/>
+      <c r="EJ12" s="140"/>
+      <c r="EK12" s="140"/>
+      <c r="EL12" s="140"/>
+      <c r="EM12" s="140"/>
+      <c r="EN12" s="140"/>
+      <c r="EO12" s="140"/>
+      <c r="EP12" s="140"/>
+      <c r="EQ12" s="140"/>
+      <c r="ER12" s="140"/>
+      <c r="ES12" s="140"/>
+      <c r="ET12" s="140"/>
+      <c r="EU12" s="140"/>
+      <c r="EV12" s="140"/>
+      <c r="EW12" s="140"/>
+      <c r="EX12" s="140"/>
+      <c r="EY12" s="140"/>
+      <c r="EZ12" s="140"/>
+      <c r="FA12" s="140"/>
+      <c r="FB12" s="140"/>
+      <c r="FC12" s="140"/>
+      <c r="FD12" s="140"/>
+      <c r="FE12" s="140"/>
+      <c r="FF12" s="140"/>
+      <c r="FG12" s="140"/>
+      <c r="FH12" s="140"/>
+      <c r="FI12" s="140"/>
+      <c r="FJ12" s="140"/>
+      <c r="FK12" s="140"/>
+      <c r="FL12" s="140"/>
+      <c r="FM12" s="140"/>
+      <c r="FN12" s="140"/>
+      <c r="FO12" s="140"/>
+      <c r="FP12" s="140"/>
+      <c r="FQ12" s="140"/>
+      <c r="FR12" s="140"/>
+      <c r="FS12" s="140"/>
+      <c r="FT12" s="140"/>
+      <c r="FU12" s="140"/>
+      <c r="FV12" s="140"/>
+      <c r="FW12" s="140"/>
+      <c r="FX12" s="140"/>
+      <c r="FY12" s="140"/>
+      <c r="FZ12" s="140"/>
+      <c r="GA12" s="140"/>
+      <c r="GB12" s="140"/>
+      <c r="GC12" s="140"/>
+      <c r="GD12" s="140"/>
+      <c r="GE12" s="140"/>
+      <c r="GF12" s="140"/>
+      <c r="GG12" s="140"/>
+      <c r="GH12" s="140"/>
+      <c r="GI12" s="140"/>
+      <c r="GJ12" s="140"/>
+      <c r="GK12" s="140"/>
+      <c r="GL12" s="140"/>
+      <c r="GM12" s="140"/>
+      <c r="GN12" s="140"/>
+      <c r="GO12" s="140"/>
+      <c r="GP12" s="140"/>
+      <c r="GQ12" s="140"/>
+      <c r="GR12" s="140"/>
+      <c r="GS12" s="140"/>
+      <c r="GT12" s="140"/>
+      <c r="GU12" s="140"/>
+      <c r="GV12" s="140"/>
+      <c r="GW12" s="140"/>
+      <c r="GX12" s="140"/>
+      <c r="GY12" s="140"/>
+      <c r="GZ12" s="140"/>
+      <c r="HA12" s="140"/>
+      <c r="HB12" s="140"/>
+      <c r="HC12" s="140"/>
+      <c r="HD12" s="140"/>
+      <c r="HE12" s="140"/>
+      <c r="HF12" s="140"/>
+      <c r="HG12" s="140"/>
+      <c r="HH12" s="140"/>
+      <c r="HI12" s="140"/>
+      <c r="HJ12" s="140"/>
+      <c r="HK12" s="140"/>
+      <c r="HL12" s="140"/>
+      <c r="HM12" s="140"/>
+      <c r="HN12" s="140"/>
+      <c r="HO12" s="140"/>
+      <c r="HP12" s="140"/>
+      <c r="HQ12" s="140"/>
+      <c r="HR12" s="140"/>
+      <c r="HS12" s="140"/>
+      <c r="HT12" s="140"/>
+      <c r="HU12" s="140"/>
+      <c r="HV12" s="140"/>
+      <c r="HW12" s="140"/>
+      <c r="HX12" s="140"/>
+      <c r="HY12" s="140"/>
+      <c r="HZ12" s="140"/>
+      <c r="IA12" s="140"/>
+      <c r="IB12" s="140"/>
+      <c r="IC12" s="140"/>
+      <c r="ID12" s="140"/>
+      <c r="IE12" s="140"/>
+      <c r="IF12" s="140"/>
+      <c r="IG12" s="140"/>
+      <c r="IH12" s="140"/>
+      <c r="II12" s="140"/>
+      <c r="IJ12" s="140"/>
+      <c r="IK12" s="140"/>
+      <c r="IL12" s="140"/>
+      <c r="IM12" s="140"/>
+      <c r="IN12" s="140"/>
+      <c r="IO12" s="140"/>
+      <c r="IP12" s="140"/>
+      <c r="IQ12" s="140"/>
+      <c r="IR12" s="140"/>
+      <c r="IS12" s="140"/>
+      <c r="IT12" s="140"/>
+      <c r="IU12" s="140"/>
+      <c r="IV12" s="140"/>
+      <c r="IW12" s="140"/>
+      <c r="IX12" s="140"/>
+      <c r="IY12" s="140"/>
+      <c r="IZ12" s="140"/>
+      <c r="JA12" s="140"/>
+      <c r="JB12" s="140"/>
+      <c r="JC12" s="140"/>
+      <c r="JD12" s="140"/>
+      <c r="JE12" s="140"/>
+      <c r="JF12" s="140"/>
+      <c r="JG12" s="140"/>
+      <c r="JH12" s="140"/>
+      <c r="JI12" s="140"/>
+      <c r="JJ12" s="140"/>
+      <c r="JK12" s="140"/>
+      <c r="JL12" s="140"/>
+      <c r="JM12" s="140"/>
+      <c r="JN12" s="140"/>
+      <c r="JO12" s="140"/>
+      <c r="JP12" s="140"/>
+      <c r="JQ12" s="140"/>
+      <c r="JR12" s="140"/>
+      <c r="JS12" s="140"/>
+      <c r="JT12" s="140"/>
+      <c r="JU12" s="140"/>
+      <c r="JV12" s="140"/>
+      <c r="JW12" s="140"/>
+      <c r="JX12" s="140"/>
+      <c r="JY12" s="140"/>
+      <c r="JZ12" s="140"/>
+      <c r="KA12" s="140"/>
+      <c r="KB12" s="140"/>
+      <c r="KC12" s="140"/>
+      <c r="KD12" s="140"/>
+      <c r="KE12" s="140"/>
+      <c r="KF12" s="140"/>
+      <c r="KG12" s="140"/>
+      <c r="KH12" s="140"/>
+      <c r="KI12" s="140"/>
+      <c r="KJ12" s="140"/>
+      <c r="KK12" s="140"/>
+      <c r="KL12" s="140"/>
+      <c r="KM12" s="140"/>
+      <c r="KN12" s="140"/>
+      <c r="KO12" s="140"/>
+      <c r="KP12" s="140"/>
+      <c r="KQ12" s="140"/>
+      <c r="KR12" s="140"/>
+      <c r="KS12" s="140"/>
+      <c r="KT12" s="140"/>
+      <c r="KU12" s="140"/>
+      <c r="KV12" s="140"/>
+      <c r="KW12" s="140"/>
+      <c r="KX12" s="140"/>
+      <c r="KY12" s="140"/>
+      <c r="KZ12" s="140"/>
+      <c r="LA12" s="140"/>
+      <c r="LB12" s="140"/>
+      <c r="LC12" s="140"/>
+      <c r="LD12" s="140"/>
+      <c r="LE12" s="140"/>
+      <c r="LF12" s="140"/>
+      <c r="LG12" s="140"/>
+      <c r="LH12" s="140"/>
+      <c r="LI12" s="140"/>
+      <c r="LJ12" s="140"/>
+      <c r="LK12" s="140"/>
+      <c r="LL12" s="140"/>
+      <c r="LM12" s="140"/>
+      <c r="LN12" s="140"/>
+      <c r="LO12" s="140"/>
+      <c r="LP12" s="140"/>
+      <c r="LQ12" s="140"/>
+      <c r="LR12" s="140"/>
+      <c r="LS12" s="140"/>
+      <c r="LT12" s="140"/>
+      <c r="LU12" s="140"/>
+      <c r="LV12" s="140"/>
+      <c r="LW12" s="140"/>
+      <c r="LX12" s="140"/>
+      <c r="LY12" s="140"/>
+      <c r="LZ12" s="140"/>
+      <c r="MA12" s="140"/>
+      <c r="MB12" s="140"/>
+      <c r="MC12" s="140"/>
+      <c r="MD12" s="140"/>
+      <c r="ME12" s="140"/>
+      <c r="MF12" s="140"/>
+      <c r="MG12" s="140"/>
+      <c r="MH12" s="140"/>
+      <c r="MI12" s="140"/>
+      <c r="MJ12" s="140"/>
+      <c r="MK12" s="140"/>
+      <c r="ML12" s="140"/>
+      <c r="MM12" s="140"/>
+      <c r="MN12" s="140"/>
+      <c r="MO12" s="140"/>
+      <c r="MP12" s="140"/>
+      <c r="MQ12" s="140"/>
+      <c r="MR12" s="140"/>
+      <c r="MS12" s="140"/>
+      <c r="MT12" s="140"/>
+      <c r="MU12" s="140"/>
+      <c r="MV12" s="140"/>
+      <c r="MW12" s="140"/>
+      <c r="MX12" s="140"/>
+      <c r="MY12" s="140"/>
+      <c r="MZ12" s="140"/>
+      <c r="NA12" s="140"/>
+      <c r="NB12" s="140"/>
+      <c r="NC12" s="140"/>
+      <c r="ND12" s="140"/>
+      <c r="NE12" s="140"/>
+      <c r="NF12" s="140"/>
+      <c r="NG12" s="140"/>
+      <c r="NH12" s="140"/>
+      <c r="NI12" s="140"/>
+      <c r="NJ12" s="140"/>
+      <c r="NK12" s="140"/>
+      <c r="NL12" s="140"/>
+      <c r="NM12" s="140"/>
+      <c r="NN12" s="140"/>
+      <c r="NO12" s="140"/>
+      <c r="NP12" s="140"/>
+      <c r="NQ12" s="140"/>
+      <c r="NR12" s="140"/>
+      <c r="NS12" s="140"/>
+      <c r="NT12" s="140"/>
+      <c r="NU12" s="140"/>
+      <c r="NV12" s="140"/>
+      <c r="NW12" s="140"/>
+      <c r="NX12" s="140"/>
+      <c r="NY12" s="140"/>
+      <c r="NZ12" s="140"/>
+      <c r="OA12" s="140"/>
+      <c r="OB12" s="140"/>
+      <c r="OC12" s="140"/>
+      <c r="OD12" s="140"/>
     </row>
     <row r="13" spans="1:394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142" t="s">
+      <c r="B13" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="148">
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="162">
         <v>44319</v>
       </c>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="147">
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="161">
         <v>44319</v>
       </c>
-      <c r="V13" s="147"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="141"/>
-      <c r="AK13" s="141"/>
-      <c r="AL13" s="141"/>
-      <c r="AM13" s="141"/>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="141"/>
-      <c r="AP13" s="141"/>
-      <c r="AQ13" s="141"/>
-      <c r="AR13" s="141"/>
-      <c r="AS13" s="141"/>
-      <c r="AT13" s="141"/>
-      <c r="AU13" s="141"/>
-      <c r="AV13" s="141"/>
-      <c r="AW13" s="141"/>
-      <c r="AX13" s="141"/>
-      <c r="AY13" s="141"/>
-      <c r="AZ13" s="141"/>
-      <c r="BA13" s="141"/>
-      <c r="BB13" s="141"/>
-      <c r="BC13" s="141"/>
-      <c r="BD13" s="141"/>
-      <c r="BE13" s="141"/>
-      <c r="BF13" s="141"/>
-      <c r="BG13" s="141"/>
-      <c r="BH13" s="141"/>
-      <c r="BI13" s="141"/>
-      <c r="BJ13" s="141"/>
-      <c r="BK13" s="141"/>
-      <c r="BL13" s="141"/>
-      <c r="BM13" s="141"/>
-      <c r="BN13" s="141"/>
-      <c r="BO13" s="141"/>
-      <c r="BP13" s="141"/>
-      <c r="BQ13" s="141"/>
-      <c r="BR13" s="141"/>
-      <c r="BS13" s="141"/>
-      <c r="BT13" s="141"/>
-      <c r="BU13" s="141"/>
-      <c r="BV13" s="141"/>
-      <c r="BW13" s="141"/>
-      <c r="BX13" s="141"/>
-      <c r="BY13" s="141"/>
-      <c r="BZ13" s="141"/>
-      <c r="CA13" s="141"/>
-      <c r="CB13" s="141"/>
-      <c r="CC13" s="141"/>
-      <c r="CD13" s="141"/>
-      <c r="CE13" s="141"/>
-      <c r="CF13" s="141"/>
-      <c r="CG13" s="141"/>
-      <c r="CH13" s="141"/>
-      <c r="CI13" s="141"/>
-      <c r="CJ13" s="141"/>
-      <c r="CK13" s="141"/>
-      <c r="CL13" s="141"/>
-      <c r="CM13" s="141"/>
-      <c r="CN13" s="141"/>
-      <c r="CO13" s="141"/>
-      <c r="CP13" s="141"/>
-      <c r="CQ13" s="141"/>
-      <c r="CR13" s="141"/>
-      <c r="CS13" s="141"/>
-      <c r="CT13" s="141"/>
-      <c r="CU13" s="141"/>
-      <c r="CV13" s="141"/>
-      <c r="CW13" s="141"/>
-      <c r="CX13" s="141"/>
-      <c r="CY13" s="141"/>
-      <c r="CZ13" s="141"/>
-      <c r="DA13" s="141"/>
-      <c r="DB13" s="141"/>
-      <c r="DC13" s="141"/>
-      <c r="DD13" s="141"/>
-      <c r="DE13" s="141"/>
-      <c r="DF13" s="141"/>
-      <c r="DG13" s="141"/>
-      <c r="DH13" s="141"/>
-      <c r="DI13" s="141"/>
-      <c r="DJ13" s="141"/>
-      <c r="DK13" s="141"/>
-      <c r="DL13" s="141"/>
-      <c r="DM13" s="141"/>
-      <c r="DN13" s="141"/>
-      <c r="DO13" s="141"/>
-      <c r="DP13" s="141"/>
-      <c r="DQ13" s="141"/>
-      <c r="DR13" s="141"/>
-      <c r="DS13" s="141"/>
-      <c r="DT13" s="141"/>
-      <c r="DU13" s="141"/>
-      <c r="DV13" s="141"/>
-      <c r="DW13" s="141"/>
-      <c r="DX13" s="141"/>
-      <c r="DY13" s="141"/>
-      <c r="DZ13" s="141"/>
-      <c r="EA13" s="141"/>
-      <c r="EB13" s="141"/>
-      <c r="EC13" s="141"/>
-      <c r="ED13" s="141"/>
-      <c r="EE13" s="141"/>
-      <c r="EF13" s="141"/>
-      <c r="EG13" s="141"/>
-      <c r="EH13" s="141"/>
-      <c r="EI13" s="141"/>
-      <c r="EJ13" s="141"/>
-      <c r="EK13" s="141"/>
-      <c r="EL13" s="141"/>
-      <c r="EM13" s="141"/>
-      <c r="EN13" s="141"/>
-      <c r="EO13" s="141"/>
-      <c r="EP13" s="141"/>
-      <c r="EQ13" s="141"/>
-      <c r="ER13" s="141"/>
-      <c r="ES13" s="141"/>
-      <c r="ET13" s="141"/>
-      <c r="EU13" s="141"/>
-      <c r="EV13" s="141"/>
-      <c r="EW13" s="141"/>
-      <c r="EX13" s="141"/>
-      <c r="EY13" s="141"/>
-      <c r="EZ13" s="141"/>
-      <c r="FA13" s="141"/>
-      <c r="FB13" s="141"/>
-      <c r="FC13" s="141"/>
-      <c r="FD13" s="141"/>
-      <c r="FE13" s="141"/>
-      <c r="FF13" s="141"/>
-      <c r="FG13" s="141"/>
-      <c r="FH13" s="141"/>
-      <c r="FI13" s="141"/>
-      <c r="FJ13" s="141"/>
-      <c r="FK13" s="141"/>
-      <c r="FL13" s="141"/>
-      <c r="FM13" s="141"/>
-      <c r="FN13" s="141"/>
-      <c r="FO13" s="141"/>
-      <c r="FP13" s="141"/>
-      <c r="FQ13" s="141"/>
-      <c r="FR13" s="141"/>
-      <c r="FS13" s="141"/>
-      <c r="FT13" s="141"/>
-      <c r="FU13" s="141"/>
-      <c r="FV13" s="141"/>
-      <c r="FW13" s="141"/>
-      <c r="FX13" s="141"/>
-      <c r="FY13" s="141"/>
-      <c r="FZ13" s="141"/>
-      <c r="GA13" s="141"/>
-      <c r="GB13" s="141"/>
-      <c r="GC13" s="141"/>
-      <c r="GD13" s="141"/>
-      <c r="GE13" s="141"/>
-      <c r="GF13" s="141"/>
-      <c r="GG13" s="141"/>
-      <c r="GH13" s="141"/>
-      <c r="GI13" s="141"/>
-      <c r="GJ13" s="141"/>
-      <c r="GK13" s="141"/>
-      <c r="GL13" s="141"/>
-      <c r="GM13" s="141"/>
-      <c r="GN13" s="141"/>
-      <c r="GO13" s="141"/>
-      <c r="GP13" s="141"/>
-      <c r="GQ13" s="141"/>
-      <c r="GR13" s="141"/>
-      <c r="GS13" s="141"/>
-      <c r="GT13" s="141"/>
-      <c r="GU13" s="141"/>
-      <c r="GV13" s="141"/>
-      <c r="GW13" s="141"/>
-      <c r="GX13" s="141"/>
-      <c r="GY13" s="141"/>
-      <c r="GZ13" s="141"/>
-      <c r="HA13" s="141"/>
-      <c r="HB13" s="141"/>
-      <c r="HC13" s="141"/>
-      <c r="HD13" s="141"/>
-      <c r="HE13" s="141"/>
-      <c r="HF13" s="141"/>
-      <c r="HG13" s="141"/>
-      <c r="HH13" s="141"/>
-      <c r="HI13" s="141"/>
-      <c r="HJ13" s="141"/>
-      <c r="HK13" s="141"/>
-      <c r="HL13" s="141"/>
-      <c r="HM13" s="141"/>
-      <c r="HN13" s="141"/>
-      <c r="HO13" s="141"/>
-      <c r="HP13" s="141"/>
-      <c r="HQ13" s="141"/>
-      <c r="HR13" s="141"/>
-      <c r="HS13" s="141"/>
-      <c r="HT13" s="141"/>
-      <c r="HU13" s="141"/>
-      <c r="HV13" s="141"/>
-      <c r="HW13" s="141"/>
-      <c r="HX13" s="141"/>
-      <c r="HY13" s="141"/>
-      <c r="HZ13" s="141"/>
-      <c r="IA13" s="141"/>
-      <c r="IB13" s="141"/>
-      <c r="IC13" s="141"/>
-      <c r="ID13" s="141"/>
-      <c r="IE13" s="141"/>
-      <c r="IF13" s="141"/>
-      <c r="IG13" s="141"/>
-      <c r="IH13" s="141"/>
-      <c r="II13" s="141"/>
-      <c r="IJ13" s="141"/>
-      <c r="IK13" s="141"/>
-      <c r="IL13" s="141"/>
-      <c r="IM13" s="141"/>
-      <c r="IN13" s="141"/>
-      <c r="IO13" s="141"/>
-      <c r="IP13" s="141"/>
-      <c r="IQ13" s="141"/>
-      <c r="IR13" s="141"/>
-      <c r="IS13" s="141"/>
-      <c r="IT13" s="141"/>
-      <c r="IU13" s="141"/>
-      <c r="IV13" s="141"/>
-      <c r="IW13" s="141"/>
-      <c r="IX13" s="141"/>
-      <c r="IY13" s="141"/>
-      <c r="IZ13" s="141"/>
-      <c r="JA13" s="141"/>
-      <c r="JB13" s="141"/>
-      <c r="JC13" s="141"/>
-      <c r="JD13" s="141"/>
-      <c r="JE13" s="141"/>
-      <c r="JF13" s="141"/>
-      <c r="JG13" s="141"/>
-      <c r="JH13" s="141"/>
-      <c r="JI13" s="141"/>
-      <c r="JJ13" s="141"/>
-      <c r="JK13" s="141"/>
-      <c r="JL13" s="141"/>
-      <c r="JM13" s="141"/>
-      <c r="JN13" s="141"/>
-      <c r="JO13" s="141"/>
-      <c r="JP13" s="141"/>
-      <c r="JQ13" s="141"/>
-      <c r="JR13" s="141"/>
-      <c r="JS13" s="141"/>
-      <c r="JT13" s="141"/>
-      <c r="JU13" s="141"/>
-      <c r="JV13" s="141"/>
-      <c r="JW13" s="141"/>
-      <c r="JX13" s="141"/>
-      <c r="JY13" s="141"/>
-      <c r="JZ13" s="141"/>
-      <c r="KA13" s="141"/>
-      <c r="KB13" s="141"/>
-      <c r="KC13" s="141"/>
-      <c r="KD13" s="141"/>
-      <c r="KE13" s="141"/>
-      <c r="KF13" s="141"/>
-      <c r="KG13" s="141"/>
-      <c r="KH13" s="141"/>
-      <c r="KI13" s="141"/>
-      <c r="KJ13" s="141"/>
-      <c r="KK13" s="141"/>
-      <c r="KL13" s="141"/>
-      <c r="KM13" s="141"/>
-      <c r="KN13" s="141"/>
-      <c r="KO13" s="141"/>
-      <c r="KP13" s="141"/>
-      <c r="KQ13" s="141"/>
-      <c r="KR13" s="141"/>
-      <c r="KS13" s="141"/>
-      <c r="KT13" s="141"/>
-      <c r="KU13" s="141"/>
-      <c r="KV13" s="141"/>
-      <c r="KW13" s="141"/>
-      <c r="KX13" s="141"/>
-      <c r="KY13" s="141"/>
-      <c r="KZ13" s="141"/>
-      <c r="LA13" s="141"/>
-      <c r="LB13" s="141"/>
-      <c r="LC13" s="141"/>
-      <c r="LD13" s="141"/>
-      <c r="LE13" s="141"/>
-      <c r="LF13" s="141"/>
-      <c r="LG13" s="141"/>
-      <c r="LH13" s="141"/>
-      <c r="LI13" s="141"/>
-      <c r="LJ13" s="141"/>
-      <c r="LK13" s="141"/>
-      <c r="LL13" s="141"/>
-      <c r="LM13" s="141"/>
-      <c r="LN13" s="141"/>
-      <c r="LO13" s="141"/>
-      <c r="LP13" s="141"/>
-      <c r="LQ13" s="141"/>
-      <c r="LR13" s="141"/>
-      <c r="LS13" s="141"/>
-      <c r="LT13" s="141"/>
-      <c r="LU13" s="141"/>
-      <c r="LV13" s="141"/>
-      <c r="LW13" s="141"/>
-      <c r="LX13" s="141"/>
-      <c r="LY13" s="141"/>
-      <c r="LZ13" s="141"/>
-      <c r="MA13" s="141"/>
-      <c r="MB13" s="141"/>
-      <c r="MC13" s="141"/>
-      <c r="MD13" s="141"/>
-      <c r="ME13" s="141"/>
-      <c r="MF13" s="141"/>
-      <c r="MG13" s="141"/>
-      <c r="MH13" s="141"/>
-      <c r="MI13" s="141"/>
-      <c r="MJ13" s="141"/>
-      <c r="MK13" s="141"/>
-      <c r="ML13" s="141"/>
-      <c r="MM13" s="141"/>
-      <c r="MN13" s="141"/>
-      <c r="MO13" s="141"/>
-      <c r="MP13" s="141"/>
-      <c r="MQ13" s="141"/>
-      <c r="MR13" s="141"/>
-      <c r="MS13" s="141"/>
-      <c r="MT13" s="141"/>
-      <c r="MU13" s="141"/>
-      <c r="MV13" s="141"/>
-      <c r="MW13" s="141"/>
-      <c r="MX13" s="141"/>
-      <c r="MY13" s="141"/>
-      <c r="MZ13" s="141"/>
-      <c r="NA13" s="141"/>
-      <c r="NB13" s="141"/>
-      <c r="NC13" s="141"/>
-      <c r="ND13" s="141"/>
-      <c r="NE13" s="141"/>
-      <c r="NF13" s="141"/>
-      <c r="NG13" s="141"/>
-      <c r="NH13" s="141"/>
-      <c r="NI13" s="141"/>
-      <c r="NJ13" s="141"/>
-      <c r="NK13" s="141"/>
-      <c r="NL13" s="141"/>
-      <c r="NM13" s="141"/>
-      <c r="NN13" s="141"/>
-      <c r="NO13" s="141"/>
-      <c r="NP13" s="141"/>
-      <c r="NQ13" s="141"/>
-      <c r="NR13" s="141"/>
-      <c r="NS13" s="141"/>
-      <c r="NT13" s="141"/>
-      <c r="NU13" s="141"/>
-      <c r="NV13" s="141"/>
-      <c r="NW13" s="141"/>
-      <c r="NX13" s="141"/>
-      <c r="NY13" s="141"/>
-      <c r="NZ13" s="141"/>
-      <c r="OA13" s="141"/>
-      <c r="OB13" s="141"/>
-      <c r="OC13" s="141"/>
-      <c r="OD13" s="141"/>
+      <c r="V13" s="161"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="140"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="140"/>
+      <c r="AL13" s="140"/>
+      <c r="AM13" s="140"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="140"/>
+      <c r="AP13" s="140"/>
+      <c r="AQ13" s="140"/>
+      <c r="AR13" s="140"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="140"/>
+      <c r="AU13" s="140"/>
+      <c r="AV13" s="140"/>
+      <c r="AW13" s="140"/>
+      <c r="AX13" s="140"/>
+      <c r="AY13" s="140"/>
+      <c r="AZ13" s="140"/>
+      <c r="BA13" s="140"/>
+      <c r="BB13" s="140"/>
+      <c r="BC13" s="140"/>
+      <c r="BD13" s="140"/>
+      <c r="BE13" s="140"/>
+      <c r="BF13" s="140"/>
+      <c r="BG13" s="140"/>
+      <c r="BH13" s="140"/>
+      <c r="BI13" s="140"/>
+      <c r="BJ13" s="140"/>
+      <c r="BK13" s="140"/>
+      <c r="BL13" s="140"/>
+      <c r="BM13" s="140"/>
+      <c r="BN13" s="140"/>
+      <c r="BO13" s="140"/>
+      <c r="BP13" s="140"/>
+      <c r="BQ13" s="140"/>
+      <c r="BR13" s="140"/>
+      <c r="BS13" s="140"/>
+      <c r="BT13" s="140"/>
+      <c r="BU13" s="140"/>
+      <c r="BV13" s="140"/>
+      <c r="BW13" s="140"/>
+      <c r="BX13" s="140"/>
+      <c r="BY13" s="140"/>
+      <c r="BZ13" s="140"/>
+      <c r="CA13" s="140"/>
+      <c r="CB13" s="140"/>
+      <c r="CC13" s="140"/>
+      <c r="CD13" s="140"/>
+      <c r="CE13" s="140"/>
+      <c r="CF13" s="140"/>
+      <c r="CG13" s="140"/>
+      <c r="CH13" s="140"/>
+      <c r="CI13" s="140"/>
+      <c r="CJ13" s="140"/>
+      <c r="CK13" s="140"/>
+      <c r="CL13" s="140"/>
+      <c r="CM13" s="140"/>
+      <c r="CN13" s="140"/>
+      <c r="CO13" s="140"/>
+      <c r="CP13" s="140"/>
+      <c r="CQ13" s="140"/>
+      <c r="CR13" s="140"/>
+      <c r="CS13" s="140"/>
+      <c r="CT13" s="140"/>
+      <c r="CU13" s="140"/>
+      <c r="CV13" s="140"/>
+      <c r="CW13" s="140"/>
+      <c r="CX13" s="140"/>
+      <c r="CY13" s="140"/>
+      <c r="CZ13" s="140"/>
+      <c r="DA13" s="140"/>
+      <c r="DB13" s="140"/>
+      <c r="DC13" s="140"/>
+      <c r="DD13" s="140"/>
+      <c r="DE13" s="140"/>
+      <c r="DF13" s="140"/>
+      <c r="DG13" s="140"/>
+      <c r="DH13" s="140"/>
+      <c r="DI13" s="140"/>
+      <c r="DJ13" s="140"/>
+      <c r="DK13" s="140"/>
+      <c r="DL13" s="140"/>
+      <c r="DM13" s="140"/>
+      <c r="DN13" s="140"/>
+      <c r="DO13" s="140"/>
+      <c r="DP13" s="140"/>
+      <c r="DQ13" s="140"/>
+      <c r="DR13" s="140"/>
+      <c r="DS13" s="140"/>
+      <c r="DT13" s="140"/>
+      <c r="DU13" s="140"/>
+      <c r="DV13" s="140"/>
+      <c r="DW13" s="140"/>
+      <c r="DX13" s="140"/>
+      <c r="DY13" s="140"/>
+      <c r="DZ13" s="140"/>
+      <c r="EA13" s="140"/>
+      <c r="EB13" s="140"/>
+      <c r="EC13" s="140"/>
+      <c r="ED13" s="140"/>
+      <c r="EE13" s="140"/>
+      <c r="EF13" s="140"/>
+      <c r="EG13" s="140"/>
+      <c r="EH13" s="140"/>
+      <c r="EI13" s="140"/>
+      <c r="EJ13" s="140"/>
+      <c r="EK13" s="140"/>
+      <c r="EL13" s="140"/>
+      <c r="EM13" s="140"/>
+      <c r="EN13" s="140"/>
+      <c r="EO13" s="140"/>
+      <c r="EP13" s="140"/>
+      <c r="EQ13" s="140"/>
+      <c r="ER13" s="140"/>
+      <c r="ES13" s="140"/>
+      <c r="ET13" s="140"/>
+      <c r="EU13" s="140"/>
+      <c r="EV13" s="140"/>
+      <c r="EW13" s="140"/>
+      <c r="EX13" s="140"/>
+      <c r="EY13" s="140"/>
+      <c r="EZ13" s="140"/>
+      <c r="FA13" s="140"/>
+      <c r="FB13" s="140"/>
+      <c r="FC13" s="140"/>
+      <c r="FD13" s="140"/>
+      <c r="FE13" s="140"/>
+      <c r="FF13" s="140"/>
+      <c r="FG13" s="140"/>
+      <c r="FH13" s="140"/>
+      <c r="FI13" s="140"/>
+      <c r="FJ13" s="140"/>
+      <c r="FK13" s="140"/>
+      <c r="FL13" s="140"/>
+      <c r="FM13" s="140"/>
+      <c r="FN13" s="140"/>
+      <c r="FO13" s="140"/>
+      <c r="FP13" s="140"/>
+      <c r="FQ13" s="140"/>
+      <c r="FR13" s="140"/>
+      <c r="FS13" s="140"/>
+      <c r="FT13" s="140"/>
+      <c r="FU13" s="140"/>
+      <c r="FV13" s="140"/>
+      <c r="FW13" s="140"/>
+      <c r="FX13" s="140"/>
+      <c r="FY13" s="140"/>
+      <c r="FZ13" s="140"/>
+      <c r="GA13" s="140"/>
+      <c r="GB13" s="140"/>
+      <c r="GC13" s="140"/>
+      <c r="GD13" s="140"/>
+      <c r="GE13" s="140"/>
+      <c r="GF13" s="140"/>
+      <c r="GG13" s="140"/>
+      <c r="GH13" s="140"/>
+      <c r="GI13" s="140"/>
+      <c r="GJ13" s="140"/>
+      <c r="GK13" s="140"/>
+      <c r="GL13" s="140"/>
+      <c r="GM13" s="140"/>
+      <c r="GN13" s="140"/>
+      <c r="GO13" s="140"/>
+      <c r="GP13" s="140"/>
+      <c r="GQ13" s="140"/>
+      <c r="GR13" s="140"/>
+      <c r="GS13" s="140"/>
+      <c r="GT13" s="140"/>
+      <c r="GU13" s="140"/>
+      <c r="GV13" s="140"/>
+      <c r="GW13" s="140"/>
+      <c r="GX13" s="140"/>
+      <c r="GY13" s="140"/>
+      <c r="GZ13" s="140"/>
+      <c r="HA13" s="140"/>
+      <c r="HB13" s="140"/>
+      <c r="HC13" s="140"/>
+      <c r="HD13" s="140"/>
+      <c r="HE13" s="140"/>
+      <c r="HF13" s="140"/>
+      <c r="HG13" s="140"/>
+      <c r="HH13" s="140"/>
+      <c r="HI13" s="140"/>
+      <c r="HJ13" s="140"/>
+      <c r="HK13" s="140"/>
+      <c r="HL13" s="140"/>
+      <c r="HM13" s="140"/>
+      <c r="HN13" s="140"/>
+      <c r="HO13" s="140"/>
+      <c r="HP13" s="140"/>
+      <c r="HQ13" s="140"/>
+      <c r="HR13" s="140"/>
+      <c r="HS13" s="140"/>
+      <c r="HT13" s="140"/>
+      <c r="HU13" s="140"/>
+      <c r="HV13" s="140"/>
+      <c r="HW13" s="140"/>
+      <c r="HX13" s="140"/>
+      <c r="HY13" s="140"/>
+      <c r="HZ13" s="140"/>
+      <c r="IA13" s="140"/>
+      <c r="IB13" s="140"/>
+      <c r="IC13" s="140"/>
+      <c r="ID13" s="140"/>
+      <c r="IE13" s="140"/>
+      <c r="IF13" s="140"/>
+      <c r="IG13" s="140"/>
+      <c r="IH13" s="140"/>
+      <c r="II13" s="140"/>
+      <c r="IJ13" s="140"/>
+      <c r="IK13" s="140"/>
+      <c r="IL13" s="140"/>
+      <c r="IM13" s="140"/>
+      <c r="IN13" s="140"/>
+      <c r="IO13" s="140"/>
+      <c r="IP13" s="140"/>
+      <c r="IQ13" s="140"/>
+      <c r="IR13" s="140"/>
+      <c r="IS13" s="140"/>
+      <c r="IT13" s="140"/>
+      <c r="IU13" s="140"/>
+      <c r="IV13" s="140"/>
+      <c r="IW13" s="140"/>
+      <c r="IX13" s="140"/>
+      <c r="IY13" s="140"/>
+      <c r="IZ13" s="140"/>
+      <c r="JA13" s="140"/>
+      <c r="JB13" s="140"/>
+      <c r="JC13" s="140"/>
+      <c r="JD13" s="140"/>
+      <c r="JE13" s="140"/>
+      <c r="JF13" s="140"/>
+      <c r="JG13" s="140"/>
+      <c r="JH13" s="140"/>
+      <c r="JI13" s="140"/>
+      <c r="JJ13" s="140"/>
+      <c r="JK13" s="140"/>
+      <c r="JL13" s="140"/>
+      <c r="JM13" s="140"/>
+      <c r="JN13" s="140"/>
+      <c r="JO13" s="140"/>
+      <c r="JP13" s="140"/>
+      <c r="JQ13" s="140"/>
+      <c r="JR13" s="140"/>
+      <c r="JS13" s="140"/>
+      <c r="JT13" s="140"/>
+      <c r="JU13" s="140"/>
+      <c r="JV13" s="140"/>
+      <c r="JW13" s="140"/>
+      <c r="JX13" s="140"/>
+      <c r="JY13" s="140"/>
+      <c r="JZ13" s="140"/>
+      <c r="KA13" s="140"/>
+      <c r="KB13" s="140"/>
+      <c r="KC13" s="140"/>
+      <c r="KD13" s="140"/>
+      <c r="KE13" s="140"/>
+      <c r="KF13" s="140"/>
+      <c r="KG13" s="140"/>
+      <c r="KH13" s="140"/>
+      <c r="KI13" s="140"/>
+      <c r="KJ13" s="140"/>
+      <c r="KK13" s="140"/>
+      <c r="KL13" s="140"/>
+      <c r="KM13" s="140"/>
+      <c r="KN13" s="140"/>
+      <c r="KO13" s="140"/>
+      <c r="KP13" s="140"/>
+      <c r="KQ13" s="140"/>
+      <c r="KR13" s="140"/>
+      <c r="KS13" s="140"/>
+      <c r="KT13" s="140"/>
+      <c r="KU13" s="140"/>
+      <c r="KV13" s="140"/>
+      <c r="KW13" s="140"/>
+      <c r="KX13" s="140"/>
+      <c r="KY13" s="140"/>
+      <c r="KZ13" s="140"/>
+      <c r="LA13" s="140"/>
+      <c r="LB13" s="140"/>
+      <c r="LC13" s="140"/>
+      <c r="LD13" s="140"/>
+      <c r="LE13" s="140"/>
+      <c r="LF13" s="140"/>
+      <c r="LG13" s="140"/>
+      <c r="LH13" s="140"/>
+      <c r="LI13" s="140"/>
+      <c r="LJ13" s="140"/>
+      <c r="LK13" s="140"/>
+      <c r="LL13" s="140"/>
+      <c r="LM13" s="140"/>
+      <c r="LN13" s="140"/>
+      <c r="LO13" s="140"/>
+      <c r="LP13" s="140"/>
+      <c r="LQ13" s="140"/>
+      <c r="LR13" s="140"/>
+      <c r="LS13" s="140"/>
+      <c r="LT13" s="140"/>
+      <c r="LU13" s="140"/>
+      <c r="LV13" s="140"/>
+      <c r="LW13" s="140"/>
+      <c r="LX13" s="140"/>
+      <c r="LY13" s="140"/>
+      <c r="LZ13" s="140"/>
+      <c r="MA13" s="140"/>
+      <c r="MB13" s="140"/>
+      <c r="MC13" s="140"/>
+      <c r="MD13" s="140"/>
+      <c r="ME13" s="140"/>
+      <c r="MF13" s="140"/>
+      <c r="MG13" s="140"/>
+      <c r="MH13" s="140"/>
+      <c r="MI13" s="140"/>
+      <c r="MJ13" s="140"/>
+      <c r="MK13" s="140"/>
+      <c r="ML13" s="140"/>
+      <c r="MM13" s="140"/>
+      <c r="MN13" s="140"/>
+      <c r="MO13" s="140"/>
+      <c r="MP13" s="140"/>
+      <c r="MQ13" s="140"/>
+      <c r="MR13" s="140"/>
+      <c r="MS13" s="140"/>
+      <c r="MT13" s="140"/>
+      <c r="MU13" s="140"/>
+      <c r="MV13" s="140"/>
+      <c r="MW13" s="140"/>
+      <c r="MX13" s="140"/>
+      <c r="MY13" s="140"/>
+      <c r="MZ13" s="140"/>
+      <c r="NA13" s="140"/>
+      <c r="NB13" s="140"/>
+      <c r="NC13" s="140"/>
+      <c r="ND13" s="140"/>
+      <c r="NE13" s="140"/>
+      <c r="NF13" s="140"/>
+      <c r="NG13" s="140"/>
+      <c r="NH13" s="140"/>
+      <c r="NI13" s="140"/>
+      <c r="NJ13" s="140"/>
+      <c r="NK13" s="140"/>
+      <c r="NL13" s="140"/>
+      <c r="NM13" s="140"/>
+      <c r="NN13" s="140"/>
+      <c r="NO13" s="140"/>
+      <c r="NP13" s="140"/>
+      <c r="NQ13" s="140"/>
+      <c r="NR13" s="140"/>
+      <c r="NS13" s="140"/>
+      <c r="NT13" s="140"/>
+      <c r="NU13" s="140"/>
+      <c r="NV13" s="140"/>
+      <c r="NW13" s="140"/>
+      <c r="NX13" s="140"/>
+      <c r="NY13" s="140"/>
+      <c r="NZ13" s="140"/>
+      <c r="OA13" s="140"/>
+      <c r="OB13" s="140"/>
+      <c r="OC13" s="140"/>
+      <c r="OD13" s="140"/>
     </row>
     <row r="14" spans="1:394" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
@@ -14486,10 +14510,10 @@
       <c r="M14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="149" t="s">
+      <c r="N14" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="150"/>
+      <c r="O14" s="155"/>
       <c r="P14" s="23" t="s">
         <v>15</v>
       </c>
@@ -56871,6 +56895,378 @@
     </row>
   </sheetData>
   <mergeCells count="396">
+    <mergeCell ref="NU11:NU13"/>
+    <mergeCell ref="NV11:NV13"/>
+    <mergeCell ref="NW11:NW13"/>
+    <mergeCell ref="NX11:NX13"/>
+    <mergeCell ref="NY11:NY13"/>
+    <mergeCell ref="NP11:NP13"/>
+    <mergeCell ref="NQ11:NQ13"/>
+    <mergeCell ref="NR11:NR13"/>
+    <mergeCell ref="NS11:NS13"/>
+    <mergeCell ref="NT11:NT13"/>
+    <mergeCell ref="NK11:NK13"/>
+    <mergeCell ref="NL11:NL13"/>
+    <mergeCell ref="NM11:NM13"/>
+    <mergeCell ref="NN11:NN13"/>
+    <mergeCell ref="NO11:NO13"/>
+    <mergeCell ref="NF11:NF13"/>
+    <mergeCell ref="NG11:NG13"/>
+    <mergeCell ref="NH11:NH13"/>
+    <mergeCell ref="NI11:NI13"/>
+    <mergeCell ref="NJ11:NJ13"/>
+    <mergeCell ref="NA11:NA13"/>
+    <mergeCell ref="NB11:NB13"/>
+    <mergeCell ref="NC11:NC13"/>
+    <mergeCell ref="ND11:ND13"/>
+    <mergeCell ref="NE11:NE13"/>
+    <mergeCell ref="MV11:MV13"/>
+    <mergeCell ref="MW11:MW13"/>
+    <mergeCell ref="MX11:MX13"/>
+    <mergeCell ref="MY11:MY13"/>
+    <mergeCell ref="MZ11:MZ13"/>
+    <mergeCell ref="MQ11:MQ13"/>
+    <mergeCell ref="MR11:MR13"/>
+    <mergeCell ref="MS11:MS13"/>
+    <mergeCell ref="MT11:MT13"/>
+    <mergeCell ref="MU11:MU13"/>
+    <mergeCell ref="ML11:ML13"/>
+    <mergeCell ref="MM11:MM13"/>
+    <mergeCell ref="MN11:MN13"/>
+    <mergeCell ref="MO11:MO13"/>
+    <mergeCell ref="MP11:MP13"/>
+    <mergeCell ref="MG11:MG13"/>
+    <mergeCell ref="MH11:MH13"/>
+    <mergeCell ref="MI11:MI13"/>
+    <mergeCell ref="MJ11:MJ13"/>
+    <mergeCell ref="MK11:MK13"/>
+    <mergeCell ref="MB11:MB13"/>
+    <mergeCell ref="MC11:MC13"/>
+    <mergeCell ref="MD11:MD13"/>
+    <mergeCell ref="ME11:ME13"/>
+    <mergeCell ref="MF11:MF13"/>
+    <mergeCell ref="LW11:LW13"/>
+    <mergeCell ref="LX11:LX13"/>
+    <mergeCell ref="LY11:LY13"/>
+    <mergeCell ref="LZ11:LZ13"/>
+    <mergeCell ref="MA11:MA13"/>
+    <mergeCell ref="LR11:LR13"/>
+    <mergeCell ref="LS11:LS13"/>
+    <mergeCell ref="LT11:LT13"/>
+    <mergeCell ref="LU11:LU13"/>
+    <mergeCell ref="LV11:LV13"/>
+    <mergeCell ref="LM11:LM13"/>
+    <mergeCell ref="LN11:LN13"/>
+    <mergeCell ref="LO11:LO13"/>
+    <mergeCell ref="LP11:LP13"/>
+    <mergeCell ref="LQ11:LQ13"/>
+    <mergeCell ref="LH11:LH13"/>
+    <mergeCell ref="LI11:LI13"/>
+    <mergeCell ref="LJ11:LJ13"/>
+    <mergeCell ref="LK11:LK13"/>
+    <mergeCell ref="LL11:LL13"/>
+    <mergeCell ref="LC11:LC13"/>
+    <mergeCell ref="LD11:LD13"/>
+    <mergeCell ref="LE11:LE13"/>
+    <mergeCell ref="LF11:LF13"/>
+    <mergeCell ref="LG11:LG13"/>
+    <mergeCell ref="KX11:KX13"/>
+    <mergeCell ref="KY11:KY13"/>
+    <mergeCell ref="KZ11:KZ13"/>
+    <mergeCell ref="LA11:LA13"/>
+    <mergeCell ref="LB11:LB13"/>
+    <mergeCell ref="KS11:KS13"/>
+    <mergeCell ref="KT11:KT13"/>
+    <mergeCell ref="KU11:KU13"/>
+    <mergeCell ref="KV11:KV13"/>
+    <mergeCell ref="KW11:KW13"/>
+    <mergeCell ref="KN11:KN13"/>
+    <mergeCell ref="KO11:KO13"/>
+    <mergeCell ref="KP11:KP13"/>
+    <mergeCell ref="KQ11:KQ13"/>
+    <mergeCell ref="KR11:KR13"/>
+    <mergeCell ref="KI11:KI13"/>
+    <mergeCell ref="KJ11:KJ13"/>
+    <mergeCell ref="KK11:KK13"/>
+    <mergeCell ref="KL11:KL13"/>
+    <mergeCell ref="KM11:KM13"/>
+    <mergeCell ref="KD11:KD13"/>
+    <mergeCell ref="KE11:KE13"/>
+    <mergeCell ref="KF11:KF13"/>
+    <mergeCell ref="KG11:KG13"/>
+    <mergeCell ref="KH11:KH13"/>
+    <mergeCell ref="JY11:JY13"/>
+    <mergeCell ref="JZ11:JZ13"/>
+    <mergeCell ref="KA11:KA13"/>
+    <mergeCell ref="KB11:KB13"/>
+    <mergeCell ref="KC11:KC13"/>
+    <mergeCell ref="JT11:JT13"/>
+    <mergeCell ref="JU11:JU13"/>
+    <mergeCell ref="JV11:JV13"/>
+    <mergeCell ref="JW11:JW13"/>
+    <mergeCell ref="JX11:JX13"/>
+    <mergeCell ref="JO11:JO13"/>
+    <mergeCell ref="JP11:JP13"/>
+    <mergeCell ref="JQ11:JQ13"/>
+    <mergeCell ref="JR11:JR13"/>
+    <mergeCell ref="JS11:JS13"/>
+    <mergeCell ref="JJ11:JJ13"/>
+    <mergeCell ref="JK11:JK13"/>
+    <mergeCell ref="JL11:JL13"/>
+    <mergeCell ref="JM11:JM13"/>
+    <mergeCell ref="JN11:JN13"/>
+    <mergeCell ref="JE11:JE13"/>
+    <mergeCell ref="JF11:JF13"/>
+    <mergeCell ref="JG11:JG13"/>
+    <mergeCell ref="JH11:JH13"/>
+    <mergeCell ref="JI11:JI13"/>
+    <mergeCell ref="IZ11:IZ13"/>
+    <mergeCell ref="JA11:JA13"/>
+    <mergeCell ref="JB11:JB13"/>
+    <mergeCell ref="JC11:JC13"/>
+    <mergeCell ref="JD11:JD13"/>
+    <mergeCell ref="IU11:IU13"/>
+    <mergeCell ref="IV11:IV13"/>
+    <mergeCell ref="IW11:IW13"/>
+    <mergeCell ref="IX11:IX13"/>
+    <mergeCell ref="IY11:IY13"/>
+    <mergeCell ref="IP11:IP13"/>
+    <mergeCell ref="IQ11:IQ13"/>
+    <mergeCell ref="IR11:IR13"/>
+    <mergeCell ref="IS11:IS13"/>
+    <mergeCell ref="IT11:IT13"/>
+    <mergeCell ref="IK11:IK13"/>
+    <mergeCell ref="IL11:IL13"/>
+    <mergeCell ref="IM11:IM13"/>
+    <mergeCell ref="IN11:IN13"/>
+    <mergeCell ref="IO11:IO13"/>
+    <mergeCell ref="IF11:IF13"/>
+    <mergeCell ref="IG11:IG13"/>
+    <mergeCell ref="IH11:IH13"/>
+    <mergeCell ref="II11:II13"/>
+    <mergeCell ref="IJ11:IJ13"/>
+    <mergeCell ref="IA11:IA13"/>
+    <mergeCell ref="IB11:IB13"/>
+    <mergeCell ref="IC11:IC13"/>
+    <mergeCell ref="ID11:ID13"/>
+    <mergeCell ref="IE11:IE13"/>
+    <mergeCell ref="HV11:HV13"/>
+    <mergeCell ref="HW11:HW13"/>
+    <mergeCell ref="HX11:HX13"/>
+    <mergeCell ref="HY11:HY13"/>
+    <mergeCell ref="HZ11:HZ13"/>
+    <mergeCell ref="HQ11:HQ13"/>
+    <mergeCell ref="HR11:HR13"/>
+    <mergeCell ref="HS11:HS13"/>
+    <mergeCell ref="HT11:HT13"/>
+    <mergeCell ref="HU11:HU13"/>
+    <mergeCell ref="HL11:HL13"/>
+    <mergeCell ref="HM11:HM13"/>
+    <mergeCell ref="HN11:HN13"/>
+    <mergeCell ref="HO11:HO13"/>
+    <mergeCell ref="HP11:HP13"/>
+    <mergeCell ref="HG11:HG13"/>
+    <mergeCell ref="HH11:HH13"/>
+    <mergeCell ref="HI11:HI13"/>
+    <mergeCell ref="HJ11:HJ13"/>
+    <mergeCell ref="HK11:HK13"/>
+    <mergeCell ref="HB11:HB13"/>
+    <mergeCell ref="HC11:HC13"/>
+    <mergeCell ref="HD11:HD13"/>
+    <mergeCell ref="HE11:HE13"/>
+    <mergeCell ref="HF11:HF13"/>
+    <mergeCell ref="GW11:GW13"/>
+    <mergeCell ref="GX11:GX13"/>
+    <mergeCell ref="GY11:GY13"/>
+    <mergeCell ref="GZ11:GZ13"/>
+    <mergeCell ref="HA11:HA13"/>
+    <mergeCell ref="GR11:GR13"/>
+    <mergeCell ref="GS11:GS13"/>
+    <mergeCell ref="GT11:GT13"/>
+    <mergeCell ref="GU11:GU13"/>
+    <mergeCell ref="GV11:GV13"/>
+    <mergeCell ref="GM11:GM13"/>
+    <mergeCell ref="GN11:GN13"/>
+    <mergeCell ref="GO11:GO13"/>
+    <mergeCell ref="GP11:GP13"/>
+    <mergeCell ref="GQ11:GQ13"/>
+    <mergeCell ref="GH11:GH13"/>
+    <mergeCell ref="GI11:GI13"/>
+    <mergeCell ref="GJ11:GJ13"/>
+    <mergeCell ref="GK11:GK13"/>
+    <mergeCell ref="GL11:GL13"/>
+    <mergeCell ref="GC11:GC13"/>
+    <mergeCell ref="GD11:GD13"/>
+    <mergeCell ref="GE11:GE13"/>
+    <mergeCell ref="GF11:GF13"/>
+    <mergeCell ref="GG11:GG13"/>
+    <mergeCell ref="FX11:FX13"/>
+    <mergeCell ref="FY11:FY13"/>
+    <mergeCell ref="FZ11:FZ13"/>
+    <mergeCell ref="GA11:GA13"/>
+    <mergeCell ref="GB11:GB13"/>
+    <mergeCell ref="FS11:FS13"/>
+    <mergeCell ref="FT11:FT13"/>
+    <mergeCell ref="FU11:FU13"/>
+    <mergeCell ref="FV11:FV13"/>
+    <mergeCell ref="FW11:FW13"/>
+    <mergeCell ref="FN11:FN13"/>
+    <mergeCell ref="FO11:FO13"/>
+    <mergeCell ref="FP11:FP13"/>
+    <mergeCell ref="FQ11:FQ13"/>
+    <mergeCell ref="FR11:FR13"/>
+    <mergeCell ref="FI11:FI13"/>
+    <mergeCell ref="FJ11:FJ13"/>
+    <mergeCell ref="FK11:FK13"/>
+    <mergeCell ref="FL11:FL13"/>
+    <mergeCell ref="FM11:FM13"/>
+    <mergeCell ref="FD11:FD13"/>
+    <mergeCell ref="FE11:FE13"/>
+    <mergeCell ref="FF11:FF13"/>
+    <mergeCell ref="FG11:FG13"/>
+    <mergeCell ref="FH11:FH13"/>
+    <mergeCell ref="EY11:EY13"/>
+    <mergeCell ref="EZ11:EZ13"/>
+    <mergeCell ref="FA11:FA13"/>
+    <mergeCell ref="FB11:FB13"/>
+    <mergeCell ref="FC11:FC13"/>
+    <mergeCell ref="ET11:ET13"/>
+    <mergeCell ref="EU11:EU13"/>
+    <mergeCell ref="EV11:EV13"/>
+    <mergeCell ref="EW11:EW13"/>
+    <mergeCell ref="EX11:EX13"/>
+    <mergeCell ref="EO11:EO13"/>
+    <mergeCell ref="EP11:EP13"/>
+    <mergeCell ref="EQ11:EQ13"/>
+    <mergeCell ref="ER11:ER13"/>
+    <mergeCell ref="ES11:ES13"/>
+    <mergeCell ref="EJ11:EJ13"/>
+    <mergeCell ref="EK11:EK13"/>
+    <mergeCell ref="EL11:EL13"/>
+    <mergeCell ref="EM11:EM13"/>
+    <mergeCell ref="EN11:EN13"/>
+    <mergeCell ref="EE11:EE13"/>
+    <mergeCell ref="EF11:EF13"/>
+    <mergeCell ref="EG11:EG13"/>
+    <mergeCell ref="EH11:EH13"/>
+    <mergeCell ref="EI11:EI13"/>
+    <mergeCell ref="DZ11:DZ13"/>
+    <mergeCell ref="EA11:EA13"/>
+    <mergeCell ref="EB11:EB13"/>
+    <mergeCell ref="EC11:EC13"/>
+    <mergeCell ref="ED11:ED13"/>
+    <mergeCell ref="DU11:DU13"/>
+    <mergeCell ref="DV11:DV13"/>
+    <mergeCell ref="DW11:DW13"/>
+    <mergeCell ref="DX11:DX13"/>
+    <mergeCell ref="DY11:DY13"/>
+    <mergeCell ref="DP11:DP13"/>
+    <mergeCell ref="DQ11:DQ13"/>
+    <mergeCell ref="DR11:DR13"/>
+    <mergeCell ref="DS11:DS13"/>
+    <mergeCell ref="DT11:DT13"/>
+    <mergeCell ref="DK11:DK13"/>
+    <mergeCell ref="DL11:DL13"/>
+    <mergeCell ref="DM11:DM13"/>
+    <mergeCell ref="DN11:DN13"/>
+    <mergeCell ref="DO11:DO13"/>
+    <mergeCell ref="DF11:DF13"/>
+    <mergeCell ref="DG11:DG13"/>
+    <mergeCell ref="DH11:DH13"/>
+    <mergeCell ref="DI11:DI13"/>
+    <mergeCell ref="DJ11:DJ13"/>
+    <mergeCell ref="DA11:DA13"/>
+    <mergeCell ref="DB11:DB13"/>
+    <mergeCell ref="DC11:DC13"/>
+    <mergeCell ref="DD11:DD13"/>
+    <mergeCell ref="DE11:DE13"/>
+    <mergeCell ref="CV11:CV13"/>
+    <mergeCell ref="CW11:CW13"/>
+    <mergeCell ref="CX11:CX13"/>
+    <mergeCell ref="CY11:CY13"/>
+    <mergeCell ref="CZ11:CZ13"/>
+    <mergeCell ref="CQ11:CQ13"/>
+    <mergeCell ref="CR11:CR13"/>
+    <mergeCell ref="CS11:CS13"/>
+    <mergeCell ref="CT11:CT13"/>
+    <mergeCell ref="CU11:CU13"/>
+    <mergeCell ref="CL11:CL13"/>
+    <mergeCell ref="CM11:CM13"/>
+    <mergeCell ref="CN11:CN13"/>
+    <mergeCell ref="CO11:CO13"/>
+    <mergeCell ref="CP11:CP13"/>
+    <mergeCell ref="CG11:CG13"/>
+    <mergeCell ref="CH11:CH13"/>
+    <mergeCell ref="CI11:CI13"/>
+    <mergeCell ref="CJ11:CJ13"/>
+    <mergeCell ref="CK11:CK13"/>
+    <mergeCell ref="CB11:CB13"/>
+    <mergeCell ref="CC11:CC13"/>
+    <mergeCell ref="CD11:CD13"/>
+    <mergeCell ref="CE11:CE13"/>
+    <mergeCell ref="CF11:CF13"/>
+    <mergeCell ref="BW11:BW13"/>
+    <mergeCell ref="BX11:BX13"/>
+    <mergeCell ref="BY11:BY13"/>
+    <mergeCell ref="BZ11:BZ13"/>
+    <mergeCell ref="CA11:CA13"/>
+    <mergeCell ref="BR11:BR13"/>
+    <mergeCell ref="BS11:BS13"/>
+    <mergeCell ref="BT11:BT13"/>
+    <mergeCell ref="BU11:BU13"/>
+    <mergeCell ref="BV11:BV13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="B1:T3"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="BK11:BK13"/>
+    <mergeCell ref="BG11:BG13"/>
+    <mergeCell ref="BH11:BH13"/>
+    <mergeCell ref="BI11:BI13"/>
+    <mergeCell ref="BJ11:BJ13"/>
+    <mergeCell ref="BA11:BA13"/>
+    <mergeCell ref="BB11:BB13"/>
+    <mergeCell ref="BC11:BC13"/>
+    <mergeCell ref="BD11:BD13"/>
+    <mergeCell ref="BE11:BE13"/>
+    <mergeCell ref="BF11:BF13"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="AT11:AT13"/>
     <mergeCell ref="NZ11:NZ13"/>
     <mergeCell ref="OA11:OA13"/>
     <mergeCell ref="OB11:OB13"/>
@@ -56895,378 +57291,6 @@
     <mergeCell ref="AI11:AI13"/>
     <mergeCell ref="AJ11:AJ13"/>
     <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="B1:T3"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="BK11:BK13"/>
-    <mergeCell ref="BG11:BG13"/>
-    <mergeCell ref="BH11:BH13"/>
-    <mergeCell ref="BI11:BI13"/>
-    <mergeCell ref="BJ11:BJ13"/>
-    <mergeCell ref="BA11:BA13"/>
-    <mergeCell ref="BB11:BB13"/>
-    <mergeCell ref="BC11:BC13"/>
-    <mergeCell ref="BD11:BD13"/>
-    <mergeCell ref="BE11:BE13"/>
-    <mergeCell ref="BF11:BF13"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="BW11:BW13"/>
-    <mergeCell ref="BX11:BX13"/>
-    <mergeCell ref="BY11:BY13"/>
-    <mergeCell ref="BZ11:BZ13"/>
-    <mergeCell ref="CA11:CA13"/>
-    <mergeCell ref="BR11:BR13"/>
-    <mergeCell ref="BS11:BS13"/>
-    <mergeCell ref="BT11:BT13"/>
-    <mergeCell ref="BU11:BU13"/>
-    <mergeCell ref="BV11:BV13"/>
-    <mergeCell ref="CG11:CG13"/>
-    <mergeCell ref="CH11:CH13"/>
-    <mergeCell ref="CI11:CI13"/>
-    <mergeCell ref="CJ11:CJ13"/>
-    <mergeCell ref="CK11:CK13"/>
-    <mergeCell ref="CB11:CB13"/>
-    <mergeCell ref="CC11:CC13"/>
-    <mergeCell ref="CD11:CD13"/>
-    <mergeCell ref="CE11:CE13"/>
-    <mergeCell ref="CF11:CF13"/>
-    <mergeCell ref="CQ11:CQ13"/>
-    <mergeCell ref="CR11:CR13"/>
-    <mergeCell ref="CS11:CS13"/>
-    <mergeCell ref="CT11:CT13"/>
-    <mergeCell ref="CU11:CU13"/>
-    <mergeCell ref="CL11:CL13"/>
-    <mergeCell ref="CM11:CM13"/>
-    <mergeCell ref="CN11:CN13"/>
-    <mergeCell ref="CO11:CO13"/>
-    <mergeCell ref="CP11:CP13"/>
-    <mergeCell ref="DA11:DA13"/>
-    <mergeCell ref="DB11:DB13"/>
-    <mergeCell ref="DC11:DC13"/>
-    <mergeCell ref="DD11:DD13"/>
-    <mergeCell ref="DE11:DE13"/>
-    <mergeCell ref="CV11:CV13"/>
-    <mergeCell ref="CW11:CW13"/>
-    <mergeCell ref="CX11:CX13"/>
-    <mergeCell ref="CY11:CY13"/>
-    <mergeCell ref="CZ11:CZ13"/>
-    <mergeCell ref="DK11:DK13"/>
-    <mergeCell ref="DL11:DL13"/>
-    <mergeCell ref="DM11:DM13"/>
-    <mergeCell ref="DN11:DN13"/>
-    <mergeCell ref="DO11:DO13"/>
-    <mergeCell ref="DF11:DF13"/>
-    <mergeCell ref="DG11:DG13"/>
-    <mergeCell ref="DH11:DH13"/>
-    <mergeCell ref="DI11:DI13"/>
-    <mergeCell ref="DJ11:DJ13"/>
-    <mergeCell ref="DU11:DU13"/>
-    <mergeCell ref="DV11:DV13"/>
-    <mergeCell ref="DW11:DW13"/>
-    <mergeCell ref="DX11:DX13"/>
-    <mergeCell ref="DY11:DY13"/>
-    <mergeCell ref="DP11:DP13"/>
-    <mergeCell ref="DQ11:DQ13"/>
-    <mergeCell ref="DR11:DR13"/>
-    <mergeCell ref="DS11:DS13"/>
-    <mergeCell ref="DT11:DT13"/>
-    <mergeCell ref="EE11:EE13"/>
-    <mergeCell ref="EF11:EF13"/>
-    <mergeCell ref="EG11:EG13"/>
-    <mergeCell ref="EH11:EH13"/>
-    <mergeCell ref="EI11:EI13"/>
-    <mergeCell ref="DZ11:DZ13"/>
-    <mergeCell ref="EA11:EA13"/>
-    <mergeCell ref="EB11:EB13"/>
-    <mergeCell ref="EC11:EC13"/>
-    <mergeCell ref="ED11:ED13"/>
-    <mergeCell ref="EO11:EO13"/>
-    <mergeCell ref="EP11:EP13"/>
-    <mergeCell ref="EQ11:EQ13"/>
-    <mergeCell ref="ER11:ER13"/>
-    <mergeCell ref="ES11:ES13"/>
-    <mergeCell ref="EJ11:EJ13"/>
-    <mergeCell ref="EK11:EK13"/>
-    <mergeCell ref="EL11:EL13"/>
-    <mergeCell ref="EM11:EM13"/>
-    <mergeCell ref="EN11:EN13"/>
-    <mergeCell ref="EY11:EY13"/>
-    <mergeCell ref="EZ11:EZ13"/>
-    <mergeCell ref="FA11:FA13"/>
-    <mergeCell ref="FB11:FB13"/>
-    <mergeCell ref="FC11:FC13"/>
-    <mergeCell ref="ET11:ET13"/>
-    <mergeCell ref="EU11:EU13"/>
-    <mergeCell ref="EV11:EV13"/>
-    <mergeCell ref="EW11:EW13"/>
-    <mergeCell ref="EX11:EX13"/>
-    <mergeCell ref="FI11:FI13"/>
-    <mergeCell ref="FJ11:FJ13"/>
-    <mergeCell ref="FK11:FK13"/>
-    <mergeCell ref="FL11:FL13"/>
-    <mergeCell ref="FM11:FM13"/>
-    <mergeCell ref="FD11:FD13"/>
-    <mergeCell ref="FE11:FE13"/>
-    <mergeCell ref="FF11:FF13"/>
-    <mergeCell ref="FG11:FG13"/>
-    <mergeCell ref="FH11:FH13"/>
-    <mergeCell ref="FS11:FS13"/>
-    <mergeCell ref="FT11:FT13"/>
-    <mergeCell ref="FU11:FU13"/>
-    <mergeCell ref="FV11:FV13"/>
-    <mergeCell ref="FW11:FW13"/>
-    <mergeCell ref="FN11:FN13"/>
-    <mergeCell ref="FO11:FO13"/>
-    <mergeCell ref="FP11:FP13"/>
-    <mergeCell ref="FQ11:FQ13"/>
-    <mergeCell ref="FR11:FR13"/>
-    <mergeCell ref="GC11:GC13"/>
-    <mergeCell ref="GD11:GD13"/>
-    <mergeCell ref="GE11:GE13"/>
-    <mergeCell ref="GF11:GF13"/>
-    <mergeCell ref="GG11:GG13"/>
-    <mergeCell ref="FX11:FX13"/>
-    <mergeCell ref="FY11:FY13"/>
-    <mergeCell ref="FZ11:FZ13"/>
-    <mergeCell ref="GA11:GA13"/>
-    <mergeCell ref="GB11:GB13"/>
-    <mergeCell ref="GM11:GM13"/>
-    <mergeCell ref="GN11:GN13"/>
-    <mergeCell ref="GO11:GO13"/>
-    <mergeCell ref="GP11:GP13"/>
-    <mergeCell ref="GQ11:GQ13"/>
-    <mergeCell ref="GH11:GH13"/>
-    <mergeCell ref="GI11:GI13"/>
-    <mergeCell ref="GJ11:GJ13"/>
-    <mergeCell ref="GK11:GK13"/>
-    <mergeCell ref="GL11:GL13"/>
-    <mergeCell ref="GW11:GW13"/>
-    <mergeCell ref="GX11:GX13"/>
-    <mergeCell ref="GY11:GY13"/>
-    <mergeCell ref="GZ11:GZ13"/>
-    <mergeCell ref="HA11:HA13"/>
-    <mergeCell ref="GR11:GR13"/>
-    <mergeCell ref="GS11:GS13"/>
-    <mergeCell ref="GT11:GT13"/>
-    <mergeCell ref="GU11:GU13"/>
-    <mergeCell ref="GV11:GV13"/>
-    <mergeCell ref="HG11:HG13"/>
-    <mergeCell ref="HH11:HH13"/>
-    <mergeCell ref="HI11:HI13"/>
-    <mergeCell ref="HJ11:HJ13"/>
-    <mergeCell ref="HK11:HK13"/>
-    <mergeCell ref="HB11:HB13"/>
-    <mergeCell ref="HC11:HC13"/>
-    <mergeCell ref="HD11:HD13"/>
-    <mergeCell ref="HE11:HE13"/>
-    <mergeCell ref="HF11:HF13"/>
-    <mergeCell ref="HQ11:HQ13"/>
-    <mergeCell ref="HR11:HR13"/>
-    <mergeCell ref="HS11:HS13"/>
-    <mergeCell ref="HT11:HT13"/>
-    <mergeCell ref="HU11:HU13"/>
-    <mergeCell ref="HL11:HL13"/>
-    <mergeCell ref="HM11:HM13"/>
-    <mergeCell ref="HN11:HN13"/>
-    <mergeCell ref="HO11:HO13"/>
-    <mergeCell ref="HP11:HP13"/>
-    <mergeCell ref="IA11:IA13"/>
-    <mergeCell ref="IB11:IB13"/>
-    <mergeCell ref="IC11:IC13"/>
-    <mergeCell ref="ID11:ID13"/>
-    <mergeCell ref="IE11:IE13"/>
-    <mergeCell ref="HV11:HV13"/>
-    <mergeCell ref="HW11:HW13"/>
-    <mergeCell ref="HX11:HX13"/>
-    <mergeCell ref="HY11:HY13"/>
-    <mergeCell ref="HZ11:HZ13"/>
-    <mergeCell ref="IK11:IK13"/>
-    <mergeCell ref="IL11:IL13"/>
-    <mergeCell ref="IM11:IM13"/>
-    <mergeCell ref="IN11:IN13"/>
-    <mergeCell ref="IO11:IO13"/>
-    <mergeCell ref="IF11:IF13"/>
-    <mergeCell ref="IG11:IG13"/>
-    <mergeCell ref="IH11:IH13"/>
-    <mergeCell ref="II11:II13"/>
-    <mergeCell ref="IJ11:IJ13"/>
-    <mergeCell ref="IU11:IU13"/>
-    <mergeCell ref="IV11:IV13"/>
-    <mergeCell ref="IW11:IW13"/>
-    <mergeCell ref="IX11:IX13"/>
-    <mergeCell ref="IY11:IY13"/>
-    <mergeCell ref="IP11:IP13"/>
-    <mergeCell ref="IQ11:IQ13"/>
-    <mergeCell ref="IR11:IR13"/>
-    <mergeCell ref="IS11:IS13"/>
-    <mergeCell ref="IT11:IT13"/>
-    <mergeCell ref="JE11:JE13"/>
-    <mergeCell ref="JF11:JF13"/>
-    <mergeCell ref="JG11:JG13"/>
-    <mergeCell ref="JH11:JH13"/>
-    <mergeCell ref="JI11:JI13"/>
-    <mergeCell ref="IZ11:IZ13"/>
-    <mergeCell ref="JA11:JA13"/>
-    <mergeCell ref="JB11:JB13"/>
-    <mergeCell ref="JC11:JC13"/>
-    <mergeCell ref="JD11:JD13"/>
-    <mergeCell ref="JO11:JO13"/>
-    <mergeCell ref="JP11:JP13"/>
-    <mergeCell ref="JQ11:JQ13"/>
-    <mergeCell ref="JR11:JR13"/>
-    <mergeCell ref="JS11:JS13"/>
-    <mergeCell ref="JJ11:JJ13"/>
-    <mergeCell ref="JK11:JK13"/>
-    <mergeCell ref="JL11:JL13"/>
-    <mergeCell ref="JM11:JM13"/>
-    <mergeCell ref="JN11:JN13"/>
-    <mergeCell ref="JY11:JY13"/>
-    <mergeCell ref="JZ11:JZ13"/>
-    <mergeCell ref="KA11:KA13"/>
-    <mergeCell ref="KB11:KB13"/>
-    <mergeCell ref="KC11:KC13"/>
-    <mergeCell ref="JT11:JT13"/>
-    <mergeCell ref="JU11:JU13"/>
-    <mergeCell ref="JV11:JV13"/>
-    <mergeCell ref="JW11:JW13"/>
-    <mergeCell ref="JX11:JX13"/>
-    <mergeCell ref="KI11:KI13"/>
-    <mergeCell ref="KJ11:KJ13"/>
-    <mergeCell ref="KK11:KK13"/>
-    <mergeCell ref="KL11:KL13"/>
-    <mergeCell ref="KM11:KM13"/>
-    <mergeCell ref="KD11:KD13"/>
-    <mergeCell ref="KE11:KE13"/>
-    <mergeCell ref="KF11:KF13"/>
-    <mergeCell ref="KG11:KG13"/>
-    <mergeCell ref="KH11:KH13"/>
-    <mergeCell ref="KS11:KS13"/>
-    <mergeCell ref="KT11:KT13"/>
-    <mergeCell ref="KU11:KU13"/>
-    <mergeCell ref="KV11:KV13"/>
-    <mergeCell ref="KW11:KW13"/>
-    <mergeCell ref="KN11:KN13"/>
-    <mergeCell ref="KO11:KO13"/>
-    <mergeCell ref="KP11:KP13"/>
-    <mergeCell ref="KQ11:KQ13"/>
-    <mergeCell ref="KR11:KR13"/>
-    <mergeCell ref="LC11:LC13"/>
-    <mergeCell ref="LD11:LD13"/>
-    <mergeCell ref="LE11:LE13"/>
-    <mergeCell ref="LF11:LF13"/>
-    <mergeCell ref="LG11:LG13"/>
-    <mergeCell ref="KX11:KX13"/>
-    <mergeCell ref="KY11:KY13"/>
-    <mergeCell ref="KZ11:KZ13"/>
-    <mergeCell ref="LA11:LA13"/>
-    <mergeCell ref="LB11:LB13"/>
-    <mergeCell ref="LM11:LM13"/>
-    <mergeCell ref="LN11:LN13"/>
-    <mergeCell ref="LO11:LO13"/>
-    <mergeCell ref="LP11:LP13"/>
-    <mergeCell ref="LQ11:LQ13"/>
-    <mergeCell ref="LH11:LH13"/>
-    <mergeCell ref="LI11:LI13"/>
-    <mergeCell ref="LJ11:LJ13"/>
-    <mergeCell ref="LK11:LK13"/>
-    <mergeCell ref="LL11:LL13"/>
-    <mergeCell ref="LW11:LW13"/>
-    <mergeCell ref="LX11:LX13"/>
-    <mergeCell ref="LY11:LY13"/>
-    <mergeCell ref="LZ11:LZ13"/>
-    <mergeCell ref="MA11:MA13"/>
-    <mergeCell ref="LR11:LR13"/>
-    <mergeCell ref="LS11:LS13"/>
-    <mergeCell ref="LT11:LT13"/>
-    <mergeCell ref="LU11:LU13"/>
-    <mergeCell ref="LV11:LV13"/>
-    <mergeCell ref="MG11:MG13"/>
-    <mergeCell ref="MH11:MH13"/>
-    <mergeCell ref="MI11:MI13"/>
-    <mergeCell ref="MJ11:MJ13"/>
-    <mergeCell ref="MK11:MK13"/>
-    <mergeCell ref="MB11:MB13"/>
-    <mergeCell ref="MC11:MC13"/>
-    <mergeCell ref="MD11:MD13"/>
-    <mergeCell ref="ME11:ME13"/>
-    <mergeCell ref="MF11:MF13"/>
-    <mergeCell ref="MQ11:MQ13"/>
-    <mergeCell ref="MR11:MR13"/>
-    <mergeCell ref="MS11:MS13"/>
-    <mergeCell ref="MT11:MT13"/>
-    <mergeCell ref="MU11:MU13"/>
-    <mergeCell ref="ML11:ML13"/>
-    <mergeCell ref="MM11:MM13"/>
-    <mergeCell ref="MN11:MN13"/>
-    <mergeCell ref="MO11:MO13"/>
-    <mergeCell ref="MP11:MP13"/>
-    <mergeCell ref="NA11:NA13"/>
-    <mergeCell ref="NB11:NB13"/>
-    <mergeCell ref="NC11:NC13"/>
-    <mergeCell ref="ND11:ND13"/>
-    <mergeCell ref="NE11:NE13"/>
-    <mergeCell ref="MV11:MV13"/>
-    <mergeCell ref="MW11:MW13"/>
-    <mergeCell ref="MX11:MX13"/>
-    <mergeCell ref="MY11:MY13"/>
-    <mergeCell ref="MZ11:MZ13"/>
-    <mergeCell ref="NK11:NK13"/>
-    <mergeCell ref="NL11:NL13"/>
-    <mergeCell ref="NM11:NM13"/>
-    <mergeCell ref="NN11:NN13"/>
-    <mergeCell ref="NO11:NO13"/>
-    <mergeCell ref="NF11:NF13"/>
-    <mergeCell ref="NG11:NG13"/>
-    <mergeCell ref="NH11:NH13"/>
-    <mergeCell ref="NI11:NI13"/>
-    <mergeCell ref="NJ11:NJ13"/>
-    <mergeCell ref="NU11:NU13"/>
-    <mergeCell ref="NV11:NV13"/>
-    <mergeCell ref="NW11:NW13"/>
-    <mergeCell ref="NX11:NX13"/>
-    <mergeCell ref="NY11:NY13"/>
-    <mergeCell ref="NP11:NP13"/>
-    <mergeCell ref="NQ11:NQ13"/>
-    <mergeCell ref="NR11:NR13"/>
-    <mergeCell ref="NS11:NS13"/>
-    <mergeCell ref="NT11:NT13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:OD49">
@@ -57771,7 +57795,7 @@
   <dimension ref="B1:D409"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="29.4" x14ac:dyDescent="0.65"/>
@@ -57781,9 +57805,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="163" t="s">
         <v>136</v>
       </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B2" s="163"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B3" s="164" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B4" s="165" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B6" s="164"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B400" s="78" t="s">
@@ -57829,15 +57869,16 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zliGRIM0Rhu6gWrFTdEv6hMV2OFssRZ8HKwaq3R3cUMBt2qgprebzWd14YofBMGfj7QG9d613YzVhINUfcR7eg==" saltValue="HOV1I1EPbs9lxf9V/NNfXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vy6s6YkMSkgPjXUezQPRUotL4ywylpauo/Qi14pjzZxlQB9wCzstau/dP/hBKZj74R6V8bia/BgNrdqXnb8hxQ==" saltValue="ZgbX6Qxk4aAA/NU7v8P//g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="B402" r:id="rId1" xr:uid="{5218D998-BEEA-4DF5-8F16-3EBEB4536B5B}"/>
     <hyperlink ref="B403" r:id="rId2" xr:uid="{57A6330B-3422-455C-AD17-6BAEBCD5CE87}"/>
-    <hyperlink ref="B1" location="'.'!A400" display="Buy me a cup of coffee" xr:uid="{275400B6-F674-476B-B420-67D66F92640D}"/>
     <hyperlink ref="D407" r:id="rId3" xr:uid="{7E6186A8-F65A-414D-BB48-1172A18CC412}"/>
+    <hyperlink ref="B1" location="'.'!A400" display="Buy me a cup of coffee" xr:uid="{5C458D98-D8D2-40B8-86E1-6C04363E5723}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{24D47AA8-A190-452D-B2AA-0C0E670837F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Ultimate Excel Gantt Chart 1 year.xlsx
+++ b/Ultimate Excel Gantt Chart 1 year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35130D-F41B-4860-8C04-973AA23F8E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76925E4B-8263-49A5-9E53-FA55CA5C4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
@@ -1771,6 +1771,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1794,51 +1797,6 @@
     <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,9 +1818,51 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3145,71 +3145,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="81" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
     </row>
     <row r="2" spans="2:35" s="81" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="P2" s="137" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="P2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="138"/>
+      <c r="Q2" s="141"/>
     </row>
     <row r="3" spans="2:35" s="82" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="G6" s="135" t="s">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="G6" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="M6" s="135" t="s">
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="M6" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="S6" s="135" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="S6" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="X6" s="135" t="s">
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="X6" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AG6" s="135" t="s">
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="138"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="138"/>
+      <c r="AG6" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
+      <c r="AH6" s="138"/>
+      <c r="AI6" s="138"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="84"/>
@@ -10461,128 +10461,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:394" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="str">
+      <c r="B1" s="153" t="str">
         <f>Settings!D8</f>
         <v>Example Project</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
     </row>
     <row r="2" spans="1:394" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="X2" s="152" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="X2" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="144" cm="1">
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="163" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
       <c r="AJ2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="144" cm="1">
+      <c r="AK2" s="163" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44531</v>
       </c>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="144"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="149" t="str" cm="1">
+      <c r="AL2" s="163"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="163"/>
+      <c r="AO2" s="164" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(202)</v>
       </c>
-      <c r="AP2" s="149"/>
-      <c r="AT2" s="152" t="s">
+      <c r="AP2" s="164"/>
+      <c r="AT2" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="153" t="str">
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="155" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="153"/>
-      <c r="BC2" s="153"/>
-      <c r="BD2" s="153"/>
-      <c r="BE2" s="153"/>
-      <c r="BF2" s="153"/>
-      <c r="BL2" s="141" t="s">
+      <c r="BB2" s="155"/>
+      <c r="BC2" s="155"/>
+      <c r="BD2" s="155"/>
+      <c r="BE2" s="155"/>
+      <c r="BF2" s="155"/>
+      <c r="BL2" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="142"/>
-      <c r="BN2" s="142"/>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="143"/>
+      <c r="BM2" s="161"/>
+      <c r="BN2" s="161"/>
+      <c r="BO2" s="161"/>
+      <c r="BP2" s="161"/>
+      <c r="BQ2" s="162"/>
     </row>
     <row r="3" spans="1:394" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
     </row>
     <row r="4" spans="1:394" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:394" x14ac:dyDescent="0.3">
@@ -10590,76 +10590,76 @@
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="145" t="s">
+      <c r="X5" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="147"/>
-      <c r="AG5" s="145" t="s">
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="158"/>
+      <c r="AG5" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="147"/>
-      <c r="AP5" s="145" t="s">
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="158"/>
+      <c r="AP5" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="147"/>
-      <c r="BL5" s="145" t="s">
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="157"/>
+      <c r="AT5" s="157"/>
+      <c r="AU5" s="158"/>
+      <c r="BL5" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="146"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="147"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="157"/>
+      <c r="BO5" s="157"/>
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="158"/>
     </row>
     <row r="6" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="148" t="s">
+      <c r="X6" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="Y6" s="148"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="148"/>
-      <c r="AG6" s="148" t="s">
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AG6" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="AH6" s="148"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="148"/>
-      <c r="AK6" s="148"/>
-      <c r="AL6" s="148"/>
-      <c r="AP6" s="148" t="s">
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="159"/>
+      <c r="AP6" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="AQ6" s="148"/>
-      <c r="AR6" s="148"/>
-      <c r="AS6" s="148"/>
-      <c r="AT6" s="148"/>
-      <c r="AU6" s="148"/>
-      <c r="BL6" s="150" t="s">
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
+      <c r="BL6" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="BM6" s="150"/>
-      <c r="BN6" s="150"/>
-      <c r="BO6" s="150"/>
-      <c r="BP6" s="150"/>
-      <c r="BQ6" s="150"/>
+      <c r="BM6" s="165"/>
+      <c r="BN6" s="165"/>
+      <c r="BO6" s="165"/>
+      <c r="BP6" s="165"/>
+      <c r="BQ6" s="165"/>
     </row>
     <row r="7" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
@@ -12176,2303 +12176,2303 @@
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="158" t="s">
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="158"/>
+      <c r="V11" s="146"/>
       <c r="W11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="140" cm="1">
+      <c r="X11" s="143" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">timeline_start+scroll_increment</f>
         <v>44326</v>
       </c>
-      <c r="Y11" s="140">
+      <c r="Y11" s="143">
         <f ca="1">X11+1</f>
         <v>44327</v>
       </c>
-      <c r="Z11" s="140">
+      <c r="Z11" s="143">
         <f t="shared" ref="Z11:CK11" ca="1" si="8">Y11+1</f>
         <v>44328</v>
       </c>
-      <c r="AA11" s="140">
+      <c r="AA11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44329</v>
       </c>
-      <c r="AB11" s="140">
+      <c r="AB11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44330</v>
       </c>
-      <c r="AC11" s="140">
+      <c r="AC11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44331</v>
       </c>
-      <c r="AD11" s="140">
+      <c r="AD11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44332</v>
       </c>
-      <c r="AE11" s="140">
+      <c r="AE11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44333</v>
       </c>
-      <c r="AF11" s="140">
+      <c r="AF11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44334</v>
       </c>
-      <c r="AG11" s="140">
+      <c r="AG11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44335</v>
       </c>
-      <c r="AH11" s="140">
+      <c r="AH11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44336</v>
       </c>
-      <c r="AI11" s="140">
+      <c r="AI11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44337</v>
       </c>
-      <c r="AJ11" s="140">
+      <c r="AJ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44338</v>
       </c>
-      <c r="AK11" s="140">
+      <c r="AK11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44339</v>
       </c>
-      <c r="AL11" s="140">
+      <c r="AL11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44340</v>
       </c>
-      <c r="AM11" s="140">
+      <c r="AM11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44341</v>
       </c>
-      <c r="AN11" s="140">
+      <c r="AN11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44342</v>
       </c>
-      <c r="AO11" s="140">
+      <c r="AO11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44343</v>
       </c>
-      <c r="AP11" s="140">
+      <c r="AP11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44344</v>
       </c>
-      <c r="AQ11" s="140">
+      <c r="AQ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44345</v>
       </c>
-      <c r="AR11" s="140">
+      <c r="AR11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44346</v>
       </c>
-      <c r="AS11" s="140">
+      <c r="AS11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44347</v>
       </c>
-      <c r="AT11" s="140">
+      <c r="AT11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44348</v>
       </c>
-      <c r="AU11" s="140">
+      <c r="AU11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44349</v>
       </c>
-      <c r="AV11" s="140">
+      <c r="AV11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44350</v>
       </c>
-      <c r="AW11" s="140">
+      <c r="AW11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44351</v>
       </c>
-      <c r="AX11" s="140">
+      <c r="AX11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44352</v>
       </c>
-      <c r="AY11" s="140">
+      <c r="AY11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44353</v>
       </c>
-      <c r="AZ11" s="140">
+      <c r="AZ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44354</v>
       </c>
-      <c r="BA11" s="140">
+      <c r="BA11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44355</v>
       </c>
-      <c r="BB11" s="140">
+      <c r="BB11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44356</v>
       </c>
-      <c r="BC11" s="140">
+      <c r="BC11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44357</v>
       </c>
-      <c r="BD11" s="140">
+      <c r="BD11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44358</v>
       </c>
-      <c r="BE11" s="140">
+      <c r="BE11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44359</v>
       </c>
-      <c r="BF11" s="140">
+      <c r="BF11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44360</v>
       </c>
-      <c r="BG11" s="140">
+      <c r="BG11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44361</v>
       </c>
-      <c r="BH11" s="140">
+      <c r="BH11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44362</v>
       </c>
-      <c r="BI11" s="140">
+      <c r="BI11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44363</v>
       </c>
-      <c r="BJ11" s="140">
+      <c r="BJ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44364</v>
       </c>
-      <c r="BK11" s="140">
+      <c r="BK11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44365</v>
       </c>
-      <c r="BL11" s="140">
+      <c r="BL11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44366</v>
       </c>
-      <c r="BM11" s="140">
+      <c r="BM11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44367</v>
       </c>
-      <c r="BN11" s="140">
+      <c r="BN11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44368</v>
       </c>
-      <c r="BO11" s="140">
+      <c r="BO11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44369</v>
       </c>
-      <c r="BP11" s="140">
+      <c r="BP11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44370</v>
       </c>
-      <c r="BQ11" s="140">
+      <c r="BQ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44371</v>
       </c>
-      <c r="BR11" s="140">
+      <c r="BR11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44372</v>
       </c>
-      <c r="BS11" s="140">
+      <c r="BS11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44373</v>
       </c>
-      <c r="BT11" s="140">
+      <c r="BT11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44374</v>
       </c>
-      <c r="BU11" s="140">
+      <c r="BU11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44375</v>
       </c>
-      <c r="BV11" s="140">
+      <c r="BV11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44376</v>
       </c>
-      <c r="BW11" s="140">
+      <c r="BW11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44377</v>
       </c>
-      <c r="BX11" s="140">
+      <c r="BX11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44378</v>
       </c>
-      <c r="BY11" s="140">
+      <c r="BY11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44379</v>
       </c>
-      <c r="BZ11" s="140">
+      <c r="BZ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44380</v>
       </c>
-      <c r="CA11" s="140">
+      <c r="CA11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44381</v>
       </c>
-      <c r="CB11" s="140">
+      <c r="CB11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44382</v>
       </c>
-      <c r="CC11" s="140">
+      <c r="CC11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44383</v>
       </c>
-      <c r="CD11" s="140">
+      <c r="CD11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44384</v>
       </c>
-      <c r="CE11" s="140">
+      <c r="CE11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44385</v>
       </c>
-      <c r="CF11" s="140">
+      <c r="CF11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44386</v>
       </c>
-      <c r="CG11" s="140">
+      <c r="CG11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44387</v>
       </c>
-      <c r="CH11" s="140">
+      <c r="CH11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44388</v>
       </c>
-      <c r="CI11" s="140">
+      <c r="CI11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44389</v>
       </c>
-      <c r="CJ11" s="140">
+      <c r="CJ11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44390</v>
       </c>
-      <c r="CK11" s="140">
+      <c r="CK11" s="143">
         <f t="shared" ca="1" si="8"/>
         <v>44391</v>
       </c>
-      <c r="CL11" s="140">
+      <c r="CL11" s="143">
         <f t="shared" ref="CL11:EW11" ca="1" si="9">CK11+1</f>
         <v>44392</v>
       </c>
-      <c r="CM11" s="140">
+      <c r="CM11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44393</v>
       </c>
-      <c r="CN11" s="140">
+      <c r="CN11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44394</v>
       </c>
-      <c r="CO11" s="140">
+      <c r="CO11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44395</v>
       </c>
-      <c r="CP11" s="140">
+      <c r="CP11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44396</v>
       </c>
-      <c r="CQ11" s="140">
+      <c r="CQ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44397</v>
       </c>
-      <c r="CR11" s="140">
+      <c r="CR11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44398</v>
       </c>
-      <c r="CS11" s="140">
+      <c r="CS11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44399</v>
       </c>
-      <c r="CT11" s="140">
+      <c r="CT11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44400</v>
       </c>
-      <c r="CU11" s="140">
+      <c r="CU11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44401</v>
       </c>
-      <c r="CV11" s="140">
+      <c r="CV11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44402</v>
       </c>
-      <c r="CW11" s="140">
+      <c r="CW11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44403</v>
       </c>
-      <c r="CX11" s="140">
+      <c r="CX11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44404</v>
       </c>
-      <c r="CY11" s="140">
+      <c r="CY11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44405</v>
       </c>
-      <c r="CZ11" s="140">
+      <c r="CZ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44406</v>
       </c>
-      <c r="DA11" s="140">
+      <c r="DA11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44407</v>
       </c>
-      <c r="DB11" s="140">
+      <c r="DB11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44408</v>
       </c>
-      <c r="DC11" s="140">
+      <c r="DC11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44409</v>
       </c>
-      <c r="DD11" s="140">
+      <c r="DD11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44410</v>
       </c>
-      <c r="DE11" s="140">
+      <c r="DE11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44411</v>
       </c>
-      <c r="DF11" s="140">
+      <c r="DF11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44412</v>
       </c>
-      <c r="DG11" s="140">
+      <c r="DG11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44413</v>
       </c>
-      <c r="DH11" s="140">
+      <c r="DH11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44414</v>
       </c>
-      <c r="DI11" s="140">
+      <c r="DI11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44415</v>
       </c>
-      <c r="DJ11" s="140">
+      <c r="DJ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44416</v>
       </c>
-      <c r="DK11" s="140">
+      <c r="DK11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44417</v>
       </c>
-      <c r="DL11" s="140">
+      <c r="DL11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44418</v>
       </c>
-      <c r="DM11" s="140">
+      <c r="DM11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44419</v>
       </c>
-      <c r="DN11" s="140">
+      <c r="DN11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44420</v>
       </c>
-      <c r="DO11" s="140">
+      <c r="DO11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44421</v>
       </c>
-      <c r="DP11" s="140">
+      <c r="DP11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44422</v>
       </c>
-      <c r="DQ11" s="140">
+      <c r="DQ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44423</v>
       </c>
-      <c r="DR11" s="140">
+      <c r="DR11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44424</v>
       </c>
-      <c r="DS11" s="140">
+      <c r="DS11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44425</v>
       </c>
-      <c r="DT11" s="140">
+      <c r="DT11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44426</v>
       </c>
-      <c r="DU11" s="140">
+      <c r="DU11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44427</v>
       </c>
-      <c r="DV11" s="140">
+      <c r="DV11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44428</v>
       </c>
-      <c r="DW11" s="140">
+      <c r="DW11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44429</v>
       </c>
-      <c r="DX11" s="140">
+      <c r="DX11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44430</v>
       </c>
-      <c r="DY11" s="140">
+      <c r="DY11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44431</v>
       </c>
-      <c r="DZ11" s="140">
+      <c r="DZ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44432</v>
       </c>
-      <c r="EA11" s="140">
+      <c r="EA11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44433</v>
       </c>
-      <c r="EB11" s="140">
+      <c r="EB11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44434</v>
       </c>
-      <c r="EC11" s="140">
+      <c r="EC11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44435</v>
       </c>
-      <c r="ED11" s="140">
+      <c r="ED11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44436</v>
       </c>
-      <c r="EE11" s="140">
+      <c r="EE11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44437</v>
       </c>
-      <c r="EF11" s="140">
+      <c r="EF11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44438</v>
       </c>
-      <c r="EG11" s="140">
+      <c r="EG11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44439</v>
       </c>
-      <c r="EH11" s="140">
+      <c r="EH11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44440</v>
       </c>
-      <c r="EI11" s="140">
+      <c r="EI11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44441</v>
       </c>
-      <c r="EJ11" s="140">
+      <c r="EJ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44442</v>
       </c>
-      <c r="EK11" s="140">
+      <c r="EK11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44443</v>
       </c>
-      <c r="EL11" s="140">
+      <c r="EL11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44444</v>
       </c>
-      <c r="EM11" s="140">
+      <c r="EM11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44445</v>
       </c>
-      <c r="EN11" s="140">
+      <c r="EN11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44446</v>
       </c>
-      <c r="EO11" s="140">
+      <c r="EO11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44447</v>
       </c>
-      <c r="EP11" s="140">
+      <c r="EP11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44448</v>
       </c>
-      <c r="EQ11" s="140">
+      <c r="EQ11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44449</v>
       </c>
-      <c r="ER11" s="140">
+      <c r="ER11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44450</v>
       </c>
-      <c r="ES11" s="140">
+      <c r="ES11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44451</v>
       </c>
-      <c r="ET11" s="140">
+      <c r="ET11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44452</v>
       </c>
-      <c r="EU11" s="140">
+      <c r="EU11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44453</v>
       </c>
-      <c r="EV11" s="140">
+      <c r="EV11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44454</v>
       </c>
-      <c r="EW11" s="140">
+      <c r="EW11" s="143">
         <f t="shared" ca="1" si="9"/>
         <v>44455</v>
       </c>
-      <c r="EX11" s="140">
+      <c r="EX11" s="143">
         <f t="shared" ref="EX11:HI11" ca="1" si="10">EW11+1</f>
         <v>44456</v>
       </c>
-      <c r="EY11" s="140">
+      <c r="EY11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44457</v>
       </c>
-      <c r="EZ11" s="140">
+      <c r="EZ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44458</v>
       </c>
-      <c r="FA11" s="140">
+      <c r="FA11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44459</v>
       </c>
-      <c r="FB11" s="140">
+      <c r="FB11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44460</v>
       </c>
-      <c r="FC11" s="140">
+      <c r="FC11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44461</v>
       </c>
-      <c r="FD11" s="140">
+      <c r="FD11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44462</v>
       </c>
-      <c r="FE11" s="140">
+      <c r="FE11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44463</v>
       </c>
-      <c r="FF11" s="140">
+      <c r="FF11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44464</v>
       </c>
-      <c r="FG11" s="140">
+      <c r="FG11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44465</v>
       </c>
-      <c r="FH11" s="140">
+      <c r="FH11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44466</v>
       </c>
-      <c r="FI11" s="140">
+      <c r="FI11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44467</v>
       </c>
-      <c r="FJ11" s="140">
+      <c r="FJ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44468</v>
       </c>
-      <c r="FK11" s="140">
+      <c r="FK11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44469</v>
       </c>
-      <c r="FL11" s="140">
+      <c r="FL11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44470</v>
       </c>
-      <c r="FM11" s="140">
+      <c r="FM11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44471</v>
       </c>
-      <c r="FN11" s="140">
+      <c r="FN11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44472</v>
       </c>
-      <c r="FO11" s="140">
+      <c r="FO11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44473</v>
       </c>
-      <c r="FP11" s="140">
+      <c r="FP11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44474</v>
       </c>
-      <c r="FQ11" s="140">
+      <c r="FQ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44475</v>
       </c>
-      <c r="FR11" s="140">
+      <c r="FR11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44476</v>
       </c>
-      <c r="FS11" s="140">
+      <c r="FS11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44477</v>
       </c>
-      <c r="FT11" s="140">
+      <c r="FT11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44478</v>
       </c>
-      <c r="FU11" s="140">
+      <c r="FU11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44479</v>
       </c>
-      <c r="FV11" s="140">
+      <c r="FV11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44480</v>
       </c>
-      <c r="FW11" s="140">
+      <c r="FW11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44481</v>
       </c>
-      <c r="FX11" s="140">
+      <c r="FX11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44482</v>
       </c>
-      <c r="FY11" s="140">
+      <c r="FY11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44483</v>
       </c>
-      <c r="FZ11" s="140">
+      <c r="FZ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44484</v>
       </c>
-      <c r="GA11" s="140">
+      <c r="GA11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44485</v>
       </c>
-      <c r="GB11" s="140">
+      <c r="GB11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44486</v>
       </c>
-      <c r="GC11" s="140">
+      <c r="GC11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44487</v>
       </c>
-      <c r="GD11" s="140">
+      <c r="GD11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44488</v>
       </c>
-      <c r="GE11" s="140">
+      <c r="GE11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44489</v>
       </c>
-      <c r="GF11" s="140">
+      <c r="GF11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44490</v>
       </c>
-      <c r="GG11" s="140">
+      <c r="GG11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44491</v>
       </c>
-      <c r="GH11" s="140">
+      <c r="GH11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44492</v>
       </c>
-      <c r="GI11" s="140">
+      <c r="GI11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44493</v>
       </c>
-      <c r="GJ11" s="140">
+      <c r="GJ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44494</v>
       </c>
-      <c r="GK11" s="140">
+      <c r="GK11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44495</v>
       </c>
-      <c r="GL11" s="140">
+      <c r="GL11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44496</v>
       </c>
-      <c r="GM11" s="140">
+      <c r="GM11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44497</v>
       </c>
-      <c r="GN11" s="140">
+      <c r="GN11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44498</v>
       </c>
-      <c r="GO11" s="140">
+      <c r="GO11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44499</v>
       </c>
-      <c r="GP11" s="140">
+      <c r="GP11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44500</v>
       </c>
-      <c r="GQ11" s="140">
+      <c r="GQ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44501</v>
       </c>
-      <c r="GR11" s="140">
+      <c r="GR11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44502</v>
       </c>
-      <c r="GS11" s="140">
+      <c r="GS11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44503</v>
       </c>
-      <c r="GT11" s="140">
+      <c r="GT11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44504</v>
       </c>
-      <c r="GU11" s="140">
+      <c r="GU11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44505</v>
       </c>
-      <c r="GV11" s="140">
+      <c r="GV11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44506</v>
       </c>
-      <c r="GW11" s="140">
+      <c r="GW11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44507</v>
       </c>
-      <c r="GX11" s="140">
+      <c r="GX11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44508</v>
       </c>
-      <c r="GY11" s="140">
+      <c r="GY11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44509</v>
       </c>
-      <c r="GZ11" s="140">
+      <c r="GZ11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44510</v>
       </c>
-      <c r="HA11" s="140">
+      <c r="HA11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44511</v>
       </c>
-      <c r="HB11" s="140">
+      <c r="HB11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44512</v>
       </c>
-      <c r="HC11" s="140">
+      <c r="HC11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44513</v>
       </c>
-      <c r="HD11" s="140">
+      <c r="HD11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44514</v>
       </c>
-      <c r="HE11" s="140">
+      <c r="HE11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44515</v>
       </c>
-      <c r="HF11" s="140">
+      <c r="HF11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44516</v>
       </c>
-      <c r="HG11" s="140">
+      <c r="HG11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44517</v>
       </c>
-      <c r="HH11" s="140">
+      <c r="HH11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44518</v>
       </c>
-      <c r="HI11" s="140">
+      <c r="HI11" s="143">
         <f t="shared" ca="1" si="10"/>
         <v>44519</v>
       </c>
-      <c r="HJ11" s="140">
+      <c r="HJ11" s="143">
         <f t="shared" ref="HJ11:JU11" ca="1" si="11">HI11+1</f>
         <v>44520</v>
       </c>
-      <c r="HK11" s="140">
+      <c r="HK11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44521</v>
       </c>
-      <c r="HL11" s="140">
+      <c r="HL11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44522</v>
       </c>
-      <c r="HM11" s="140">
+      <c r="HM11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44523</v>
       </c>
-      <c r="HN11" s="140">
+      <c r="HN11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44524</v>
       </c>
-      <c r="HO11" s="140">
+      <c r="HO11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44525</v>
       </c>
-      <c r="HP11" s="140">
+      <c r="HP11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44526</v>
       </c>
-      <c r="HQ11" s="140">
+      <c r="HQ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44527</v>
       </c>
-      <c r="HR11" s="140">
+      <c r="HR11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44528</v>
       </c>
-      <c r="HS11" s="140">
+      <c r="HS11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44529</v>
       </c>
-      <c r="HT11" s="140">
+      <c r="HT11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44530</v>
       </c>
-      <c r="HU11" s="140">
+      <c r="HU11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44531</v>
       </c>
-      <c r="HV11" s="140">
+      <c r="HV11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44532</v>
       </c>
-      <c r="HW11" s="140">
+      <c r="HW11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44533</v>
       </c>
-      <c r="HX11" s="140">
+      <c r="HX11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44534</v>
       </c>
-      <c r="HY11" s="140">
+      <c r="HY11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44535</v>
       </c>
-      <c r="HZ11" s="140">
+      <c r="HZ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44536</v>
       </c>
-      <c r="IA11" s="140">
+      <c r="IA11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44537</v>
       </c>
-      <c r="IB11" s="140">
+      <c r="IB11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44538</v>
       </c>
-      <c r="IC11" s="140">
+      <c r="IC11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44539</v>
       </c>
-      <c r="ID11" s="140">
+      <c r="ID11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44540</v>
       </c>
-      <c r="IE11" s="140">
+      <c r="IE11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44541</v>
       </c>
-      <c r="IF11" s="140">
+      <c r="IF11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44542</v>
       </c>
-      <c r="IG11" s="140">
+      <c r="IG11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44543</v>
       </c>
-      <c r="IH11" s="140">
+      <c r="IH11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44544</v>
       </c>
-      <c r="II11" s="140">
+      <c r="II11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44545</v>
       </c>
-      <c r="IJ11" s="140">
+      <c r="IJ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44546</v>
       </c>
-      <c r="IK11" s="140">
+      <c r="IK11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44547</v>
       </c>
-      <c r="IL11" s="140">
+      <c r="IL11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44548</v>
       </c>
-      <c r="IM11" s="140">
+      <c r="IM11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44549</v>
       </c>
-      <c r="IN11" s="140">
+      <c r="IN11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44550</v>
       </c>
-      <c r="IO11" s="140">
+      <c r="IO11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44551</v>
       </c>
-      <c r="IP11" s="140">
+      <c r="IP11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44552</v>
       </c>
-      <c r="IQ11" s="140">
+      <c r="IQ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44553</v>
       </c>
-      <c r="IR11" s="140">
+      <c r="IR11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44554</v>
       </c>
-      <c r="IS11" s="140">
+      <c r="IS11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44555</v>
       </c>
-      <c r="IT11" s="140">
+      <c r="IT11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44556</v>
       </c>
-      <c r="IU11" s="140">
+      <c r="IU11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44557</v>
       </c>
-      <c r="IV11" s="140">
+      <c r="IV11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44558</v>
       </c>
-      <c r="IW11" s="140">
+      <c r="IW11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44559</v>
       </c>
-      <c r="IX11" s="140">
+      <c r="IX11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44560</v>
       </c>
-      <c r="IY11" s="140">
+      <c r="IY11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44561</v>
       </c>
-      <c r="IZ11" s="140">
+      <c r="IZ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44562</v>
       </c>
-      <c r="JA11" s="140">
+      <c r="JA11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44563</v>
       </c>
-      <c r="JB11" s="140">
+      <c r="JB11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44564</v>
       </c>
-      <c r="JC11" s="140">
+      <c r="JC11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44565</v>
       </c>
-      <c r="JD11" s="140">
+      <c r="JD11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44566</v>
       </c>
-      <c r="JE11" s="140">
+      <c r="JE11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44567</v>
       </c>
-      <c r="JF11" s="140">
+      <c r="JF11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44568</v>
       </c>
-      <c r="JG11" s="140">
+      <c r="JG11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44569</v>
       </c>
-      <c r="JH11" s="140">
+      <c r="JH11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44570</v>
       </c>
-      <c r="JI11" s="140">
+      <c r="JI11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44571</v>
       </c>
-      <c r="JJ11" s="140">
+      <c r="JJ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44572</v>
       </c>
-      <c r="JK11" s="140">
+      <c r="JK11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44573</v>
       </c>
-      <c r="JL11" s="140">
+      <c r="JL11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44574</v>
       </c>
-      <c r="JM11" s="140">
+      <c r="JM11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44575</v>
       </c>
-      <c r="JN11" s="140">
+      <c r="JN11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44576</v>
       </c>
-      <c r="JO11" s="140">
+      <c r="JO11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44577</v>
       </c>
-      <c r="JP11" s="140">
+      <c r="JP11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44578</v>
       </c>
-      <c r="JQ11" s="140">
+      <c r="JQ11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44579</v>
       </c>
-      <c r="JR11" s="140">
+      <c r="JR11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44580</v>
       </c>
-      <c r="JS11" s="140">
+      <c r="JS11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44581</v>
       </c>
-      <c r="JT11" s="140">
+      <c r="JT11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44582</v>
       </c>
-      <c r="JU11" s="140">
+      <c r="JU11" s="143">
         <f t="shared" ca="1" si="11"/>
         <v>44583</v>
       </c>
-      <c r="JV11" s="140">
+      <c r="JV11" s="143">
         <f t="shared" ref="JV11:MG11" ca="1" si="12">JU11+1</f>
         <v>44584</v>
       </c>
-      <c r="JW11" s="140">
+      <c r="JW11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44585</v>
       </c>
-      <c r="JX11" s="140">
+      <c r="JX11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44586</v>
       </c>
-      <c r="JY11" s="140">
+      <c r="JY11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44587</v>
       </c>
-      <c r="JZ11" s="140">
+      <c r="JZ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44588</v>
       </c>
-      <c r="KA11" s="140">
+      <c r="KA11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44589</v>
       </c>
-      <c r="KB11" s="140">
+      <c r="KB11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44590</v>
       </c>
-      <c r="KC11" s="140">
+      <c r="KC11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44591</v>
       </c>
-      <c r="KD11" s="140">
+      <c r="KD11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44592</v>
       </c>
-      <c r="KE11" s="140">
+      <c r="KE11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44593</v>
       </c>
-      <c r="KF11" s="140">
+      <c r="KF11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44594</v>
       </c>
-      <c r="KG11" s="140">
+      <c r="KG11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44595</v>
       </c>
-      <c r="KH11" s="140">
+      <c r="KH11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44596</v>
       </c>
-      <c r="KI11" s="140">
+      <c r="KI11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44597</v>
       </c>
-      <c r="KJ11" s="140">
+      <c r="KJ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44598</v>
       </c>
-      <c r="KK11" s="140">
+      <c r="KK11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44599</v>
       </c>
-      <c r="KL11" s="140">
+      <c r="KL11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44600</v>
       </c>
-      <c r="KM11" s="140">
+      <c r="KM11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44601</v>
       </c>
-      <c r="KN11" s="140">
+      <c r="KN11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44602</v>
       </c>
-      <c r="KO11" s="140">
+      <c r="KO11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44603</v>
       </c>
-      <c r="KP11" s="140">
+      <c r="KP11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44604</v>
       </c>
-      <c r="KQ11" s="140">
+      <c r="KQ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44605</v>
       </c>
-      <c r="KR11" s="140">
+      <c r="KR11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44606</v>
       </c>
-      <c r="KS11" s="140">
+      <c r="KS11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44607</v>
       </c>
-      <c r="KT11" s="140">
+      <c r="KT11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44608</v>
       </c>
-      <c r="KU11" s="140">
+      <c r="KU11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44609</v>
       </c>
-      <c r="KV11" s="140">
+      <c r="KV11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44610</v>
       </c>
-      <c r="KW11" s="140">
+      <c r="KW11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44611</v>
       </c>
-      <c r="KX11" s="140">
+      <c r="KX11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44612</v>
       </c>
-      <c r="KY11" s="140">
+      <c r="KY11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44613</v>
       </c>
-      <c r="KZ11" s="140">
+      <c r="KZ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44614</v>
       </c>
-      <c r="LA11" s="140">
+      <c r="LA11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44615</v>
       </c>
-      <c r="LB11" s="140">
+      <c r="LB11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44616</v>
       </c>
-      <c r="LC11" s="140">
+      <c r="LC11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44617</v>
       </c>
-      <c r="LD11" s="140">
+      <c r="LD11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44618</v>
       </c>
-      <c r="LE11" s="140">
+      <c r="LE11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44619</v>
       </c>
-      <c r="LF11" s="140">
+      <c r="LF11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44620</v>
       </c>
-      <c r="LG11" s="140">
+      <c r="LG11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44621</v>
       </c>
-      <c r="LH11" s="140">
+      <c r="LH11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44622</v>
       </c>
-      <c r="LI11" s="140">
+      <c r="LI11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44623</v>
       </c>
-      <c r="LJ11" s="140">
+      <c r="LJ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44624</v>
       </c>
-      <c r="LK11" s="140">
+      <c r="LK11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44625</v>
       </c>
-      <c r="LL11" s="140">
+      <c r="LL11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44626</v>
       </c>
-      <c r="LM11" s="140">
+      <c r="LM11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44627</v>
       </c>
-      <c r="LN11" s="140">
+      <c r="LN11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44628</v>
       </c>
-      <c r="LO11" s="140">
+      <c r="LO11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44629</v>
       </c>
-      <c r="LP11" s="140">
+      <c r="LP11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44630</v>
       </c>
-      <c r="LQ11" s="140">
+      <c r="LQ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44631</v>
       </c>
-      <c r="LR11" s="140">
+      <c r="LR11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44632</v>
       </c>
-      <c r="LS11" s="140">
+      <c r="LS11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44633</v>
       </c>
-      <c r="LT11" s="140">
+      <c r="LT11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44634</v>
       </c>
-      <c r="LU11" s="140">
+      <c r="LU11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44635</v>
       </c>
-      <c r="LV11" s="140">
+      <c r="LV11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44636</v>
       </c>
-      <c r="LW11" s="140">
+      <c r="LW11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44637</v>
       </c>
-      <c r="LX11" s="140">
+      <c r="LX11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44638</v>
       </c>
-      <c r="LY11" s="140">
+      <c r="LY11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44639</v>
       </c>
-      <c r="LZ11" s="140">
+      <c r="LZ11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44640</v>
       </c>
-      <c r="MA11" s="140">
+      <c r="MA11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44641</v>
       </c>
-      <c r="MB11" s="140">
+      <c r="MB11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44642</v>
       </c>
-      <c r="MC11" s="140">
+      <c r="MC11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44643</v>
       </c>
-      <c r="MD11" s="140">
+      <c r="MD11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44644</v>
       </c>
-      <c r="ME11" s="140">
+      <c r="ME11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44645</v>
       </c>
-      <c r="MF11" s="140">
+      <c r="MF11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44646</v>
       </c>
-      <c r="MG11" s="140">
+      <c r="MG11" s="143">
         <f t="shared" ca="1" si="12"/>
         <v>44647</v>
       </c>
-      <c r="MH11" s="140">
+      <c r="MH11" s="143">
         <f t="shared" ref="MH11:OD11" ca="1" si="13">MG11+1</f>
         <v>44648</v>
       </c>
-      <c r="MI11" s="140">
+      <c r="MI11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44649</v>
       </c>
-      <c r="MJ11" s="140">
+      <c r="MJ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44650</v>
       </c>
-      <c r="MK11" s="140">
+      <c r="MK11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44651</v>
       </c>
-      <c r="ML11" s="140">
+      <c r="ML11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44652</v>
       </c>
-      <c r="MM11" s="140">
+      <c r="MM11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44653</v>
       </c>
-      <c r="MN11" s="140">
+      <c r="MN11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44654</v>
       </c>
-      <c r="MO11" s="140">
+      <c r="MO11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44655</v>
       </c>
-      <c r="MP11" s="140">
+      <c r="MP11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44656</v>
       </c>
-      <c r="MQ11" s="140">
+      <c r="MQ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44657</v>
       </c>
-      <c r="MR11" s="140">
+      <c r="MR11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44658</v>
       </c>
-      <c r="MS11" s="140">
+      <c r="MS11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44659</v>
       </c>
-      <c r="MT11" s="140">
+      <c r="MT11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44660</v>
       </c>
-      <c r="MU11" s="140">
+      <c r="MU11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44661</v>
       </c>
-      <c r="MV11" s="140">
+      <c r="MV11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44662</v>
       </c>
-      <c r="MW11" s="140">
+      <c r="MW11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44663</v>
       </c>
-      <c r="MX11" s="140">
+      <c r="MX11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44664</v>
       </c>
-      <c r="MY11" s="140">
+      <c r="MY11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44665</v>
       </c>
-      <c r="MZ11" s="140">
+      <c r="MZ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44666</v>
       </c>
-      <c r="NA11" s="140">
+      <c r="NA11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44667</v>
       </c>
-      <c r="NB11" s="140">
+      <c r="NB11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44668</v>
       </c>
-      <c r="NC11" s="140">
+      <c r="NC11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44669</v>
       </c>
-      <c r="ND11" s="140">
+      <c r="ND11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44670</v>
       </c>
-      <c r="NE11" s="140">
+      <c r="NE11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44671</v>
       </c>
-      <c r="NF11" s="140">
+      <c r="NF11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44672</v>
       </c>
-      <c r="NG11" s="140">
+      <c r="NG11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44673</v>
       </c>
-      <c r="NH11" s="140">
+      <c r="NH11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44674</v>
       </c>
-      <c r="NI11" s="140">
+      <c r="NI11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44675</v>
       </c>
-      <c r="NJ11" s="140">
+      <c r="NJ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44676</v>
       </c>
-      <c r="NK11" s="140">
+      <c r="NK11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44677</v>
       </c>
-      <c r="NL11" s="140">
+      <c r="NL11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44678</v>
       </c>
-      <c r="NM11" s="140">
+      <c r="NM11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44679</v>
       </c>
-      <c r="NN11" s="140">
+      <c r="NN11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44680</v>
       </c>
-      <c r="NO11" s="140">
+      <c r="NO11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44681</v>
       </c>
-      <c r="NP11" s="140">
+      <c r="NP11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44682</v>
       </c>
-      <c r="NQ11" s="140">
+      <c r="NQ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44683</v>
       </c>
-      <c r="NR11" s="140">
+      <c r="NR11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44684</v>
       </c>
-      <c r="NS11" s="140">
+      <c r="NS11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44685</v>
       </c>
-      <c r="NT11" s="140">
+      <c r="NT11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44686</v>
       </c>
-      <c r="NU11" s="140">
+      <c r="NU11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44687</v>
       </c>
-      <c r="NV11" s="140">
+      <c r="NV11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44688</v>
       </c>
-      <c r="NW11" s="140">
+      <c r="NW11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44689</v>
       </c>
-      <c r="NX11" s="140">
+      <c r="NX11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44690</v>
       </c>
-      <c r="NY11" s="140">
+      <c r="NY11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44691</v>
       </c>
-      <c r="NZ11" s="140">
+      <c r="NZ11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44692</v>
       </c>
-      <c r="OA11" s="140">
+      <c r="OA11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44693</v>
       </c>
-      <c r="OB11" s="140">
+      <c r="OB11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44694</v>
       </c>
-      <c r="OC11" s="140">
+      <c r="OC11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44695</v>
       </c>
-      <c r="OD11" s="140">
+      <c r="OD11" s="143">
         <f t="shared" ca="1" si="13"/>
         <v>44696</v>
       </c>
     </row>
     <row r="12" spans="1:394" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="159" t="s">
+      <c r="K12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="160" t="s">
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="160"/>
+      <c r="V12" s="148"/>
       <c r="W12" s="62">
         <v>0</v>
       </c>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="140"/>
-      <c r="AH12" s="140"/>
-      <c r="AI12" s="140"/>
-      <c r="AJ12" s="140"/>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="140"/>
-      <c r="AO12" s="140"/>
-      <c r="AP12" s="140"/>
-      <c r="AQ12" s="140"/>
-      <c r="AR12" s="140"/>
-      <c r="AS12" s="140"/>
-      <c r="AT12" s="140"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
-      <c r="AY12" s="140"/>
-      <c r="AZ12" s="140"/>
-      <c r="BA12" s="140"/>
-      <c r="BB12" s="140"/>
-      <c r="BC12" s="140"/>
-      <c r="BD12" s="140"/>
-      <c r="BE12" s="140"/>
-      <c r="BF12" s="140"/>
-      <c r="BG12" s="140"/>
-      <c r="BH12" s="140"/>
-      <c r="BI12" s="140"/>
-      <c r="BJ12" s="140"/>
-      <c r="BK12" s="140"/>
-      <c r="BL12" s="140"/>
-      <c r="BM12" s="140"/>
-      <c r="BN12" s="140"/>
-      <c r="BO12" s="140"/>
-      <c r="BP12" s="140"/>
-      <c r="BQ12" s="140"/>
-      <c r="BR12" s="140"/>
-      <c r="BS12" s="140"/>
-      <c r="BT12" s="140"/>
-      <c r="BU12" s="140"/>
-      <c r="BV12" s="140"/>
-      <c r="BW12" s="140"/>
-      <c r="BX12" s="140"/>
-      <c r="BY12" s="140"/>
-      <c r="BZ12" s="140"/>
-      <c r="CA12" s="140"/>
-      <c r="CB12" s="140"/>
-      <c r="CC12" s="140"/>
-      <c r="CD12" s="140"/>
-      <c r="CE12" s="140"/>
-      <c r="CF12" s="140"/>
-      <c r="CG12" s="140"/>
-      <c r="CH12" s="140"/>
-      <c r="CI12" s="140"/>
-      <c r="CJ12" s="140"/>
-      <c r="CK12" s="140"/>
-      <c r="CL12" s="140"/>
-      <c r="CM12" s="140"/>
-      <c r="CN12" s="140"/>
-      <c r="CO12" s="140"/>
-      <c r="CP12" s="140"/>
-      <c r="CQ12" s="140"/>
-      <c r="CR12" s="140"/>
-      <c r="CS12" s="140"/>
-      <c r="CT12" s="140"/>
-      <c r="CU12" s="140"/>
-      <c r="CV12" s="140"/>
-      <c r="CW12" s="140"/>
-      <c r="CX12" s="140"/>
-      <c r="CY12" s="140"/>
-      <c r="CZ12" s="140"/>
-      <c r="DA12" s="140"/>
-      <c r="DB12" s="140"/>
-      <c r="DC12" s="140"/>
-      <c r="DD12" s="140"/>
-      <c r="DE12" s="140"/>
-      <c r="DF12" s="140"/>
-      <c r="DG12" s="140"/>
-      <c r="DH12" s="140"/>
-      <c r="DI12" s="140"/>
-      <c r="DJ12" s="140"/>
-      <c r="DK12" s="140"/>
-      <c r="DL12" s="140"/>
-      <c r="DM12" s="140"/>
-      <c r="DN12" s="140"/>
-      <c r="DO12" s="140"/>
-      <c r="DP12" s="140"/>
-      <c r="DQ12" s="140"/>
-      <c r="DR12" s="140"/>
-      <c r="DS12" s="140"/>
-      <c r="DT12" s="140"/>
-      <c r="DU12" s="140"/>
-      <c r="DV12" s="140"/>
-      <c r="DW12" s="140"/>
-      <c r="DX12" s="140"/>
-      <c r="DY12" s="140"/>
-      <c r="DZ12" s="140"/>
-      <c r="EA12" s="140"/>
-      <c r="EB12" s="140"/>
-      <c r="EC12" s="140"/>
-      <c r="ED12" s="140"/>
-      <c r="EE12" s="140"/>
-      <c r="EF12" s="140"/>
-      <c r="EG12" s="140"/>
-      <c r="EH12" s="140"/>
-      <c r="EI12" s="140"/>
-      <c r="EJ12" s="140"/>
-      <c r="EK12" s="140"/>
-      <c r="EL12" s="140"/>
-      <c r="EM12" s="140"/>
-      <c r="EN12" s="140"/>
-      <c r="EO12" s="140"/>
-      <c r="EP12" s="140"/>
-      <c r="EQ12" s="140"/>
-      <c r="ER12" s="140"/>
-      <c r="ES12" s="140"/>
-      <c r="ET12" s="140"/>
-      <c r="EU12" s="140"/>
-      <c r="EV12" s="140"/>
-      <c r="EW12" s="140"/>
-      <c r="EX12" s="140"/>
-      <c r="EY12" s="140"/>
-      <c r="EZ12" s="140"/>
-      <c r="FA12" s="140"/>
-      <c r="FB12" s="140"/>
-      <c r="FC12" s="140"/>
-      <c r="FD12" s="140"/>
-      <c r="FE12" s="140"/>
-      <c r="FF12" s="140"/>
-      <c r="FG12" s="140"/>
-      <c r="FH12" s="140"/>
-      <c r="FI12" s="140"/>
-      <c r="FJ12" s="140"/>
-      <c r="FK12" s="140"/>
-      <c r="FL12" s="140"/>
-      <c r="FM12" s="140"/>
-      <c r="FN12" s="140"/>
-      <c r="FO12" s="140"/>
-      <c r="FP12" s="140"/>
-      <c r="FQ12" s="140"/>
-      <c r="FR12" s="140"/>
-      <c r="FS12" s="140"/>
-      <c r="FT12" s="140"/>
-      <c r="FU12" s="140"/>
-      <c r="FV12" s="140"/>
-      <c r="FW12" s="140"/>
-      <c r="FX12" s="140"/>
-      <c r="FY12" s="140"/>
-      <c r="FZ12" s="140"/>
-      <c r="GA12" s="140"/>
-      <c r="GB12" s="140"/>
-      <c r="GC12" s="140"/>
-      <c r="GD12" s="140"/>
-      <c r="GE12" s="140"/>
-      <c r="GF12" s="140"/>
-      <c r="GG12" s="140"/>
-      <c r="GH12" s="140"/>
-      <c r="GI12" s="140"/>
-      <c r="GJ12" s="140"/>
-      <c r="GK12" s="140"/>
-      <c r="GL12" s="140"/>
-      <c r="GM12" s="140"/>
-      <c r="GN12" s="140"/>
-      <c r="GO12" s="140"/>
-      <c r="GP12" s="140"/>
-      <c r="GQ12" s="140"/>
-      <c r="GR12" s="140"/>
-      <c r="GS12" s="140"/>
-      <c r="GT12" s="140"/>
-      <c r="GU12" s="140"/>
-      <c r="GV12" s="140"/>
-      <c r="GW12" s="140"/>
-      <c r="GX12" s="140"/>
-      <c r="GY12" s="140"/>
-      <c r="GZ12" s="140"/>
-      <c r="HA12" s="140"/>
-      <c r="HB12" s="140"/>
-      <c r="HC12" s="140"/>
-      <c r="HD12" s="140"/>
-      <c r="HE12" s="140"/>
-      <c r="HF12" s="140"/>
-      <c r="HG12" s="140"/>
-      <c r="HH12" s="140"/>
-      <c r="HI12" s="140"/>
-      <c r="HJ12" s="140"/>
-      <c r="HK12" s="140"/>
-      <c r="HL12" s="140"/>
-      <c r="HM12" s="140"/>
-      <c r="HN12" s="140"/>
-      <c r="HO12" s="140"/>
-      <c r="HP12" s="140"/>
-      <c r="HQ12" s="140"/>
-      <c r="HR12" s="140"/>
-      <c r="HS12" s="140"/>
-      <c r="HT12" s="140"/>
-      <c r="HU12" s="140"/>
-      <c r="HV12" s="140"/>
-      <c r="HW12" s="140"/>
-      <c r="HX12" s="140"/>
-      <c r="HY12" s="140"/>
-      <c r="HZ12" s="140"/>
-      <c r="IA12" s="140"/>
-      <c r="IB12" s="140"/>
-      <c r="IC12" s="140"/>
-      <c r="ID12" s="140"/>
-      <c r="IE12" s="140"/>
-      <c r="IF12" s="140"/>
-      <c r="IG12" s="140"/>
-      <c r="IH12" s="140"/>
-      <c r="II12" s="140"/>
-      <c r="IJ12" s="140"/>
-      <c r="IK12" s="140"/>
-      <c r="IL12" s="140"/>
-      <c r="IM12" s="140"/>
-      <c r="IN12" s="140"/>
-      <c r="IO12" s="140"/>
-      <c r="IP12" s="140"/>
-      <c r="IQ12" s="140"/>
-      <c r="IR12" s="140"/>
-      <c r="IS12" s="140"/>
-      <c r="IT12" s="140"/>
-      <c r="IU12" s="140"/>
-      <c r="IV12" s="140"/>
-      <c r="IW12" s="140"/>
-      <c r="IX12" s="140"/>
-      <c r="IY12" s="140"/>
-      <c r="IZ12" s="140"/>
-      <c r="JA12" s="140"/>
-      <c r="JB12" s="140"/>
-      <c r="JC12" s="140"/>
-      <c r="JD12" s="140"/>
-      <c r="JE12" s="140"/>
-      <c r="JF12" s="140"/>
-      <c r="JG12" s="140"/>
-      <c r="JH12" s="140"/>
-      <c r="JI12" s="140"/>
-      <c r="JJ12" s="140"/>
-      <c r="JK12" s="140"/>
-      <c r="JL12" s="140"/>
-      <c r="JM12" s="140"/>
-      <c r="JN12" s="140"/>
-      <c r="JO12" s="140"/>
-      <c r="JP12" s="140"/>
-      <c r="JQ12" s="140"/>
-      <c r="JR12" s="140"/>
-      <c r="JS12" s="140"/>
-      <c r="JT12" s="140"/>
-      <c r="JU12" s="140"/>
-      <c r="JV12" s="140"/>
-      <c r="JW12" s="140"/>
-      <c r="JX12" s="140"/>
-      <c r="JY12" s="140"/>
-      <c r="JZ12" s="140"/>
-      <c r="KA12" s="140"/>
-      <c r="KB12" s="140"/>
-      <c r="KC12" s="140"/>
-      <c r="KD12" s="140"/>
-      <c r="KE12" s="140"/>
-      <c r="KF12" s="140"/>
-      <c r="KG12" s="140"/>
-      <c r="KH12" s="140"/>
-      <c r="KI12" s="140"/>
-      <c r="KJ12" s="140"/>
-      <c r="KK12" s="140"/>
-      <c r="KL12" s="140"/>
-      <c r="KM12" s="140"/>
-      <c r="KN12" s="140"/>
-      <c r="KO12" s="140"/>
-      <c r="KP12" s="140"/>
-      <c r="KQ12" s="140"/>
-      <c r="KR12" s="140"/>
-      <c r="KS12" s="140"/>
-      <c r="KT12" s="140"/>
-      <c r="KU12" s="140"/>
-      <c r="KV12" s="140"/>
-      <c r="KW12" s="140"/>
-      <c r="KX12" s="140"/>
-      <c r="KY12" s="140"/>
-      <c r="KZ12" s="140"/>
-      <c r="LA12" s="140"/>
-      <c r="LB12" s="140"/>
-      <c r="LC12" s="140"/>
-      <c r="LD12" s="140"/>
-      <c r="LE12" s="140"/>
-      <c r="LF12" s="140"/>
-      <c r="LG12" s="140"/>
-      <c r="LH12" s="140"/>
-      <c r="LI12" s="140"/>
-      <c r="LJ12" s="140"/>
-      <c r="LK12" s="140"/>
-      <c r="LL12" s="140"/>
-      <c r="LM12" s="140"/>
-      <c r="LN12" s="140"/>
-      <c r="LO12" s="140"/>
-      <c r="LP12" s="140"/>
-      <c r="LQ12" s="140"/>
-      <c r="LR12" s="140"/>
-      <c r="LS12" s="140"/>
-      <c r="LT12" s="140"/>
-      <c r="LU12" s="140"/>
-      <c r="LV12" s="140"/>
-      <c r="LW12" s="140"/>
-      <c r="LX12" s="140"/>
-      <c r="LY12" s="140"/>
-      <c r="LZ12" s="140"/>
-      <c r="MA12" s="140"/>
-      <c r="MB12" s="140"/>
-      <c r="MC12" s="140"/>
-      <c r="MD12" s="140"/>
-      <c r="ME12" s="140"/>
-      <c r="MF12" s="140"/>
-      <c r="MG12" s="140"/>
-      <c r="MH12" s="140"/>
-      <c r="MI12" s="140"/>
-      <c r="MJ12" s="140"/>
-      <c r="MK12" s="140"/>
-      <c r="ML12" s="140"/>
-      <c r="MM12" s="140"/>
-      <c r="MN12" s="140"/>
-      <c r="MO12" s="140"/>
-      <c r="MP12" s="140"/>
-      <c r="MQ12" s="140"/>
-      <c r="MR12" s="140"/>
-      <c r="MS12" s="140"/>
-      <c r="MT12" s="140"/>
-      <c r="MU12" s="140"/>
-      <c r="MV12" s="140"/>
-      <c r="MW12" s="140"/>
-      <c r="MX12" s="140"/>
-      <c r="MY12" s="140"/>
-      <c r="MZ12" s="140"/>
-      <c r="NA12" s="140"/>
-      <c r="NB12" s="140"/>
-      <c r="NC12" s="140"/>
-      <c r="ND12" s="140"/>
-      <c r="NE12" s="140"/>
-      <c r="NF12" s="140"/>
-      <c r="NG12" s="140"/>
-      <c r="NH12" s="140"/>
-      <c r="NI12" s="140"/>
-      <c r="NJ12" s="140"/>
-      <c r="NK12" s="140"/>
-      <c r="NL12" s="140"/>
-      <c r="NM12" s="140"/>
-      <c r="NN12" s="140"/>
-      <c r="NO12" s="140"/>
-      <c r="NP12" s="140"/>
-      <c r="NQ12" s="140"/>
-      <c r="NR12" s="140"/>
-      <c r="NS12" s="140"/>
-      <c r="NT12" s="140"/>
-      <c r="NU12" s="140"/>
-      <c r="NV12" s="140"/>
-      <c r="NW12" s="140"/>
-      <c r="NX12" s="140"/>
-      <c r="NY12" s="140"/>
-      <c r="NZ12" s="140"/>
-      <c r="OA12" s="140"/>
-      <c r="OB12" s="140"/>
-      <c r="OC12" s="140"/>
-      <c r="OD12" s="140"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="143"/>
+      <c r="AJ12" s="143"/>
+      <c r="AK12" s="143"/>
+      <c r="AL12" s="143"/>
+      <c r="AM12" s="143"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="143"/>
+      <c r="AQ12" s="143"/>
+      <c r="AR12" s="143"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="143"/>
+      <c r="AU12" s="143"/>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
+      <c r="AX12" s="143"/>
+      <c r="AY12" s="143"/>
+      <c r="AZ12" s="143"/>
+      <c r="BA12" s="143"/>
+      <c r="BB12" s="143"/>
+      <c r="BC12" s="143"/>
+      <c r="BD12" s="143"/>
+      <c r="BE12" s="143"/>
+      <c r="BF12" s="143"/>
+      <c r="BG12" s="143"/>
+      <c r="BH12" s="143"/>
+      <c r="BI12" s="143"/>
+      <c r="BJ12" s="143"/>
+      <c r="BK12" s="143"/>
+      <c r="BL12" s="143"/>
+      <c r="BM12" s="143"/>
+      <c r="BN12" s="143"/>
+      <c r="BO12" s="143"/>
+      <c r="BP12" s="143"/>
+      <c r="BQ12" s="143"/>
+      <c r="BR12" s="143"/>
+      <c r="BS12" s="143"/>
+      <c r="BT12" s="143"/>
+      <c r="BU12" s="143"/>
+      <c r="BV12" s="143"/>
+      <c r="BW12" s="143"/>
+      <c r="BX12" s="143"/>
+      <c r="BY12" s="143"/>
+      <c r="BZ12" s="143"/>
+      <c r="CA12" s="143"/>
+      <c r="CB12" s="143"/>
+      <c r="CC12" s="143"/>
+      <c r="CD12" s="143"/>
+      <c r="CE12" s="143"/>
+      <c r="CF12" s="143"/>
+      <c r="CG12" s="143"/>
+      <c r="CH12" s="143"/>
+      <c r="CI12" s="143"/>
+      <c r="CJ12" s="143"/>
+      <c r="CK12" s="143"/>
+      <c r="CL12" s="143"/>
+      <c r="CM12" s="143"/>
+      <c r="CN12" s="143"/>
+      <c r="CO12" s="143"/>
+      <c r="CP12" s="143"/>
+      <c r="CQ12" s="143"/>
+      <c r="CR12" s="143"/>
+      <c r="CS12" s="143"/>
+      <c r="CT12" s="143"/>
+      <c r="CU12" s="143"/>
+      <c r="CV12" s="143"/>
+      <c r="CW12" s="143"/>
+      <c r="CX12" s="143"/>
+      <c r="CY12" s="143"/>
+      <c r="CZ12" s="143"/>
+      <c r="DA12" s="143"/>
+      <c r="DB12" s="143"/>
+      <c r="DC12" s="143"/>
+      <c r="DD12" s="143"/>
+      <c r="DE12" s="143"/>
+      <c r="DF12" s="143"/>
+      <c r="DG12" s="143"/>
+      <c r="DH12" s="143"/>
+      <c r="DI12" s="143"/>
+      <c r="DJ12" s="143"/>
+      <c r="DK12" s="143"/>
+      <c r="DL12" s="143"/>
+      <c r="DM12" s="143"/>
+      <c r="DN12" s="143"/>
+      <c r="DO12" s="143"/>
+      <c r="DP12" s="143"/>
+      <c r="DQ12" s="143"/>
+      <c r="DR12" s="143"/>
+      <c r="DS12" s="143"/>
+      <c r="DT12" s="143"/>
+      <c r="DU12" s="143"/>
+      <c r="DV12" s="143"/>
+      <c r="DW12" s="143"/>
+      <c r="DX12" s="143"/>
+      <c r="DY12" s="143"/>
+      <c r="DZ12" s="143"/>
+      <c r="EA12" s="143"/>
+      <c r="EB12" s="143"/>
+      <c r="EC12" s="143"/>
+      <c r="ED12" s="143"/>
+      <c r="EE12" s="143"/>
+      <c r="EF12" s="143"/>
+      <c r="EG12" s="143"/>
+      <c r="EH12" s="143"/>
+      <c r="EI12" s="143"/>
+      <c r="EJ12" s="143"/>
+      <c r="EK12" s="143"/>
+      <c r="EL12" s="143"/>
+      <c r="EM12" s="143"/>
+      <c r="EN12" s="143"/>
+      <c r="EO12" s="143"/>
+      <c r="EP12" s="143"/>
+      <c r="EQ12" s="143"/>
+      <c r="ER12" s="143"/>
+      <c r="ES12" s="143"/>
+      <c r="ET12" s="143"/>
+      <c r="EU12" s="143"/>
+      <c r="EV12" s="143"/>
+      <c r="EW12" s="143"/>
+      <c r="EX12" s="143"/>
+      <c r="EY12" s="143"/>
+      <c r="EZ12" s="143"/>
+      <c r="FA12" s="143"/>
+      <c r="FB12" s="143"/>
+      <c r="FC12" s="143"/>
+      <c r="FD12" s="143"/>
+      <c r="FE12" s="143"/>
+      <c r="FF12" s="143"/>
+      <c r="FG12" s="143"/>
+      <c r="FH12" s="143"/>
+      <c r="FI12" s="143"/>
+      <c r="FJ12" s="143"/>
+      <c r="FK12" s="143"/>
+      <c r="FL12" s="143"/>
+      <c r="FM12" s="143"/>
+      <c r="FN12" s="143"/>
+      <c r="FO12" s="143"/>
+      <c r="FP12" s="143"/>
+      <c r="FQ12" s="143"/>
+      <c r="FR12" s="143"/>
+      <c r="FS12" s="143"/>
+      <c r="FT12" s="143"/>
+      <c r="FU12" s="143"/>
+      <c r="FV12" s="143"/>
+      <c r="FW12" s="143"/>
+      <c r="FX12" s="143"/>
+      <c r="FY12" s="143"/>
+      <c r="FZ12" s="143"/>
+      <c r="GA12" s="143"/>
+      <c r="GB12" s="143"/>
+      <c r="GC12" s="143"/>
+      <c r="GD12" s="143"/>
+      <c r="GE12" s="143"/>
+      <c r="GF12" s="143"/>
+      <c r="GG12" s="143"/>
+      <c r="GH12" s="143"/>
+      <c r="GI12" s="143"/>
+      <c r="GJ12" s="143"/>
+      <c r="GK12" s="143"/>
+      <c r="GL12" s="143"/>
+      <c r="GM12" s="143"/>
+      <c r="GN12" s="143"/>
+      <c r="GO12" s="143"/>
+      <c r="GP12" s="143"/>
+      <c r="GQ12" s="143"/>
+      <c r="GR12" s="143"/>
+      <c r="GS12" s="143"/>
+      <c r="GT12" s="143"/>
+      <c r="GU12" s="143"/>
+      <c r="GV12" s="143"/>
+      <c r="GW12" s="143"/>
+      <c r="GX12" s="143"/>
+      <c r="GY12" s="143"/>
+      <c r="GZ12" s="143"/>
+      <c r="HA12" s="143"/>
+      <c r="HB12" s="143"/>
+      <c r="HC12" s="143"/>
+      <c r="HD12" s="143"/>
+      <c r="HE12" s="143"/>
+      <c r="HF12" s="143"/>
+      <c r="HG12" s="143"/>
+      <c r="HH12" s="143"/>
+      <c r="HI12" s="143"/>
+      <c r="HJ12" s="143"/>
+      <c r="HK12" s="143"/>
+      <c r="HL12" s="143"/>
+      <c r="HM12" s="143"/>
+      <c r="HN12" s="143"/>
+      <c r="HO12" s="143"/>
+      <c r="HP12" s="143"/>
+      <c r="HQ12" s="143"/>
+      <c r="HR12" s="143"/>
+      <c r="HS12" s="143"/>
+      <c r="HT12" s="143"/>
+      <c r="HU12" s="143"/>
+      <c r="HV12" s="143"/>
+      <c r="HW12" s="143"/>
+      <c r="HX12" s="143"/>
+      <c r="HY12" s="143"/>
+      <c r="HZ12" s="143"/>
+      <c r="IA12" s="143"/>
+      <c r="IB12" s="143"/>
+      <c r="IC12" s="143"/>
+      <c r="ID12" s="143"/>
+      <c r="IE12" s="143"/>
+      <c r="IF12" s="143"/>
+      <c r="IG12" s="143"/>
+      <c r="IH12" s="143"/>
+      <c r="II12" s="143"/>
+      <c r="IJ12" s="143"/>
+      <c r="IK12" s="143"/>
+      <c r="IL12" s="143"/>
+      <c r="IM12" s="143"/>
+      <c r="IN12" s="143"/>
+      <c r="IO12" s="143"/>
+      <c r="IP12" s="143"/>
+      <c r="IQ12" s="143"/>
+      <c r="IR12" s="143"/>
+      <c r="IS12" s="143"/>
+      <c r="IT12" s="143"/>
+      <c r="IU12" s="143"/>
+      <c r="IV12" s="143"/>
+      <c r="IW12" s="143"/>
+      <c r="IX12" s="143"/>
+      <c r="IY12" s="143"/>
+      <c r="IZ12" s="143"/>
+      <c r="JA12" s="143"/>
+      <c r="JB12" s="143"/>
+      <c r="JC12" s="143"/>
+      <c r="JD12" s="143"/>
+      <c r="JE12" s="143"/>
+      <c r="JF12" s="143"/>
+      <c r="JG12" s="143"/>
+      <c r="JH12" s="143"/>
+      <c r="JI12" s="143"/>
+      <c r="JJ12" s="143"/>
+      <c r="JK12" s="143"/>
+      <c r="JL12" s="143"/>
+      <c r="JM12" s="143"/>
+      <c r="JN12" s="143"/>
+      <c r="JO12" s="143"/>
+      <c r="JP12" s="143"/>
+      <c r="JQ12" s="143"/>
+      <c r="JR12" s="143"/>
+      <c r="JS12" s="143"/>
+      <c r="JT12" s="143"/>
+      <c r="JU12" s="143"/>
+      <c r="JV12" s="143"/>
+      <c r="JW12" s="143"/>
+      <c r="JX12" s="143"/>
+      <c r="JY12" s="143"/>
+      <c r="JZ12" s="143"/>
+      <c r="KA12" s="143"/>
+      <c r="KB12" s="143"/>
+      <c r="KC12" s="143"/>
+      <c r="KD12" s="143"/>
+      <c r="KE12" s="143"/>
+      <c r="KF12" s="143"/>
+      <c r="KG12" s="143"/>
+      <c r="KH12" s="143"/>
+      <c r="KI12" s="143"/>
+      <c r="KJ12" s="143"/>
+      <c r="KK12" s="143"/>
+      <c r="KL12" s="143"/>
+      <c r="KM12" s="143"/>
+      <c r="KN12" s="143"/>
+      <c r="KO12" s="143"/>
+      <c r="KP12" s="143"/>
+      <c r="KQ12" s="143"/>
+      <c r="KR12" s="143"/>
+      <c r="KS12" s="143"/>
+      <c r="KT12" s="143"/>
+      <c r="KU12" s="143"/>
+      <c r="KV12" s="143"/>
+      <c r="KW12" s="143"/>
+      <c r="KX12" s="143"/>
+      <c r="KY12" s="143"/>
+      <c r="KZ12" s="143"/>
+      <c r="LA12" s="143"/>
+      <c r="LB12" s="143"/>
+      <c r="LC12" s="143"/>
+      <c r="LD12" s="143"/>
+      <c r="LE12" s="143"/>
+      <c r="LF12" s="143"/>
+      <c r="LG12" s="143"/>
+      <c r="LH12" s="143"/>
+      <c r="LI12" s="143"/>
+      <c r="LJ12" s="143"/>
+      <c r="LK12" s="143"/>
+      <c r="LL12" s="143"/>
+      <c r="LM12" s="143"/>
+      <c r="LN12" s="143"/>
+      <c r="LO12" s="143"/>
+      <c r="LP12" s="143"/>
+      <c r="LQ12" s="143"/>
+      <c r="LR12" s="143"/>
+      <c r="LS12" s="143"/>
+      <c r="LT12" s="143"/>
+      <c r="LU12" s="143"/>
+      <c r="LV12" s="143"/>
+      <c r="LW12" s="143"/>
+      <c r="LX12" s="143"/>
+      <c r="LY12" s="143"/>
+      <c r="LZ12" s="143"/>
+      <c r="MA12" s="143"/>
+      <c r="MB12" s="143"/>
+      <c r="MC12" s="143"/>
+      <c r="MD12" s="143"/>
+      <c r="ME12" s="143"/>
+      <c r="MF12" s="143"/>
+      <c r="MG12" s="143"/>
+      <c r="MH12" s="143"/>
+      <c r="MI12" s="143"/>
+      <c r="MJ12" s="143"/>
+      <c r="MK12" s="143"/>
+      <c r="ML12" s="143"/>
+      <c r="MM12" s="143"/>
+      <c r="MN12" s="143"/>
+      <c r="MO12" s="143"/>
+      <c r="MP12" s="143"/>
+      <c r="MQ12" s="143"/>
+      <c r="MR12" s="143"/>
+      <c r="MS12" s="143"/>
+      <c r="MT12" s="143"/>
+      <c r="MU12" s="143"/>
+      <c r="MV12" s="143"/>
+      <c r="MW12" s="143"/>
+      <c r="MX12" s="143"/>
+      <c r="MY12" s="143"/>
+      <c r="MZ12" s="143"/>
+      <c r="NA12" s="143"/>
+      <c r="NB12" s="143"/>
+      <c r="NC12" s="143"/>
+      <c r="ND12" s="143"/>
+      <c r="NE12" s="143"/>
+      <c r="NF12" s="143"/>
+      <c r="NG12" s="143"/>
+      <c r="NH12" s="143"/>
+      <c r="NI12" s="143"/>
+      <c r="NJ12" s="143"/>
+      <c r="NK12" s="143"/>
+      <c r="NL12" s="143"/>
+      <c r="NM12" s="143"/>
+      <c r="NN12" s="143"/>
+      <c r="NO12" s="143"/>
+      <c r="NP12" s="143"/>
+      <c r="NQ12" s="143"/>
+      <c r="NR12" s="143"/>
+      <c r="NS12" s="143"/>
+      <c r="NT12" s="143"/>
+      <c r="NU12" s="143"/>
+      <c r="NV12" s="143"/>
+      <c r="NW12" s="143"/>
+      <c r="NX12" s="143"/>
+      <c r="NY12" s="143"/>
+      <c r="NZ12" s="143"/>
+      <c r="OA12" s="143"/>
+      <c r="OB12" s="143"/>
+      <c r="OC12" s="143"/>
+      <c r="OD12" s="143"/>
     </row>
     <row r="13" spans="1:394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156" t="s">
+      <c r="B13" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="162">
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="150">
         <v>44319</v>
       </c>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="161">
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="149">
         <v>44319</v>
       </c>
-      <c r="V13" s="161"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="140"/>
-      <c r="AI13" s="140"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="140"/>
-      <c r="AL13" s="140"/>
-      <c r="AM13" s="140"/>
-      <c r="AN13" s="140"/>
-      <c r="AO13" s="140"/>
-      <c r="AP13" s="140"/>
-      <c r="AQ13" s="140"/>
-      <c r="AR13" s="140"/>
-      <c r="AS13" s="140"/>
-      <c r="AT13" s="140"/>
-      <c r="AU13" s="140"/>
-      <c r="AV13" s="140"/>
-      <c r="AW13" s="140"/>
-      <c r="AX13" s="140"/>
-      <c r="AY13" s="140"/>
-      <c r="AZ13" s="140"/>
-      <c r="BA13" s="140"/>
-      <c r="BB13" s="140"/>
-      <c r="BC13" s="140"/>
-      <c r="BD13" s="140"/>
-      <c r="BE13" s="140"/>
-      <c r="BF13" s="140"/>
-      <c r="BG13" s="140"/>
-      <c r="BH13" s="140"/>
-      <c r="BI13" s="140"/>
-      <c r="BJ13" s="140"/>
-      <c r="BK13" s="140"/>
-      <c r="BL13" s="140"/>
-      <c r="BM13" s="140"/>
-      <c r="BN13" s="140"/>
-      <c r="BO13" s="140"/>
-      <c r="BP13" s="140"/>
-      <c r="BQ13" s="140"/>
-      <c r="BR13" s="140"/>
-      <c r="BS13" s="140"/>
-      <c r="BT13" s="140"/>
-      <c r="BU13" s="140"/>
-      <c r="BV13" s="140"/>
-      <c r="BW13" s="140"/>
-      <c r="BX13" s="140"/>
-      <c r="BY13" s="140"/>
-      <c r="BZ13" s="140"/>
-      <c r="CA13" s="140"/>
-      <c r="CB13" s="140"/>
-      <c r="CC13" s="140"/>
-      <c r="CD13" s="140"/>
-      <c r="CE13" s="140"/>
-      <c r="CF13" s="140"/>
-      <c r="CG13" s="140"/>
-      <c r="CH13" s="140"/>
-      <c r="CI13" s="140"/>
-      <c r="CJ13" s="140"/>
-      <c r="CK13" s="140"/>
-      <c r="CL13" s="140"/>
-      <c r="CM13" s="140"/>
-      <c r="CN13" s="140"/>
-      <c r="CO13" s="140"/>
-      <c r="CP13" s="140"/>
-      <c r="CQ13" s="140"/>
-      <c r="CR13" s="140"/>
-      <c r="CS13" s="140"/>
-      <c r="CT13" s="140"/>
-      <c r="CU13" s="140"/>
-      <c r="CV13" s="140"/>
-      <c r="CW13" s="140"/>
-      <c r="CX13" s="140"/>
-      <c r="CY13" s="140"/>
-      <c r="CZ13" s="140"/>
-      <c r="DA13" s="140"/>
-      <c r="DB13" s="140"/>
-      <c r="DC13" s="140"/>
-      <c r="DD13" s="140"/>
-      <c r="DE13" s="140"/>
-      <c r="DF13" s="140"/>
-      <c r="DG13" s="140"/>
-      <c r="DH13" s="140"/>
-      <c r="DI13" s="140"/>
-      <c r="DJ13" s="140"/>
-      <c r="DK13" s="140"/>
-      <c r="DL13" s="140"/>
-      <c r="DM13" s="140"/>
-      <c r="DN13" s="140"/>
-      <c r="DO13" s="140"/>
-      <c r="DP13" s="140"/>
-      <c r="DQ13" s="140"/>
-      <c r="DR13" s="140"/>
-      <c r="DS13" s="140"/>
-      <c r="DT13" s="140"/>
-      <c r="DU13" s="140"/>
-      <c r="DV13" s="140"/>
-      <c r="DW13" s="140"/>
-      <c r="DX13" s="140"/>
-      <c r="DY13" s="140"/>
-      <c r="DZ13" s="140"/>
-      <c r="EA13" s="140"/>
-      <c r="EB13" s="140"/>
-      <c r="EC13" s="140"/>
-      <c r="ED13" s="140"/>
-      <c r="EE13" s="140"/>
-      <c r="EF13" s="140"/>
-      <c r="EG13" s="140"/>
-      <c r="EH13" s="140"/>
-      <c r="EI13" s="140"/>
-      <c r="EJ13" s="140"/>
-      <c r="EK13" s="140"/>
-      <c r="EL13" s="140"/>
-      <c r="EM13" s="140"/>
-      <c r="EN13" s="140"/>
-      <c r="EO13" s="140"/>
-      <c r="EP13" s="140"/>
-      <c r="EQ13" s="140"/>
-      <c r="ER13" s="140"/>
-      <c r="ES13" s="140"/>
-      <c r="ET13" s="140"/>
-      <c r="EU13" s="140"/>
-      <c r="EV13" s="140"/>
-      <c r="EW13" s="140"/>
-      <c r="EX13" s="140"/>
-      <c r="EY13" s="140"/>
-      <c r="EZ13" s="140"/>
-      <c r="FA13" s="140"/>
-      <c r="FB13" s="140"/>
-      <c r="FC13" s="140"/>
-      <c r="FD13" s="140"/>
-      <c r="FE13" s="140"/>
-      <c r="FF13" s="140"/>
-      <c r="FG13" s="140"/>
-      <c r="FH13" s="140"/>
-      <c r="FI13" s="140"/>
-      <c r="FJ13" s="140"/>
-      <c r="FK13" s="140"/>
-      <c r="FL13" s="140"/>
-      <c r="FM13" s="140"/>
-      <c r="FN13" s="140"/>
-      <c r="FO13" s="140"/>
-      <c r="FP13" s="140"/>
-      <c r="FQ13" s="140"/>
-      <c r="FR13" s="140"/>
-      <c r="FS13" s="140"/>
-      <c r="FT13" s="140"/>
-      <c r="FU13" s="140"/>
-      <c r="FV13" s="140"/>
-      <c r="FW13" s="140"/>
-      <c r="FX13" s="140"/>
-      <c r="FY13" s="140"/>
-      <c r="FZ13" s="140"/>
-      <c r="GA13" s="140"/>
-      <c r="GB13" s="140"/>
-      <c r="GC13" s="140"/>
-      <c r="GD13" s="140"/>
-      <c r="GE13" s="140"/>
-      <c r="GF13" s="140"/>
-      <c r="GG13" s="140"/>
-      <c r="GH13" s="140"/>
-      <c r="GI13" s="140"/>
-      <c r="GJ13" s="140"/>
-      <c r="GK13" s="140"/>
-      <c r="GL13" s="140"/>
-      <c r="GM13" s="140"/>
-      <c r="GN13" s="140"/>
-      <c r="GO13" s="140"/>
-      <c r="GP13" s="140"/>
-      <c r="GQ13" s="140"/>
-      <c r="GR13" s="140"/>
-      <c r="GS13" s="140"/>
-      <c r="GT13" s="140"/>
-      <c r="GU13" s="140"/>
-      <c r="GV13" s="140"/>
-      <c r="GW13" s="140"/>
-      <c r="GX13" s="140"/>
-      <c r="GY13" s="140"/>
-      <c r="GZ13" s="140"/>
-      <c r="HA13" s="140"/>
-      <c r="HB13" s="140"/>
-      <c r="HC13" s="140"/>
-      <c r="HD13" s="140"/>
-      <c r="HE13" s="140"/>
-      <c r="HF13" s="140"/>
-      <c r="HG13" s="140"/>
-      <c r="HH13" s="140"/>
-      <c r="HI13" s="140"/>
-      <c r="HJ13" s="140"/>
-      <c r="HK13" s="140"/>
-      <c r="HL13" s="140"/>
-      <c r="HM13" s="140"/>
-      <c r="HN13" s="140"/>
-      <c r="HO13" s="140"/>
-      <c r="HP13" s="140"/>
-      <c r="HQ13" s="140"/>
-      <c r="HR13" s="140"/>
-      <c r="HS13" s="140"/>
-      <c r="HT13" s="140"/>
-      <c r="HU13" s="140"/>
-      <c r="HV13" s="140"/>
-      <c r="HW13" s="140"/>
-      <c r="HX13" s="140"/>
-      <c r="HY13" s="140"/>
-      <c r="HZ13" s="140"/>
-      <c r="IA13" s="140"/>
-      <c r="IB13" s="140"/>
-      <c r="IC13" s="140"/>
-      <c r="ID13" s="140"/>
-      <c r="IE13" s="140"/>
-      <c r="IF13" s="140"/>
-      <c r="IG13" s="140"/>
-      <c r="IH13" s="140"/>
-      <c r="II13" s="140"/>
-      <c r="IJ13" s="140"/>
-      <c r="IK13" s="140"/>
-      <c r="IL13" s="140"/>
-      <c r="IM13" s="140"/>
-      <c r="IN13" s="140"/>
-      <c r="IO13" s="140"/>
-      <c r="IP13" s="140"/>
-      <c r="IQ13" s="140"/>
-      <c r="IR13" s="140"/>
-      <c r="IS13" s="140"/>
-      <c r="IT13" s="140"/>
-      <c r="IU13" s="140"/>
-      <c r="IV13" s="140"/>
-      <c r="IW13" s="140"/>
-      <c r="IX13" s="140"/>
-      <c r="IY13" s="140"/>
-      <c r="IZ13" s="140"/>
-      <c r="JA13" s="140"/>
-      <c r="JB13" s="140"/>
-      <c r="JC13" s="140"/>
-      <c r="JD13" s="140"/>
-      <c r="JE13" s="140"/>
-      <c r="JF13" s="140"/>
-      <c r="JG13" s="140"/>
-      <c r="JH13" s="140"/>
-      <c r="JI13" s="140"/>
-      <c r="JJ13" s="140"/>
-      <c r="JK13" s="140"/>
-      <c r="JL13" s="140"/>
-      <c r="JM13" s="140"/>
-      <c r="JN13" s="140"/>
-      <c r="JO13" s="140"/>
-      <c r="JP13" s="140"/>
-      <c r="JQ13" s="140"/>
-      <c r="JR13" s="140"/>
-      <c r="JS13" s="140"/>
-      <c r="JT13" s="140"/>
-      <c r="JU13" s="140"/>
-      <c r="JV13" s="140"/>
-      <c r="JW13" s="140"/>
-      <c r="JX13" s="140"/>
-      <c r="JY13" s="140"/>
-      <c r="JZ13" s="140"/>
-      <c r="KA13" s="140"/>
-      <c r="KB13" s="140"/>
-      <c r="KC13" s="140"/>
-      <c r="KD13" s="140"/>
-      <c r="KE13" s="140"/>
-      <c r="KF13" s="140"/>
-      <c r="KG13" s="140"/>
-      <c r="KH13" s="140"/>
-      <c r="KI13" s="140"/>
-      <c r="KJ13" s="140"/>
-      <c r="KK13" s="140"/>
-      <c r="KL13" s="140"/>
-      <c r="KM13" s="140"/>
-      <c r="KN13" s="140"/>
-      <c r="KO13" s="140"/>
-      <c r="KP13" s="140"/>
-      <c r="KQ13" s="140"/>
-      <c r="KR13" s="140"/>
-      <c r="KS13" s="140"/>
-      <c r="KT13" s="140"/>
-      <c r="KU13" s="140"/>
-      <c r="KV13" s="140"/>
-      <c r="KW13" s="140"/>
-      <c r="KX13" s="140"/>
-      <c r="KY13" s="140"/>
-      <c r="KZ13" s="140"/>
-      <c r="LA13" s="140"/>
-      <c r="LB13" s="140"/>
-      <c r="LC13" s="140"/>
-      <c r="LD13" s="140"/>
-      <c r="LE13" s="140"/>
-      <c r="LF13" s="140"/>
-      <c r="LG13" s="140"/>
-      <c r="LH13" s="140"/>
-      <c r="LI13" s="140"/>
-      <c r="LJ13" s="140"/>
-      <c r="LK13" s="140"/>
-      <c r="LL13" s="140"/>
-      <c r="LM13" s="140"/>
-      <c r="LN13" s="140"/>
-      <c r="LO13" s="140"/>
-      <c r="LP13" s="140"/>
-      <c r="LQ13" s="140"/>
-      <c r="LR13" s="140"/>
-      <c r="LS13" s="140"/>
-      <c r="LT13" s="140"/>
-      <c r="LU13" s="140"/>
-      <c r="LV13" s="140"/>
-      <c r="LW13" s="140"/>
-      <c r="LX13" s="140"/>
-      <c r="LY13" s="140"/>
-      <c r="LZ13" s="140"/>
-      <c r="MA13" s="140"/>
-      <c r="MB13" s="140"/>
-      <c r="MC13" s="140"/>
-      <c r="MD13" s="140"/>
-      <c r="ME13" s="140"/>
-      <c r="MF13" s="140"/>
-      <c r="MG13" s="140"/>
-      <c r="MH13" s="140"/>
-      <c r="MI13" s="140"/>
-      <c r="MJ13" s="140"/>
-      <c r="MK13" s="140"/>
-      <c r="ML13" s="140"/>
-      <c r="MM13" s="140"/>
-      <c r="MN13" s="140"/>
-      <c r="MO13" s="140"/>
-      <c r="MP13" s="140"/>
-      <c r="MQ13" s="140"/>
-      <c r="MR13" s="140"/>
-      <c r="MS13" s="140"/>
-      <c r="MT13" s="140"/>
-      <c r="MU13" s="140"/>
-      <c r="MV13" s="140"/>
-      <c r="MW13" s="140"/>
-      <c r="MX13" s="140"/>
-      <c r="MY13" s="140"/>
-      <c r="MZ13" s="140"/>
-      <c r="NA13" s="140"/>
-      <c r="NB13" s="140"/>
-      <c r="NC13" s="140"/>
-      <c r="ND13" s="140"/>
-      <c r="NE13" s="140"/>
-      <c r="NF13" s="140"/>
-      <c r="NG13" s="140"/>
-      <c r="NH13" s="140"/>
-      <c r="NI13" s="140"/>
-      <c r="NJ13" s="140"/>
-      <c r="NK13" s="140"/>
-      <c r="NL13" s="140"/>
-      <c r="NM13" s="140"/>
-      <c r="NN13" s="140"/>
-      <c r="NO13" s="140"/>
-      <c r="NP13" s="140"/>
-      <c r="NQ13" s="140"/>
-      <c r="NR13" s="140"/>
-      <c r="NS13" s="140"/>
-      <c r="NT13" s="140"/>
-      <c r="NU13" s="140"/>
-      <c r="NV13" s="140"/>
-      <c r="NW13" s="140"/>
-      <c r="NX13" s="140"/>
-      <c r="NY13" s="140"/>
-      <c r="NZ13" s="140"/>
-      <c r="OA13" s="140"/>
-      <c r="OB13" s="140"/>
-      <c r="OC13" s="140"/>
-      <c r="OD13" s="140"/>
+      <c r="V13" s="149"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="143"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="143"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="143"/>
+      <c r="AK13" s="143"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="143"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="143"/>
+      <c r="AR13" s="143"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="143"/>
+      <c r="AZ13" s="143"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="143"/>
+      <c r="BD13" s="143"/>
+      <c r="BE13" s="143"/>
+      <c r="BF13" s="143"/>
+      <c r="BG13" s="143"/>
+      <c r="BH13" s="143"/>
+      <c r="BI13" s="143"/>
+      <c r="BJ13" s="143"/>
+      <c r="BK13" s="143"/>
+      <c r="BL13" s="143"/>
+      <c r="BM13" s="143"/>
+      <c r="BN13" s="143"/>
+      <c r="BO13" s="143"/>
+      <c r="BP13" s="143"/>
+      <c r="BQ13" s="143"/>
+      <c r="BR13" s="143"/>
+      <c r="BS13" s="143"/>
+      <c r="BT13" s="143"/>
+      <c r="BU13" s="143"/>
+      <c r="BV13" s="143"/>
+      <c r="BW13" s="143"/>
+      <c r="BX13" s="143"/>
+      <c r="BY13" s="143"/>
+      <c r="BZ13" s="143"/>
+      <c r="CA13" s="143"/>
+      <c r="CB13" s="143"/>
+      <c r="CC13" s="143"/>
+      <c r="CD13" s="143"/>
+      <c r="CE13" s="143"/>
+      <c r="CF13" s="143"/>
+      <c r="CG13" s="143"/>
+      <c r="CH13" s="143"/>
+      <c r="CI13" s="143"/>
+      <c r="CJ13" s="143"/>
+      <c r="CK13" s="143"/>
+      <c r="CL13" s="143"/>
+      <c r="CM13" s="143"/>
+      <c r="CN13" s="143"/>
+      <c r="CO13" s="143"/>
+      <c r="CP13" s="143"/>
+      <c r="CQ13" s="143"/>
+      <c r="CR13" s="143"/>
+      <c r="CS13" s="143"/>
+      <c r="CT13" s="143"/>
+      <c r="CU13" s="143"/>
+      <c r="CV13" s="143"/>
+      <c r="CW13" s="143"/>
+      <c r="CX13" s="143"/>
+      <c r="CY13" s="143"/>
+      <c r="CZ13" s="143"/>
+      <c r="DA13" s="143"/>
+      <c r="DB13" s="143"/>
+      <c r="DC13" s="143"/>
+      <c r="DD13" s="143"/>
+      <c r="DE13" s="143"/>
+      <c r="DF13" s="143"/>
+      <c r="DG13" s="143"/>
+      <c r="DH13" s="143"/>
+      <c r="DI13" s="143"/>
+      <c r="DJ13" s="143"/>
+      <c r="DK13" s="143"/>
+      <c r="DL13" s="143"/>
+      <c r="DM13" s="143"/>
+      <c r="DN13" s="143"/>
+      <c r="DO13" s="143"/>
+      <c r="DP13" s="143"/>
+      <c r="DQ13" s="143"/>
+      <c r="DR13" s="143"/>
+      <c r="DS13" s="143"/>
+      <c r="DT13" s="143"/>
+      <c r="DU13" s="143"/>
+      <c r="DV13" s="143"/>
+      <c r="DW13" s="143"/>
+      <c r="DX13" s="143"/>
+      <c r="DY13" s="143"/>
+      <c r="DZ13" s="143"/>
+      <c r="EA13" s="143"/>
+      <c r="EB13" s="143"/>
+      <c r="EC13" s="143"/>
+      <c r="ED13" s="143"/>
+      <c r="EE13" s="143"/>
+      <c r="EF13" s="143"/>
+      <c r="EG13" s="143"/>
+      <c r="EH13" s="143"/>
+      <c r="EI13" s="143"/>
+      <c r="EJ13" s="143"/>
+      <c r="EK13" s="143"/>
+      <c r="EL13" s="143"/>
+      <c r="EM13" s="143"/>
+      <c r="EN13" s="143"/>
+      <c r="EO13" s="143"/>
+      <c r="EP13" s="143"/>
+      <c r="EQ13" s="143"/>
+      <c r="ER13" s="143"/>
+      <c r="ES13" s="143"/>
+      <c r="ET13" s="143"/>
+      <c r="EU13" s="143"/>
+      <c r="EV13" s="143"/>
+      <c r="EW13" s="143"/>
+      <c r="EX13" s="143"/>
+      <c r="EY13" s="143"/>
+      <c r="EZ13" s="143"/>
+      <c r="FA13" s="143"/>
+      <c r="FB13" s="143"/>
+      <c r="FC13" s="143"/>
+      <c r="FD13" s="143"/>
+      <c r="FE13" s="143"/>
+      <c r="FF13" s="143"/>
+      <c r="FG13" s="143"/>
+      <c r="FH13" s="143"/>
+      <c r="FI13" s="143"/>
+      <c r="FJ13" s="143"/>
+      <c r="FK13" s="143"/>
+      <c r="FL13" s="143"/>
+      <c r="FM13" s="143"/>
+      <c r="FN13" s="143"/>
+      <c r="FO13" s="143"/>
+      <c r="FP13" s="143"/>
+      <c r="FQ13" s="143"/>
+      <c r="FR13" s="143"/>
+      <c r="FS13" s="143"/>
+      <c r="FT13" s="143"/>
+      <c r="FU13" s="143"/>
+      <c r="FV13" s="143"/>
+      <c r="FW13" s="143"/>
+      <c r="FX13" s="143"/>
+      <c r="FY13" s="143"/>
+      <c r="FZ13" s="143"/>
+      <c r="GA13" s="143"/>
+      <c r="GB13" s="143"/>
+      <c r="GC13" s="143"/>
+      <c r="GD13" s="143"/>
+      <c r="GE13" s="143"/>
+      <c r="GF13" s="143"/>
+      <c r="GG13" s="143"/>
+      <c r="GH13" s="143"/>
+      <c r="GI13" s="143"/>
+      <c r="GJ13" s="143"/>
+      <c r="GK13" s="143"/>
+      <c r="GL13" s="143"/>
+      <c r="GM13" s="143"/>
+      <c r="GN13" s="143"/>
+      <c r="GO13" s="143"/>
+      <c r="GP13" s="143"/>
+      <c r="GQ13" s="143"/>
+      <c r="GR13" s="143"/>
+      <c r="GS13" s="143"/>
+      <c r="GT13" s="143"/>
+      <c r="GU13" s="143"/>
+      <c r="GV13" s="143"/>
+      <c r="GW13" s="143"/>
+      <c r="GX13" s="143"/>
+      <c r="GY13" s="143"/>
+      <c r="GZ13" s="143"/>
+      <c r="HA13" s="143"/>
+      <c r="HB13" s="143"/>
+      <c r="HC13" s="143"/>
+      <c r="HD13" s="143"/>
+      <c r="HE13" s="143"/>
+      <c r="HF13" s="143"/>
+      <c r="HG13" s="143"/>
+      <c r="HH13" s="143"/>
+      <c r="HI13" s="143"/>
+      <c r="HJ13" s="143"/>
+      <c r="HK13" s="143"/>
+      <c r="HL13" s="143"/>
+      <c r="HM13" s="143"/>
+      <c r="HN13" s="143"/>
+      <c r="HO13" s="143"/>
+      <c r="HP13" s="143"/>
+      <c r="HQ13" s="143"/>
+      <c r="HR13" s="143"/>
+      <c r="HS13" s="143"/>
+      <c r="HT13" s="143"/>
+      <c r="HU13" s="143"/>
+      <c r="HV13" s="143"/>
+      <c r="HW13" s="143"/>
+      <c r="HX13" s="143"/>
+      <c r="HY13" s="143"/>
+      <c r="HZ13" s="143"/>
+      <c r="IA13" s="143"/>
+      <c r="IB13" s="143"/>
+      <c r="IC13" s="143"/>
+      <c r="ID13" s="143"/>
+      <c r="IE13" s="143"/>
+      <c r="IF13" s="143"/>
+      <c r="IG13" s="143"/>
+      <c r="IH13" s="143"/>
+      <c r="II13" s="143"/>
+      <c r="IJ13" s="143"/>
+      <c r="IK13" s="143"/>
+      <c r="IL13" s="143"/>
+      <c r="IM13" s="143"/>
+      <c r="IN13" s="143"/>
+      <c r="IO13" s="143"/>
+      <c r="IP13" s="143"/>
+      <c r="IQ13" s="143"/>
+      <c r="IR13" s="143"/>
+      <c r="IS13" s="143"/>
+      <c r="IT13" s="143"/>
+      <c r="IU13" s="143"/>
+      <c r="IV13" s="143"/>
+      <c r="IW13" s="143"/>
+      <c r="IX13" s="143"/>
+      <c r="IY13" s="143"/>
+      <c r="IZ13" s="143"/>
+      <c r="JA13" s="143"/>
+      <c r="JB13" s="143"/>
+      <c r="JC13" s="143"/>
+      <c r="JD13" s="143"/>
+      <c r="JE13" s="143"/>
+      <c r="JF13" s="143"/>
+      <c r="JG13" s="143"/>
+      <c r="JH13" s="143"/>
+      <c r="JI13" s="143"/>
+      <c r="JJ13" s="143"/>
+      <c r="JK13" s="143"/>
+      <c r="JL13" s="143"/>
+      <c r="JM13" s="143"/>
+      <c r="JN13" s="143"/>
+      <c r="JO13" s="143"/>
+      <c r="JP13" s="143"/>
+      <c r="JQ13" s="143"/>
+      <c r="JR13" s="143"/>
+      <c r="JS13" s="143"/>
+      <c r="JT13" s="143"/>
+      <c r="JU13" s="143"/>
+      <c r="JV13" s="143"/>
+      <c r="JW13" s="143"/>
+      <c r="JX13" s="143"/>
+      <c r="JY13" s="143"/>
+      <c r="JZ13" s="143"/>
+      <c r="KA13" s="143"/>
+      <c r="KB13" s="143"/>
+      <c r="KC13" s="143"/>
+      <c r="KD13" s="143"/>
+      <c r="KE13" s="143"/>
+      <c r="KF13" s="143"/>
+      <c r="KG13" s="143"/>
+      <c r="KH13" s="143"/>
+      <c r="KI13" s="143"/>
+      <c r="KJ13" s="143"/>
+      <c r="KK13" s="143"/>
+      <c r="KL13" s="143"/>
+      <c r="KM13" s="143"/>
+      <c r="KN13" s="143"/>
+      <c r="KO13" s="143"/>
+      <c r="KP13" s="143"/>
+      <c r="KQ13" s="143"/>
+      <c r="KR13" s="143"/>
+      <c r="KS13" s="143"/>
+      <c r="KT13" s="143"/>
+      <c r="KU13" s="143"/>
+      <c r="KV13" s="143"/>
+      <c r="KW13" s="143"/>
+      <c r="KX13" s="143"/>
+      <c r="KY13" s="143"/>
+      <c r="KZ13" s="143"/>
+      <c r="LA13" s="143"/>
+      <c r="LB13" s="143"/>
+      <c r="LC13" s="143"/>
+      <c r="LD13" s="143"/>
+      <c r="LE13" s="143"/>
+      <c r="LF13" s="143"/>
+      <c r="LG13" s="143"/>
+      <c r="LH13" s="143"/>
+      <c r="LI13" s="143"/>
+      <c r="LJ13" s="143"/>
+      <c r="LK13" s="143"/>
+      <c r="LL13" s="143"/>
+      <c r="LM13" s="143"/>
+      <c r="LN13" s="143"/>
+      <c r="LO13" s="143"/>
+      <c r="LP13" s="143"/>
+      <c r="LQ13" s="143"/>
+      <c r="LR13" s="143"/>
+      <c r="LS13" s="143"/>
+      <c r="LT13" s="143"/>
+      <c r="LU13" s="143"/>
+      <c r="LV13" s="143"/>
+      <c r="LW13" s="143"/>
+      <c r="LX13" s="143"/>
+      <c r="LY13" s="143"/>
+      <c r="LZ13" s="143"/>
+      <c r="MA13" s="143"/>
+      <c r="MB13" s="143"/>
+      <c r="MC13" s="143"/>
+      <c r="MD13" s="143"/>
+      <c r="ME13" s="143"/>
+      <c r="MF13" s="143"/>
+      <c r="MG13" s="143"/>
+      <c r="MH13" s="143"/>
+      <c r="MI13" s="143"/>
+      <c r="MJ13" s="143"/>
+      <c r="MK13" s="143"/>
+      <c r="ML13" s="143"/>
+      <c r="MM13" s="143"/>
+      <c r="MN13" s="143"/>
+      <c r="MO13" s="143"/>
+      <c r="MP13" s="143"/>
+      <c r="MQ13" s="143"/>
+      <c r="MR13" s="143"/>
+      <c r="MS13" s="143"/>
+      <c r="MT13" s="143"/>
+      <c r="MU13" s="143"/>
+      <c r="MV13" s="143"/>
+      <c r="MW13" s="143"/>
+      <c r="MX13" s="143"/>
+      <c r="MY13" s="143"/>
+      <c r="MZ13" s="143"/>
+      <c r="NA13" s="143"/>
+      <c r="NB13" s="143"/>
+      <c r="NC13" s="143"/>
+      <c r="ND13" s="143"/>
+      <c r="NE13" s="143"/>
+      <c r="NF13" s="143"/>
+      <c r="NG13" s="143"/>
+      <c r="NH13" s="143"/>
+      <c r="NI13" s="143"/>
+      <c r="NJ13" s="143"/>
+      <c r="NK13" s="143"/>
+      <c r="NL13" s="143"/>
+      <c r="NM13" s="143"/>
+      <c r="NN13" s="143"/>
+      <c r="NO13" s="143"/>
+      <c r="NP13" s="143"/>
+      <c r="NQ13" s="143"/>
+      <c r="NR13" s="143"/>
+      <c r="NS13" s="143"/>
+      <c r="NT13" s="143"/>
+      <c r="NU13" s="143"/>
+      <c r="NV13" s="143"/>
+      <c r="NW13" s="143"/>
+      <c r="NX13" s="143"/>
+      <c r="NY13" s="143"/>
+      <c r="NZ13" s="143"/>
+      <c r="OA13" s="143"/>
+      <c r="OB13" s="143"/>
+      <c r="OC13" s="143"/>
+      <c r="OD13" s="143"/>
     </row>
     <row r="14" spans="1:394" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
@@ -14510,10 +14510,10 @@
       <c r="M14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="154" t="s">
+      <c r="N14" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="155"/>
+      <c r="O14" s="152"/>
       <c r="P14" s="23" t="s">
         <v>15</v>
       </c>
@@ -56895,354 +56895,30 @@
     </row>
   </sheetData>
   <mergeCells count="396">
-    <mergeCell ref="NU11:NU13"/>
-    <mergeCell ref="NV11:NV13"/>
-    <mergeCell ref="NW11:NW13"/>
-    <mergeCell ref="NX11:NX13"/>
-    <mergeCell ref="NY11:NY13"/>
-    <mergeCell ref="NP11:NP13"/>
-    <mergeCell ref="NQ11:NQ13"/>
-    <mergeCell ref="NR11:NR13"/>
-    <mergeCell ref="NS11:NS13"/>
-    <mergeCell ref="NT11:NT13"/>
-    <mergeCell ref="NK11:NK13"/>
-    <mergeCell ref="NL11:NL13"/>
-    <mergeCell ref="NM11:NM13"/>
-    <mergeCell ref="NN11:NN13"/>
-    <mergeCell ref="NO11:NO13"/>
-    <mergeCell ref="NF11:NF13"/>
-    <mergeCell ref="NG11:NG13"/>
-    <mergeCell ref="NH11:NH13"/>
-    <mergeCell ref="NI11:NI13"/>
-    <mergeCell ref="NJ11:NJ13"/>
-    <mergeCell ref="NA11:NA13"/>
-    <mergeCell ref="NB11:NB13"/>
-    <mergeCell ref="NC11:NC13"/>
-    <mergeCell ref="ND11:ND13"/>
-    <mergeCell ref="NE11:NE13"/>
-    <mergeCell ref="MV11:MV13"/>
-    <mergeCell ref="MW11:MW13"/>
-    <mergeCell ref="MX11:MX13"/>
-    <mergeCell ref="MY11:MY13"/>
-    <mergeCell ref="MZ11:MZ13"/>
-    <mergeCell ref="MQ11:MQ13"/>
-    <mergeCell ref="MR11:MR13"/>
-    <mergeCell ref="MS11:MS13"/>
-    <mergeCell ref="MT11:MT13"/>
-    <mergeCell ref="MU11:MU13"/>
-    <mergeCell ref="ML11:ML13"/>
-    <mergeCell ref="MM11:MM13"/>
-    <mergeCell ref="MN11:MN13"/>
-    <mergeCell ref="MO11:MO13"/>
-    <mergeCell ref="MP11:MP13"/>
-    <mergeCell ref="MG11:MG13"/>
-    <mergeCell ref="MH11:MH13"/>
-    <mergeCell ref="MI11:MI13"/>
-    <mergeCell ref="MJ11:MJ13"/>
-    <mergeCell ref="MK11:MK13"/>
-    <mergeCell ref="MB11:MB13"/>
-    <mergeCell ref="MC11:MC13"/>
-    <mergeCell ref="MD11:MD13"/>
-    <mergeCell ref="ME11:ME13"/>
-    <mergeCell ref="MF11:MF13"/>
-    <mergeCell ref="LW11:LW13"/>
-    <mergeCell ref="LX11:LX13"/>
-    <mergeCell ref="LY11:LY13"/>
-    <mergeCell ref="LZ11:LZ13"/>
-    <mergeCell ref="MA11:MA13"/>
-    <mergeCell ref="LR11:LR13"/>
-    <mergeCell ref="LS11:LS13"/>
-    <mergeCell ref="LT11:LT13"/>
-    <mergeCell ref="LU11:LU13"/>
-    <mergeCell ref="LV11:LV13"/>
-    <mergeCell ref="LM11:LM13"/>
-    <mergeCell ref="LN11:LN13"/>
-    <mergeCell ref="LO11:LO13"/>
-    <mergeCell ref="LP11:LP13"/>
-    <mergeCell ref="LQ11:LQ13"/>
-    <mergeCell ref="LH11:LH13"/>
-    <mergeCell ref="LI11:LI13"/>
-    <mergeCell ref="LJ11:LJ13"/>
-    <mergeCell ref="LK11:LK13"/>
-    <mergeCell ref="LL11:LL13"/>
-    <mergeCell ref="LC11:LC13"/>
-    <mergeCell ref="LD11:LD13"/>
-    <mergeCell ref="LE11:LE13"/>
-    <mergeCell ref="LF11:LF13"/>
-    <mergeCell ref="LG11:LG13"/>
-    <mergeCell ref="KX11:KX13"/>
-    <mergeCell ref="KY11:KY13"/>
-    <mergeCell ref="KZ11:KZ13"/>
-    <mergeCell ref="LA11:LA13"/>
-    <mergeCell ref="LB11:LB13"/>
-    <mergeCell ref="KS11:KS13"/>
-    <mergeCell ref="KT11:KT13"/>
-    <mergeCell ref="KU11:KU13"/>
-    <mergeCell ref="KV11:KV13"/>
-    <mergeCell ref="KW11:KW13"/>
-    <mergeCell ref="KN11:KN13"/>
-    <mergeCell ref="KO11:KO13"/>
-    <mergeCell ref="KP11:KP13"/>
-    <mergeCell ref="KQ11:KQ13"/>
-    <mergeCell ref="KR11:KR13"/>
-    <mergeCell ref="KI11:KI13"/>
-    <mergeCell ref="KJ11:KJ13"/>
-    <mergeCell ref="KK11:KK13"/>
-    <mergeCell ref="KL11:KL13"/>
-    <mergeCell ref="KM11:KM13"/>
-    <mergeCell ref="KD11:KD13"/>
-    <mergeCell ref="KE11:KE13"/>
-    <mergeCell ref="KF11:KF13"/>
-    <mergeCell ref="KG11:KG13"/>
-    <mergeCell ref="KH11:KH13"/>
-    <mergeCell ref="JY11:JY13"/>
-    <mergeCell ref="JZ11:JZ13"/>
-    <mergeCell ref="KA11:KA13"/>
-    <mergeCell ref="KB11:KB13"/>
-    <mergeCell ref="KC11:KC13"/>
-    <mergeCell ref="JT11:JT13"/>
-    <mergeCell ref="JU11:JU13"/>
-    <mergeCell ref="JV11:JV13"/>
-    <mergeCell ref="JW11:JW13"/>
-    <mergeCell ref="JX11:JX13"/>
-    <mergeCell ref="JO11:JO13"/>
-    <mergeCell ref="JP11:JP13"/>
-    <mergeCell ref="JQ11:JQ13"/>
-    <mergeCell ref="JR11:JR13"/>
-    <mergeCell ref="JS11:JS13"/>
-    <mergeCell ref="JJ11:JJ13"/>
-    <mergeCell ref="JK11:JK13"/>
-    <mergeCell ref="JL11:JL13"/>
-    <mergeCell ref="JM11:JM13"/>
-    <mergeCell ref="JN11:JN13"/>
-    <mergeCell ref="JE11:JE13"/>
-    <mergeCell ref="JF11:JF13"/>
-    <mergeCell ref="JG11:JG13"/>
-    <mergeCell ref="JH11:JH13"/>
-    <mergeCell ref="JI11:JI13"/>
-    <mergeCell ref="IZ11:IZ13"/>
-    <mergeCell ref="JA11:JA13"/>
-    <mergeCell ref="JB11:JB13"/>
-    <mergeCell ref="JC11:JC13"/>
-    <mergeCell ref="JD11:JD13"/>
-    <mergeCell ref="IU11:IU13"/>
-    <mergeCell ref="IV11:IV13"/>
-    <mergeCell ref="IW11:IW13"/>
-    <mergeCell ref="IX11:IX13"/>
-    <mergeCell ref="IY11:IY13"/>
-    <mergeCell ref="IP11:IP13"/>
-    <mergeCell ref="IQ11:IQ13"/>
-    <mergeCell ref="IR11:IR13"/>
-    <mergeCell ref="IS11:IS13"/>
-    <mergeCell ref="IT11:IT13"/>
-    <mergeCell ref="IK11:IK13"/>
-    <mergeCell ref="IL11:IL13"/>
-    <mergeCell ref="IM11:IM13"/>
-    <mergeCell ref="IN11:IN13"/>
-    <mergeCell ref="IO11:IO13"/>
-    <mergeCell ref="IF11:IF13"/>
-    <mergeCell ref="IG11:IG13"/>
-    <mergeCell ref="IH11:IH13"/>
-    <mergeCell ref="II11:II13"/>
-    <mergeCell ref="IJ11:IJ13"/>
-    <mergeCell ref="IA11:IA13"/>
-    <mergeCell ref="IB11:IB13"/>
-    <mergeCell ref="IC11:IC13"/>
-    <mergeCell ref="ID11:ID13"/>
-    <mergeCell ref="IE11:IE13"/>
-    <mergeCell ref="HV11:HV13"/>
-    <mergeCell ref="HW11:HW13"/>
-    <mergeCell ref="HX11:HX13"/>
-    <mergeCell ref="HY11:HY13"/>
-    <mergeCell ref="HZ11:HZ13"/>
-    <mergeCell ref="HQ11:HQ13"/>
-    <mergeCell ref="HR11:HR13"/>
-    <mergeCell ref="HS11:HS13"/>
-    <mergeCell ref="HT11:HT13"/>
-    <mergeCell ref="HU11:HU13"/>
-    <mergeCell ref="HL11:HL13"/>
-    <mergeCell ref="HM11:HM13"/>
-    <mergeCell ref="HN11:HN13"/>
-    <mergeCell ref="HO11:HO13"/>
-    <mergeCell ref="HP11:HP13"/>
-    <mergeCell ref="HG11:HG13"/>
-    <mergeCell ref="HH11:HH13"/>
-    <mergeCell ref="HI11:HI13"/>
-    <mergeCell ref="HJ11:HJ13"/>
-    <mergeCell ref="HK11:HK13"/>
-    <mergeCell ref="HB11:HB13"/>
-    <mergeCell ref="HC11:HC13"/>
-    <mergeCell ref="HD11:HD13"/>
-    <mergeCell ref="HE11:HE13"/>
-    <mergeCell ref="HF11:HF13"/>
-    <mergeCell ref="GW11:GW13"/>
-    <mergeCell ref="GX11:GX13"/>
-    <mergeCell ref="GY11:GY13"/>
-    <mergeCell ref="GZ11:GZ13"/>
-    <mergeCell ref="HA11:HA13"/>
-    <mergeCell ref="GR11:GR13"/>
-    <mergeCell ref="GS11:GS13"/>
-    <mergeCell ref="GT11:GT13"/>
-    <mergeCell ref="GU11:GU13"/>
-    <mergeCell ref="GV11:GV13"/>
-    <mergeCell ref="GM11:GM13"/>
-    <mergeCell ref="GN11:GN13"/>
-    <mergeCell ref="GO11:GO13"/>
-    <mergeCell ref="GP11:GP13"/>
-    <mergeCell ref="GQ11:GQ13"/>
-    <mergeCell ref="GH11:GH13"/>
-    <mergeCell ref="GI11:GI13"/>
-    <mergeCell ref="GJ11:GJ13"/>
-    <mergeCell ref="GK11:GK13"/>
-    <mergeCell ref="GL11:GL13"/>
-    <mergeCell ref="GC11:GC13"/>
-    <mergeCell ref="GD11:GD13"/>
-    <mergeCell ref="GE11:GE13"/>
-    <mergeCell ref="GF11:GF13"/>
-    <mergeCell ref="GG11:GG13"/>
-    <mergeCell ref="FX11:FX13"/>
-    <mergeCell ref="FY11:FY13"/>
-    <mergeCell ref="FZ11:FZ13"/>
-    <mergeCell ref="GA11:GA13"/>
-    <mergeCell ref="GB11:GB13"/>
-    <mergeCell ref="FS11:FS13"/>
-    <mergeCell ref="FT11:FT13"/>
-    <mergeCell ref="FU11:FU13"/>
-    <mergeCell ref="FV11:FV13"/>
-    <mergeCell ref="FW11:FW13"/>
-    <mergeCell ref="FN11:FN13"/>
-    <mergeCell ref="FO11:FO13"/>
-    <mergeCell ref="FP11:FP13"/>
-    <mergeCell ref="FQ11:FQ13"/>
-    <mergeCell ref="FR11:FR13"/>
-    <mergeCell ref="FI11:FI13"/>
-    <mergeCell ref="FJ11:FJ13"/>
-    <mergeCell ref="FK11:FK13"/>
-    <mergeCell ref="FL11:FL13"/>
-    <mergeCell ref="FM11:FM13"/>
-    <mergeCell ref="FD11:FD13"/>
-    <mergeCell ref="FE11:FE13"/>
-    <mergeCell ref="FF11:FF13"/>
-    <mergeCell ref="FG11:FG13"/>
-    <mergeCell ref="FH11:FH13"/>
-    <mergeCell ref="EY11:EY13"/>
-    <mergeCell ref="EZ11:EZ13"/>
-    <mergeCell ref="FA11:FA13"/>
-    <mergeCell ref="FB11:FB13"/>
-    <mergeCell ref="FC11:FC13"/>
-    <mergeCell ref="ET11:ET13"/>
-    <mergeCell ref="EU11:EU13"/>
-    <mergeCell ref="EV11:EV13"/>
-    <mergeCell ref="EW11:EW13"/>
-    <mergeCell ref="EX11:EX13"/>
-    <mergeCell ref="EO11:EO13"/>
-    <mergeCell ref="EP11:EP13"/>
-    <mergeCell ref="EQ11:EQ13"/>
-    <mergeCell ref="ER11:ER13"/>
-    <mergeCell ref="ES11:ES13"/>
-    <mergeCell ref="EJ11:EJ13"/>
-    <mergeCell ref="EK11:EK13"/>
-    <mergeCell ref="EL11:EL13"/>
-    <mergeCell ref="EM11:EM13"/>
-    <mergeCell ref="EN11:EN13"/>
-    <mergeCell ref="EE11:EE13"/>
-    <mergeCell ref="EF11:EF13"/>
-    <mergeCell ref="EG11:EG13"/>
-    <mergeCell ref="EH11:EH13"/>
-    <mergeCell ref="EI11:EI13"/>
-    <mergeCell ref="DZ11:DZ13"/>
-    <mergeCell ref="EA11:EA13"/>
-    <mergeCell ref="EB11:EB13"/>
-    <mergeCell ref="EC11:EC13"/>
-    <mergeCell ref="ED11:ED13"/>
-    <mergeCell ref="DU11:DU13"/>
-    <mergeCell ref="DV11:DV13"/>
-    <mergeCell ref="DW11:DW13"/>
-    <mergeCell ref="DX11:DX13"/>
-    <mergeCell ref="DY11:DY13"/>
-    <mergeCell ref="DP11:DP13"/>
-    <mergeCell ref="DQ11:DQ13"/>
-    <mergeCell ref="DR11:DR13"/>
-    <mergeCell ref="DS11:DS13"/>
-    <mergeCell ref="DT11:DT13"/>
-    <mergeCell ref="DK11:DK13"/>
-    <mergeCell ref="DL11:DL13"/>
-    <mergeCell ref="DM11:DM13"/>
-    <mergeCell ref="DN11:DN13"/>
-    <mergeCell ref="DO11:DO13"/>
-    <mergeCell ref="DF11:DF13"/>
-    <mergeCell ref="DG11:DG13"/>
-    <mergeCell ref="DH11:DH13"/>
-    <mergeCell ref="DI11:DI13"/>
-    <mergeCell ref="DJ11:DJ13"/>
-    <mergeCell ref="DA11:DA13"/>
-    <mergeCell ref="DB11:DB13"/>
-    <mergeCell ref="DC11:DC13"/>
-    <mergeCell ref="DD11:DD13"/>
-    <mergeCell ref="DE11:DE13"/>
-    <mergeCell ref="CV11:CV13"/>
-    <mergeCell ref="CW11:CW13"/>
-    <mergeCell ref="CX11:CX13"/>
-    <mergeCell ref="CY11:CY13"/>
-    <mergeCell ref="CZ11:CZ13"/>
-    <mergeCell ref="CQ11:CQ13"/>
-    <mergeCell ref="CR11:CR13"/>
-    <mergeCell ref="CS11:CS13"/>
-    <mergeCell ref="CT11:CT13"/>
-    <mergeCell ref="CU11:CU13"/>
-    <mergeCell ref="CL11:CL13"/>
-    <mergeCell ref="CM11:CM13"/>
-    <mergeCell ref="CN11:CN13"/>
-    <mergeCell ref="CO11:CO13"/>
-    <mergeCell ref="CP11:CP13"/>
-    <mergeCell ref="CG11:CG13"/>
-    <mergeCell ref="CH11:CH13"/>
-    <mergeCell ref="CI11:CI13"/>
-    <mergeCell ref="CJ11:CJ13"/>
-    <mergeCell ref="CK11:CK13"/>
-    <mergeCell ref="CB11:CB13"/>
-    <mergeCell ref="CC11:CC13"/>
-    <mergeCell ref="CD11:CD13"/>
-    <mergeCell ref="CE11:CE13"/>
-    <mergeCell ref="CF11:CF13"/>
-    <mergeCell ref="BW11:BW13"/>
-    <mergeCell ref="BX11:BX13"/>
-    <mergeCell ref="BY11:BY13"/>
-    <mergeCell ref="BZ11:BZ13"/>
-    <mergeCell ref="CA11:CA13"/>
-    <mergeCell ref="BR11:BR13"/>
-    <mergeCell ref="BS11:BS13"/>
-    <mergeCell ref="BT11:BT13"/>
-    <mergeCell ref="BU11:BU13"/>
-    <mergeCell ref="BV11:BV13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="NZ11:NZ13"/>
+    <mergeCell ref="OA11:OA13"/>
+    <mergeCell ref="OB11:OB13"/>
+    <mergeCell ref="OC11:OC13"/>
+    <mergeCell ref="OD11:OD13"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BQ11:BQ13"/>
+    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="BM11:BM13"/>
+    <mergeCell ref="BN11:BN13"/>
+    <mergeCell ref="BO11:BO13"/>
+    <mergeCell ref="BP11:BP13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -57267,30 +56943,354 @@
     <mergeCell ref="AY11:AY13"/>
     <mergeCell ref="AZ11:AZ13"/>
     <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="NZ11:NZ13"/>
-    <mergeCell ref="OA11:OA13"/>
-    <mergeCell ref="OB11:OB13"/>
-    <mergeCell ref="OC11:OC13"/>
-    <mergeCell ref="OD11:OD13"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
-    <mergeCell ref="BQ11:BQ13"/>
-    <mergeCell ref="BL11:BL13"/>
-    <mergeCell ref="BM11:BM13"/>
-    <mergeCell ref="BN11:BN13"/>
-    <mergeCell ref="BO11:BO13"/>
-    <mergeCell ref="BP11:BP13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="BW11:BW13"/>
+    <mergeCell ref="BX11:BX13"/>
+    <mergeCell ref="BY11:BY13"/>
+    <mergeCell ref="BZ11:BZ13"/>
+    <mergeCell ref="CA11:CA13"/>
+    <mergeCell ref="BR11:BR13"/>
+    <mergeCell ref="BS11:BS13"/>
+    <mergeCell ref="BT11:BT13"/>
+    <mergeCell ref="BU11:BU13"/>
+    <mergeCell ref="BV11:BV13"/>
+    <mergeCell ref="CG11:CG13"/>
+    <mergeCell ref="CH11:CH13"/>
+    <mergeCell ref="CI11:CI13"/>
+    <mergeCell ref="CJ11:CJ13"/>
+    <mergeCell ref="CK11:CK13"/>
+    <mergeCell ref="CB11:CB13"/>
+    <mergeCell ref="CC11:CC13"/>
+    <mergeCell ref="CD11:CD13"/>
+    <mergeCell ref="CE11:CE13"/>
+    <mergeCell ref="CF11:CF13"/>
+    <mergeCell ref="CQ11:CQ13"/>
+    <mergeCell ref="CR11:CR13"/>
+    <mergeCell ref="CS11:CS13"/>
+    <mergeCell ref="CT11:CT13"/>
+    <mergeCell ref="CU11:CU13"/>
+    <mergeCell ref="CL11:CL13"/>
+    <mergeCell ref="CM11:CM13"/>
+    <mergeCell ref="CN11:CN13"/>
+    <mergeCell ref="CO11:CO13"/>
+    <mergeCell ref="CP11:CP13"/>
+    <mergeCell ref="DA11:DA13"/>
+    <mergeCell ref="DB11:DB13"/>
+    <mergeCell ref="DC11:DC13"/>
+    <mergeCell ref="DD11:DD13"/>
+    <mergeCell ref="DE11:DE13"/>
+    <mergeCell ref="CV11:CV13"/>
+    <mergeCell ref="CW11:CW13"/>
+    <mergeCell ref="CX11:CX13"/>
+    <mergeCell ref="CY11:CY13"/>
+    <mergeCell ref="CZ11:CZ13"/>
+    <mergeCell ref="DK11:DK13"/>
+    <mergeCell ref="DL11:DL13"/>
+    <mergeCell ref="DM11:DM13"/>
+    <mergeCell ref="DN11:DN13"/>
+    <mergeCell ref="DO11:DO13"/>
+    <mergeCell ref="DF11:DF13"/>
+    <mergeCell ref="DG11:DG13"/>
+    <mergeCell ref="DH11:DH13"/>
+    <mergeCell ref="DI11:DI13"/>
+    <mergeCell ref="DJ11:DJ13"/>
+    <mergeCell ref="DU11:DU13"/>
+    <mergeCell ref="DV11:DV13"/>
+    <mergeCell ref="DW11:DW13"/>
+    <mergeCell ref="DX11:DX13"/>
+    <mergeCell ref="DY11:DY13"/>
+    <mergeCell ref="DP11:DP13"/>
+    <mergeCell ref="DQ11:DQ13"/>
+    <mergeCell ref="DR11:DR13"/>
+    <mergeCell ref="DS11:DS13"/>
+    <mergeCell ref="DT11:DT13"/>
+    <mergeCell ref="EE11:EE13"/>
+    <mergeCell ref="EF11:EF13"/>
+    <mergeCell ref="EG11:EG13"/>
+    <mergeCell ref="EH11:EH13"/>
+    <mergeCell ref="EI11:EI13"/>
+    <mergeCell ref="DZ11:DZ13"/>
+    <mergeCell ref="EA11:EA13"/>
+    <mergeCell ref="EB11:EB13"/>
+    <mergeCell ref="EC11:EC13"/>
+    <mergeCell ref="ED11:ED13"/>
+    <mergeCell ref="EO11:EO13"/>
+    <mergeCell ref="EP11:EP13"/>
+    <mergeCell ref="EQ11:EQ13"/>
+    <mergeCell ref="ER11:ER13"/>
+    <mergeCell ref="ES11:ES13"/>
+    <mergeCell ref="EJ11:EJ13"/>
+    <mergeCell ref="EK11:EK13"/>
+    <mergeCell ref="EL11:EL13"/>
+    <mergeCell ref="EM11:EM13"/>
+    <mergeCell ref="EN11:EN13"/>
+    <mergeCell ref="EY11:EY13"/>
+    <mergeCell ref="EZ11:EZ13"/>
+    <mergeCell ref="FA11:FA13"/>
+    <mergeCell ref="FB11:FB13"/>
+    <mergeCell ref="FC11:FC13"/>
+    <mergeCell ref="ET11:ET13"/>
+    <mergeCell ref="EU11:EU13"/>
+    <mergeCell ref="EV11:EV13"/>
+    <mergeCell ref="EW11:EW13"/>
+    <mergeCell ref="EX11:EX13"/>
+    <mergeCell ref="FI11:FI13"/>
+    <mergeCell ref="FJ11:FJ13"/>
+    <mergeCell ref="FK11:FK13"/>
+    <mergeCell ref="FL11:FL13"/>
+    <mergeCell ref="FM11:FM13"/>
+    <mergeCell ref="FD11:FD13"/>
+    <mergeCell ref="FE11:FE13"/>
+    <mergeCell ref="FF11:FF13"/>
+    <mergeCell ref="FG11:FG13"/>
+    <mergeCell ref="FH11:FH13"/>
+    <mergeCell ref="FS11:FS13"/>
+    <mergeCell ref="FT11:FT13"/>
+    <mergeCell ref="FU11:FU13"/>
+    <mergeCell ref="FV11:FV13"/>
+    <mergeCell ref="FW11:FW13"/>
+    <mergeCell ref="FN11:FN13"/>
+    <mergeCell ref="FO11:FO13"/>
+    <mergeCell ref="FP11:FP13"/>
+    <mergeCell ref="FQ11:FQ13"/>
+    <mergeCell ref="FR11:FR13"/>
+    <mergeCell ref="GC11:GC13"/>
+    <mergeCell ref="GD11:GD13"/>
+    <mergeCell ref="GE11:GE13"/>
+    <mergeCell ref="GF11:GF13"/>
+    <mergeCell ref="GG11:GG13"/>
+    <mergeCell ref="FX11:FX13"/>
+    <mergeCell ref="FY11:FY13"/>
+    <mergeCell ref="FZ11:FZ13"/>
+    <mergeCell ref="GA11:GA13"/>
+    <mergeCell ref="GB11:GB13"/>
+    <mergeCell ref="GM11:GM13"/>
+    <mergeCell ref="GN11:GN13"/>
+    <mergeCell ref="GO11:GO13"/>
+    <mergeCell ref="GP11:GP13"/>
+    <mergeCell ref="GQ11:GQ13"/>
+    <mergeCell ref="GH11:GH13"/>
+    <mergeCell ref="GI11:GI13"/>
+    <mergeCell ref="GJ11:GJ13"/>
+    <mergeCell ref="GK11:GK13"/>
+    <mergeCell ref="GL11:GL13"/>
+    <mergeCell ref="GW11:GW13"/>
+    <mergeCell ref="GX11:GX13"/>
+    <mergeCell ref="GY11:GY13"/>
+    <mergeCell ref="GZ11:GZ13"/>
+    <mergeCell ref="HA11:HA13"/>
+    <mergeCell ref="GR11:GR13"/>
+    <mergeCell ref="GS11:GS13"/>
+    <mergeCell ref="GT11:GT13"/>
+    <mergeCell ref="GU11:GU13"/>
+    <mergeCell ref="GV11:GV13"/>
+    <mergeCell ref="HG11:HG13"/>
+    <mergeCell ref="HH11:HH13"/>
+    <mergeCell ref="HI11:HI13"/>
+    <mergeCell ref="HJ11:HJ13"/>
+    <mergeCell ref="HK11:HK13"/>
+    <mergeCell ref="HB11:HB13"/>
+    <mergeCell ref="HC11:HC13"/>
+    <mergeCell ref="HD11:HD13"/>
+    <mergeCell ref="HE11:HE13"/>
+    <mergeCell ref="HF11:HF13"/>
+    <mergeCell ref="HQ11:HQ13"/>
+    <mergeCell ref="HR11:HR13"/>
+    <mergeCell ref="HS11:HS13"/>
+    <mergeCell ref="HT11:HT13"/>
+    <mergeCell ref="HU11:HU13"/>
+    <mergeCell ref="HL11:HL13"/>
+    <mergeCell ref="HM11:HM13"/>
+    <mergeCell ref="HN11:HN13"/>
+    <mergeCell ref="HO11:HO13"/>
+    <mergeCell ref="HP11:HP13"/>
+    <mergeCell ref="IA11:IA13"/>
+    <mergeCell ref="IB11:IB13"/>
+    <mergeCell ref="IC11:IC13"/>
+    <mergeCell ref="ID11:ID13"/>
+    <mergeCell ref="IE11:IE13"/>
+    <mergeCell ref="HV11:HV13"/>
+    <mergeCell ref="HW11:HW13"/>
+    <mergeCell ref="HX11:HX13"/>
+    <mergeCell ref="HY11:HY13"/>
+    <mergeCell ref="HZ11:HZ13"/>
+    <mergeCell ref="IK11:IK13"/>
+    <mergeCell ref="IL11:IL13"/>
+    <mergeCell ref="IM11:IM13"/>
+    <mergeCell ref="IN11:IN13"/>
+    <mergeCell ref="IO11:IO13"/>
+    <mergeCell ref="IF11:IF13"/>
+    <mergeCell ref="IG11:IG13"/>
+    <mergeCell ref="IH11:IH13"/>
+    <mergeCell ref="II11:II13"/>
+    <mergeCell ref="IJ11:IJ13"/>
+    <mergeCell ref="IU11:IU13"/>
+    <mergeCell ref="IV11:IV13"/>
+    <mergeCell ref="IW11:IW13"/>
+    <mergeCell ref="IX11:IX13"/>
+    <mergeCell ref="IY11:IY13"/>
+    <mergeCell ref="IP11:IP13"/>
+    <mergeCell ref="IQ11:IQ13"/>
+    <mergeCell ref="IR11:IR13"/>
+    <mergeCell ref="IS11:IS13"/>
+    <mergeCell ref="IT11:IT13"/>
+    <mergeCell ref="JE11:JE13"/>
+    <mergeCell ref="JF11:JF13"/>
+    <mergeCell ref="JG11:JG13"/>
+    <mergeCell ref="JH11:JH13"/>
+    <mergeCell ref="JI11:JI13"/>
+    <mergeCell ref="IZ11:IZ13"/>
+    <mergeCell ref="JA11:JA13"/>
+    <mergeCell ref="JB11:JB13"/>
+    <mergeCell ref="JC11:JC13"/>
+    <mergeCell ref="JD11:JD13"/>
+    <mergeCell ref="JO11:JO13"/>
+    <mergeCell ref="JP11:JP13"/>
+    <mergeCell ref="JQ11:JQ13"/>
+    <mergeCell ref="JR11:JR13"/>
+    <mergeCell ref="JS11:JS13"/>
+    <mergeCell ref="JJ11:JJ13"/>
+    <mergeCell ref="JK11:JK13"/>
+    <mergeCell ref="JL11:JL13"/>
+    <mergeCell ref="JM11:JM13"/>
+    <mergeCell ref="JN11:JN13"/>
+    <mergeCell ref="JY11:JY13"/>
+    <mergeCell ref="JZ11:JZ13"/>
+    <mergeCell ref="KA11:KA13"/>
+    <mergeCell ref="KB11:KB13"/>
+    <mergeCell ref="KC11:KC13"/>
+    <mergeCell ref="JT11:JT13"/>
+    <mergeCell ref="JU11:JU13"/>
+    <mergeCell ref="JV11:JV13"/>
+    <mergeCell ref="JW11:JW13"/>
+    <mergeCell ref="JX11:JX13"/>
+    <mergeCell ref="KI11:KI13"/>
+    <mergeCell ref="KJ11:KJ13"/>
+    <mergeCell ref="KK11:KK13"/>
+    <mergeCell ref="KL11:KL13"/>
+    <mergeCell ref="KM11:KM13"/>
+    <mergeCell ref="KD11:KD13"/>
+    <mergeCell ref="KE11:KE13"/>
+    <mergeCell ref="KF11:KF13"/>
+    <mergeCell ref="KG11:KG13"/>
+    <mergeCell ref="KH11:KH13"/>
+    <mergeCell ref="KS11:KS13"/>
+    <mergeCell ref="KT11:KT13"/>
+    <mergeCell ref="KU11:KU13"/>
+    <mergeCell ref="KV11:KV13"/>
+    <mergeCell ref="KW11:KW13"/>
+    <mergeCell ref="KN11:KN13"/>
+    <mergeCell ref="KO11:KO13"/>
+    <mergeCell ref="KP11:KP13"/>
+    <mergeCell ref="KQ11:KQ13"/>
+    <mergeCell ref="KR11:KR13"/>
+    <mergeCell ref="LC11:LC13"/>
+    <mergeCell ref="LD11:LD13"/>
+    <mergeCell ref="LE11:LE13"/>
+    <mergeCell ref="LF11:LF13"/>
+    <mergeCell ref="LG11:LG13"/>
+    <mergeCell ref="KX11:KX13"/>
+    <mergeCell ref="KY11:KY13"/>
+    <mergeCell ref="KZ11:KZ13"/>
+    <mergeCell ref="LA11:LA13"/>
+    <mergeCell ref="LB11:LB13"/>
+    <mergeCell ref="LM11:LM13"/>
+    <mergeCell ref="LN11:LN13"/>
+    <mergeCell ref="LO11:LO13"/>
+    <mergeCell ref="LP11:LP13"/>
+    <mergeCell ref="LQ11:LQ13"/>
+    <mergeCell ref="LH11:LH13"/>
+    <mergeCell ref="LI11:LI13"/>
+    <mergeCell ref="LJ11:LJ13"/>
+    <mergeCell ref="LK11:LK13"/>
+    <mergeCell ref="LL11:LL13"/>
+    <mergeCell ref="LW11:LW13"/>
+    <mergeCell ref="LX11:LX13"/>
+    <mergeCell ref="LY11:LY13"/>
+    <mergeCell ref="LZ11:LZ13"/>
+    <mergeCell ref="MA11:MA13"/>
+    <mergeCell ref="LR11:LR13"/>
+    <mergeCell ref="LS11:LS13"/>
+    <mergeCell ref="LT11:LT13"/>
+    <mergeCell ref="LU11:LU13"/>
+    <mergeCell ref="LV11:LV13"/>
+    <mergeCell ref="MG11:MG13"/>
+    <mergeCell ref="MH11:MH13"/>
+    <mergeCell ref="MI11:MI13"/>
+    <mergeCell ref="MJ11:MJ13"/>
+    <mergeCell ref="MK11:MK13"/>
+    <mergeCell ref="MB11:MB13"/>
+    <mergeCell ref="MC11:MC13"/>
+    <mergeCell ref="MD11:MD13"/>
+    <mergeCell ref="ME11:ME13"/>
+    <mergeCell ref="MF11:MF13"/>
+    <mergeCell ref="MQ11:MQ13"/>
+    <mergeCell ref="MR11:MR13"/>
+    <mergeCell ref="MS11:MS13"/>
+    <mergeCell ref="MT11:MT13"/>
+    <mergeCell ref="MU11:MU13"/>
+    <mergeCell ref="ML11:ML13"/>
+    <mergeCell ref="MM11:MM13"/>
+    <mergeCell ref="MN11:MN13"/>
+    <mergeCell ref="MO11:MO13"/>
+    <mergeCell ref="MP11:MP13"/>
+    <mergeCell ref="NA11:NA13"/>
+    <mergeCell ref="NB11:NB13"/>
+    <mergeCell ref="NC11:NC13"/>
+    <mergeCell ref="ND11:ND13"/>
+    <mergeCell ref="NE11:NE13"/>
+    <mergeCell ref="MV11:MV13"/>
+    <mergeCell ref="MW11:MW13"/>
+    <mergeCell ref="MX11:MX13"/>
+    <mergeCell ref="MY11:MY13"/>
+    <mergeCell ref="MZ11:MZ13"/>
+    <mergeCell ref="NK11:NK13"/>
+    <mergeCell ref="NL11:NL13"/>
+    <mergeCell ref="NM11:NM13"/>
+    <mergeCell ref="NN11:NN13"/>
+    <mergeCell ref="NO11:NO13"/>
+    <mergeCell ref="NF11:NF13"/>
+    <mergeCell ref="NG11:NG13"/>
+    <mergeCell ref="NH11:NH13"/>
+    <mergeCell ref="NI11:NI13"/>
+    <mergeCell ref="NJ11:NJ13"/>
+    <mergeCell ref="NU11:NU13"/>
+    <mergeCell ref="NV11:NV13"/>
+    <mergeCell ref="NW11:NW13"/>
+    <mergeCell ref="NX11:NX13"/>
+    <mergeCell ref="NY11:NY13"/>
+    <mergeCell ref="NP11:NP13"/>
+    <mergeCell ref="NQ11:NQ13"/>
+    <mergeCell ref="NR11:NR13"/>
+    <mergeCell ref="NS11:NS13"/>
+    <mergeCell ref="NT11:NT13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:OD49">
@@ -57805,25 +57805,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="135" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B2" s="163"/>
+      <c r="B2" s="135"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="136" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="137" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B6" s="164"/>
+      <c r="B6" s="136"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B400" s="78" t="s">

--- a/Ultimate Excel Gantt Chart 1 year.xlsx
+++ b/Ultimate Excel Gantt Chart 1 year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76925E4B-8263-49A5-9E53-FA55CA5C4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4E96EB-554E-4C9F-A78C-57C95B673BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>ids</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>&lt;</t>
-  </si>
-  <si>
-    <t>Buy me a cup of coffee</t>
   </si>
   <si>
     <t>Credit to original developer.</t>
@@ -1419,7 +1416,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1771,7 +1768,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1797,6 +1793,51 @@
     <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,51 +1857,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1903,11 +1899,30 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="\◆"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF170C83"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF170C83"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="\◆"/>
     </dxf>
     <dxf>
       <fill>
@@ -1917,10 +1932,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF170C83"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="\◆"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF170C83"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2019,26 +2035,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1B6D4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="\◆"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2309,6 +2305,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F082"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF2412C5"/>
         </patternFill>
       </fill>
@@ -2337,14 +2354,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF840441"/>
+          <bgColor rgb="FFC60662"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC60662"/>
+          <bgColor rgb="FF840441"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2387,27 +2404,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1B6D4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F082"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2761,13 +2757,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>474559</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>171133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3145,71 +3141,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="81" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
     </row>
     <row r="2" spans="2:35" s="81" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="P2" s="140" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="P2" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="141"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="2:35" s="82" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="G6" s="138" t="s">
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="G6" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="M6" s="138" t="s">
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="M6" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="S6" s="138" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="S6" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="X6" s="138" t="s">
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="X6" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AG6" s="138" t="s">
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="137"/>
+      <c r="AE6" s="137"/>
+      <c r="AG6" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="137"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="84"/>
@@ -4005,7 +4001,7 @@
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M24" s="84"/>
       <c r="N24" s="103"/>
@@ -10514,28 +10510,28 @@
       <c r="AC2" s="154"/>
       <c r="AD2" s="154"/>
       <c r="AE2" s="154"/>
-      <c r="AF2" s="163" cm="1">
+      <c r="AF2" s="146" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="163" cm="1">
+      <c r="AK2" s="146" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44531</v>
       </c>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="164" t="str" cm="1">
+      <c r="AL2" s="146"/>
+      <c r="AM2" s="146"/>
+      <c r="AN2" s="146"/>
+      <c r="AO2" s="151" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(202)</v>
       </c>
-      <c r="AP2" s="164"/>
+      <c r="AP2" s="151"/>
       <c r="AT2" s="154" t="s">
         <v>28</v>
       </c>
@@ -10554,14 +10550,14 @@
       <c r="BD2" s="155"/>
       <c r="BE2" s="155"/>
       <c r="BF2" s="155"/>
-      <c r="BL2" s="160" t="s">
+      <c r="BL2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="161"/>
-      <c r="BN2" s="161"/>
-      <c r="BO2" s="161"/>
-      <c r="BP2" s="161"/>
-      <c r="BQ2" s="162"/>
+      <c r="BM2" s="144"/>
+      <c r="BN2" s="144"/>
+      <c r="BO2" s="144"/>
+      <c r="BP2" s="144"/>
+      <c r="BQ2" s="145"/>
     </row>
     <row r="3" spans="1:394" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="153"/>
@@ -10590,76 +10586,76 @@
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="156" t="s">
+      <c r="X5" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="158"/>
-      <c r="AG5" s="156" t="s">
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="149"/>
+      <c r="AG5" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="158"/>
-      <c r="AP5" s="156" t="s">
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="149"/>
+      <c r="AP5" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="157"/>
-      <c r="AT5" s="157"/>
-      <c r="AU5" s="158"/>
-      <c r="BL5" s="156" t="s">
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="149"/>
+      <c r="BL5" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="157"/>
-      <c r="BO5" s="157"/>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="158"/>
+      <c r="BM5" s="148"/>
+      <c r="BN5" s="148"/>
+      <c r="BO5" s="148"/>
+      <c r="BP5" s="148"/>
+      <c r="BQ5" s="149"/>
     </row>
     <row r="6" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="159" t="s">
+      <c r="X6" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AG6" s="159" t="s">
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AG6" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AP6" s="159" t="s">
+      <c r="AH6" s="150"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="150"/>
+      <c r="AK6" s="150"/>
+      <c r="AL6" s="150"/>
+      <c r="AP6" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="AQ6" s="159"/>
-      <c r="AR6" s="159"/>
-      <c r="AS6" s="159"/>
-      <c r="AT6" s="159"/>
-      <c r="AU6" s="159"/>
-      <c r="BL6" s="165" t="s">
+      <c r="AQ6" s="150"/>
+      <c r="AR6" s="150"/>
+      <c r="AS6" s="150"/>
+      <c r="AT6" s="150"/>
+      <c r="AU6" s="150"/>
+      <c r="BL6" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="BM6" s="165"/>
-      <c r="BN6" s="165"/>
-      <c r="BO6" s="165"/>
-      <c r="BP6" s="165"/>
-      <c r="BQ6" s="165"/>
+      <c r="BM6" s="152"/>
+      <c r="BN6" s="152"/>
+      <c r="BO6" s="152"/>
+      <c r="BP6" s="152"/>
+      <c r="BQ6" s="152"/>
     </row>
     <row r="7" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
@@ -12176,2303 +12172,2303 @@
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="146" t="s">
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="146"/>
+      <c r="V11" s="160"/>
       <c r="W11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="143" cm="1">
+      <c r="X11" s="142" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">timeline_start+scroll_increment</f>
         <v>44326</v>
       </c>
-      <c r="Y11" s="143">
+      <c r="Y11" s="142">
         <f ca="1">X11+1</f>
         <v>44327</v>
       </c>
-      <c r="Z11" s="143">
+      <c r="Z11" s="142">
         <f t="shared" ref="Z11:CK11" ca="1" si="8">Y11+1</f>
         <v>44328</v>
       </c>
-      <c r="AA11" s="143">
+      <c r="AA11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44329</v>
       </c>
-      <c r="AB11" s="143">
+      <c r="AB11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44330</v>
       </c>
-      <c r="AC11" s="143">
+      <c r="AC11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44331</v>
       </c>
-      <c r="AD11" s="143">
+      <c r="AD11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44332</v>
       </c>
-      <c r="AE11" s="143">
+      <c r="AE11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44333</v>
       </c>
-      <c r="AF11" s="143">
+      <c r="AF11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44334</v>
       </c>
-      <c r="AG11" s="143">
+      <c r="AG11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44335</v>
       </c>
-      <c r="AH11" s="143">
+      <c r="AH11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44336</v>
       </c>
-      <c r="AI11" s="143">
+      <c r="AI11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44337</v>
       </c>
-      <c r="AJ11" s="143">
+      <c r="AJ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44338</v>
       </c>
-      <c r="AK11" s="143">
+      <c r="AK11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44339</v>
       </c>
-      <c r="AL11" s="143">
+      <c r="AL11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44340</v>
       </c>
-      <c r="AM11" s="143">
+      <c r="AM11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44341</v>
       </c>
-      <c r="AN11" s="143">
+      <c r="AN11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44342</v>
       </c>
-      <c r="AO11" s="143">
+      <c r="AO11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44343</v>
       </c>
-      <c r="AP11" s="143">
+      <c r="AP11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44344</v>
       </c>
-      <c r="AQ11" s="143">
+      <c r="AQ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44345</v>
       </c>
-      <c r="AR11" s="143">
+      <c r="AR11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44346</v>
       </c>
-      <c r="AS11" s="143">
+      <c r="AS11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44347</v>
       </c>
-      <c r="AT11" s="143">
+      <c r="AT11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44348</v>
       </c>
-      <c r="AU11" s="143">
+      <c r="AU11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44349</v>
       </c>
-      <c r="AV11" s="143">
+      <c r="AV11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44350</v>
       </c>
-      <c r="AW11" s="143">
+      <c r="AW11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44351</v>
       </c>
-      <c r="AX11" s="143">
+      <c r="AX11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44352</v>
       </c>
-      <c r="AY11" s="143">
+      <c r="AY11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44353</v>
       </c>
-      <c r="AZ11" s="143">
+      <c r="AZ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44354</v>
       </c>
-      <c r="BA11" s="143">
+      <c r="BA11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44355</v>
       </c>
-      <c r="BB11" s="143">
+      <c r="BB11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44356</v>
       </c>
-      <c r="BC11" s="143">
+      <c r="BC11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44357</v>
       </c>
-      <c r="BD11" s="143">
+      <c r="BD11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44358</v>
       </c>
-      <c r="BE11" s="143">
+      <c r="BE11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44359</v>
       </c>
-      <c r="BF11" s="143">
+      <c r="BF11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44360</v>
       </c>
-      <c r="BG11" s="143">
+      <c r="BG11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44361</v>
       </c>
-      <c r="BH11" s="143">
+      <c r="BH11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44362</v>
       </c>
-      <c r="BI11" s="143">
+      <c r="BI11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44363</v>
       </c>
-      <c r="BJ11" s="143">
+      <c r="BJ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44364</v>
       </c>
-      <c r="BK11" s="143">
+      <c r="BK11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44365</v>
       </c>
-      <c r="BL11" s="143">
+      <c r="BL11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44366</v>
       </c>
-      <c r="BM11" s="143">
+      <c r="BM11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44367</v>
       </c>
-      <c r="BN11" s="143">
+      <c r="BN11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44368</v>
       </c>
-      <c r="BO11" s="143">
+      <c r="BO11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44369</v>
       </c>
-      <c r="BP11" s="143">
+      <c r="BP11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44370</v>
       </c>
-      <c r="BQ11" s="143">
+      <c r="BQ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44371</v>
       </c>
-      <c r="BR11" s="143">
+      <c r="BR11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44372</v>
       </c>
-      <c r="BS11" s="143">
+      <c r="BS11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44373</v>
       </c>
-      <c r="BT11" s="143">
+      <c r="BT11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44374</v>
       </c>
-      <c r="BU11" s="143">
+      <c r="BU11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44375</v>
       </c>
-      <c r="BV11" s="143">
+      <c r="BV11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44376</v>
       </c>
-      <c r="BW11" s="143">
+      <c r="BW11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44377</v>
       </c>
-      <c r="BX11" s="143">
+      <c r="BX11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44378</v>
       </c>
-      <c r="BY11" s="143">
+      <c r="BY11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44379</v>
       </c>
-      <c r="BZ11" s="143">
+      <c r="BZ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44380</v>
       </c>
-      <c r="CA11" s="143">
+      <c r="CA11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44381</v>
       </c>
-      <c r="CB11" s="143">
+      <c r="CB11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44382</v>
       </c>
-      <c r="CC11" s="143">
+      <c r="CC11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44383</v>
       </c>
-      <c r="CD11" s="143">
+      <c r="CD11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44384</v>
       </c>
-      <c r="CE11" s="143">
+      <c r="CE11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44385</v>
       </c>
-      <c r="CF11" s="143">
+      <c r="CF11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44386</v>
       </c>
-      <c r="CG11" s="143">
+      <c r="CG11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44387</v>
       </c>
-      <c r="CH11" s="143">
+      <c r="CH11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44388</v>
       </c>
-      <c r="CI11" s="143">
+      <c r="CI11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44389</v>
       </c>
-      <c r="CJ11" s="143">
+      <c r="CJ11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44390</v>
       </c>
-      <c r="CK11" s="143">
+      <c r="CK11" s="142">
         <f t="shared" ca="1" si="8"/>
         <v>44391</v>
       </c>
-      <c r="CL11" s="143">
+      <c r="CL11" s="142">
         <f t="shared" ref="CL11:EW11" ca="1" si="9">CK11+1</f>
         <v>44392</v>
       </c>
-      <c r="CM11" s="143">
+      <c r="CM11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44393</v>
       </c>
-      <c r="CN11" s="143">
+      <c r="CN11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44394</v>
       </c>
-      <c r="CO11" s="143">
+      <c r="CO11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44395</v>
       </c>
-      <c r="CP11" s="143">
+      <c r="CP11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44396</v>
       </c>
-      <c r="CQ11" s="143">
+      <c r="CQ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44397</v>
       </c>
-      <c r="CR11" s="143">
+      <c r="CR11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44398</v>
       </c>
-      <c r="CS11" s="143">
+      <c r="CS11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44399</v>
       </c>
-      <c r="CT11" s="143">
+      <c r="CT11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44400</v>
       </c>
-      <c r="CU11" s="143">
+      <c r="CU11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44401</v>
       </c>
-      <c r="CV11" s="143">
+      <c r="CV11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44402</v>
       </c>
-      <c r="CW11" s="143">
+      <c r="CW11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44403</v>
       </c>
-      <c r="CX11" s="143">
+      <c r="CX11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44404</v>
       </c>
-      <c r="CY11" s="143">
+      <c r="CY11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44405</v>
       </c>
-      <c r="CZ11" s="143">
+      <c r="CZ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44406</v>
       </c>
-      <c r="DA11" s="143">
+      <c r="DA11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44407</v>
       </c>
-      <c r="DB11" s="143">
+      <c r="DB11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44408</v>
       </c>
-      <c r="DC11" s="143">
+      <c r="DC11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44409</v>
       </c>
-      <c r="DD11" s="143">
+      <c r="DD11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44410</v>
       </c>
-      <c r="DE11" s="143">
+      <c r="DE11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44411</v>
       </c>
-      <c r="DF11" s="143">
+      <c r="DF11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44412</v>
       </c>
-      <c r="DG11" s="143">
+      <c r="DG11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44413</v>
       </c>
-      <c r="DH11" s="143">
+      <c r="DH11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44414</v>
       </c>
-      <c r="DI11" s="143">
+      <c r="DI11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44415</v>
       </c>
-      <c r="DJ11" s="143">
+      <c r="DJ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44416</v>
       </c>
-      <c r="DK11" s="143">
+      <c r="DK11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44417</v>
       </c>
-      <c r="DL11" s="143">
+      <c r="DL11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44418</v>
       </c>
-      <c r="DM11" s="143">
+      <c r="DM11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44419</v>
       </c>
-      <c r="DN11" s="143">
+      <c r="DN11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44420</v>
       </c>
-      <c r="DO11" s="143">
+      <c r="DO11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44421</v>
       </c>
-      <c r="DP11" s="143">
+      <c r="DP11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44422</v>
       </c>
-      <c r="DQ11" s="143">
+      <c r="DQ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44423</v>
       </c>
-      <c r="DR11" s="143">
+      <c r="DR11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44424</v>
       </c>
-      <c r="DS11" s="143">
+      <c r="DS11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44425</v>
       </c>
-      <c r="DT11" s="143">
+      <c r="DT11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44426</v>
       </c>
-      <c r="DU11" s="143">
+      <c r="DU11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44427</v>
       </c>
-      <c r="DV11" s="143">
+      <c r="DV11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44428</v>
       </c>
-      <c r="DW11" s="143">
+      <c r="DW11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44429</v>
       </c>
-      <c r="DX11" s="143">
+      <c r="DX11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44430</v>
       </c>
-      <c r="DY11" s="143">
+      <c r="DY11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44431</v>
       </c>
-      <c r="DZ11" s="143">
+      <c r="DZ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44432</v>
       </c>
-      <c r="EA11" s="143">
+      <c r="EA11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44433</v>
       </c>
-      <c r="EB11" s="143">
+      <c r="EB11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44434</v>
       </c>
-      <c r="EC11" s="143">
+      <c r="EC11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44435</v>
       </c>
-      <c r="ED11" s="143">
+      <c r="ED11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44436</v>
       </c>
-      <c r="EE11" s="143">
+      <c r="EE11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44437</v>
       </c>
-      <c r="EF11" s="143">
+      <c r="EF11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44438</v>
       </c>
-      <c r="EG11" s="143">
+      <c r="EG11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44439</v>
       </c>
-      <c r="EH11" s="143">
+      <c r="EH11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44440</v>
       </c>
-      <c r="EI11" s="143">
+      <c r="EI11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44441</v>
       </c>
-      <c r="EJ11" s="143">
+      <c r="EJ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44442</v>
       </c>
-      <c r="EK11" s="143">
+      <c r="EK11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44443</v>
       </c>
-      <c r="EL11" s="143">
+      <c r="EL11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44444</v>
       </c>
-      <c r="EM11" s="143">
+      <c r="EM11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44445</v>
       </c>
-      <c r="EN11" s="143">
+      <c r="EN11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44446</v>
       </c>
-      <c r="EO11" s="143">
+      <c r="EO11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44447</v>
       </c>
-      <c r="EP11" s="143">
+      <c r="EP11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44448</v>
       </c>
-      <c r="EQ11" s="143">
+      <c r="EQ11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44449</v>
       </c>
-      <c r="ER11" s="143">
+      <c r="ER11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44450</v>
       </c>
-      <c r="ES11" s="143">
+      <c r="ES11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44451</v>
       </c>
-      <c r="ET11" s="143">
+      <c r="ET11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44452</v>
       </c>
-      <c r="EU11" s="143">
+      <c r="EU11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44453</v>
       </c>
-      <c r="EV11" s="143">
+      <c r="EV11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44454</v>
       </c>
-      <c r="EW11" s="143">
+      <c r="EW11" s="142">
         <f t="shared" ca="1" si="9"/>
         <v>44455</v>
       </c>
-      <c r="EX11" s="143">
+      <c r="EX11" s="142">
         <f t="shared" ref="EX11:HI11" ca="1" si="10">EW11+1</f>
         <v>44456</v>
       </c>
-      <c r="EY11" s="143">
+      <c r="EY11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44457</v>
       </c>
-      <c r="EZ11" s="143">
+      <c r="EZ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44458</v>
       </c>
-      <c r="FA11" s="143">
+      <c r="FA11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44459</v>
       </c>
-      <c r="FB11" s="143">
+      <c r="FB11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44460</v>
       </c>
-      <c r="FC11" s="143">
+      <c r="FC11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44461</v>
       </c>
-      <c r="FD11" s="143">
+      <c r="FD11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44462</v>
       </c>
-      <c r="FE11" s="143">
+      <c r="FE11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44463</v>
       </c>
-      <c r="FF11" s="143">
+      <c r="FF11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44464</v>
       </c>
-      <c r="FG11" s="143">
+      <c r="FG11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44465</v>
       </c>
-      <c r="FH11" s="143">
+      <c r="FH11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44466</v>
       </c>
-      <c r="FI11" s="143">
+      <c r="FI11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44467</v>
       </c>
-      <c r="FJ11" s="143">
+      <c r="FJ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44468</v>
       </c>
-      <c r="FK11" s="143">
+      <c r="FK11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44469</v>
       </c>
-      <c r="FL11" s="143">
+      <c r="FL11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44470</v>
       </c>
-      <c r="FM11" s="143">
+      <c r="FM11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44471</v>
       </c>
-      <c r="FN11" s="143">
+      <c r="FN11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44472</v>
       </c>
-      <c r="FO11" s="143">
+      <c r="FO11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44473</v>
       </c>
-      <c r="FP11" s="143">
+      <c r="FP11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44474</v>
       </c>
-      <c r="FQ11" s="143">
+      <c r="FQ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44475</v>
       </c>
-      <c r="FR11" s="143">
+      <c r="FR11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44476</v>
       </c>
-      <c r="FS11" s="143">
+      <c r="FS11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44477</v>
       </c>
-      <c r="FT11" s="143">
+      <c r="FT11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44478</v>
       </c>
-      <c r="FU11" s="143">
+      <c r="FU11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44479</v>
       </c>
-      <c r="FV11" s="143">
+      <c r="FV11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44480</v>
       </c>
-      <c r="FW11" s="143">
+      <c r="FW11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44481</v>
       </c>
-      <c r="FX11" s="143">
+      <c r="FX11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44482</v>
       </c>
-      <c r="FY11" s="143">
+      <c r="FY11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44483</v>
       </c>
-      <c r="FZ11" s="143">
+      <c r="FZ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44484</v>
       </c>
-      <c r="GA11" s="143">
+      <c r="GA11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44485</v>
       </c>
-      <c r="GB11" s="143">
+      <c r="GB11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44486</v>
       </c>
-      <c r="GC11" s="143">
+      <c r="GC11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44487</v>
       </c>
-      <c r="GD11" s="143">
+      <c r="GD11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44488</v>
       </c>
-      <c r="GE11" s="143">
+      <c r="GE11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44489</v>
       </c>
-      <c r="GF11" s="143">
+      <c r="GF11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44490</v>
       </c>
-      <c r="GG11" s="143">
+      <c r="GG11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44491</v>
       </c>
-      <c r="GH11" s="143">
+      <c r="GH11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44492</v>
       </c>
-      <c r="GI11" s="143">
+      <c r="GI11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44493</v>
       </c>
-      <c r="GJ11" s="143">
+      <c r="GJ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44494</v>
       </c>
-      <c r="GK11" s="143">
+      <c r="GK11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44495</v>
       </c>
-      <c r="GL11" s="143">
+      <c r="GL11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44496</v>
       </c>
-      <c r="GM11" s="143">
+      <c r="GM11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44497</v>
       </c>
-      <c r="GN11" s="143">
+      <c r="GN11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44498</v>
       </c>
-      <c r="GO11" s="143">
+      <c r="GO11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44499</v>
       </c>
-      <c r="GP11" s="143">
+      <c r="GP11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44500</v>
       </c>
-      <c r="GQ11" s="143">
+      <c r="GQ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44501</v>
       </c>
-      <c r="GR11" s="143">
+      <c r="GR11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44502</v>
       </c>
-      <c r="GS11" s="143">
+      <c r="GS11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44503</v>
       </c>
-      <c r="GT11" s="143">
+      <c r="GT11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44504</v>
       </c>
-      <c r="GU11" s="143">
+      <c r="GU11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44505</v>
       </c>
-      <c r="GV11" s="143">
+      <c r="GV11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44506</v>
       </c>
-      <c r="GW11" s="143">
+      <c r="GW11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44507</v>
       </c>
-      <c r="GX11" s="143">
+      <c r="GX11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44508</v>
       </c>
-      <c r="GY11" s="143">
+      <c r="GY11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44509</v>
       </c>
-      <c r="GZ11" s="143">
+      <c r="GZ11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44510</v>
       </c>
-      <c r="HA11" s="143">
+      <c r="HA11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44511</v>
       </c>
-      <c r="HB11" s="143">
+      <c r="HB11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44512</v>
       </c>
-      <c r="HC11" s="143">
+      <c r="HC11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44513</v>
       </c>
-      <c r="HD11" s="143">
+      <c r="HD11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44514</v>
       </c>
-      <c r="HE11" s="143">
+      <c r="HE11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44515</v>
       </c>
-      <c r="HF11" s="143">
+      <c r="HF11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44516</v>
       </c>
-      <c r="HG11" s="143">
+      <c r="HG11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44517</v>
       </c>
-      <c r="HH11" s="143">
+      <c r="HH11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44518</v>
       </c>
-      <c r="HI11" s="143">
+      <c r="HI11" s="142">
         <f t="shared" ca="1" si="10"/>
         <v>44519</v>
       </c>
-      <c r="HJ11" s="143">
+      <c r="HJ11" s="142">
         <f t="shared" ref="HJ11:JU11" ca="1" si="11">HI11+1</f>
         <v>44520</v>
       </c>
-      <c r="HK11" s="143">
+      <c r="HK11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44521</v>
       </c>
-      <c r="HL11" s="143">
+      <c r="HL11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44522</v>
       </c>
-      <c r="HM11" s="143">
+      <c r="HM11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44523</v>
       </c>
-      <c r="HN11" s="143">
+      <c r="HN11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44524</v>
       </c>
-      <c r="HO11" s="143">
+      <c r="HO11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44525</v>
       </c>
-      <c r="HP11" s="143">
+      <c r="HP11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44526</v>
       </c>
-      <c r="HQ11" s="143">
+      <c r="HQ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44527</v>
       </c>
-      <c r="HR11" s="143">
+      <c r="HR11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44528</v>
       </c>
-      <c r="HS11" s="143">
+      <c r="HS11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44529</v>
       </c>
-      <c r="HT11" s="143">
+      <c r="HT11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44530</v>
       </c>
-      <c r="HU11" s="143">
+      <c r="HU11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44531</v>
       </c>
-      <c r="HV11" s="143">
+      <c r="HV11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44532</v>
       </c>
-      <c r="HW11" s="143">
+      <c r="HW11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44533</v>
       </c>
-      <c r="HX11" s="143">
+      <c r="HX11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44534</v>
       </c>
-      <c r="HY11" s="143">
+      <c r="HY11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44535</v>
       </c>
-      <c r="HZ11" s="143">
+      <c r="HZ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44536</v>
       </c>
-      <c r="IA11" s="143">
+      <c r="IA11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44537</v>
       </c>
-      <c r="IB11" s="143">
+      <c r="IB11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44538</v>
       </c>
-      <c r="IC11" s="143">
+      <c r="IC11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44539</v>
       </c>
-      <c r="ID11" s="143">
+      <c r="ID11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44540</v>
       </c>
-      <c r="IE11" s="143">
+      <c r="IE11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44541</v>
       </c>
-      <c r="IF11" s="143">
+      <c r="IF11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44542</v>
       </c>
-      <c r="IG11" s="143">
+      <c r="IG11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44543</v>
       </c>
-      <c r="IH11" s="143">
+      <c r="IH11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44544</v>
       </c>
-      <c r="II11" s="143">
+      <c r="II11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44545</v>
       </c>
-      <c r="IJ11" s="143">
+      <c r="IJ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44546</v>
       </c>
-      <c r="IK11" s="143">
+      <c r="IK11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44547</v>
       </c>
-      <c r="IL11" s="143">
+      <c r="IL11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44548</v>
       </c>
-      <c r="IM11" s="143">
+      <c r="IM11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44549</v>
       </c>
-      <c r="IN11" s="143">
+      <c r="IN11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44550</v>
       </c>
-      <c r="IO11" s="143">
+      <c r="IO11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44551</v>
       </c>
-      <c r="IP11" s="143">
+      <c r="IP11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44552</v>
       </c>
-      <c r="IQ11" s="143">
+      <c r="IQ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44553</v>
       </c>
-      <c r="IR11" s="143">
+      <c r="IR11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44554</v>
       </c>
-      <c r="IS11" s="143">
+      <c r="IS11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44555</v>
       </c>
-      <c r="IT11" s="143">
+      <c r="IT11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44556</v>
       </c>
-      <c r="IU11" s="143">
+      <c r="IU11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44557</v>
       </c>
-      <c r="IV11" s="143">
+      <c r="IV11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44558</v>
       </c>
-      <c r="IW11" s="143">
+      <c r="IW11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44559</v>
       </c>
-      <c r="IX11" s="143">
+      <c r="IX11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44560</v>
       </c>
-      <c r="IY11" s="143">
+      <c r="IY11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44561</v>
       </c>
-      <c r="IZ11" s="143">
+      <c r="IZ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44562</v>
       </c>
-      <c r="JA11" s="143">
+      <c r="JA11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44563</v>
       </c>
-      <c r="JB11" s="143">
+      <c r="JB11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44564</v>
       </c>
-      <c r="JC11" s="143">
+      <c r="JC11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44565</v>
       </c>
-      <c r="JD11" s="143">
+      <c r="JD11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44566</v>
       </c>
-      <c r="JE11" s="143">
+      <c r="JE11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44567</v>
       </c>
-      <c r="JF11" s="143">
+      <c r="JF11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44568</v>
       </c>
-      <c r="JG11" s="143">
+      <c r="JG11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44569</v>
       </c>
-      <c r="JH11" s="143">
+      <c r="JH11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44570</v>
       </c>
-      <c r="JI11" s="143">
+      <c r="JI11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44571</v>
       </c>
-      <c r="JJ11" s="143">
+      <c r="JJ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44572</v>
       </c>
-      <c r="JK11" s="143">
+      <c r="JK11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44573</v>
       </c>
-      <c r="JL11" s="143">
+      <c r="JL11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44574</v>
       </c>
-      <c r="JM11" s="143">
+      <c r="JM11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44575</v>
       </c>
-      <c r="JN11" s="143">
+      <c r="JN11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44576</v>
       </c>
-      <c r="JO11" s="143">
+      <c r="JO11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44577</v>
       </c>
-      <c r="JP11" s="143">
+      <c r="JP11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44578</v>
       </c>
-      <c r="JQ11" s="143">
+      <c r="JQ11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44579</v>
       </c>
-      <c r="JR11" s="143">
+      <c r="JR11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44580</v>
       </c>
-      <c r="JS11" s="143">
+      <c r="JS11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44581</v>
       </c>
-      <c r="JT11" s="143">
+      <c r="JT11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44582</v>
       </c>
-      <c r="JU11" s="143">
+      <c r="JU11" s="142">
         <f t="shared" ca="1" si="11"/>
         <v>44583</v>
       </c>
-      <c r="JV11" s="143">
+      <c r="JV11" s="142">
         <f t="shared" ref="JV11:MG11" ca="1" si="12">JU11+1</f>
         <v>44584</v>
       </c>
-      <c r="JW11" s="143">
+      <c r="JW11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44585</v>
       </c>
-      <c r="JX11" s="143">
+      <c r="JX11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44586</v>
       </c>
-      <c r="JY11" s="143">
+      <c r="JY11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44587</v>
       </c>
-      <c r="JZ11" s="143">
+      <c r="JZ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44588</v>
       </c>
-      <c r="KA11" s="143">
+      <c r="KA11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44589</v>
       </c>
-      <c r="KB11" s="143">
+      <c r="KB11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44590</v>
       </c>
-      <c r="KC11" s="143">
+      <c r="KC11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44591</v>
       </c>
-      <c r="KD11" s="143">
+      <c r="KD11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44592</v>
       </c>
-      <c r="KE11" s="143">
+      <c r="KE11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44593</v>
       </c>
-      <c r="KF11" s="143">
+      <c r="KF11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44594</v>
       </c>
-      <c r="KG11" s="143">
+      <c r="KG11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44595</v>
       </c>
-      <c r="KH11" s="143">
+      <c r="KH11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44596</v>
       </c>
-      <c r="KI11" s="143">
+      <c r="KI11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44597</v>
       </c>
-      <c r="KJ11" s="143">
+      <c r="KJ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44598</v>
       </c>
-      <c r="KK11" s="143">
+      <c r="KK11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44599</v>
       </c>
-      <c r="KL11" s="143">
+      <c r="KL11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44600</v>
       </c>
-      <c r="KM11" s="143">
+      <c r="KM11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44601</v>
       </c>
-      <c r="KN11" s="143">
+      <c r="KN11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44602</v>
       </c>
-      <c r="KO11" s="143">
+      <c r="KO11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44603</v>
       </c>
-      <c r="KP11" s="143">
+      <c r="KP11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44604</v>
       </c>
-      <c r="KQ11" s="143">
+      <c r="KQ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44605</v>
       </c>
-      <c r="KR11" s="143">
+      <c r="KR11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44606</v>
       </c>
-      <c r="KS11" s="143">
+      <c r="KS11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44607</v>
       </c>
-      <c r="KT11" s="143">
+      <c r="KT11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44608</v>
       </c>
-      <c r="KU11" s="143">
+      <c r="KU11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44609</v>
       </c>
-      <c r="KV11" s="143">
+      <c r="KV11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44610</v>
       </c>
-      <c r="KW11" s="143">
+      <c r="KW11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44611</v>
       </c>
-      <c r="KX11" s="143">
+      <c r="KX11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44612</v>
       </c>
-      <c r="KY11" s="143">
+      <c r="KY11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44613</v>
       </c>
-      <c r="KZ11" s="143">
+      <c r="KZ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44614</v>
       </c>
-      <c r="LA11" s="143">
+      <c r="LA11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44615</v>
       </c>
-      <c r="LB11" s="143">
+      <c r="LB11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44616</v>
       </c>
-      <c r="LC11" s="143">
+      <c r="LC11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44617</v>
       </c>
-      <c r="LD11" s="143">
+      <c r="LD11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44618</v>
       </c>
-      <c r="LE11" s="143">
+      <c r="LE11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44619</v>
       </c>
-      <c r="LF11" s="143">
+      <c r="LF11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44620</v>
       </c>
-      <c r="LG11" s="143">
+      <c r="LG11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44621</v>
       </c>
-      <c r="LH11" s="143">
+      <c r="LH11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44622</v>
       </c>
-      <c r="LI11" s="143">
+      <c r="LI11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44623</v>
       </c>
-      <c r="LJ11" s="143">
+      <c r="LJ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44624</v>
       </c>
-      <c r="LK11" s="143">
+      <c r="LK11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44625</v>
       </c>
-      <c r="LL11" s="143">
+      <c r="LL11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44626</v>
       </c>
-      <c r="LM11" s="143">
+      <c r="LM11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44627</v>
       </c>
-      <c r="LN11" s="143">
+      <c r="LN11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44628</v>
       </c>
-      <c r="LO11" s="143">
+      <c r="LO11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44629</v>
       </c>
-      <c r="LP11" s="143">
+      <c r="LP11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44630</v>
       </c>
-      <c r="LQ11" s="143">
+      <c r="LQ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44631</v>
       </c>
-      <c r="LR11" s="143">
+      <c r="LR11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44632</v>
       </c>
-      <c r="LS11" s="143">
+      <c r="LS11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44633</v>
       </c>
-      <c r="LT11" s="143">
+      <c r="LT11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44634</v>
       </c>
-      <c r="LU11" s="143">
+      <c r="LU11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44635</v>
       </c>
-      <c r="LV11" s="143">
+      <c r="LV11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44636</v>
       </c>
-      <c r="LW11" s="143">
+      <c r="LW11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44637</v>
       </c>
-      <c r="LX11" s="143">
+      <c r="LX11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44638</v>
       </c>
-      <c r="LY11" s="143">
+      <c r="LY11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44639</v>
       </c>
-      <c r="LZ11" s="143">
+      <c r="LZ11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44640</v>
       </c>
-      <c r="MA11" s="143">
+      <c r="MA11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44641</v>
       </c>
-      <c r="MB11" s="143">
+      <c r="MB11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44642</v>
       </c>
-      <c r="MC11" s="143">
+      <c r="MC11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44643</v>
       </c>
-      <c r="MD11" s="143">
+      <c r="MD11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44644</v>
       </c>
-      <c r="ME11" s="143">
+      <c r="ME11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44645</v>
       </c>
-      <c r="MF11" s="143">
+      <c r="MF11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44646</v>
       </c>
-      <c r="MG11" s="143">
+      <c r="MG11" s="142">
         <f t="shared" ca="1" si="12"/>
         <v>44647</v>
       </c>
-      <c r="MH11" s="143">
+      <c r="MH11" s="142">
         <f t="shared" ref="MH11:OD11" ca="1" si="13">MG11+1</f>
         <v>44648</v>
       </c>
-      <c r="MI11" s="143">
+      <c r="MI11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44649</v>
       </c>
-      <c r="MJ11" s="143">
+      <c r="MJ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44650</v>
       </c>
-      <c r="MK11" s="143">
+      <c r="MK11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44651</v>
       </c>
-      <c r="ML11" s="143">
+      <c r="ML11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44652</v>
       </c>
-      <c r="MM11" s="143">
+      <c r="MM11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44653</v>
       </c>
-      <c r="MN11" s="143">
+      <c r="MN11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44654</v>
       </c>
-      <c r="MO11" s="143">
+      <c r="MO11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44655</v>
       </c>
-      <c r="MP11" s="143">
+      <c r="MP11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44656</v>
       </c>
-      <c r="MQ11" s="143">
+      <c r="MQ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44657</v>
       </c>
-      <c r="MR11" s="143">
+      <c r="MR11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44658</v>
       </c>
-      <c r="MS11" s="143">
+      <c r="MS11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44659</v>
       </c>
-      <c r="MT11" s="143">
+      <c r="MT11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44660</v>
       </c>
-      <c r="MU11" s="143">
+      <c r="MU11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44661</v>
       </c>
-      <c r="MV11" s="143">
+      <c r="MV11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44662</v>
       </c>
-      <c r="MW11" s="143">
+      <c r="MW11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44663</v>
       </c>
-      <c r="MX11" s="143">
+      <c r="MX11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44664</v>
       </c>
-      <c r="MY11" s="143">
+      <c r="MY11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44665</v>
       </c>
-      <c r="MZ11" s="143">
+      <c r="MZ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44666</v>
       </c>
-      <c r="NA11" s="143">
+      <c r="NA11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44667</v>
       </c>
-      <c r="NB11" s="143">
+      <c r="NB11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44668</v>
       </c>
-      <c r="NC11" s="143">
+      <c r="NC11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44669</v>
       </c>
-      <c r="ND11" s="143">
+      <c r="ND11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44670</v>
       </c>
-      <c r="NE11" s="143">
+      <c r="NE11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44671</v>
       </c>
-      <c r="NF11" s="143">
+      <c r="NF11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44672</v>
       </c>
-      <c r="NG11" s="143">
+      <c r="NG11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44673</v>
       </c>
-      <c r="NH11" s="143">
+      <c r="NH11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44674</v>
       </c>
-      <c r="NI11" s="143">
+      <c r="NI11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44675</v>
       </c>
-      <c r="NJ11" s="143">
+      <c r="NJ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44676</v>
       </c>
-      <c r="NK11" s="143">
+      <c r="NK11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44677</v>
       </c>
-      <c r="NL11" s="143">
+      <c r="NL11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44678</v>
       </c>
-      <c r="NM11" s="143">
+      <c r="NM11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44679</v>
       </c>
-      <c r="NN11" s="143">
+      <c r="NN11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44680</v>
       </c>
-      <c r="NO11" s="143">
+      <c r="NO11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44681</v>
       </c>
-      <c r="NP11" s="143">
+      <c r="NP11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44682</v>
       </c>
-      <c r="NQ11" s="143">
+      <c r="NQ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44683</v>
       </c>
-      <c r="NR11" s="143">
+      <c r="NR11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44684</v>
       </c>
-      <c r="NS11" s="143">
+      <c r="NS11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44685</v>
       </c>
-      <c r="NT11" s="143">
+      <c r="NT11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44686</v>
       </c>
-      <c r="NU11" s="143">
+      <c r="NU11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44687</v>
       </c>
-      <c r="NV11" s="143">
+      <c r="NV11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44688</v>
       </c>
-      <c r="NW11" s="143">
+      <c r="NW11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44689</v>
       </c>
-      <c r="NX11" s="143">
+      <c r="NX11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44690</v>
       </c>
-      <c r="NY11" s="143">
+      <c r="NY11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44691</v>
       </c>
-      <c r="NZ11" s="143">
+      <c r="NZ11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44692</v>
       </c>
-      <c r="OA11" s="143">
+      <c r="OA11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44693</v>
       </c>
-      <c r="OB11" s="143">
+      <c r="OB11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44694</v>
       </c>
-      <c r="OC11" s="143">
+      <c r="OC11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44695</v>
       </c>
-      <c r="OD11" s="143">
+      <c r="OD11" s="142">
         <f t="shared" ca="1" si="13"/>
         <v>44696</v>
       </c>
     </row>
     <row r="12" spans="1:394" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="147" t="s">
+      <c r="K12" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="148" t="s">
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="148"/>
+      <c r="V12" s="162"/>
       <c r="W12" s="62">
         <v>0</v>
       </c>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="143"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="143"/>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="143"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="143"/>
-      <c r="AH12" s="143"/>
-      <c r="AI12" s="143"/>
-      <c r="AJ12" s="143"/>
-      <c r="AK12" s="143"/>
-      <c r="AL12" s="143"/>
-      <c r="AM12" s="143"/>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="143"/>
-      <c r="AP12" s="143"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="143"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="143"/>
-      <c r="AU12" s="143"/>
-      <c r="AV12" s="143"/>
-      <c r="AW12" s="143"/>
-      <c r="AX12" s="143"/>
-      <c r="AY12" s="143"/>
-      <c r="AZ12" s="143"/>
-      <c r="BA12" s="143"/>
-      <c r="BB12" s="143"/>
-      <c r="BC12" s="143"/>
-      <c r="BD12" s="143"/>
-      <c r="BE12" s="143"/>
-      <c r="BF12" s="143"/>
-      <c r="BG12" s="143"/>
-      <c r="BH12" s="143"/>
-      <c r="BI12" s="143"/>
-      <c r="BJ12" s="143"/>
-      <c r="BK12" s="143"/>
-      <c r="BL12" s="143"/>
-      <c r="BM12" s="143"/>
-      <c r="BN12" s="143"/>
-      <c r="BO12" s="143"/>
-      <c r="BP12" s="143"/>
-      <c r="BQ12" s="143"/>
-      <c r="BR12" s="143"/>
-      <c r="BS12" s="143"/>
-      <c r="BT12" s="143"/>
-      <c r="BU12" s="143"/>
-      <c r="BV12" s="143"/>
-      <c r="BW12" s="143"/>
-      <c r="BX12" s="143"/>
-      <c r="BY12" s="143"/>
-      <c r="BZ12" s="143"/>
-      <c r="CA12" s="143"/>
-      <c r="CB12" s="143"/>
-      <c r="CC12" s="143"/>
-      <c r="CD12" s="143"/>
-      <c r="CE12" s="143"/>
-      <c r="CF12" s="143"/>
-      <c r="CG12" s="143"/>
-      <c r="CH12" s="143"/>
-      <c r="CI12" s="143"/>
-      <c r="CJ12" s="143"/>
-      <c r="CK12" s="143"/>
-      <c r="CL12" s="143"/>
-      <c r="CM12" s="143"/>
-      <c r="CN12" s="143"/>
-      <c r="CO12" s="143"/>
-      <c r="CP12" s="143"/>
-      <c r="CQ12" s="143"/>
-      <c r="CR12" s="143"/>
-      <c r="CS12" s="143"/>
-      <c r="CT12" s="143"/>
-      <c r="CU12" s="143"/>
-      <c r="CV12" s="143"/>
-      <c r="CW12" s="143"/>
-      <c r="CX12" s="143"/>
-      <c r="CY12" s="143"/>
-      <c r="CZ12" s="143"/>
-      <c r="DA12" s="143"/>
-      <c r="DB12" s="143"/>
-      <c r="DC12" s="143"/>
-      <c r="DD12" s="143"/>
-      <c r="DE12" s="143"/>
-      <c r="DF12" s="143"/>
-      <c r="DG12" s="143"/>
-      <c r="DH12" s="143"/>
-      <c r="DI12" s="143"/>
-      <c r="DJ12" s="143"/>
-      <c r="DK12" s="143"/>
-      <c r="DL12" s="143"/>
-      <c r="DM12" s="143"/>
-      <c r="DN12" s="143"/>
-      <c r="DO12" s="143"/>
-      <c r="DP12" s="143"/>
-      <c r="DQ12" s="143"/>
-      <c r="DR12" s="143"/>
-      <c r="DS12" s="143"/>
-      <c r="DT12" s="143"/>
-      <c r="DU12" s="143"/>
-      <c r="DV12" s="143"/>
-      <c r="DW12" s="143"/>
-      <c r="DX12" s="143"/>
-      <c r="DY12" s="143"/>
-      <c r="DZ12" s="143"/>
-      <c r="EA12" s="143"/>
-      <c r="EB12" s="143"/>
-      <c r="EC12" s="143"/>
-      <c r="ED12" s="143"/>
-      <c r="EE12" s="143"/>
-      <c r="EF12" s="143"/>
-      <c r="EG12" s="143"/>
-      <c r="EH12" s="143"/>
-      <c r="EI12" s="143"/>
-      <c r="EJ12" s="143"/>
-      <c r="EK12" s="143"/>
-      <c r="EL12" s="143"/>
-      <c r="EM12" s="143"/>
-      <c r="EN12" s="143"/>
-      <c r="EO12" s="143"/>
-      <c r="EP12" s="143"/>
-      <c r="EQ12" s="143"/>
-      <c r="ER12" s="143"/>
-      <c r="ES12" s="143"/>
-      <c r="ET12" s="143"/>
-      <c r="EU12" s="143"/>
-      <c r="EV12" s="143"/>
-      <c r="EW12" s="143"/>
-      <c r="EX12" s="143"/>
-      <c r="EY12" s="143"/>
-      <c r="EZ12" s="143"/>
-      <c r="FA12" s="143"/>
-      <c r="FB12" s="143"/>
-      <c r="FC12" s="143"/>
-      <c r="FD12" s="143"/>
-      <c r="FE12" s="143"/>
-      <c r="FF12" s="143"/>
-      <c r="FG12" s="143"/>
-      <c r="FH12" s="143"/>
-      <c r="FI12" s="143"/>
-      <c r="FJ12" s="143"/>
-      <c r="FK12" s="143"/>
-      <c r="FL12" s="143"/>
-      <c r="FM12" s="143"/>
-      <c r="FN12" s="143"/>
-      <c r="FO12" s="143"/>
-      <c r="FP12" s="143"/>
-      <c r="FQ12" s="143"/>
-      <c r="FR12" s="143"/>
-      <c r="FS12" s="143"/>
-      <c r="FT12" s="143"/>
-      <c r="FU12" s="143"/>
-      <c r="FV12" s="143"/>
-      <c r="FW12" s="143"/>
-      <c r="FX12" s="143"/>
-      <c r="FY12" s="143"/>
-      <c r="FZ12" s="143"/>
-      <c r="GA12" s="143"/>
-      <c r="GB12" s="143"/>
-      <c r="GC12" s="143"/>
-      <c r="GD12" s="143"/>
-      <c r="GE12" s="143"/>
-      <c r="GF12" s="143"/>
-      <c r="GG12" s="143"/>
-      <c r="GH12" s="143"/>
-      <c r="GI12" s="143"/>
-      <c r="GJ12" s="143"/>
-      <c r="GK12" s="143"/>
-      <c r="GL12" s="143"/>
-      <c r="GM12" s="143"/>
-      <c r="GN12" s="143"/>
-      <c r="GO12" s="143"/>
-      <c r="GP12" s="143"/>
-      <c r="GQ12" s="143"/>
-      <c r="GR12" s="143"/>
-      <c r="GS12" s="143"/>
-      <c r="GT12" s="143"/>
-      <c r="GU12" s="143"/>
-      <c r="GV12" s="143"/>
-      <c r="GW12" s="143"/>
-      <c r="GX12" s="143"/>
-      <c r="GY12" s="143"/>
-      <c r="GZ12" s="143"/>
-      <c r="HA12" s="143"/>
-      <c r="HB12" s="143"/>
-      <c r="HC12" s="143"/>
-      <c r="HD12" s="143"/>
-      <c r="HE12" s="143"/>
-      <c r="HF12" s="143"/>
-      <c r="HG12" s="143"/>
-      <c r="HH12" s="143"/>
-      <c r="HI12" s="143"/>
-      <c r="HJ12" s="143"/>
-      <c r="HK12" s="143"/>
-      <c r="HL12" s="143"/>
-      <c r="HM12" s="143"/>
-      <c r="HN12" s="143"/>
-      <c r="HO12" s="143"/>
-      <c r="HP12" s="143"/>
-      <c r="HQ12" s="143"/>
-      <c r="HR12" s="143"/>
-      <c r="HS12" s="143"/>
-      <c r="HT12" s="143"/>
-      <c r="HU12" s="143"/>
-      <c r="HV12" s="143"/>
-      <c r="HW12" s="143"/>
-      <c r="HX12" s="143"/>
-      <c r="HY12" s="143"/>
-      <c r="HZ12" s="143"/>
-      <c r="IA12" s="143"/>
-      <c r="IB12" s="143"/>
-      <c r="IC12" s="143"/>
-      <c r="ID12" s="143"/>
-      <c r="IE12" s="143"/>
-      <c r="IF12" s="143"/>
-      <c r="IG12" s="143"/>
-      <c r="IH12" s="143"/>
-      <c r="II12" s="143"/>
-      <c r="IJ12" s="143"/>
-      <c r="IK12" s="143"/>
-      <c r="IL12" s="143"/>
-      <c r="IM12" s="143"/>
-      <c r="IN12" s="143"/>
-      <c r="IO12" s="143"/>
-      <c r="IP12" s="143"/>
-      <c r="IQ12" s="143"/>
-      <c r="IR12" s="143"/>
-      <c r="IS12" s="143"/>
-      <c r="IT12" s="143"/>
-      <c r="IU12" s="143"/>
-      <c r="IV12" s="143"/>
-      <c r="IW12" s="143"/>
-      <c r="IX12" s="143"/>
-      <c r="IY12" s="143"/>
-      <c r="IZ12" s="143"/>
-      <c r="JA12" s="143"/>
-      <c r="JB12" s="143"/>
-      <c r="JC12" s="143"/>
-      <c r="JD12" s="143"/>
-      <c r="JE12" s="143"/>
-      <c r="JF12" s="143"/>
-      <c r="JG12" s="143"/>
-      <c r="JH12" s="143"/>
-      <c r="JI12" s="143"/>
-      <c r="JJ12" s="143"/>
-      <c r="JK12" s="143"/>
-      <c r="JL12" s="143"/>
-      <c r="JM12" s="143"/>
-      <c r="JN12" s="143"/>
-      <c r="JO12" s="143"/>
-      <c r="JP12" s="143"/>
-      <c r="JQ12" s="143"/>
-      <c r="JR12" s="143"/>
-      <c r="JS12" s="143"/>
-      <c r="JT12" s="143"/>
-      <c r="JU12" s="143"/>
-      <c r="JV12" s="143"/>
-      <c r="JW12" s="143"/>
-      <c r="JX12" s="143"/>
-      <c r="JY12" s="143"/>
-      <c r="JZ12" s="143"/>
-      <c r="KA12" s="143"/>
-      <c r="KB12" s="143"/>
-      <c r="KC12" s="143"/>
-      <c r="KD12" s="143"/>
-      <c r="KE12" s="143"/>
-      <c r="KF12" s="143"/>
-      <c r="KG12" s="143"/>
-      <c r="KH12" s="143"/>
-      <c r="KI12" s="143"/>
-      <c r="KJ12" s="143"/>
-      <c r="KK12" s="143"/>
-      <c r="KL12" s="143"/>
-      <c r="KM12" s="143"/>
-      <c r="KN12" s="143"/>
-      <c r="KO12" s="143"/>
-      <c r="KP12" s="143"/>
-      <c r="KQ12" s="143"/>
-      <c r="KR12" s="143"/>
-      <c r="KS12" s="143"/>
-      <c r="KT12" s="143"/>
-      <c r="KU12" s="143"/>
-      <c r="KV12" s="143"/>
-      <c r="KW12" s="143"/>
-      <c r="KX12" s="143"/>
-      <c r="KY12" s="143"/>
-      <c r="KZ12" s="143"/>
-      <c r="LA12" s="143"/>
-      <c r="LB12" s="143"/>
-      <c r="LC12" s="143"/>
-      <c r="LD12" s="143"/>
-      <c r="LE12" s="143"/>
-      <c r="LF12" s="143"/>
-      <c r="LG12" s="143"/>
-      <c r="LH12" s="143"/>
-      <c r="LI12" s="143"/>
-      <c r="LJ12" s="143"/>
-      <c r="LK12" s="143"/>
-      <c r="LL12" s="143"/>
-      <c r="LM12" s="143"/>
-      <c r="LN12" s="143"/>
-      <c r="LO12" s="143"/>
-      <c r="LP12" s="143"/>
-      <c r="LQ12" s="143"/>
-      <c r="LR12" s="143"/>
-      <c r="LS12" s="143"/>
-      <c r="LT12" s="143"/>
-      <c r="LU12" s="143"/>
-      <c r="LV12" s="143"/>
-      <c r="LW12" s="143"/>
-      <c r="LX12" s="143"/>
-      <c r="LY12" s="143"/>
-      <c r="LZ12" s="143"/>
-      <c r="MA12" s="143"/>
-      <c r="MB12" s="143"/>
-      <c r="MC12" s="143"/>
-      <c r="MD12" s="143"/>
-      <c r="ME12" s="143"/>
-      <c r="MF12" s="143"/>
-      <c r="MG12" s="143"/>
-      <c r="MH12" s="143"/>
-      <c r="MI12" s="143"/>
-      <c r="MJ12" s="143"/>
-      <c r="MK12" s="143"/>
-      <c r="ML12" s="143"/>
-      <c r="MM12" s="143"/>
-      <c r="MN12" s="143"/>
-      <c r="MO12" s="143"/>
-      <c r="MP12" s="143"/>
-      <c r="MQ12" s="143"/>
-      <c r="MR12" s="143"/>
-      <c r="MS12" s="143"/>
-      <c r="MT12" s="143"/>
-      <c r="MU12" s="143"/>
-      <c r="MV12" s="143"/>
-      <c r="MW12" s="143"/>
-      <c r="MX12" s="143"/>
-      <c r="MY12" s="143"/>
-      <c r="MZ12" s="143"/>
-      <c r="NA12" s="143"/>
-      <c r="NB12" s="143"/>
-      <c r="NC12" s="143"/>
-      <c r="ND12" s="143"/>
-      <c r="NE12" s="143"/>
-      <c r="NF12" s="143"/>
-      <c r="NG12" s="143"/>
-      <c r="NH12" s="143"/>
-      <c r="NI12" s="143"/>
-      <c r="NJ12" s="143"/>
-      <c r="NK12" s="143"/>
-      <c r="NL12" s="143"/>
-      <c r="NM12" s="143"/>
-      <c r="NN12" s="143"/>
-      <c r="NO12" s="143"/>
-      <c r="NP12" s="143"/>
-      <c r="NQ12" s="143"/>
-      <c r="NR12" s="143"/>
-      <c r="NS12" s="143"/>
-      <c r="NT12" s="143"/>
-      <c r="NU12" s="143"/>
-      <c r="NV12" s="143"/>
-      <c r="NW12" s="143"/>
-      <c r="NX12" s="143"/>
-      <c r="NY12" s="143"/>
-      <c r="NZ12" s="143"/>
-      <c r="OA12" s="143"/>
-      <c r="OB12" s="143"/>
-      <c r="OC12" s="143"/>
-      <c r="OD12" s="143"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="142"/>
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="142"/>
+      <c r="AL12" s="142"/>
+      <c r="AM12" s="142"/>
+      <c r="AN12" s="142"/>
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="142"/>
+      <c r="AQ12" s="142"/>
+      <c r="AR12" s="142"/>
+      <c r="AS12" s="142"/>
+      <c r="AT12" s="142"/>
+      <c r="AU12" s="142"/>
+      <c r="AV12" s="142"/>
+      <c r="AW12" s="142"/>
+      <c r="AX12" s="142"/>
+      <c r="AY12" s="142"/>
+      <c r="AZ12" s="142"/>
+      <c r="BA12" s="142"/>
+      <c r="BB12" s="142"/>
+      <c r="BC12" s="142"/>
+      <c r="BD12" s="142"/>
+      <c r="BE12" s="142"/>
+      <c r="BF12" s="142"/>
+      <c r="BG12" s="142"/>
+      <c r="BH12" s="142"/>
+      <c r="BI12" s="142"/>
+      <c r="BJ12" s="142"/>
+      <c r="BK12" s="142"/>
+      <c r="BL12" s="142"/>
+      <c r="BM12" s="142"/>
+      <c r="BN12" s="142"/>
+      <c r="BO12" s="142"/>
+      <c r="BP12" s="142"/>
+      <c r="BQ12" s="142"/>
+      <c r="BR12" s="142"/>
+      <c r="BS12" s="142"/>
+      <c r="BT12" s="142"/>
+      <c r="BU12" s="142"/>
+      <c r="BV12" s="142"/>
+      <c r="BW12" s="142"/>
+      <c r="BX12" s="142"/>
+      <c r="BY12" s="142"/>
+      <c r="BZ12" s="142"/>
+      <c r="CA12" s="142"/>
+      <c r="CB12" s="142"/>
+      <c r="CC12" s="142"/>
+      <c r="CD12" s="142"/>
+      <c r="CE12" s="142"/>
+      <c r="CF12" s="142"/>
+      <c r="CG12" s="142"/>
+      <c r="CH12" s="142"/>
+      <c r="CI12" s="142"/>
+      <c r="CJ12" s="142"/>
+      <c r="CK12" s="142"/>
+      <c r="CL12" s="142"/>
+      <c r="CM12" s="142"/>
+      <c r="CN12" s="142"/>
+      <c r="CO12" s="142"/>
+      <c r="CP12" s="142"/>
+      <c r="CQ12" s="142"/>
+      <c r="CR12" s="142"/>
+      <c r="CS12" s="142"/>
+      <c r="CT12" s="142"/>
+      <c r="CU12" s="142"/>
+      <c r="CV12" s="142"/>
+      <c r="CW12" s="142"/>
+      <c r="CX12" s="142"/>
+      <c r="CY12" s="142"/>
+      <c r="CZ12" s="142"/>
+      <c r="DA12" s="142"/>
+      <c r="DB12" s="142"/>
+      <c r="DC12" s="142"/>
+      <c r="DD12" s="142"/>
+      <c r="DE12" s="142"/>
+      <c r="DF12" s="142"/>
+      <c r="DG12" s="142"/>
+      <c r="DH12" s="142"/>
+      <c r="DI12" s="142"/>
+      <c r="DJ12" s="142"/>
+      <c r="DK12" s="142"/>
+      <c r="DL12" s="142"/>
+      <c r="DM12" s="142"/>
+      <c r="DN12" s="142"/>
+      <c r="DO12" s="142"/>
+      <c r="DP12" s="142"/>
+      <c r="DQ12" s="142"/>
+      <c r="DR12" s="142"/>
+      <c r="DS12" s="142"/>
+      <c r="DT12" s="142"/>
+      <c r="DU12" s="142"/>
+      <c r="DV12" s="142"/>
+      <c r="DW12" s="142"/>
+      <c r="DX12" s="142"/>
+      <c r="DY12" s="142"/>
+      <c r="DZ12" s="142"/>
+      <c r="EA12" s="142"/>
+      <c r="EB12" s="142"/>
+      <c r="EC12" s="142"/>
+      <c r="ED12" s="142"/>
+      <c r="EE12" s="142"/>
+      <c r="EF12" s="142"/>
+      <c r="EG12" s="142"/>
+      <c r="EH12" s="142"/>
+      <c r="EI12" s="142"/>
+      <c r="EJ12" s="142"/>
+      <c r="EK12" s="142"/>
+      <c r="EL12" s="142"/>
+      <c r="EM12" s="142"/>
+      <c r="EN12" s="142"/>
+      <c r="EO12" s="142"/>
+      <c r="EP12" s="142"/>
+      <c r="EQ12" s="142"/>
+      <c r="ER12" s="142"/>
+      <c r="ES12" s="142"/>
+      <c r="ET12" s="142"/>
+      <c r="EU12" s="142"/>
+      <c r="EV12" s="142"/>
+      <c r="EW12" s="142"/>
+      <c r="EX12" s="142"/>
+      <c r="EY12" s="142"/>
+      <c r="EZ12" s="142"/>
+      <c r="FA12" s="142"/>
+      <c r="FB12" s="142"/>
+      <c r="FC12" s="142"/>
+      <c r="FD12" s="142"/>
+      <c r="FE12" s="142"/>
+      <c r="FF12" s="142"/>
+      <c r="FG12" s="142"/>
+      <c r="FH12" s="142"/>
+      <c r="FI12" s="142"/>
+      <c r="FJ12" s="142"/>
+      <c r="FK12" s="142"/>
+      <c r="FL12" s="142"/>
+      <c r="FM12" s="142"/>
+      <c r="FN12" s="142"/>
+      <c r="FO12" s="142"/>
+      <c r="FP12" s="142"/>
+      <c r="FQ12" s="142"/>
+      <c r="FR12" s="142"/>
+      <c r="FS12" s="142"/>
+      <c r="FT12" s="142"/>
+      <c r="FU12" s="142"/>
+      <c r="FV12" s="142"/>
+      <c r="FW12" s="142"/>
+      <c r="FX12" s="142"/>
+      <c r="FY12" s="142"/>
+      <c r="FZ12" s="142"/>
+      <c r="GA12" s="142"/>
+      <c r="GB12" s="142"/>
+      <c r="GC12" s="142"/>
+      <c r="GD12" s="142"/>
+      <c r="GE12" s="142"/>
+      <c r="GF12" s="142"/>
+      <c r="GG12" s="142"/>
+      <c r="GH12" s="142"/>
+      <c r="GI12" s="142"/>
+      <c r="GJ12" s="142"/>
+      <c r="GK12" s="142"/>
+      <c r="GL12" s="142"/>
+      <c r="GM12" s="142"/>
+      <c r="GN12" s="142"/>
+      <c r="GO12" s="142"/>
+      <c r="GP12" s="142"/>
+      <c r="GQ12" s="142"/>
+      <c r="GR12" s="142"/>
+      <c r="GS12" s="142"/>
+      <c r="GT12" s="142"/>
+      <c r="GU12" s="142"/>
+      <c r="GV12" s="142"/>
+      <c r="GW12" s="142"/>
+      <c r="GX12" s="142"/>
+      <c r="GY12" s="142"/>
+      <c r="GZ12" s="142"/>
+      <c r="HA12" s="142"/>
+      <c r="HB12" s="142"/>
+      <c r="HC12" s="142"/>
+      <c r="HD12" s="142"/>
+      <c r="HE12" s="142"/>
+      <c r="HF12" s="142"/>
+      <c r="HG12" s="142"/>
+      <c r="HH12" s="142"/>
+      <c r="HI12" s="142"/>
+      <c r="HJ12" s="142"/>
+      <c r="HK12" s="142"/>
+      <c r="HL12" s="142"/>
+      <c r="HM12" s="142"/>
+      <c r="HN12" s="142"/>
+      <c r="HO12" s="142"/>
+      <c r="HP12" s="142"/>
+      <c r="HQ12" s="142"/>
+      <c r="HR12" s="142"/>
+      <c r="HS12" s="142"/>
+      <c r="HT12" s="142"/>
+      <c r="HU12" s="142"/>
+      <c r="HV12" s="142"/>
+      <c r="HW12" s="142"/>
+      <c r="HX12" s="142"/>
+      <c r="HY12" s="142"/>
+      <c r="HZ12" s="142"/>
+      <c r="IA12" s="142"/>
+      <c r="IB12" s="142"/>
+      <c r="IC12" s="142"/>
+      <c r="ID12" s="142"/>
+      <c r="IE12" s="142"/>
+      <c r="IF12" s="142"/>
+      <c r="IG12" s="142"/>
+      <c r="IH12" s="142"/>
+      <c r="II12" s="142"/>
+      <c r="IJ12" s="142"/>
+      <c r="IK12" s="142"/>
+      <c r="IL12" s="142"/>
+      <c r="IM12" s="142"/>
+      <c r="IN12" s="142"/>
+      <c r="IO12" s="142"/>
+      <c r="IP12" s="142"/>
+      <c r="IQ12" s="142"/>
+      <c r="IR12" s="142"/>
+      <c r="IS12" s="142"/>
+      <c r="IT12" s="142"/>
+      <c r="IU12" s="142"/>
+      <c r="IV12" s="142"/>
+      <c r="IW12" s="142"/>
+      <c r="IX12" s="142"/>
+      <c r="IY12" s="142"/>
+      <c r="IZ12" s="142"/>
+      <c r="JA12" s="142"/>
+      <c r="JB12" s="142"/>
+      <c r="JC12" s="142"/>
+      <c r="JD12" s="142"/>
+      <c r="JE12" s="142"/>
+      <c r="JF12" s="142"/>
+      <c r="JG12" s="142"/>
+      <c r="JH12" s="142"/>
+      <c r="JI12" s="142"/>
+      <c r="JJ12" s="142"/>
+      <c r="JK12" s="142"/>
+      <c r="JL12" s="142"/>
+      <c r="JM12" s="142"/>
+      <c r="JN12" s="142"/>
+      <c r="JO12" s="142"/>
+      <c r="JP12" s="142"/>
+      <c r="JQ12" s="142"/>
+      <c r="JR12" s="142"/>
+      <c r="JS12" s="142"/>
+      <c r="JT12" s="142"/>
+      <c r="JU12" s="142"/>
+      <c r="JV12" s="142"/>
+      <c r="JW12" s="142"/>
+      <c r="JX12" s="142"/>
+      <c r="JY12" s="142"/>
+      <c r="JZ12" s="142"/>
+      <c r="KA12" s="142"/>
+      <c r="KB12" s="142"/>
+      <c r="KC12" s="142"/>
+      <c r="KD12" s="142"/>
+      <c r="KE12" s="142"/>
+      <c r="KF12" s="142"/>
+      <c r="KG12" s="142"/>
+      <c r="KH12" s="142"/>
+      <c r="KI12" s="142"/>
+      <c r="KJ12" s="142"/>
+      <c r="KK12" s="142"/>
+      <c r="KL12" s="142"/>
+      <c r="KM12" s="142"/>
+      <c r="KN12" s="142"/>
+      <c r="KO12" s="142"/>
+      <c r="KP12" s="142"/>
+      <c r="KQ12" s="142"/>
+      <c r="KR12" s="142"/>
+      <c r="KS12" s="142"/>
+      <c r="KT12" s="142"/>
+      <c r="KU12" s="142"/>
+      <c r="KV12" s="142"/>
+      <c r="KW12" s="142"/>
+      <c r="KX12" s="142"/>
+      <c r="KY12" s="142"/>
+      <c r="KZ12" s="142"/>
+      <c r="LA12" s="142"/>
+      <c r="LB12" s="142"/>
+      <c r="LC12" s="142"/>
+      <c r="LD12" s="142"/>
+      <c r="LE12" s="142"/>
+      <c r="LF12" s="142"/>
+      <c r="LG12" s="142"/>
+      <c r="LH12" s="142"/>
+      <c r="LI12" s="142"/>
+      <c r="LJ12" s="142"/>
+      <c r="LK12" s="142"/>
+      <c r="LL12" s="142"/>
+      <c r="LM12" s="142"/>
+      <c r="LN12" s="142"/>
+      <c r="LO12" s="142"/>
+      <c r="LP12" s="142"/>
+      <c r="LQ12" s="142"/>
+      <c r="LR12" s="142"/>
+      <c r="LS12" s="142"/>
+      <c r="LT12" s="142"/>
+      <c r="LU12" s="142"/>
+      <c r="LV12" s="142"/>
+      <c r="LW12" s="142"/>
+      <c r="LX12" s="142"/>
+      <c r="LY12" s="142"/>
+      <c r="LZ12" s="142"/>
+      <c r="MA12" s="142"/>
+      <c r="MB12" s="142"/>
+      <c r="MC12" s="142"/>
+      <c r="MD12" s="142"/>
+      <c r="ME12" s="142"/>
+      <c r="MF12" s="142"/>
+      <c r="MG12" s="142"/>
+      <c r="MH12" s="142"/>
+      <c r="MI12" s="142"/>
+      <c r="MJ12" s="142"/>
+      <c r="MK12" s="142"/>
+      <c r="ML12" s="142"/>
+      <c r="MM12" s="142"/>
+      <c r="MN12" s="142"/>
+      <c r="MO12" s="142"/>
+      <c r="MP12" s="142"/>
+      <c r="MQ12" s="142"/>
+      <c r="MR12" s="142"/>
+      <c r="MS12" s="142"/>
+      <c r="MT12" s="142"/>
+      <c r="MU12" s="142"/>
+      <c r="MV12" s="142"/>
+      <c r="MW12" s="142"/>
+      <c r="MX12" s="142"/>
+      <c r="MY12" s="142"/>
+      <c r="MZ12" s="142"/>
+      <c r="NA12" s="142"/>
+      <c r="NB12" s="142"/>
+      <c r="NC12" s="142"/>
+      <c r="ND12" s="142"/>
+      <c r="NE12" s="142"/>
+      <c r="NF12" s="142"/>
+      <c r="NG12" s="142"/>
+      <c r="NH12" s="142"/>
+      <c r="NI12" s="142"/>
+      <c r="NJ12" s="142"/>
+      <c r="NK12" s="142"/>
+      <c r="NL12" s="142"/>
+      <c r="NM12" s="142"/>
+      <c r="NN12" s="142"/>
+      <c r="NO12" s="142"/>
+      <c r="NP12" s="142"/>
+      <c r="NQ12" s="142"/>
+      <c r="NR12" s="142"/>
+      <c r="NS12" s="142"/>
+      <c r="NT12" s="142"/>
+      <c r="NU12" s="142"/>
+      <c r="NV12" s="142"/>
+      <c r="NW12" s="142"/>
+      <c r="NX12" s="142"/>
+      <c r="NY12" s="142"/>
+      <c r="NZ12" s="142"/>
+      <c r="OA12" s="142"/>
+      <c r="OB12" s="142"/>
+      <c r="OC12" s="142"/>
+      <c r="OD12" s="142"/>
     </row>
     <row r="13" spans="1:394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144" t="s">
+      <c r="B13" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="150">
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="164">
         <v>44319</v>
       </c>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="149">
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="163">
         <v>44319</v>
       </c>
-      <c r="V13" s="149"/>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="143"/>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="143"/>
-      <c r="AB13" s="143"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="143"/>
-      <c r="AE13" s="143"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="143"/>
-      <c r="AH13" s="143"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="143"/>
-      <c r="AK13" s="143"/>
-      <c r="AL13" s="143"/>
-      <c r="AM13" s="143"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="143"/>
-      <c r="AP13" s="143"/>
-      <c r="AQ13" s="143"/>
-      <c r="AR13" s="143"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="143"/>
-      <c r="AU13" s="143"/>
-      <c r="AV13" s="143"/>
-      <c r="AW13" s="143"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="143"/>
-      <c r="AZ13" s="143"/>
-      <c r="BA13" s="143"/>
-      <c r="BB13" s="143"/>
-      <c r="BC13" s="143"/>
-      <c r="BD13" s="143"/>
-      <c r="BE13" s="143"/>
-      <c r="BF13" s="143"/>
-      <c r="BG13" s="143"/>
-      <c r="BH13" s="143"/>
-      <c r="BI13" s="143"/>
-      <c r="BJ13" s="143"/>
-      <c r="BK13" s="143"/>
-      <c r="BL13" s="143"/>
-      <c r="BM13" s="143"/>
-      <c r="BN13" s="143"/>
-      <c r="BO13" s="143"/>
-      <c r="BP13" s="143"/>
-      <c r="BQ13" s="143"/>
-      <c r="BR13" s="143"/>
-      <c r="BS13" s="143"/>
-      <c r="BT13" s="143"/>
-      <c r="BU13" s="143"/>
-      <c r="BV13" s="143"/>
-      <c r="BW13" s="143"/>
-      <c r="BX13" s="143"/>
-      <c r="BY13" s="143"/>
-      <c r="BZ13" s="143"/>
-      <c r="CA13" s="143"/>
-      <c r="CB13" s="143"/>
-      <c r="CC13" s="143"/>
-      <c r="CD13" s="143"/>
-      <c r="CE13" s="143"/>
-      <c r="CF13" s="143"/>
-      <c r="CG13" s="143"/>
-      <c r="CH13" s="143"/>
-      <c r="CI13" s="143"/>
-      <c r="CJ13" s="143"/>
-      <c r="CK13" s="143"/>
-      <c r="CL13" s="143"/>
-      <c r="CM13" s="143"/>
-      <c r="CN13" s="143"/>
-      <c r="CO13" s="143"/>
-      <c r="CP13" s="143"/>
-      <c r="CQ13" s="143"/>
-      <c r="CR13" s="143"/>
-      <c r="CS13" s="143"/>
-      <c r="CT13" s="143"/>
-      <c r="CU13" s="143"/>
-      <c r="CV13" s="143"/>
-      <c r="CW13" s="143"/>
-      <c r="CX13" s="143"/>
-      <c r="CY13" s="143"/>
-      <c r="CZ13" s="143"/>
-      <c r="DA13" s="143"/>
-      <c r="DB13" s="143"/>
-      <c r="DC13" s="143"/>
-      <c r="DD13" s="143"/>
-      <c r="DE13" s="143"/>
-      <c r="DF13" s="143"/>
-      <c r="DG13" s="143"/>
-      <c r="DH13" s="143"/>
-      <c r="DI13" s="143"/>
-      <c r="DJ13" s="143"/>
-      <c r="DK13" s="143"/>
-      <c r="DL13" s="143"/>
-      <c r="DM13" s="143"/>
-      <c r="DN13" s="143"/>
-      <c r="DO13" s="143"/>
-      <c r="DP13" s="143"/>
-      <c r="DQ13" s="143"/>
-      <c r="DR13" s="143"/>
-      <c r="DS13" s="143"/>
-      <c r="DT13" s="143"/>
-      <c r="DU13" s="143"/>
-      <c r="DV13" s="143"/>
-      <c r="DW13" s="143"/>
-      <c r="DX13" s="143"/>
-      <c r="DY13" s="143"/>
-      <c r="DZ13" s="143"/>
-      <c r="EA13" s="143"/>
-      <c r="EB13" s="143"/>
-      <c r="EC13" s="143"/>
-      <c r="ED13" s="143"/>
-      <c r="EE13" s="143"/>
-      <c r="EF13" s="143"/>
-      <c r="EG13" s="143"/>
-      <c r="EH13" s="143"/>
-      <c r="EI13" s="143"/>
-      <c r="EJ13" s="143"/>
-      <c r="EK13" s="143"/>
-      <c r="EL13" s="143"/>
-      <c r="EM13" s="143"/>
-      <c r="EN13" s="143"/>
-      <c r="EO13" s="143"/>
-      <c r="EP13" s="143"/>
-      <c r="EQ13" s="143"/>
-      <c r="ER13" s="143"/>
-      <c r="ES13" s="143"/>
-      <c r="ET13" s="143"/>
-      <c r="EU13" s="143"/>
-      <c r="EV13" s="143"/>
-      <c r="EW13" s="143"/>
-      <c r="EX13" s="143"/>
-      <c r="EY13" s="143"/>
-      <c r="EZ13" s="143"/>
-      <c r="FA13" s="143"/>
-      <c r="FB13" s="143"/>
-      <c r="FC13" s="143"/>
-      <c r="FD13" s="143"/>
-      <c r="FE13" s="143"/>
-      <c r="FF13" s="143"/>
-      <c r="FG13" s="143"/>
-      <c r="FH13" s="143"/>
-      <c r="FI13" s="143"/>
-      <c r="FJ13" s="143"/>
-      <c r="FK13" s="143"/>
-      <c r="FL13" s="143"/>
-      <c r="FM13" s="143"/>
-      <c r="FN13" s="143"/>
-      <c r="FO13" s="143"/>
-      <c r="FP13" s="143"/>
-      <c r="FQ13" s="143"/>
-      <c r="FR13" s="143"/>
-      <c r="FS13" s="143"/>
-      <c r="FT13" s="143"/>
-      <c r="FU13" s="143"/>
-      <c r="FV13" s="143"/>
-      <c r="FW13" s="143"/>
-      <c r="FX13" s="143"/>
-      <c r="FY13" s="143"/>
-      <c r="FZ13" s="143"/>
-      <c r="GA13" s="143"/>
-      <c r="GB13" s="143"/>
-      <c r="GC13" s="143"/>
-      <c r="GD13" s="143"/>
-      <c r="GE13" s="143"/>
-      <c r="GF13" s="143"/>
-      <c r="GG13" s="143"/>
-      <c r="GH13" s="143"/>
-      <c r="GI13" s="143"/>
-      <c r="GJ13" s="143"/>
-      <c r="GK13" s="143"/>
-      <c r="GL13" s="143"/>
-      <c r="GM13" s="143"/>
-      <c r="GN13" s="143"/>
-      <c r="GO13" s="143"/>
-      <c r="GP13" s="143"/>
-      <c r="GQ13" s="143"/>
-      <c r="GR13" s="143"/>
-      <c r="GS13" s="143"/>
-      <c r="GT13" s="143"/>
-      <c r="GU13" s="143"/>
-      <c r="GV13" s="143"/>
-      <c r="GW13" s="143"/>
-      <c r="GX13" s="143"/>
-      <c r="GY13" s="143"/>
-      <c r="GZ13" s="143"/>
-      <c r="HA13" s="143"/>
-      <c r="HB13" s="143"/>
-      <c r="HC13" s="143"/>
-      <c r="HD13" s="143"/>
-      <c r="HE13" s="143"/>
-      <c r="HF13" s="143"/>
-      <c r="HG13" s="143"/>
-      <c r="HH13" s="143"/>
-      <c r="HI13" s="143"/>
-      <c r="HJ13" s="143"/>
-      <c r="HK13" s="143"/>
-      <c r="HL13" s="143"/>
-      <c r="HM13" s="143"/>
-      <c r="HN13" s="143"/>
-      <c r="HO13" s="143"/>
-      <c r="HP13" s="143"/>
-      <c r="HQ13" s="143"/>
-      <c r="HR13" s="143"/>
-      <c r="HS13" s="143"/>
-      <c r="HT13" s="143"/>
-      <c r="HU13" s="143"/>
-      <c r="HV13" s="143"/>
-      <c r="HW13" s="143"/>
-      <c r="HX13" s="143"/>
-      <c r="HY13" s="143"/>
-      <c r="HZ13" s="143"/>
-      <c r="IA13" s="143"/>
-      <c r="IB13" s="143"/>
-      <c r="IC13" s="143"/>
-      <c r="ID13" s="143"/>
-      <c r="IE13" s="143"/>
-      <c r="IF13" s="143"/>
-      <c r="IG13" s="143"/>
-      <c r="IH13" s="143"/>
-      <c r="II13" s="143"/>
-      <c r="IJ13" s="143"/>
-      <c r="IK13" s="143"/>
-      <c r="IL13" s="143"/>
-      <c r="IM13" s="143"/>
-      <c r="IN13" s="143"/>
-      <c r="IO13" s="143"/>
-      <c r="IP13" s="143"/>
-      <c r="IQ13" s="143"/>
-      <c r="IR13" s="143"/>
-      <c r="IS13" s="143"/>
-      <c r="IT13" s="143"/>
-      <c r="IU13" s="143"/>
-      <c r="IV13" s="143"/>
-      <c r="IW13" s="143"/>
-      <c r="IX13" s="143"/>
-      <c r="IY13" s="143"/>
-      <c r="IZ13" s="143"/>
-      <c r="JA13" s="143"/>
-      <c r="JB13" s="143"/>
-      <c r="JC13" s="143"/>
-      <c r="JD13" s="143"/>
-      <c r="JE13" s="143"/>
-      <c r="JF13" s="143"/>
-      <c r="JG13" s="143"/>
-      <c r="JH13" s="143"/>
-      <c r="JI13" s="143"/>
-      <c r="JJ13" s="143"/>
-      <c r="JK13" s="143"/>
-      <c r="JL13" s="143"/>
-      <c r="JM13" s="143"/>
-      <c r="JN13" s="143"/>
-      <c r="JO13" s="143"/>
-      <c r="JP13" s="143"/>
-      <c r="JQ13" s="143"/>
-      <c r="JR13" s="143"/>
-      <c r="JS13" s="143"/>
-      <c r="JT13" s="143"/>
-      <c r="JU13" s="143"/>
-      <c r="JV13" s="143"/>
-      <c r="JW13" s="143"/>
-      <c r="JX13" s="143"/>
-      <c r="JY13" s="143"/>
-      <c r="JZ13" s="143"/>
-      <c r="KA13" s="143"/>
-      <c r="KB13" s="143"/>
-      <c r="KC13" s="143"/>
-      <c r="KD13" s="143"/>
-      <c r="KE13" s="143"/>
-      <c r="KF13" s="143"/>
-      <c r="KG13" s="143"/>
-      <c r="KH13" s="143"/>
-      <c r="KI13" s="143"/>
-      <c r="KJ13" s="143"/>
-      <c r="KK13" s="143"/>
-      <c r="KL13" s="143"/>
-      <c r="KM13" s="143"/>
-      <c r="KN13" s="143"/>
-      <c r="KO13" s="143"/>
-      <c r="KP13" s="143"/>
-      <c r="KQ13" s="143"/>
-      <c r="KR13" s="143"/>
-      <c r="KS13" s="143"/>
-      <c r="KT13" s="143"/>
-      <c r="KU13" s="143"/>
-      <c r="KV13" s="143"/>
-      <c r="KW13" s="143"/>
-      <c r="KX13" s="143"/>
-      <c r="KY13" s="143"/>
-      <c r="KZ13" s="143"/>
-      <c r="LA13" s="143"/>
-      <c r="LB13" s="143"/>
-      <c r="LC13" s="143"/>
-      <c r="LD13" s="143"/>
-      <c r="LE13" s="143"/>
-      <c r="LF13" s="143"/>
-      <c r="LG13" s="143"/>
-      <c r="LH13" s="143"/>
-      <c r="LI13" s="143"/>
-      <c r="LJ13" s="143"/>
-      <c r="LK13" s="143"/>
-      <c r="LL13" s="143"/>
-      <c r="LM13" s="143"/>
-      <c r="LN13" s="143"/>
-      <c r="LO13" s="143"/>
-      <c r="LP13" s="143"/>
-      <c r="LQ13" s="143"/>
-      <c r="LR13" s="143"/>
-      <c r="LS13" s="143"/>
-      <c r="LT13" s="143"/>
-      <c r="LU13" s="143"/>
-      <c r="LV13" s="143"/>
-      <c r="LW13" s="143"/>
-      <c r="LX13" s="143"/>
-      <c r="LY13" s="143"/>
-      <c r="LZ13" s="143"/>
-      <c r="MA13" s="143"/>
-      <c r="MB13" s="143"/>
-      <c r="MC13" s="143"/>
-      <c r="MD13" s="143"/>
-      <c r="ME13" s="143"/>
-      <c r="MF13" s="143"/>
-      <c r="MG13" s="143"/>
-      <c r="MH13" s="143"/>
-      <c r="MI13" s="143"/>
-      <c r="MJ13" s="143"/>
-      <c r="MK13" s="143"/>
-      <c r="ML13" s="143"/>
-      <c r="MM13" s="143"/>
-      <c r="MN13" s="143"/>
-      <c r="MO13" s="143"/>
-      <c r="MP13" s="143"/>
-      <c r="MQ13" s="143"/>
-      <c r="MR13" s="143"/>
-      <c r="MS13" s="143"/>
-      <c r="MT13" s="143"/>
-      <c r="MU13" s="143"/>
-      <c r="MV13" s="143"/>
-      <c r="MW13" s="143"/>
-      <c r="MX13" s="143"/>
-      <c r="MY13" s="143"/>
-      <c r="MZ13" s="143"/>
-      <c r="NA13" s="143"/>
-      <c r="NB13" s="143"/>
-      <c r="NC13" s="143"/>
-      <c r="ND13" s="143"/>
-      <c r="NE13" s="143"/>
-      <c r="NF13" s="143"/>
-      <c r="NG13" s="143"/>
-      <c r="NH13" s="143"/>
-      <c r="NI13" s="143"/>
-      <c r="NJ13" s="143"/>
-      <c r="NK13" s="143"/>
-      <c r="NL13" s="143"/>
-      <c r="NM13" s="143"/>
-      <c r="NN13" s="143"/>
-      <c r="NO13" s="143"/>
-      <c r="NP13" s="143"/>
-      <c r="NQ13" s="143"/>
-      <c r="NR13" s="143"/>
-      <c r="NS13" s="143"/>
-      <c r="NT13" s="143"/>
-      <c r="NU13" s="143"/>
-      <c r="NV13" s="143"/>
-      <c r="NW13" s="143"/>
-      <c r="NX13" s="143"/>
-      <c r="NY13" s="143"/>
-      <c r="NZ13" s="143"/>
-      <c r="OA13" s="143"/>
-      <c r="OB13" s="143"/>
-      <c r="OC13" s="143"/>
-      <c r="OD13" s="143"/>
+      <c r="V13" s="163"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="142"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="142"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="142"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="142"/>
+      <c r="AQ13" s="142"/>
+      <c r="AR13" s="142"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="142"/>
+      <c r="AU13" s="142"/>
+      <c r="AV13" s="142"/>
+      <c r="AW13" s="142"/>
+      <c r="AX13" s="142"/>
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="142"/>
+      <c r="BC13" s="142"/>
+      <c r="BD13" s="142"/>
+      <c r="BE13" s="142"/>
+      <c r="BF13" s="142"/>
+      <c r="BG13" s="142"/>
+      <c r="BH13" s="142"/>
+      <c r="BI13" s="142"/>
+      <c r="BJ13" s="142"/>
+      <c r="BK13" s="142"/>
+      <c r="BL13" s="142"/>
+      <c r="BM13" s="142"/>
+      <c r="BN13" s="142"/>
+      <c r="BO13" s="142"/>
+      <c r="BP13" s="142"/>
+      <c r="BQ13" s="142"/>
+      <c r="BR13" s="142"/>
+      <c r="BS13" s="142"/>
+      <c r="BT13" s="142"/>
+      <c r="BU13" s="142"/>
+      <c r="BV13" s="142"/>
+      <c r="BW13" s="142"/>
+      <c r="BX13" s="142"/>
+      <c r="BY13" s="142"/>
+      <c r="BZ13" s="142"/>
+      <c r="CA13" s="142"/>
+      <c r="CB13" s="142"/>
+      <c r="CC13" s="142"/>
+      <c r="CD13" s="142"/>
+      <c r="CE13" s="142"/>
+      <c r="CF13" s="142"/>
+      <c r="CG13" s="142"/>
+      <c r="CH13" s="142"/>
+      <c r="CI13" s="142"/>
+      <c r="CJ13" s="142"/>
+      <c r="CK13" s="142"/>
+      <c r="CL13" s="142"/>
+      <c r="CM13" s="142"/>
+      <c r="CN13" s="142"/>
+      <c r="CO13" s="142"/>
+      <c r="CP13" s="142"/>
+      <c r="CQ13" s="142"/>
+      <c r="CR13" s="142"/>
+      <c r="CS13" s="142"/>
+      <c r="CT13" s="142"/>
+      <c r="CU13" s="142"/>
+      <c r="CV13" s="142"/>
+      <c r="CW13" s="142"/>
+      <c r="CX13" s="142"/>
+      <c r="CY13" s="142"/>
+      <c r="CZ13" s="142"/>
+      <c r="DA13" s="142"/>
+      <c r="DB13" s="142"/>
+      <c r="DC13" s="142"/>
+      <c r="DD13" s="142"/>
+      <c r="DE13" s="142"/>
+      <c r="DF13" s="142"/>
+      <c r="DG13" s="142"/>
+      <c r="DH13" s="142"/>
+      <c r="DI13" s="142"/>
+      <c r="DJ13" s="142"/>
+      <c r="DK13" s="142"/>
+      <c r="DL13" s="142"/>
+      <c r="DM13" s="142"/>
+      <c r="DN13" s="142"/>
+      <c r="DO13" s="142"/>
+      <c r="DP13" s="142"/>
+      <c r="DQ13" s="142"/>
+      <c r="DR13" s="142"/>
+      <c r="DS13" s="142"/>
+      <c r="DT13" s="142"/>
+      <c r="DU13" s="142"/>
+      <c r="DV13" s="142"/>
+      <c r="DW13" s="142"/>
+      <c r="DX13" s="142"/>
+      <c r="DY13" s="142"/>
+      <c r="DZ13" s="142"/>
+      <c r="EA13" s="142"/>
+      <c r="EB13" s="142"/>
+      <c r="EC13" s="142"/>
+      <c r="ED13" s="142"/>
+      <c r="EE13" s="142"/>
+      <c r="EF13" s="142"/>
+      <c r="EG13" s="142"/>
+      <c r="EH13" s="142"/>
+      <c r="EI13" s="142"/>
+      <c r="EJ13" s="142"/>
+      <c r="EK13" s="142"/>
+      <c r="EL13" s="142"/>
+      <c r="EM13" s="142"/>
+      <c r="EN13" s="142"/>
+      <c r="EO13" s="142"/>
+      <c r="EP13" s="142"/>
+      <c r="EQ13" s="142"/>
+      <c r="ER13" s="142"/>
+      <c r="ES13" s="142"/>
+      <c r="ET13" s="142"/>
+      <c r="EU13" s="142"/>
+      <c r="EV13" s="142"/>
+      <c r="EW13" s="142"/>
+      <c r="EX13" s="142"/>
+      <c r="EY13" s="142"/>
+      <c r="EZ13" s="142"/>
+      <c r="FA13" s="142"/>
+      <c r="FB13" s="142"/>
+      <c r="FC13" s="142"/>
+      <c r="FD13" s="142"/>
+      <c r="FE13" s="142"/>
+      <c r="FF13" s="142"/>
+      <c r="FG13" s="142"/>
+      <c r="FH13" s="142"/>
+      <c r="FI13" s="142"/>
+      <c r="FJ13" s="142"/>
+      <c r="FK13" s="142"/>
+      <c r="FL13" s="142"/>
+      <c r="FM13" s="142"/>
+      <c r="FN13" s="142"/>
+      <c r="FO13" s="142"/>
+      <c r="FP13" s="142"/>
+      <c r="FQ13" s="142"/>
+      <c r="FR13" s="142"/>
+      <c r="FS13" s="142"/>
+      <c r="FT13" s="142"/>
+      <c r="FU13" s="142"/>
+      <c r="FV13" s="142"/>
+      <c r="FW13" s="142"/>
+      <c r="FX13" s="142"/>
+      <c r="FY13" s="142"/>
+      <c r="FZ13" s="142"/>
+      <c r="GA13" s="142"/>
+      <c r="GB13" s="142"/>
+      <c r="GC13" s="142"/>
+      <c r="GD13" s="142"/>
+      <c r="GE13" s="142"/>
+      <c r="GF13" s="142"/>
+      <c r="GG13" s="142"/>
+      <c r="GH13" s="142"/>
+      <c r="GI13" s="142"/>
+      <c r="GJ13" s="142"/>
+      <c r="GK13" s="142"/>
+      <c r="GL13" s="142"/>
+      <c r="GM13" s="142"/>
+      <c r="GN13" s="142"/>
+      <c r="GO13" s="142"/>
+      <c r="GP13" s="142"/>
+      <c r="GQ13" s="142"/>
+      <c r="GR13" s="142"/>
+      <c r="GS13" s="142"/>
+      <c r="GT13" s="142"/>
+      <c r="GU13" s="142"/>
+      <c r="GV13" s="142"/>
+      <c r="GW13" s="142"/>
+      <c r="GX13" s="142"/>
+      <c r="GY13" s="142"/>
+      <c r="GZ13" s="142"/>
+      <c r="HA13" s="142"/>
+      <c r="HB13" s="142"/>
+      <c r="HC13" s="142"/>
+      <c r="HD13" s="142"/>
+      <c r="HE13" s="142"/>
+      <c r="HF13" s="142"/>
+      <c r="HG13" s="142"/>
+      <c r="HH13" s="142"/>
+      <c r="HI13" s="142"/>
+      <c r="HJ13" s="142"/>
+      <c r="HK13" s="142"/>
+      <c r="HL13" s="142"/>
+      <c r="HM13" s="142"/>
+      <c r="HN13" s="142"/>
+      <c r="HO13" s="142"/>
+      <c r="HP13" s="142"/>
+      <c r="HQ13" s="142"/>
+      <c r="HR13" s="142"/>
+      <c r="HS13" s="142"/>
+      <c r="HT13" s="142"/>
+      <c r="HU13" s="142"/>
+      <c r="HV13" s="142"/>
+      <c r="HW13" s="142"/>
+      <c r="HX13" s="142"/>
+      <c r="HY13" s="142"/>
+      <c r="HZ13" s="142"/>
+      <c r="IA13" s="142"/>
+      <c r="IB13" s="142"/>
+      <c r="IC13" s="142"/>
+      <c r="ID13" s="142"/>
+      <c r="IE13" s="142"/>
+      <c r="IF13" s="142"/>
+      <c r="IG13" s="142"/>
+      <c r="IH13" s="142"/>
+      <c r="II13" s="142"/>
+      <c r="IJ13" s="142"/>
+      <c r="IK13" s="142"/>
+      <c r="IL13" s="142"/>
+      <c r="IM13" s="142"/>
+      <c r="IN13" s="142"/>
+      <c r="IO13" s="142"/>
+      <c r="IP13" s="142"/>
+      <c r="IQ13" s="142"/>
+      <c r="IR13" s="142"/>
+      <c r="IS13" s="142"/>
+      <c r="IT13" s="142"/>
+      <c r="IU13" s="142"/>
+      <c r="IV13" s="142"/>
+      <c r="IW13" s="142"/>
+      <c r="IX13" s="142"/>
+      <c r="IY13" s="142"/>
+      <c r="IZ13" s="142"/>
+      <c r="JA13" s="142"/>
+      <c r="JB13" s="142"/>
+      <c r="JC13" s="142"/>
+      <c r="JD13" s="142"/>
+      <c r="JE13" s="142"/>
+      <c r="JF13" s="142"/>
+      <c r="JG13" s="142"/>
+      <c r="JH13" s="142"/>
+      <c r="JI13" s="142"/>
+      <c r="JJ13" s="142"/>
+      <c r="JK13" s="142"/>
+      <c r="JL13" s="142"/>
+      <c r="JM13" s="142"/>
+      <c r="JN13" s="142"/>
+      <c r="JO13" s="142"/>
+      <c r="JP13" s="142"/>
+      <c r="JQ13" s="142"/>
+      <c r="JR13" s="142"/>
+      <c r="JS13" s="142"/>
+      <c r="JT13" s="142"/>
+      <c r="JU13" s="142"/>
+      <c r="JV13" s="142"/>
+      <c r="JW13" s="142"/>
+      <c r="JX13" s="142"/>
+      <c r="JY13" s="142"/>
+      <c r="JZ13" s="142"/>
+      <c r="KA13" s="142"/>
+      <c r="KB13" s="142"/>
+      <c r="KC13" s="142"/>
+      <c r="KD13" s="142"/>
+      <c r="KE13" s="142"/>
+      <c r="KF13" s="142"/>
+      <c r="KG13" s="142"/>
+      <c r="KH13" s="142"/>
+      <c r="KI13" s="142"/>
+      <c r="KJ13" s="142"/>
+      <c r="KK13" s="142"/>
+      <c r="KL13" s="142"/>
+      <c r="KM13" s="142"/>
+      <c r="KN13" s="142"/>
+      <c r="KO13" s="142"/>
+      <c r="KP13" s="142"/>
+      <c r="KQ13" s="142"/>
+      <c r="KR13" s="142"/>
+      <c r="KS13" s="142"/>
+      <c r="KT13" s="142"/>
+      <c r="KU13" s="142"/>
+      <c r="KV13" s="142"/>
+      <c r="KW13" s="142"/>
+      <c r="KX13" s="142"/>
+      <c r="KY13" s="142"/>
+      <c r="KZ13" s="142"/>
+      <c r="LA13" s="142"/>
+      <c r="LB13" s="142"/>
+      <c r="LC13" s="142"/>
+      <c r="LD13" s="142"/>
+      <c r="LE13" s="142"/>
+      <c r="LF13" s="142"/>
+      <c r="LG13" s="142"/>
+      <c r="LH13" s="142"/>
+      <c r="LI13" s="142"/>
+      <c r="LJ13" s="142"/>
+      <c r="LK13" s="142"/>
+      <c r="LL13" s="142"/>
+      <c r="LM13" s="142"/>
+      <c r="LN13" s="142"/>
+      <c r="LO13" s="142"/>
+      <c r="LP13" s="142"/>
+      <c r="LQ13" s="142"/>
+      <c r="LR13" s="142"/>
+      <c r="LS13" s="142"/>
+      <c r="LT13" s="142"/>
+      <c r="LU13" s="142"/>
+      <c r="LV13" s="142"/>
+      <c r="LW13" s="142"/>
+      <c r="LX13" s="142"/>
+      <c r="LY13" s="142"/>
+      <c r="LZ13" s="142"/>
+      <c r="MA13" s="142"/>
+      <c r="MB13" s="142"/>
+      <c r="MC13" s="142"/>
+      <c r="MD13" s="142"/>
+      <c r="ME13" s="142"/>
+      <c r="MF13" s="142"/>
+      <c r="MG13" s="142"/>
+      <c r="MH13" s="142"/>
+      <c r="MI13" s="142"/>
+      <c r="MJ13" s="142"/>
+      <c r="MK13" s="142"/>
+      <c r="ML13" s="142"/>
+      <c r="MM13" s="142"/>
+      <c r="MN13" s="142"/>
+      <c r="MO13" s="142"/>
+      <c r="MP13" s="142"/>
+      <c r="MQ13" s="142"/>
+      <c r="MR13" s="142"/>
+      <c r="MS13" s="142"/>
+      <c r="MT13" s="142"/>
+      <c r="MU13" s="142"/>
+      <c r="MV13" s="142"/>
+      <c r="MW13" s="142"/>
+      <c r="MX13" s="142"/>
+      <c r="MY13" s="142"/>
+      <c r="MZ13" s="142"/>
+      <c r="NA13" s="142"/>
+      <c r="NB13" s="142"/>
+      <c r="NC13" s="142"/>
+      <c r="ND13" s="142"/>
+      <c r="NE13" s="142"/>
+      <c r="NF13" s="142"/>
+      <c r="NG13" s="142"/>
+      <c r="NH13" s="142"/>
+      <c r="NI13" s="142"/>
+      <c r="NJ13" s="142"/>
+      <c r="NK13" s="142"/>
+      <c r="NL13" s="142"/>
+      <c r="NM13" s="142"/>
+      <c r="NN13" s="142"/>
+      <c r="NO13" s="142"/>
+      <c r="NP13" s="142"/>
+      <c r="NQ13" s="142"/>
+      <c r="NR13" s="142"/>
+      <c r="NS13" s="142"/>
+      <c r="NT13" s="142"/>
+      <c r="NU13" s="142"/>
+      <c r="NV13" s="142"/>
+      <c r="NW13" s="142"/>
+      <c r="NX13" s="142"/>
+      <c r="NY13" s="142"/>
+      <c r="NZ13" s="142"/>
+      <c r="OA13" s="142"/>
+      <c r="OB13" s="142"/>
+      <c r="OC13" s="142"/>
+      <c r="OD13" s="142"/>
     </row>
     <row r="14" spans="1:394" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
@@ -14510,10 +14506,10 @@
       <c r="M14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="151" t="s">
+      <c r="N14" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="152"/>
+      <c r="O14" s="157"/>
       <c r="P14" s="23" t="s">
         <v>15</v>
       </c>
@@ -56895,6 +56891,378 @@
     </row>
   </sheetData>
   <mergeCells count="396">
+    <mergeCell ref="NU11:NU13"/>
+    <mergeCell ref="NV11:NV13"/>
+    <mergeCell ref="NW11:NW13"/>
+    <mergeCell ref="NX11:NX13"/>
+    <mergeCell ref="NY11:NY13"/>
+    <mergeCell ref="NP11:NP13"/>
+    <mergeCell ref="NQ11:NQ13"/>
+    <mergeCell ref="NR11:NR13"/>
+    <mergeCell ref="NS11:NS13"/>
+    <mergeCell ref="NT11:NT13"/>
+    <mergeCell ref="NK11:NK13"/>
+    <mergeCell ref="NL11:NL13"/>
+    <mergeCell ref="NM11:NM13"/>
+    <mergeCell ref="NN11:NN13"/>
+    <mergeCell ref="NO11:NO13"/>
+    <mergeCell ref="NF11:NF13"/>
+    <mergeCell ref="NG11:NG13"/>
+    <mergeCell ref="NH11:NH13"/>
+    <mergeCell ref="NI11:NI13"/>
+    <mergeCell ref="NJ11:NJ13"/>
+    <mergeCell ref="NA11:NA13"/>
+    <mergeCell ref="NB11:NB13"/>
+    <mergeCell ref="NC11:NC13"/>
+    <mergeCell ref="ND11:ND13"/>
+    <mergeCell ref="NE11:NE13"/>
+    <mergeCell ref="MV11:MV13"/>
+    <mergeCell ref="MW11:MW13"/>
+    <mergeCell ref="MX11:MX13"/>
+    <mergeCell ref="MY11:MY13"/>
+    <mergeCell ref="MZ11:MZ13"/>
+    <mergeCell ref="MQ11:MQ13"/>
+    <mergeCell ref="MR11:MR13"/>
+    <mergeCell ref="MS11:MS13"/>
+    <mergeCell ref="MT11:MT13"/>
+    <mergeCell ref="MU11:MU13"/>
+    <mergeCell ref="ML11:ML13"/>
+    <mergeCell ref="MM11:MM13"/>
+    <mergeCell ref="MN11:MN13"/>
+    <mergeCell ref="MO11:MO13"/>
+    <mergeCell ref="MP11:MP13"/>
+    <mergeCell ref="MG11:MG13"/>
+    <mergeCell ref="MH11:MH13"/>
+    <mergeCell ref="MI11:MI13"/>
+    <mergeCell ref="MJ11:MJ13"/>
+    <mergeCell ref="MK11:MK13"/>
+    <mergeCell ref="MB11:MB13"/>
+    <mergeCell ref="MC11:MC13"/>
+    <mergeCell ref="MD11:MD13"/>
+    <mergeCell ref="ME11:ME13"/>
+    <mergeCell ref="MF11:MF13"/>
+    <mergeCell ref="LW11:LW13"/>
+    <mergeCell ref="LX11:LX13"/>
+    <mergeCell ref="LY11:LY13"/>
+    <mergeCell ref="LZ11:LZ13"/>
+    <mergeCell ref="MA11:MA13"/>
+    <mergeCell ref="LR11:LR13"/>
+    <mergeCell ref="LS11:LS13"/>
+    <mergeCell ref="LT11:LT13"/>
+    <mergeCell ref="LU11:LU13"/>
+    <mergeCell ref="LV11:LV13"/>
+    <mergeCell ref="LM11:LM13"/>
+    <mergeCell ref="LN11:LN13"/>
+    <mergeCell ref="LO11:LO13"/>
+    <mergeCell ref="LP11:LP13"/>
+    <mergeCell ref="LQ11:LQ13"/>
+    <mergeCell ref="LH11:LH13"/>
+    <mergeCell ref="LI11:LI13"/>
+    <mergeCell ref="LJ11:LJ13"/>
+    <mergeCell ref="LK11:LK13"/>
+    <mergeCell ref="LL11:LL13"/>
+    <mergeCell ref="LC11:LC13"/>
+    <mergeCell ref="LD11:LD13"/>
+    <mergeCell ref="LE11:LE13"/>
+    <mergeCell ref="LF11:LF13"/>
+    <mergeCell ref="LG11:LG13"/>
+    <mergeCell ref="KX11:KX13"/>
+    <mergeCell ref="KY11:KY13"/>
+    <mergeCell ref="KZ11:KZ13"/>
+    <mergeCell ref="LA11:LA13"/>
+    <mergeCell ref="LB11:LB13"/>
+    <mergeCell ref="KS11:KS13"/>
+    <mergeCell ref="KT11:KT13"/>
+    <mergeCell ref="KU11:KU13"/>
+    <mergeCell ref="KV11:KV13"/>
+    <mergeCell ref="KW11:KW13"/>
+    <mergeCell ref="KN11:KN13"/>
+    <mergeCell ref="KO11:KO13"/>
+    <mergeCell ref="KP11:KP13"/>
+    <mergeCell ref="KQ11:KQ13"/>
+    <mergeCell ref="KR11:KR13"/>
+    <mergeCell ref="KI11:KI13"/>
+    <mergeCell ref="KJ11:KJ13"/>
+    <mergeCell ref="KK11:KK13"/>
+    <mergeCell ref="KL11:KL13"/>
+    <mergeCell ref="KM11:KM13"/>
+    <mergeCell ref="KD11:KD13"/>
+    <mergeCell ref="KE11:KE13"/>
+    <mergeCell ref="KF11:KF13"/>
+    <mergeCell ref="KG11:KG13"/>
+    <mergeCell ref="KH11:KH13"/>
+    <mergeCell ref="JY11:JY13"/>
+    <mergeCell ref="JZ11:JZ13"/>
+    <mergeCell ref="KA11:KA13"/>
+    <mergeCell ref="KB11:KB13"/>
+    <mergeCell ref="KC11:KC13"/>
+    <mergeCell ref="JT11:JT13"/>
+    <mergeCell ref="JU11:JU13"/>
+    <mergeCell ref="JV11:JV13"/>
+    <mergeCell ref="JW11:JW13"/>
+    <mergeCell ref="JX11:JX13"/>
+    <mergeCell ref="JO11:JO13"/>
+    <mergeCell ref="JP11:JP13"/>
+    <mergeCell ref="JQ11:JQ13"/>
+    <mergeCell ref="JR11:JR13"/>
+    <mergeCell ref="JS11:JS13"/>
+    <mergeCell ref="JJ11:JJ13"/>
+    <mergeCell ref="JK11:JK13"/>
+    <mergeCell ref="JL11:JL13"/>
+    <mergeCell ref="JM11:JM13"/>
+    <mergeCell ref="JN11:JN13"/>
+    <mergeCell ref="JE11:JE13"/>
+    <mergeCell ref="JF11:JF13"/>
+    <mergeCell ref="JG11:JG13"/>
+    <mergeCell ref="JH11:JH13"/>
+    <mergeCell ref="JI11:JI13"/>
+    <mergeCell ref="IZ11:IZ13"/>
+    <mergeCell ref="JA11:JA13"/>
+    <mergeCell ref="JB11:JB13"/>
+    <mergeCell ref="JC11:JC13"/>
+    <mergeCell ref="JD11:JD13"/>
+    <mergeCell ref="IU11:IU13"/>
+    <mergeCell ref="IV11:IV13"/>
+    <mergeCell ref="IW11:IW13"/>
+    <mergeCell ref="IX11:IX13"/>
+    <mergeCell ref="IY11:IY13"/>
+    <mergeCell ref="IP11:IP13"/>
+    <mergeCell ref="IQ11:IQ13"/>
+    <mergeCell ref="IR11:IR13"/>
+    <mergeCell ref="IS11:IS13"/>
+    <mergeCell ref="IT11:IT13"/>
+    <mergeCell ref="IK11:IK13"/>
+    <mergeCell ref="IL11:IL13"/>
+    <mergeCell ref="IM11:IM13"/>
+    <mergeCell ref="IN11:IN13"/>
+    <mergeCell ref="IO11:IO13"/>
+    <mergeCell ref="IF11:IF13"/>
+    <mergeCell ref="IG11:IG13"/>
+    <mergeCell ref="IH11:IH13"/>
+    <mergeCell ref="II11:II13"/>
+    <mergeCell ref="IJ11:IJ13"/>
+    <mergeCell ref="IA11:IA13"/>
+    <mergeCell ref="IB11:IB13"/>
+    <mergeCell ref="IC11:IC13"/>
+    <mergeCell ref="ID11:ID13"/>
+    <mergeCell ref="IE11:IE13"/>
+    <mergeCell ref="HV11:HV13"/>
+    <mergeCell ref="HW11:HW13"/>
+    <mergeCell ref="HX11:HX13"/>
+    <mergeCell ref="HY11:HY13"/>
+    <mergeCell ref="HZ11:HZ13"/>
+    <mergeCell ref="HQ11:HQ13"/>
+    <mergeCell ref="HR11:HR13"/>
+    <mergeCell ref="HS11:HS13"/>
+    <mergeCell ref="HT11:HT13"/>
+    <mergeCell ref="HU11:HU13"/>
+    <mergeCell ref="HL11:HL13"/>
+    <mergeCell ref="HM11:HM13"/>
+    <mergeCell ref="HN11:HN13"/>
+    <mergeCell ref="HO11:HO13"/>
+    <mergeCell ref="HP11:HP13"/>
+    <mergeCell ref="HG11:HG13"/>
+    <mergeCell ref="HH11:HH13"/>
+    <mergeCell ref="HI11:HI13"/>
+    <mergeCell ref="HJ11:HJ13"/>
+    <mergeCell ref="HK11:HK13"/>
+    <mergeCell ref="HB11:HB13"/>
+    <mergeCell ref="HC11:HC13"/>
+    <mergeCell ref="HD11:HD13"/>
+    <mergeCell ref="HE11:HE13"/>
+    <mergeCell ref="HF11:HF13"/>
+    <mergeCell ref="GW11:GW13"/>
+    <mergeCell ref="GX11:GX13"/>
+    <mergeCell ref="GY11:GY13"/>
+    <mergeCell ref="GZ11:GZ13"/>
+    <mergeCell ref="HA11:HA13"/>
+    <mergeCell ref="GR11:GR13"/>
+    <mergeCell ref="GS11:GS13"/>
+    <mergeCell ref="GT11:GT13"/>
+    <mergeCell ref="GU11:GU13"/>
+    <mergeCell ref="GV11:GV13"/>
+    <mergeCell ref="GM11:GM13"/>
+    <mergeCell ref="GN11:GN13"/>
+    <mergeCell ref="GO11:GO13"/>
+    <mergeCell ref="GP11:GP13"/>
+    <mergeCell ref="GQ11:GQ13"/>
+    <mergeCell ref="GH11:GH13"/>
+    <mergeCell ref="GI11:GI13"/>
+    <mergeCell ref="GJ11:GJ13"/>
+    <mergeCell ref="GK11:GK13"/>
+    <mergeCell ref="GL11:GL13"/>
+    <mergeCell ref="GC11:GC13"/>
+    <mergeCell ref="GD11:GD13"/>
+    <mergeCell ref="GE11:GE13"/>
+    <mergeCell ref="GF11:GF13"/>
+    <mergeCell ref="GG11:GG13"/>
+    <mergeCell ref="FX11:FX13"/>
+    <mergeCell ref="FY11:FY13"/>
+    <mergeCell ref="FZ11:FZ13"/>
+    <mergeCell ref="GA11:GA13"/>
+    <mergeCell ref="GB11:GB13"/>
+    <mergeCell ref="FS11:FS13"/>
+    <mergeCell ref="FT11:FT13"/>
+    <mergeCell ref="FU11:FU13"/>
+    <mergeCell ref="FV11:FV13"/>
+    <mergeCell ref="FW11:FW13"/>
+    <mergeCell ref="FN11:FN13"/>
+    <mergeCell ref="FO11:FO13"/>
+    <mergeCell ref="FP11:FP13"/>
+    <mergeCell ref="FQ11:FQ13"/>
+    <mergeCell ref="FR11:FR13"/>
+    <mergeCell ref="FI11:FI13"/>
+    <mergeCell ref="FJ11:FJ13"/>
+    <mergeCell ref="FK11:FK13"/>
+    <mergeCell ref="FL11:FL13"/>
+    <mergeCell ref="FM11:FM13"/>
+    <mergeCell ref="FD11:FD13"/>
+    <mergeCell ref="FE11:FE13"/>
+    <mergeCell ref="FF11:FF13"/>
+    <mergeCell ref="FG11:FG13"/>
+    <mergeCell ref="FH11:FH13"/>
+    <mergeCell ref="EY11:EY13"/>
+    <mergeCell ref="EZ11:EZ13"/>
+    <mergeCell ref="FA11:FA13"/>
+    <mergeCell ref="FB11:FB13"/>
+    <mergeCell ref="FC11:FC13"/>
+    <mergeCell ref="ET11:ET13"/>
+    <mergeCell ref="EU11:EU13"/>
+    <mergeCell ref="EV11:EV13"/>
+    <mergeCell ref="EW11:EW13"/>
+    <mergeCell ref="EX11:EX13"/>
+    <mergeCell ref="EO11:EO13"/>
+    <mergeCell ref="EP11:EP13"/>
+    <mergeCell ref="EQ11:EQ13"/>
+    <mergeCell ref="ER11:ER13"/>
+    <mergeCell ref="ES11:ES13"/>
+    <mergeCell ref="EJ11:EJ13"/>
+    <mergeCell ref="EK11:EK13"/>
+    <mergeCell ref="EL11:EL13"/>
+    <mergeCell ref="EM11:EM13"/>
+    <mergeCell ref="EN11:EN13"/>
+    <mergeCell ref="EE11:EE13"/>
+    <mergeCell ref="EF11:EF13"/>
+    <mergeCell ref="EG11:EG13"/>
+    <mergeCell ref="EH11:EH13"/>
+    <mergeCell ref="EI11:EI13"/>
+    <mergeCell ref="DZ11:DZ13"/>
+    <mergeCell ref="EA11:EA13"/>
+    <mergeCell ref="EB11:EB13"/>
+    <mergeCell ref="EC11:EC13"/>
+    <mergeCell ref="ED11:ED13"/>
+    <mergeCell ref="DU11:DU13"/>
+    <mergeCell ref="DV11:DV13"/>
+    <mergeCell ref="DW11:DW13"/>
+    <mergeCell ref="DX11:DX13"/>
+    <mergeCell ref="DY11:DY13"/>
+    <mergeCell ref="DP11:DP13"/>
+    <mergeCell ref="DQ11:DQ13"/>
+    <mergeCell ref="DR11:DR13"/>
+    <mergeCell ref="DS11:DS13"/>
+    <mergeCell ref="DT11:DT13"/>
+    <mergeCell ref="DK11:DK13"/>
+    <mergeCell ref="DL11:DL13"/>
+    <mergeCell ref="DM11:DM13"/>
+    <mergeCell ref="DN11:DN13"/>
+    <mergeCell ref="DO11:DO13"/>
+    <mergeCell ref="DF11:DF13"/>
+    <mergeCell ref="DG11:DG13"/>
+    <mergeCell ref="DH11:DH13"/>
+    <mergeCell ref="DI11:DI13"/>
+    <mergeCell ref="DJ11:DJ13"/>
+    <mergeCell ref="DA11:DA13"/>
+    <mergeCell ref="DB11:DB13"/>
+    <mergeCell ref="DC11:DC13"/>
+    <mergeCell ref="DD11:DD13"/>
+    <mergeCell ref="DE11:DE13"/>
+    <mergeCell ref="CV11:CV13"/>
+    <mergeCell ref="CW11:CW13"/>
+    <mergeCell ref="CX11:CX13"/>
+    <mergeCell ref="CY11:CY13"/>
+    <mergeCell ref="CZ11:CZ13"/>
+    <mergeCell ref="CQ11:CQ13"/>
+    <mergeCell ref="CR11:CR13"/>
+    <mergeCell ref="CS11:CS13"/>
+    <mergeCell ref="CT11:CT13"/>
+    <mergeCell ref="CU11:CU13"/>
+    <mergeCell ref="CL11:CL13"/>
+    <mergeCell ref="CM11:CM13"/>
+    <mergeCell ref="CN11:CN13"/>
+    <mergeCell ref="CO11:CO13"/>
+    <mergeCell ref="CP11:CP13"/>
+    <mergeCell ref="CG11:CG13"/>
+    <mergeCell ref="CH11:CH13"/>
+    <mergeCell ref="CI11:CI13"/>
+    <mergeCell ref="CJ11:CJ13"/>
+    <mergeCell ref="CK11:CK13"/>
+    <mergeCell ref="CB11:CB13"/>
+    <mergeCell ref="CC11:CC13"/>
+    <mergeCell ref="CD11:CD13"/>
+    <mergeCell ref="CE11:CE13"/>
+    <mergeCell ref="CF11:CF13"/>
+    <mergeCell ref="BW11:BW13"/>
+    <mergeCell ref="BX11:BX13"/>
+    <mergeCell ref="BY11:BY13"/>
+    <mergeCell ref="BZ11:BZ13"/>
+    <mergeCell ref="CA11:CA13"/>
+    <mergeCell ref="BR11:BR13"/>
+    <mergeCell ref="BS11:BS13"/>
+    <mergeCell ref="BT11:BT13"/>
+    <mergeCell ref="BU11:BU13"/>
+    <mergeCell ref="BV11:BV13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="B1:T3"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="BK11:BK13"/>
+    <mergeCell ref="BG11:BG13"/>
+    <mergeCell ref="BH11:BH13"/>
+    <mergeCell ref="BI11:BI13"/>
+    <mergeCell ref="BJ11:BJ13"/>
+    <mergeCell ref="BA11:BA13"/>
+    <mergeCell ref="BB11:BB13"/>
+    <mergeCell ref="BC11:BC13"/>
+    <mergeCell ref="BD11:BD13"/>
+    <mergeCell ref="BE11:BE13"/>
+    <mergeCell ref="BF11:BF13"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="AT11:AT13"/>
     <mergeCell ref="NZ11:NZ13"/>
     <mergeCell ref="OA11:OA13"/>
     <mergeCell ref="OB11:OB13"/>
@@ -56919,378 +57287,6 @@
     <mergeCell ref="AI11:AI13"/>
     <mergeCell ref="AJ11:AJ13"/>
     <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="B1:T3"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="BK11:BK13"/>
-    <mergeCell ref="BG11:BG13"/>
-    <mergeCell ref="BH11:BH13"/>
-    <mergeCell ref="BI11:BI13"/>
-    <mergeCell ref="BJ11:BJ13"/>
-    <mergeCell ref="BA11:BA13"/>
-    <mergeCell ref="BB11:BB13"/>
-    <mergeCell ref="BC11:BC13"/>
-    <mergeCell ref="BD11:BD13"/>
-    <mergeCell ref="BE11:BE13"/>
-    <mergeCell ref="BF11:BF13"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="BW11:BW13"/>
-    <mergeCell ref="BX11:BX13"/>
-    <mergeCell ref="BY11:BY13"/>
-    <mergeCell ref="BZ11:BZ13"/>
-    <mergeCell ref="CA11:CA13"/>
-    <mergeCell ref="BR11:BR13"/>
-    <mergeCell ref="BS11:BS13"/>
-    <mergeCell ref="BT11:BT13"/>
-    <mergeCell ref="BU11:BU13"/>
-    <mergeCell ref="BV11:BV13"/>
-    <mergeCell ref="CG11:CG13"/>
-    <mergeCell ref="CH11:CH13"/>
-    <mergeCell ref="CI11:CI13"/>
-    <mergeCell ref="CJ11:CJ13"/>
-    <mergeCell ref="CK11:CK13"/>
-    <mergeCell ref="CB11:CB13"/>
-    <mergeCell ref="CC11:CC13"/>
-    <mergeCell ref="CD11:CD13"/>
-    <mergeCell ref="CE11:CE13"/>
-    <mergeCell ref="CF11:CF13"/>
-    <mergeCell ref="CQ11:CQ13"/>
-    <mergeCell ref="CR11:CR13"/>
-    <mergeCell ref="CS11:CS13"/>
-    <mergeCell ref="CT11:CT13"/>
-    <mergeCell ref="CU11:CU13"/>
-    <mergeCell ref="CL11:CL13"/>
-    <mergeCell ref="CM11:CM13"/>
-    <mergeCell ref="CN11:CN13"/>
-    <mergeCell ref="CO11:CO13"/>
-    <mergeCell ref="CP11:CP13"/>
-    <mergeCell ref="DA11:DA13"/>
-    <mergeCell ref="DB11:DB13"/>
-    <mergeCell ref="DC11:DC13"/>
-    <mergeCell ref="DD11:DD13"/>
-    <mergeCell ref="DE11:DE13"/>
-    <mergeCell ref="CV11:CV13"/>
-    <mergeCell ref="CW11:CW13"/>
-    <mergeCell ref="CX11:CX13"/>
-    <mergeCell ref="CY11:CY13"/>
-    <mergeCell ref="CZ11:CZ13"/>
-    <mergeCell ref="DK11:DK13"/>
-    <mergeCell ref="DL11:DL13"/>
-    <mergeCell ref="DM11:DM13"/>
-    <mergeCell ref="DN11:DN13"/>
-    <mergeCell ref="DO11:DO13"/>
-    <mergeCell ref="DF11:DF13"/>
-    <mergeCell ref="DG11:DG13"/>
-    <mergeCell ref="DH11:DH13"/>
-    <mergeCell ref="DI11:DI13"/>
-    <mergeCell ref="DJ11:DJ13"/>
-    <mergeCell ref="DU11:DU13"/>
-    <mergeCell ref="DV11:DV13"/>
-    <mergeCell ref="DW11:DW13"/>
-    <mergeCell ref="DX11:DX13"/>
-    <mergeCell ref="DY11:DY13"/>
-    <mergeCell ref="DP11:DP13"/>
-    <mergeCell ref="DQ11:DQ13"/>
-    <mergeCell ref="DR11:DR13"/>
-    <mergeCell ref="DS11:DS13"/>
-    <mergeCell ref="DT11:DT13"/>
-    <mergeCell ref="EE11:EE13"/>
-    <mergeCell ref="EF11:EF13"/>
-    <mergeCell ref="EG11:EG13"/>
-    <mergeCell ref="EH11:EH13"/>
-    <mergeCell ref="EI11:EI13"/>
-    <mergeCell ref="DZ11:DZ13"/>
-    <mergeCell ref="EA11:EA13"/>
-    <mergeCell ref="EB11:EB13"/>
-    <mergeCell ref="EC11:EC13"/>
-    <mergeCell ref="ED11:ED13"/>
-    <mergeCell ref="EO11:EO13"/>
-    <mergeCell ref="EP11:EP13"/>
-    <mergeCell ref="EQ11:EQ13"/>
-    <mergeCell ref="ER11:ER13"/>
-    <mergeCell ref="ES11:ES13"/>
-    <mergeCell ref="EJ11:EJ13"/>
-    <mergeCell ref="EK11:EK13"/>
-    <mergeCell ref="EL11:EL13"/>
-    <mergeCell ref="EM11:EM13"/>
-    <mergeCell ref="EN11:EN13"/>
-    <mergeCell ref="EY11:EY13"/>
-    <mergeCell ref="EZ11:EZ13"/>
-    <mergeCell ref="FA11:FA13"/>
-    <mergeCell ref="FB11:FB13"/>
-    <mergeCell ref="FC11:FC13"/>
-    <mergeCell ref="ET11:ET13"/>
-    <mergeCell ref="EU11:EU13"/>
-    <mergeCell ref="EV11:EV13"/>
-    <mergeCell ref="EW11:EW13"/>
-    <mergeCell ref="EX11:EX13"/>
-    <mergeCell ref="FI11:FI13"/>
-    <mergeCell ref="FJ11:FJ13"/>
-    <mergeCell ref="FK11:FK13"/>
-    <mergeCell ref="FL11:FL13"/>
-    <mergeCell ref="FM11:FM13"/>
-    <mergeCell ref="FD11:FD13"/>
-    <mergeCell ref="FE11:FE13"/>
-    <mergeCell ref="FF11:FF13"/>
-    <mergeCell ref="FG11:FG13"/>
-    <mergeCell ref="FH11:FH13"/>
-    <mergeCell ref="FS11:FS13"/>
-    <mergeCell ref="FT11:FT13"/>
-    <mergeCell ref="FU11:FU13"/>
-    <mergeCell ref="FV11:FV13"/>
-    <mergeCell ref="FW11:FW13"/>
-    <mergeCell ref="FN11:FN13"/>
-    <mergeCell ref="FO11:FO13"/>
-    <mergeCell ref="FP11:FP13"/>
-    <mergeCell ref="FQ11:FQ13"/>
-    <mergeCell ref="FR11:FR13"/>
-    <mergeCell ref="GC11:GC13"/>
-    <mergeCell ref="GD11:GD13"/>
-    <mergeCell ref="GE11:GE13"/>
-    <mergeCell ref="GF11:GF13"/>
-    <mergeCell ref="GG11:GG13"/>
-    <mergeCell ref="FX11:FX13"/>
-    <mergeCell ref="FY11:FY13"/>
-    <mergeCell ref="FZ11:FZ13"/>
-    <mergeCell ref="GA11:GA13"/>
-    <mergeCell ref="GB11:GB13"/>
-    <mergeCell ref="GM11:GM13"/>
-    <mergeCell ref="GN11:GN13"/>
-    <mergeCell ref="GO11:GO13"/>
-    <mergeCell ref="GP11:GP13"/>
-    <mergeCell ref="GQ11:GQ13"/>
-    <mergeCell ref="GH11:GH13"/>
-    <mergeCell ref="GI11:GI13"/>
-    <mergeCell ref="GJ11:GJ13"/>
-    <mergeCell ref="GK11:GK13"/>
-    <mergeCell ref="GL11:GL13"/>
-    <mergeCell ref="GW11:GW13"/>
-    <mergeCell ref="GX11:GX13"/>
-    <mergeCell ref="GY11:GY13"/>
-    <mergeCell ref="GZ11:GZ13"/>
-    <mergeCell ref="HA11:HA13"/>
-    <mergeCell ref="GR11:GR13"/>
-    <mergeCell ref="GS11:GS13"/>
-    <mergeCell ref="GT11:GT13"/>
-    <mergeCell ref="GU11:GU13"/>
-    <mergeCell ref="GV11:GV13"/>
-    <mergeCell ref="HG11:HG13"/>
-    <mergeCell ref="HH11:HH13"/>
-    <mergeCell ref="HI11:HI13"/>
-    <mergeCell ref="HJ11:HJ13"/>
-    <mergeCell ref="HK11:HK13"/>
-    <mergeCell ref="HB11:HB13"/>
-    <mergeCell ref="HC11:HC13"/>
-    <mergeCell ref="HD11:HD13"/>
-    <mergeCell ref="HE11:HE13"/>
-    <mergeCell ref="HF11:HF13"/>
-    <mergeCell ref="HQ11:HQ13"/>
-    <mergeCell ref="HR11:HR13"/>
-    <mergeCell ref="HS11:HS13"/>
-    <mergeCell ref="HT11:HT13"/>
-    <mergeCell ref="HU11:HU13"/>
-    <mergeCell ref="HL11:HL13"/>
-    <mergeCell ref="HM11:HM13"/>
-    <mergeCell ref="HN11:HN13"/>
-    <mergeCell ref="HO11:HO13"/>
-    <mergeCell ref="HP11:HP13"/>
-    <mergeCell ref="IA11:IA13"/>
-    <mergeCell ref="IB11:IB13"/>
-    <mergeCell ref="IC11:IC13"/>
-    <mergeCell ref="ID11:ID13"/>
-    <mergeCell ref="IE11:IE13"/>
-    <mergeCell ref="HV11:HV13"/>
-    <mergeCell ref="HW11:HW13"/>
-    <mergeCell ref="HX11:HX13"/>
-    <mergeCell ref="HY11:HY13"/>
-    <mergeCell ref="HZ11:HZ13"/>
-    <mergeCell ref="IK11:IK13"/>
-    <mergeCell ref="IL11:IL13"/>
-    <mergeCell ref="IM11:IM13"/>
-    <mergeCell ref="IN11:IN13"/>
-    <mergeCell ref="IO11:IO13"/>
-    <mergeCell ref="IF11:IF13"/>
-    <mergeCell ref="IG11:IG13"/>
-    <mergeCell ref="IH11:IH13"/>
-    <mergeCell ref="II11:II13"/>
-    <mergeCell ref="IJ11:IJ13"/>
-    <mergeCell ref="IU11:IU13"/>
-    <mergeCell ref="IV11:IV13"/>
-    <mergeCell ref="IW11:IW13"/>
-    <mergeCell ref="IX11:IX13"/>
-    <mergeCell ref="IY11:IY13"/>
-    <mergeCell ref="IP11:IP13"/>
-    <mergeCell ref="IQ11:IQ13"/>
-    <mergeCell ref="IR11:IR13"/>
-    <mergeCell ref="IS11:IS13"/>
-    <mergeCell ref="IT11:IT13"/>
-    <mergeCell ref="JE11:JE13"/>
-    <mergeCell ref="JF11:JF13"/>
-    <mergeCell ref="JG11:JG13"/>
-    <mergeCell ref="JH11:JH13"/>
-    <mergeCell ref="JI11:JI13"/>
-    <mergeCell ref="IZ11:IZ13"/>
-    <mergeCell ref="JA11:JA13"/>
-    <mergeCell ref="JB11:JB13"/>
-    <mergeCell ref="JC11:JC13"/>
-    <mergeCell ref="JD11:JD13"/>
-    <mergeCell ref="JO11:JO13"/>
-    <mergeCell ref="JP11:JP13"/>
-    <mergeCell ref="JQ11:JQ13"/>
-    <mergeCell ref="JR11:JR13"/>
-    <mergeCell ref="JS11:JS13"/>
-    <mergeCell ref="JJ11:JJ13"/>
-    <mergeCell ref="JK11:JK13"/>
-    <mergeCell ref="JL11:JL13"/>
-    <mergeCell ref="JM11:JM13"/>
-    <mergeCell ref="JN11:JN13"/>
-    <mergeCell ref="JY11:JY13"/>
-    <mergeCell ref="JZ11:JZ13"/>
-    <mergeCell ref="KA11:KA13"/>
-    <mergeCell ref="KB11:KB13"/>
-    <mergeCell ref="KC11:KC13"/>
-    <mergeCell ref="JT11:JT13"/>
-    <mergeCell ref="JU11:JU13"/>
-    <mergeCell ref="JV11:JV13"/>
-    <mergeCell ref="JW11:JW13"/>
-    <mergeCell ref="JX11:JX13"/>
-    <mergeCell ref="KI11:KI13"/>
-    <mergeCell ref="KJ11:KJ13"/>
-    <mergeCell ref="KK11:KK13"/>
-    <mergeCell ref="KL11:KL13"/>
-    <mergeCell ref="KM11:KM13"/>
-    <mergeCell ref="KD11:KD13"/>
-    <mergeCell ref="KE11:KE13"/>
-    <mergeCell ref="KF11:KF13"/>
-    <mergeCell ref="KG11:KG13"/>
-    <mergeCell ref="KH11:KH13"/>
-    <mergeCell ref="KS11:KS13"/>
-    <mergeCell ref="KT11:KT13"/>
-    <mergeCell ref="KU11:KU13"/>
-    <mergeCell ref="KV11:KV13"/>
-    <mergeCell ref="KW11:KW13"/>
-    <mergeCell ref="KN11:KN13"/>
-    <mergeCell ref="KO11:KO13"/>
-    <mergeCell ref="KP11:KP13"/>
-    <mergeCell ref="KQ11:KQ13"/>
-    <mergeCell ref="KR11:KR13"/>
-    <mergeCell ref="LC11:LC13"/>
-    <mergeCell ref="LD11:LD13"/>
-    <mergeCell ref="LE11:LE13"/>
-    <mergeCell ref="LF11:LF13"/>
-    <mergeCell ref="LG11:LG13"/>
-    <mergeCell ref="KX11:KX13"/>
-    <mergeCell ref="KY11:KY13"/>
-    <mergeCell ref="KZ11:KZ13"/>
-    <mergeCell ref="LA11:LA13"/>
-    <mergeCell ref="LB11:LB13"/>
-    <mergeCell ref="LM11:LM13"/>
-    <mergeCell ref="LN11:LN13"/>
-    <mergeCell ref="LO11:LO13"/>
-    <mergeCell ref="LP11:LP13"/>
-    <mergeCell ref="LQ11:LQ13"/>
-    <mergeCell ref="LH11:LH13"/>
-    <mergeCell ref="LI11:LI13"/>
-    <mergeCell ref="LJ11:LJ13"/>
-    <mergeCell ref="LK11:LK13"/>
-    <mergeCell ref="LL11:LL13"/>
-    <mergeCell ref="LW11:LW13"/>
-    <mergeCell ref="LX11:LX13"/>
-    <mergeCell ref="LY11:LY13"/>
-    <mergeCell ref="LZ11:LZ13"/>
-    <mergeCell ref="MA11:MA13"/>
-    <mergeCell ref="LR11:LR13"/>
-    <mergeCell ref="LS11:LS13"/>
-    <mergeCell ref="LT11:LT13"/>
-    <mergeCell ref="LU11:LU13"/>
-    <mergeCell ref="LV11:LV13"/>
-    <mergeCell ref="MG11:MG13"/>
-    <mergeCell ref="MH11:MH13"/>
-    <mergeCell ref="MI11:MI13"/>
-    <mergeCell ref="MJ11:MJ13"/>
-    <mergeCell ref="MK11:MK13"/>
-    <mergeCell ref="MB11:MB13"/>
-    <mergeCell ref="MC11:MC13"/>
-    <mergeCell ref="MD11:MD13"/>
-    <mergeCell ref="ME11:ME13"/>
-    <mergeCell ref="MF11:MF13"/>
-    <mergeCell ref="MQ11:MQ13"/>
-    <mergeCell ref="MR11:MR13"/>
-    <mergeCell ref="MS11:MS13"/>
-    <mergeCell ref="MT11:MT13"/>
-    <mergeCell ref="MU11:MU13"/>
-    <mergeCell ref="ML11:ML13"/>
-    <mergeCell ref="MM11:MM13"/>
-    <mergeCell ref="MN11:MN13"/>
-    <mergeCell ref="MO11:MO13"/>
-    <mergeCell ref="MP11:MP13"/>
-    <mergeCell ref="NA11:NA13"/>
-    <mergeCell ref="NB11:NB13"/>
-    <mergeCell ref="NC11:NC13"/>
-    <mergeCell ref="ND11:ND13"/>
-    <mergeCell ref="NE11:NE13"/>
-    <mergeCell ref="MV11:MV13"/>
-    <mergeCell ref="MW11:MW13"/>
-    <mergeCell ref="MX11:MX13"/>
-    <mergeCell ref="MY11:MY13"/>
-    <mergeCell ref="MZ11:MZ13"/>
-    <mergeCell ref="NK11:NK13"/>
-    <mergeCell ref="NL11:NL13"/>
-    <mergeCell ref="NM11:NM13"/>
-    <mergeCell ref="NN11:NN13"/>
-    <mergeCell ref="NO11:NO13"/>
-    <mergeCell ref="NF11:NF13"/>
-    <mergeCell ref="NG11:NG13"/>
-    <mergeCell ref="NH11:NH13"/>
-    <mergeCell ref="NI11:NI13"/>
-    <mergeCell ref="NJ11:NJ13"/>
-    <mergeCell ref="NU11:NU13"/>
-    <mergeCell ref="NV11:NV13"/>
-    <mergeCell ref="NW11:NW13"/>
-    <mergeCell ref="NX11:NX13"/>
-    <mergeCell ref="NY11:NY13"/>
-    <mergeCell ref="NP11:NP13"/>
-    <mergeCell ref="NQ11:NQ13"/>
-    <mergeCell ref="NR11:NR13"/>
-    <mergeCell ref="NS11:NS13"/>
-    <mergeCell ref="NT11:NT13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:OD49">
@@ -57360,50 +57356,50 @@
     <cfRule type="expression" dxfId="78" priority="625" stopIfTrue="1">
       <formula>OR(colour_code=802,colour_code=803)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="626" stopIfTrue="1">
+      <formula>OR(colour_code=901,colour_code=904)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="627" stopIfTrue="1">
+      <formula>OR(colour_code=902,colour_code=903)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="628" stopIfTrue="1">
+      <formula>OR(colour_code=1001,colour_code=1004)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="629" stopIfTrue="1">
+      <formula>OR(colour_code=1002,colour_code=1003)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="630" stopIfTrue="1">
+      <formula>OR(colour_code=1101,colour_code=1104)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="631" stopIfTrue="1">
+      <formula>OR(colour_code=1102,colour_code=1103)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="632" stopIfTrue="1">
+      <formula>OR(colour_code=1201,colour_code=1204)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="634" stopIfTrue="1">
+      <formula>OR(colour_code=1202,colour_code=1203)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="635" stopIfTrue="1">
+      <formula>OR(colour_code=1301,colour_code=1304)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="636" stopIfTrue="1">
+      <formula>OR(colour_code=1302,colour_code=1303)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="637" stopIfTrue="1">
+      <formula>OR(colour_code=1401,colour_code=1404)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="639" stopIfTrue="1">
+      <formula>OR(colour_code=1402,colour_code=1403)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="647" stopIfTrue="1">
       <formula>OR(colour_code=802,colour_code=803)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="652" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="652" stopIfTrue="1">
       <formula>colour_code=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="653">
+    <cfRule type="expression" dxfId="63" priority="653">
       <formula>OR(colour_code=2,colour_code=3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="626" stopIfTrue="1">
-      <formula>OR(colour_code=901,colour_code=904)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="627" stopIfTrue="1">
-      <formula>OR(colour_code=902,colour_code=903)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="628" stopIfTrue="1">
-      <formula>OR(colour_code=1001,colour_code=1004)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="629" stopIfTrue="1">
-      <formula>OR(colour_code=1002,colour_code=1003)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="630" stopIfTrue="1">
-      <formula>OR(colour_code=1101,colour_code=1104)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="631" stopIfTrue="1">
-      <formula>OR(colour_code=1102,colour_code=1103)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="634" stopIfTrue="1">
-      <formula>OR(colour_code=1202,colour_code=1203)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="632" stopIfTrue="1">
-      <formula>OR(colour_code=1201,colour_code=1204)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="635" stopIfTrue="1">
-      <formula>OR(colour_code=1301,colour_code=1304)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="636" stopIfTrue="1">
-      <formula>OR(colour_code=1302,colour_code=1303)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="637" stopIfTrue="1">
-      <formula>OR(colour_code=1401,colour_code=1404)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="639" stopIfTrue="1">
-      <formula>OR(colour_code=1402,colour_code=1403)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L49">
@@ -57545,68 +57541,68 @@
     <cfRule type="expression" dxfId="24" priority="584" stopIfTrue="1">
       <formula>OR(colour_code=803,colour_code=804)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="650" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="585" stopIfTrue="1">
+      <formula>colour_code=901</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="586" stopIfTrue="1">
+      <formula>colour_code=902</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="587" stopIfTrue="1">
+      <formula>OR(colour_code=903,colour_code=904)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="588" stopIfTrue="1">
+      <formula>colour_code=1001</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="589" stopIfTrue="1">
+      <formula>colour_code=1002</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="590" stopIfTrue="1">
+      <formula>OR(colour_code=1003,colour_code=1004)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="591" stopIfTrue="1">
+      <formula>colour_code=1101</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="592" stopIfTrue="1">
+      <formula>colour_code=1102</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="593" stopIfTrue="1">
+      <formula>OR(colour_code=1103,colour_code=1104)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="594" stopIfTrue="1">
+      <formula>colour_code=1201</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="601" stopIfTrue="1">
+      <formula>colour_code=1202</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="602" stopIfTrue="1">
+      <formula>OR(colour_code=1203,colour_code=1204)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="603" stopIfTrue="1">
+      <formula>colour_code=1301</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="604" stopIfTrue="1">
+      <formula>colour_code=1302</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="605" stopIfTrue="1">
+      <formula>OR(colour_code=1303,colour_code=1304)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="606" stopIfTrue="1">
+      <formula>colour_code=1401</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="607" stopIfTrue="1">
+      <formula>colour_code=1402</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="608" stopIfTrue="1">
+      <formula>OR(colour_code=1403,colour_code=1404)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="650" stopIfTrue="1">
       <formula>colour_code=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="656" stopIfTrue="1">
       <formula>colour_code=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="657" stopIfTrue="1">
       <formula>colour_code=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="585" stopIfTrue="1">
-      <formula>colour_code=901</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="586" stopIfTrue="1">
-      <formula>colour_code=902</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="587" stopIfTrue="1">
-      <formula>OR(colour_code=903,colour_code=904)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="588" stopIfTrue="1">
-      <formula>colour_code=1001</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="589" stopIfTrue="1">
-      <formula>colour_code=1002</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="590" stopIfTrue="1">
-      <formula>OR(colour_code=1003,colour_code=1004)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="591" stopIfTrue="1">
-      <formula>colour_code=1101</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="592" stopIfTrue="1">
-      <formula>colour_code=1102</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="593" stopIfTrue="1">
-      <formula>OR(colour_code=1103,colour_code=1104)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="594" stopIfTrue="1">
-      <formula>colour_code=1201</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="601" stopIfTrue="1">
-      <formula>colour_code=1202</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="602" stopIfTrue="1">
-      <formula>OR(colour_code=1203,colour_code=1204)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="603" stopIfTrue="1">
-      <formula>colour_code=1301</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="604" stopIfTrue="1">
-      <formula>colour_code=1302</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="605" stopIfTrue="1">
-      <formula>OR(colour_code=1303,colour_code=1304)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="608" stopIfTrue="1">
-      <formula>OR(colour_code=1403,colour_code=1404)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="607" stopIfTrue="1">
-      <formula>colour_code=1402</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="606" stopIfTrue="1">
-      <formula>colour_code=1401</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -57733,7 +57729,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Settings!$AH$9,,,COUNTA(Settings!$AH$9:$AH204))</xm:f>
           </x14:formula1>
-          <xm:sqref>F16 F46 F42 F36 F31 F26 F21</xm:sqref>
+          <xm:sqref>F16 F21 F26 F31 F36 F42 F46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -57792,11 +57788,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27890CA-EF2D-4F83-B665-FC5968BDBE21}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:D409"/>
+  <dimension ref="B1:D407"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="29.4" x14ac:dyDescent="0.65"/>
   <cols>
@@ -57806,76 +57800,67 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B1" s="135" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B2" s="135"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B3" s="136" t="s">
+      <c r="B2" s="136" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B4" s="137" t="s">
-        <v>146</v>
-      </c>
+      <c r="B4" s="135"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B6" s="136"/>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B398" s="78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B399" s="78" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B400" s="78" t="s">
-        <v>131</v>
+      <c r="B400" s="79" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B401" s="78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B402" s="79" t="s">
+      <c r="B401" s="79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B403" s="79" t="s">
+      <c r="B403" s="78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B404" s="78" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B405" s="78" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B406" s="78" t="s">
         <v>140</v>
+      </c>
+      <c r="D405" s="80" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B407" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D407" s="80" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B409" s="78" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vy6s6YkMSkgPjXUezQPRUotL4ywylpauo/Qi14pjzZxlQB9wCzstau/dP/hBKZj74R6V8bia/BgNrdqXnb8hxQ==" saltValue="ZgbX6Qxk4aAA/NU7v8P//g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9dkBeKRgN67zv1IXmFDkoBdxSlybMqqOS/rCCTYJlwhkkKRMWkCuGAewiU4EctV5QkrYduNGCDjmpvZNMGIkbQ==" saltValue="z6iQJNaafHp9yy00MLubsg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B402" r:id="rId1" xr:uid="{5218D998-BEEA-4DF5-8F16-3EBEB4536B5B}"/>
-    <hyperlink ref="B403" r:id="rId2" xr:uid="{57A6330B-3422-455C-AD17-6BAEBCD5CE87}"/>
-    <hyperlink ref="D407" r:id="rId3" xr:uid="{7E6186A8-F65A-414D-BB48-1172A18CC412}"/>
-    <hyperlink ref="B1" location="'.'!A400" display="Buy me a cup of coffee" xr:uid="{5C458D98-D8D2-40B8-86E1-6C04363E5723}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{24D47AA8-A190-452D-B2AA-0C0E670837F7}"/>
+    <hyperlink ref="B400" r:id="rId1" xr:uid="{5218D998-BEEA-4DF5-8F16-3EBEB4536B5B}"/>
+    <hyperlink ref="B401" r:id="rId2" xr:uid="{57A6330B-3422-455C-AD17-6BAEBCD5CE87}"/>
+    <hyperlink ref="D405" r:id="rId3" xr:uid="{7E6186A8-F65A-414D-BB48-1172A18CC412}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{24D47AA8-A190-452D-B2AA-0C0E670837F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Ultimate Excel Gantt Chart 1 year.xlsx
+++ b/Ultimate Excel Gantt Chart 1 year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45972DC-7EAD-4791-B36D-C917F26112B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBACBF-C401-4731-A672-224F31358AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
@@ -1767,6 +1767,51 @@
     <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,51 +1831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10417,128 +10417,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:394" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="141" t="str">
+      <c r="B1" s="142" t="str">
         <f>Settings!D8</f>
         <v>Example Project</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:394" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="X2" s="142" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="X2" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="151" cm="1">
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="135" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="151" cm="1">
+      <c r="AK2" s="135" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44531</v>
       </c>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="152" t="str" cm="1">
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="140" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(202)</v>
       </c>
-      <c r="AP2" s="152"/>
-      <c r="AT2" s="142" t="s">
+      <c r="AP2" s="140"/>
+      <c r="AT2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="143" t="str">
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="144" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BL2" s="148" t="s">
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="144"/>
+      <c r="BD2" s="144"/>
+      <c r="BE2" s="144"/>
+      <c r="BF2" s="144"/>
+      <c r="BL2" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="149"/>
-      <c r="BN2" s="149"/>
-      <c r="BO2" s="149"/>
-      <c r="BP2" s="149"/>
-      <c r="BQ2" s="150"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="134"/>
     </row>
     <row r="3" spans="1:394" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
     </row>
     <row r="4" spans="1:394" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:394" x14ac:dyDescent="0.3">
@@ -10546,76 +10546,76 @@
       <c r="D5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="144" t="s">
+      <c r="X5" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="146"/>
-      <c r="AG5" s="144" t="s">
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="138"/>
+      <c r="AG5" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="146"/>
-      <c r="AP5" s="144" t="s">
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AP5" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="146"/>
-      <c r="BL5" s="144" t="s">
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="138"/>
+      <c r="BL5" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="BM5" s="145"/>
-      <c r="BN5" s="145"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="145"/>
-      <c r="BQ5" s="146"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="137"/>
+      <c r="BO5" s="137"/>
+      <c r="BP5" s="137"/>
+      <c r="BQ5" s="138"/>
     </row>
     <row r="6" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="147" t="s">
+      <c r="X6" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AG6" s="147" t="s">
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="139"/>
+      <c r="AG6" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="147"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="147"/>
-      <c r="AP6" s="147" t="s">
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="139"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
+      <c r="AP6" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="BL6" s="153" t="s">
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="139"/>
+      <c r="AS6" s="139"/>
+      <c r="AT6" s="139"/>
+      <c r="AU6" s="139"/>
+      <c r="BL6" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="BM6" s="153"/>
-      <c r="BN6" s="153"/>
-      <c r="BO6" s="153"/>
-      <c r="BP6" s="153"/>
-      <c r="BQ6" s="153"/>
+      <c r="BM6" s="141"/>
+      <c r="BN6" s="141"/>
+      <c r="BO6" s="141"/>
+      <c r="BP6" s="141"/>
+      <c r="BQ6" s="141"/>
     </row>
     <row r="7" spans="1:394" x14ac:dyDescent="0.3">
       <c r="C7" s="10"/>
@@ -12132,22 +12132,22 @@
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="133" t="s">
+      <c r="K11" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="134" t="s">
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="134"/>
+      <c r="V11" s="149"/>
       <c r="W11" s="60" t="s">
         <v>92</v>
       </c>
@@ -13637,22 +13637,22 @@
       </c>
     </row>
     <row r="12" spans="1:394" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136" t="s">
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="136"/>
+      <c r="V12" s="151"/>
       <c r="W12" s="60">
         <v>0</v>
       </c>
@@ -14029,35 +14029,35 @@
       <c r="OD12" s="131"/>
     </row>
     <row r="13" spans="1:394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132" t="s">
+      <c r="B13" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="138">
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="153">
         <v>44319</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="137">
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="152">
         <v>44319</v>
       </c>
-      <c r="V13" s="137"/>
+      <c r="V13" s="152"/>
       <c r="X13" s="131"/>
       <c r="Y13" s="131"/>
       <c r="Z13" s="131"/>
@@ -14466,10 +14466,10 @@
       <c r="M14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="139" t="s">
+      <c r="N14" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="140"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="22" t="s">
         <v>15</v>
       </c>
@@ -56795,6 +56795,378 @@
     </row>
   </sheetData>
   <mergeCells count="396">
+    <mergeCell ref="NU11:NU13"/>
+    <mergeCell ref="NV11:NV13"/>
+    <mergeCell ref="NW11:NW13"/>
+    <mergeCell ref="NX11:NX13"/>
+    <mergeCell ref="NY11:NY13"/>
+    <mergeCell ref="NP11:NP13"/>
+    <mergeCell ref="NQ11:NQ13"/>
+    <mergeCell ref="NR11:NR13"/>
+    <mergeCell ref="NS11:NS13"/>
+    <mergeCell ref="NT11:NT13"/>
+    <mergeCell ref="NK11:NK13"/>
+    <mergeCell ref="NL11:NL13"/>
+    <mergeCell ref="NM11:NM13"/>
+    <mergeCell ref="NN11:NN13"/>
+    <mergeCell ref="NO11:NO13"/>
+    <mergeCell ref="NF11:NF13"/>
+    <mergeCell ref="NG11:NG13"/>
+    <mergeCell ref="NH11:NH13"/>
+    <mergeCell ref="NI11:NI13"/>
+    <mergeCell ref="NJ11:NJ13"/>
+    <mergeCell ref="NA11:NA13"/>
+    <mergeCell ref="NB11:NB13"/>
+    <mergeCell ref="NC11:NC13"/>
+    <mergeCell ref="ND11:ND13"/>
+    <mergeCell ref="NE11:NE13"/>
+    <mergeCell ref="MV11:MV13"/>
+    <mergeCell ref="MW11:MW13"/>
+    <mergeCell ref="MX11:MX13"/>
+    <mergeCell ref="MY11:MY13"/>
+    <mergeCell ref="MZ11:MZ13"/>
+    <mergeCell ref="MQ11:MQ13"/>
+    <mergeCell ref="MR11:MR13"/>
+    <mergeCell ref="MS11:MS13"/>
+    <mergeCell ref="MT11:MT13"/>
+    <mergeCell ref="MU11:MU13"/>
+    <mergeCell ref="ML11:ML13"/>
+    <mergeCell ref="MM11:MM13"/>
+    <mergeCell ref="MN11:MN13"/>
+    <mergeCell ref="MO11:MO13"/>
+    <mergeCell ref="MP11:MP13"/>
+    <mergeCell ref="MG11:MG13"/>
+    <mergeCell ref="MH11:MH13"/>
+    <mergeCell ref="MI11:MI13"/>
+    <mergeCell ref="MJ11:MJ13"/>
+    <mergeCell ref="MK11:MK13"/>
+    <mergeCell ref="MB11:MB13"/>
+    <mergeCell ref="MC11:MC13"/>
+    <mergeCell ref="MD11:MD13"/>
+    <mergeCell ref="ME11:ME13"/>
+    <mergeCell ref="MF11:MF13"/>
+    <mergeCell ref="LW11:LW13"/>
+    <mergeCell ref="LX11:LX13"/>
+    <mergeCell ref="LY11:LY13"/>
+    <mergeCell ref="LZ11:LZ13"/>
+    <mergeCell ref="MA11:MA13"/>
+    <mergeCell ref="LR11:LR13"/>
+    <mergeCell ref="LS11:LS13"/>
+    <mergeCell ref="LT11:LT13"/>
+    <mergeCell ref="LU11:LU13"/>
+    <mergeCell ref="LV11:LV13"/>
+    <mergeCell ref="LM11:LM13"/>
+    <mergeCell ref="LN11:LN13"/>
+    <mergeCell ref="LO11:LO13"/>
+    <mergeCell ref="LP11:LP13"/>
+    <mergeCell ref="LQ11:LQ13"/>
+    <mergeCell ref="LH11:LH13"/>
+    <mergeCell ref="LI11:LI13"/>
+    <mergeCell ref="LJ11:LJ13"/>
+    <mergeCell ref="LK11:LK13"/>
+    <mergeCell ref="LL11:LL13"/>
+    <mergeCell ref="LC11:LC13"/>
+    <mergeCell ref="LD11:LD13"/>
+    <mergeCell ref="LE11:LE13"/>
+    <mergeCell ref="LF11:LF13"/>
+    <mergeCell ref="LG11:LG13"/>
+    <mergeCell ref="KX11:KX13"/>
+    <mergeCell ref="KY11:KY13"/>
+    <mergeCell ref="KZ11:KZ13"/>
+    <mergeCell ref="LA11:LA13"/>
+    <mergeCell ref="LB11:LB13"/>
+    <mergeCell ref="KS11:KS13"/>
+    <mergeCell ref="KT11:KT13"/>
+    <mergeCell ref="KU11:KU13"/>
+    <mergeCell ref="KV11:KV13"/>
+    <mergeCell ref="KW11:KW13"/>
+    <mergeCell ref="KN11:KN13"/>
+    <mergeCell ref="KO11:KO13"/>
+    <mergeCell ref="KP11:KP13"/>
+    <mergeCell ref="KQ11:KQ13"/>
+    <mergeCell ref="KR11:KR13"/>
+    <mergeCell ref="KI11:KI13"/>
+    <mergeCell ref="KJ11:KJ13"/>
+    <mergeCell ref="KK11:KK13"/>
+    <mergeCell ref="KL11:KL13"/>
+    <mergeCell ref="KM11:KM13"/>
+    <mergeCell ref="KD11:KD13"/>
+    <mergeCell ref="KE11:KE13"/>
+    <mergeCell ref="KF11:KF13"/>
+    <mergeCell ref="KG11:KG13"/>
+    <mergeCell ref="KH11:KH13"/>
+    <mergeCell ref="JY11:JY13"/>
+    <mergeCell ref="JZ11:JZ13"/>
+    <mergeCell ref="KA11:KA13"/>
+    <mergeCell ref="KB11:KB13"/>
+    <mergeCell ref="KC11:KC13"/>
+    <mergeCell ref="JT11:JT13"/>
+    <mergeCell ref="JU11:JU13"/>
+    <mergeCell ref="JV11:JV13"/>
+    <mergeCell ref="JW11:JW13"/>
+    <mergeCell ref="JX11:JX13"/>
+    <mergeCell ref="JO11:JO13"/>
+    <mergeCell ref="JP11:JP13"/>
+    <mergeCell ref="JQ11:JQ13"/>
+    <mergeCell ref="JR11:JR13"/>
+    <mergeCell ref="JS11:JS13"/>
+    <mergeCell ref="JJ11:JJ13"/>
+    <mergeCell ref="JK11:JK13"/>
+    <mergeCell ref="JL11:JL13"/>
+    <mergeCell ref="JM11:JM13"/>
+    <mergeCell ref="JN11:JN13"/>
+    <mergeCell ref="JE11:JE13"/>
+    <mergeCell ref="JF11:JF13"/>
+    <mergeCell ref="JG11:JG13"/>
+    <mergeCell ref="JH11:JH13"/>
+    <mergeCell ref="JI11:JI13"/>
+    <mergeCell ref="IZ11:IZ13"/>
+    <mergeCell ref="JA11:JA13"/>
+    <mergeCell ref="JB11:JB13"/>
+    <mergeCell ref="JC11:JC13"/>
+    <mergeCell ref="JD11:JD13"/>
+    <mergeCell ref="IU11:IU13"/>
+    <mergeCell ref="IV11:IV13"/>
+    <mergeCell ref="IW11:IW13"/>
+    <mergeCell ref="IX11:IX13"/>
+    <mergeCell ref="IY11:IY13"/>
+    <mergeCell ref="IP11:IP13"/>
+    <mergeCell ref="IQ11:IQ13"/>
+    <mergeCell ref="IR11:IR13"/>
+    <mergeCell ref="IS11:IS13"/>
+    <mergeCell ref="IT11:IT13"/>
+    <mergeCell ref="IK11:IK13"/>
+    <mergeCell ref="IL11:IL13"/>
+    <mergeCell ref="IM11:IM13"/>
+    <mergeCell ref="IN11:IN13"/>
+    <mergeCell ref="IO11:IO13"/>
+    <mergeCell ref="IF11:IF13"/>
+    <mergeCell ref="IG11:IG13"/>
+    <mergeCell ref="IH11:IH13"/>
+    <mergeCell ref="II11:II13"/>
+    <mergeCell ref="IJ11:IJ13"/>
+    <mergeCell ref="IA11:IA13"/>
+    <mergeCell ref="IB11:IB13"/>
+    <mergeCell ref="IC11:IC13"/>
+    <mergeCell ref="ID11:ID13"/>
+    <mergeCell ref="IE11:IE13"/>
+    <mergeCell ref="HV11:HV13"/>
+    <mergeCell ref="HW11:HW13"/>
+    <mergeCell ref="HX11:HX13"/>
+    <mergeCell ref="HY11:HY13"/>
+    <mergeCell ref="HZ11:HZ13"/>
+    <mergeCell ref="HQ11:HQ13"/>
+    <mergeCell ref="HR11:HR13"/>
+    <mergeCell ref="HS11:HS13"/>
+    <mergeCell ref="HT11:HT13"/>
+    <mergeCell ref="HU11:HU13"/>
+    <mergeCell ref="HL11:HL13"/>
+    <mergeCell ref="HM11:HM13"/>
+    <mergeCell ref="HN11:HN13"/>
+    <mergeCell ref="HO11:HO13"/>
+    <mergeCell ref="HP11:HP13"/>
+    <mergeCell ref="HG11:HG13"/>
+    <mergeCell ref="HH11:HH13"/>
+    <mergeCell ref="HI11:HI13"/>
+    <mergeCell ref="HJ11:HJ13"/>
+    <mergeCell ref="HK11:HK13"/>
+    <mergeCell ref="HB11:HB13"/>
+    <mergeCell ref="HC11:HC13"/>
+    <mergeCell ref="HD11:HD13"/>
+    <mergeCell ref="HE11:HE13"/>
+    <mergeCell ref="HF11:HF13"/>
+    <mergeCell ref="GW11:GW13"/>
+    <mergeCell ref="GX11:GX13"/>
+    <mergeCell ref="GY11:GY13"/>
+    <mergeCell ref="GZ11:GZ13"/>
+    <mergeCell ref="HA11:HA13"/>
+    <mergeCell ref="GR11:GR13"/>
+    <mergeCell ref="GS11:GS13"/>
+    <mergeCell ref="GT11:GT13"/>
+    <mergeCell ref="GU11:GU13"/>
+    <mergeCell ref="GV11:GV13"/>
+    <mergeCell ref="GM11:GM13"/>
+    <mergeCell ref="GN11:GN13"/>
+    <mergeCell ref="GO11:GO13"/>
+    <mergeCell ref="GP11:GP13"/>
+    <mergeCell ref="GQ11:GQ13"/>
+    <mergeCell ref="GH11:GH13"/>
+    <mergeCell ref="GI11:GI13"/>
+    <mergeCell ref="GJ11:GJ13"/>
+    <mergeCell ref="GK11:GK13"/>
+    <mergeCell ref="GL11:GL13"/>
+    <mergeCell ref="GC11:GC13"/>
+    <mergeCell ref="GD11:GD13"/>
+    <mergeCell ref="GE11:GE13"/>
+    <mergeCell ref="GF11:GF13"/>
+    <mergeCell ref="GG11:GG13"/>
+    <mergeCell ref="FX11:FX13"/>
+    <mergeCell ref="FY11:FY13"/>
+    <mergeCell ref="FZ11:FZ13"/>
+    <mergeCell ref="GA11:GA13"/>
+    <mergeCell ref="GB11:GB13"/>
+    <mergeCell ref="FS11:FS13"/>
+    <mergeCell ref="FT11:FT13"/>
+    <mergeCell ref="FU11:FU13"/>
+    <mergeCell ref="FV11:FV13"/>
+    <mergeCell ref="FW11:FW13"/>
+    <mergeCell ref="FN11:FN13"/>
+    <mergeCell ref="FO11:FO13"/>
+    <mergeCell ref="FP11:FP13"/>
+    <mergeCell ref="FQ11:FQ13"/>
+    <mergeCell ref="FR11:FR13"/>
+    <mergeCell ref="FI11:FI13"/>
+    <mergeCell ref="FJ11:FJ13"/>
+    <mergeCell ref="FK11:FK13"/>
+    <mergeCell ref="FL11:FL13"/>
+    <mergeCell ref="FM11:FM13"/>
+    <mergeCell ref="FD11:FD13"/>
+    <mergeCell ref="FE11:FE13"/>
+    <mergeCell ref="FF11:FF13"/>
+    <mergeCell ref="FG11:FG13"/>
+    <mergeCell ref="FH11:FH13"/>
+    <mergeCell ref="EY11:EY13"/>
+    <mergeCell ref="EZ11:EZ13"/>
+    <mergeCell ref="FA11:FA13"/>
+    <mergeCell ref="FB11:FB13"/>
+    <mergeCell ref="FC11:FC13"/>
+    <mergeCell ref="ET11:ET13"/>
+    <mergeCell ref="EU11:EU13"/>
+    <mergeCell ref="EV11:EV13"/>
+    <mergeCell ref="EW11:EW13"/>
+    <mergeCell ref="EX11:EX13"/>
+    <mergeCell ref="EO11:EO13"/>
+    <mergeCell ref="EP11:EP13"/>
+    <mergeCell ref="EQ11:EQ13"/>
+    <mergeCell ref="ER11:ER13"/>
+    <mergeCell ref="ES11:ES13"/>
+    <mergeCell ref="EJ11:EJ13"/>
+    <mergeCell ref="EK11:EK13"/>
+    <mergeCell ref="EL11:EL13"/>
+    <mergeCell ref="EM11:EM13"/>
+    <mergeCell ref="EN11:EN13"/>
+    <mergeCell ref="EE11:EE13"/>
+    <mergeCell ref="EF11:EF13"/>
+    <mergeCell ref="EG11:EG13"/>
+    <mergeCell ref="EH11:EH13"/>
+    <mergeCell ref="EI11:EI13"/>
+    <mergeCell ref="DZ11:DZ13"/>
+    <mergeCell ref="EA11:EA13"/>
+    <mergeCell ref="EB11:EB13"/>
+    <mergeCell ref="EC11:EC13"/>
+    <mergeCell ref="ED11:ED13"/>
+    <mergeCell ref="DU11:DU13"/>
+    <mergeCell ref="DV11:DV13"/>
+    <mergeCell ref="DW11:DW13"/>
+    <mergeCell ref="DX11:DX13"/>
+    <mergeCell ref="DY11:DY13"/>
+    <mergeCell ref="DP11:DP13"/>
+    <mergeCell ref="DQ11:DQ13"/>
+    <mergeCell ref="DR11:DR13"/>
+    <mergeCell ref="DS11:DS13"/>
+    <mergeCell ref="DT11:DT13"/>
+    <mergeCell ref="DK11:DK13"/>
+    <mergeCell ref="DL11:DL13"/>
+    <mergeCell ref="DM11:DM13"/>
+    <mergeCell ref="DN11:DN13"/>
+    <mergeCell ref="DO11:DO13"/>
+    <mergeCell ref="DF11:DF13"/>
+    <mergeCell ref="DG11:DG13"/>
+    <mergeCell ref="DH11:DH13"/>
+    <mergeCell ref="DI11:DI13"/>
+    <mergeCell ref="DJ11:DJ13"/>
+    <mergeCell ref="DA11:DA13"/>
+    <mergeCell ref="DB11:DB13"/>
+    <mergeCell ref="DC11:DC13"/>
+    <mergeCell ref="DD11:DD13"/>
+    <mergeCell ref="DE11:DE13"/>
+    <mergeCell ref="CV11:CV13"/>
+    <mergeCell ref="CW11:CW13"/>
+    <mergeCell ref="CX11:CX13"/>
+    <mergeCell ref="CY11:CY13"/>
+    <mergeCell ref="CZ11:CZ13"/>
+    <mergeCell ref="CQ11:CQ13"/>
+    <mergeCell ref="CR11:CR13"/>
+    <mergeCell ref="CS11:CS13"/>
+    <mergeCell ref="CT11:CT13"/>
+    <mergeCell ref="CU11:CU13"/>
+    <mergeCell ref="CL11:CL13"/>
+    <mergeCell ref="CM11:CM13"/>
+    <mergeCell ref="CN11:CN13"/>
+    <mergeCell ref="CO11:CO13"/>
+    <mergeCell ref="CP11:CP13"/>
+    <mergeCell ref="CG11:CG13"/>
+    <mergeCell ref="CH11:CH13"/>
+    <mergeCell ref="CI11:CI13"/>
+    <mergeCell ref="CJ11:CJ13"/>
+    <mergeCell ref="CK11:CK13"/>
+    <mergeCell ref="CB11:CB13"/>
+    <mergeCell ref="CC11:CC13"/>
+    <mergeCell ref="CD11:CD13"/>
+    <mergeCell ref="CE11:CE13"/>
+    <mergeCell ref="CF11:CF13"/>
+    <mergeCell ref="BW11:BW13"/>
+    <mergeCell ref="BX11:BX13"/>
+    <mergeCell ref="BY11:BY13"/>
+    <mergeCell ref="BZ11:BZ13"/>
+    <mergeCell ref="CA11:CA13"/>
+    <mergeCell ref="BR11:BR13"/>
+    <mergeCell ref="BS11:BS13"/>
+    <mergeCell ref="BT11:BT13"/>
+    <mergeCell ref="BU11:BU13"/>
+    <mergeCell ref="BV11:BV13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="B1:T3"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="BK11:BK13"/>
+    <mergeCell ref="BG11:BG13"/>
+    <mergeCell ref="BH11:BH13"/>
+    <mergeCell ref="BI11:BI13"/>
+    <mergeCell ref="BJ11:BJ13"/>
+    <mergeCell ref="BA11:BA13"/>
+    <mergeCell ref="BB11:BB13"/>
+    <mergeCell ref="BC11:BC13"/>
+    <mergeCell ref="BD11:BD13"/>
+    <mergeCell ref="BE11:BE13"/>
+    <mergeCell ref="BF11:BF13"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="AT11:AT13"/>
     <mergeCell ref="NZ11:NZ13"/>
     <mergeCell ref="OA11:OA13"/>
     <mergeCell ref="OB11:OB13"/>
@@ -56819,378 +57191,6 @@
     <mergeCell ref="AI11:AI13"/>
     <mergeCell ref="AJ11:AJ13"/>
     <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="B1:T3"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="BK11:BK13"/>
-    <mergeCell ref="BG11:BG13"/>
-    <mergeCell ref="BH11:BH13"/>
-    <mergeCell ref="BI11:BI13"/>
-    <mergeCell ref="BJ11:BJ13"/>
-    <mergeCell ref="BA11:BA13"/>
-    <mergeCell ref="BB11:BB13"/>
-    <mergeCell ref="BC11:BC13"/>
-    <mergeCell ref="BD11:BD13"/>
-    <mergeCell ref="BE11:BE13"/>
-    <mergeCell ref="BF11:BF13"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="BW11:BW13"/>
-    <mergeCell ref="BX11:BX13"/>
-    <mergeCell ref="BY11:BY13"/>
-    <mergeCell ref="BZ11:BZ13"/>
-    <mergeCell ref="CA11:CA13"/>
-    <mergeCell ref="BR11:BR13"/>
-    <mergeCell ref="BS11:BS13"/>
-    <mergeCell ref="BT11:BT13"/>
-    <mergeCell ref="BU11:BU13"/>
-    <mergeCell ref="BV11:BV13"/>
-    <mergeCell ref="CG11:CG13"/>
-    <mergeCell ref="CH11:CH13"/>
-    <mergeCell ref="CI11:CI13"/>
-    <mergeCell ref="CJ11:CJ13"/>
-    <mergeCell ref="CK11:CK13"/>
-    <mergeCell ref="CB11:CB13"/>
-    <mergeCell ref="CC11:CC13"/>
-    <mergeCell ref="CD11:CD13"/>
-    <mergeCell ref="CE11:CE13"/>
-    <mergeCell ref="CF11:CF13"/>
-    <mergeCell ref="CQ11:CQ13"/>
-    <mergeCell ref="CR11:CR13"/>
-    <mergeCell ref="CS11:CS13"/>
-    <mergeCell ref="CT11:CT13"/>
-    <mergeCell ref="CU11:CU13"/>
-    <mergeCell ref="CL11:CL13"/>
-    <mergeCell ref="CM11:CM13"/>
-    <mergeCell ref="CN11:CN13"/>
-    <mergeCell ref="CO11:CO13"/>
-    <mergeCell ref="CP11:CP13"/>
-    <mergeCell ref="DA11:DA13"/>
-    <mergeCell ref="DB11:DB13"/>
-    <mergeCell ref="DC11:DC13"/>
-    <mergeCell ref="DD11:DD13"/>
-    <mergeCell ref="DE11:DE13"/>
-    <mergeCell ref="CV11:CV13"/>
-    <mergeCell ref="CW11:CW13"/>
-    <mergeCell ref="CX11:CX13"/>
-    <mergeCell ref="CY11:CY13"/>
-    <mergeCell ref="CZ11:CZ13"/>
-    <mergeCell ref="DK11:DK13"/>
-    <mergeCell ref="DL11:DL13"/>
-    <mergeCell ref="DM11:DM13"/>
-    <mergeCell ref="DN11:DN13"/>
-    <mergeCell ref="DO11:DO13"/>
-    <mergeCell ref="DF11:DF13"/>
-    <mergeCell ref="DG11:DG13"/>
-    <mergeCell ref="DH11:DH13"/>
-    <mergeCell ref="DI11:DI13"/>
-    <mergeCell ref="DJ11:DJ13"/>
-    <mergeCell ref="DU11:DU13"/>
-    <mergeCell ref="DV11:DV13"/>
-    <mergeCell ref="DW11:DW13"/>
-    <mergeCell ref="DX11:DX13"/>
-    <mergeCell ref="DY11:DY13"/>
-    <mergeCell ref="DP11:DP13"/>
-    <mergeCell ref="DQ11:DQ13"/>
-    <mergeCell ref="DR11:DR13"/>
-    <mergeCell ref="DS11:DS13"/>
-    <mergeCell ref="DT11:DT13"/>
-    <mergeCell ref="EE11:EE13"/>
-    <mergeCell ref="EF11:EF13"/>
-    <mergeCell ref="EG11:EG13"/>
-    <mergeCell ref="EH11:EH13"/>
-    <mergeCell ref="EI11:EI13"/>
-    <mergeCell ref="DZ11:DZ13"/>
-    <mergeCell ref="EA11:EA13"/>
-    <mergeCell ref="EB11:EB13"/>
-    <mergeCell ref="EC11:EC13"/>
-    <mergeCell ref="ED11:ED13"/>
-    <mergeCell ref="EO11:EO13"/>
-    <mergeCell ref="EP11:EP13"/>
-    <mergeCell ref="EQ11:EQ13"/>
-    <mergeCell ref="ER11:ER13"/>
-    <mergeCell ref="ES11:ES13"/>
-    <mergeCell ref="EJ11:EJ13"/>
-    <mergeCell ref="EK11:EK13"/>
-    <mergeCell ref="EL11:EL13"/>
-    <mergeCell ref="EM11:EM13"/>
-    <mergeCell ref="EN11:EN13"/>
-    <mergeCell ref="EY11:EY13"/>
-    <mergeCell ref="EZ11:EZ13"/>
-    <mergeCell ref="FA11:FA13"/>
-    <mergeCell ref="FB11:FB13"/>
-    <mergeCell ref="FC11:FC13"/>
-    <mergeCell ref="ET11:ET13"/>
-    <mergeCell ref="EU11:EU13"/>
-    <mergeCell ref="EV11:EV13"/>
-    <mergeCell ref="EW11:EW13"/>
-    <mergeCell ref="EX11:EX13"/>
-    <mergeCell ref="FI11:FI13"/>
-    <mergeCell ref="FJ11:FJ13"/>
-    <mergeCell ref="FK11:FK13"/>
-    <mergeCell ref="FL11:FL13"/>
-    <mergeCell ref="FM11:FM13"/>
-    <mergeCell ref="FD11:FD13"/>
-    <mergeCell ref="FE11:FE13"/>
-    <mergeCell ref="FF11:FF13"/>
-    <mergeCell ref="FG11:FG13"/>
-    <mergeCell ref="FH11:FH13"/>
-    <mergeCell ref="FS11:FS13"/>
-    <mergeCell ref="FT11:FT13"/>
-    <mergeCell ref="FU11:FU13"/>
-    <mergeCell ref="FV11:FV13"/>
-    <mergeCell ref="FW11:FW13"/>
-    <mergeCell ref="FN11:FN13"/>
-    <mergeCell ref="FO11:FO13"/>
-    <mergeCell ref="FP11:FP13"/>
-    <mergeCell ref="FQ11:FQ13"/>
-    <mergeCell ref="FR11:FR13"/>
-    <mergeCell ref="GC11:GC13"/>
-    <mergeCell ref="GD11:GD13"/>
-    <mergeCell ref="GE11:GE13"/>
-    <mergeCell ref="GF11:GF13"/>
-    <mergeCell ref="GG11:GG13"/>
-    <mergeCell ref="FX11:FX13"/>
-    <mergeCell ref="FY11:FY13"/>
-    <mergeCell ref="FZ11:FZ13"/>
-    <mergeCell ref="GA11:GA13"/>
-    <mergeCell ref="GB11:GB13"/>
-    <mergeCell ref="GM11:GM13"/>
-    <mergeCell ref="GN11:GN13"/>
-    <mergeCell ref="GO11:GO13"/>
-    <mergeCell ref="GP11:GP13"/>
-    <mergeCell ref="GQ11:GQ13"/>
-    <mergeCell ref="GH11:GH13"/>
-    <mergeCell ref="GI11:GI13"/>
-    <mergeCell ref="GJ11:GJ13"/>
-    <mergeCell ref="GK11:GK13"/>
-    <mergeCell ref="GL11:GL13"/>
-    <mergeCell ref="GW11:GW13"/>
-    <mergeCell ref="GX11:GX13"/>
-    <mergeCell ref="GY11:GY13"/>
-    <mergeCell ref="GZ11:GZ13"/>
-    <mergeCell ref="HA11:HA13"/>
-    <mergeCell ref="GR11:GR13"/>
-    <mergeCell ref="GS11:GS13"/>
-    <mergeCell ref="GT11:GT13"/>
-    <mergeCell ref="GU11:GU13"/>
-    <mergeCell ref="GV11:GV13"/>
-    <mergeCell ref="HG11:HG13"/>
-    <mergeCell ref="HH11:HH13"/>
-    <mergeCell ref="HI11:HI13"/>
-    <mergeCell ref="HJ11:HJ13"/>
-    <mergeCell ref="HK11:HK13"/>
-    <mergeCell ref="HB11:HB13"/>
-    <mergeCell ref="HC11:HC13"/>
-    <mergeCell ref="HD11:HD13"/>
-    <mergeCell ref="HE11:HE13"/>
-    <mergeCell ref="HF11:HF13"/>
-    <mergeCell ref="HQ11:HQ13"/>
-    <mergeCell ref="HR11:HR13"/>
-    <mergeCell ref="HS11:HS13"/>
-    <mergeCell ref="HT11:HT13"/>
-    <mergeCell ref="HU11:HU13"/>
-    <mergeCell ref="HL11:HL13"/>
-    <mergeCell ref="HM11:HM13"/>
-    <mergeCell ref="HN11:HN13"/>
-    <mergeCell ref="HO11:HO13"/>
-    <mergeCell ref="HP11:HP13"/>
-    <mergeCell ref="IA11:IA13"/>
-    <mergeCell ref="IB11:IB13"/>
-    <mergeCell ref="IC11:IC13"/>
-    <mergeCell ref="ID11:ID13"/>
-    <mergeCell ref="IE11:IE13"/>
-    <mergeCell ref="HV11:HV13"/>
-    <mergeCell ref="HW11:HW13"/>
-    <mergeCell ref="HX11:HX13"/>
-    <mergeCell ref="HY11:HY13"/>
-    <mergeCell ref="HZ11:HZ13"/>
-    <mergeCell ref="IK11:IK13"/>
-    <mergeCell ref="IL11:IL13"/>
-    <mergeCell ref="IM11:IM13"/>
-    <mergeCell ref="IN11:IN13"/>
-    <mergeCell ref="IO11:IO13"/>
-    <mergeCell ref="IF11:IF13"/>
-    <mergeCell ref="IG11:IG13"/>
-    <mergeCell ref="IH11:IH13"/>
-    <mergeCell ref="II11:II13"/>
-    <mergeCell ref="IJ11:IJ13"/>
-    <mergeCell ref="IU11:IU13"/>
-    <mergeCell ref="IV11:IV13"/>
-    <mergeCell ref="IW11:IW13"/>
-    <mergeCell ref="IX11:IX13"/>
-    <mergeCell ref="IY11:IY13"/>
-    <mergeCell ref="IP11:IP13"/>
-    <mergeCell ref="IQ11:IQ13"/>
-    <mergeCell ref="IR11:IR13"/>
-    <mergeCell ref="IS11:IS13"/>
-    <mergeCell ref="IT11:IT13"/>
-    <mergeCell ref="JE11:JE13"/>
-    <mergeCell ref="JF11:JF13"/>
-    <mergeCell ref="JG11:JG13"/>
-    <mergeCell ref="JH11:JH13"/>
-    <mergeCell ref="JI11:JI13"/>
-    <mergeCell ref="IZ11:IZ13"/>
-    <mergeCell ref="JA11:JA13"/>
-    <mergeCell ref="JB11:JB13"/>
-    <mergeCell ref="JC11:JC13"/>
-    <mergeCell ref="JD11:JD13"/>
-    <mergeCell ref="JO11:JO13"/>
-    <mergeCell ref="JP11:JP13"/>
-    <mergeCell ref="JQ11:JQ13"/>
-    <mergeCell ref="JR11:JR13"/>
-    <mergeCell ref="JS11:JS13"/>
-    <mergeCell ref="JJ11:JJ13"/>
-    <mergeCell ref="JK11:JK13"/>
-    <mergeCell ref="JL11:JL13"/>
-    <mergeCell ref="JM11:JM13"/>
-    <mergeCell ref="JN11:JN13"/>
-    <mergeCell ref="JY11:JY13"/>
-    <mergeCell ref="JZ11:JZ13"/>
-    <mergeCell ref="KA11:KA13"/>
-    <mergeCell ref="KB11:KB13"/>
-    <mergeCell ref="KC11:KC13"/>
-    <mergeCell ref="JT11:JT13"/>
-    <mergeCell ref="JU11:JU13"/>
-    <mergeCell ref="JV11:JV13"/>
-    <mergeCell ref="JW11:JW13"/>
-    <mergeCell ref="JX11:JX13"/>
-    <mergeCell ref="KI11:KI13"/>
-    <mergeCell ref="KJ11:KJ13"/>
-    <mergeCell ref="KK11:KK13"/>
-    <mergeCell ref="KL11:KL13"/>
-    <mergeCell ref="KM11:KM13"/>
-    <mergeCell ref="KD11:KD13"/>
-    <mergeCell ref="KE11:KE13"/>
-    <mergeCell ref="KF11:KF13"/>
-    <mergeCell ref="KG11:KG13"/>
-    <mergeCell ref="KH11:KH13"/>
-    <mergeCell ref="KS11:KS13"/>
-    <mergeCell ref="KT11:KT13"/>
-    <mergeCell ref="KU11:KU13"/>
-    <mergeCell ref="KV11:KV13"/>
-    <mergeCell ref="KW11:KW13"/>
-    <mergeCell ref="KN11:KN13"/>
-    <mergeCell ref="KO11:KO13"/>
-    <mergeCell ref="KP11:KP13"/>
-    <mergeCell ref="KQ11:KQ13"/>
-    <mergeCell ref="KR11:KR13"/>
-    <mergeCell ref="LC11:LC13"/>
-    <mergeCell ref="LD11:LD13"/>
-    <mergeCell ref="LE11:LE13"/>
-    <mergeCell ref="LF11:LF13"/>
-    <mergeCell ref="LG11:LG13"/>
-    <mergeCell ref="KX11:KX13"/>
-    <mergeCell ref="KY11:KY13"/>
-    <mergeCell ref="KZ11:KZ13"/>
-    <mergeCell ref="LA11:LA13"/>
-    <mergeCell ref="LB11:LB13"/>
-    <mergeCell ref="LM11:LM13"/>
-    <mergeCell ref="LN11:LN13"/>
-    <mergeCell ref="LO11:LO13"/>
-    <mergeCell ref="LP11:LP13"/>
-    <mergeCell ref="LQ11:LQ13"/>
-    <mergeCell ref="LH11:LH13"/>
-    <mergeCell ref="LI11:LI13"/>
-    <mergeCell ref="LJ11:LJ13"/>
-    <mergeCell ref="LK11:LK13"/>
-    <mergeCell ref="LL11:LL13"/>
-    <mergeCell ref="LW11:LW13"/>
-    <mergeCell ref="LX11:LX13"/>
-    <mergeCell ref="LY11:LY13"/>
-    <mergeCell ref="LZ11:LZ13"/>
-    <mergeCell ref="MA11:MA13"/>
-    <mergeCell ref="LR11:LR13"/>
-    <mergeCell ref="LS11:LS13"/>
-    <mergeCell ref="LT11:LT13"/>
-    <mergeCell ref="LU11:LU13"/>
-    <mergeCell ref="LV11:LV13"/>
-    <mergeCell ref="MG11:MG13"/>
-    <mergeCell ref="MH11:MH13"/>
-    <mergeCell ref="MI11:MI13"/>
-    <mergeCell ref="MJ11:MJ13"/>
-    <mergeCell ref="MK11:MK13"/>
-    <mergeCell ref="MB11:MB13"/>
-    <mergeCell ref="MC11:MC13"/>
-    <mergeCell ref="MD11:MD13"/>
-    <mergeCell ref="ME11:ME13"/>
-    <mergeCell ref="MF11:MF13"/>
-    <mergeCell ref="MQ11:MQ13"/>
-    <mergeCell ref="MR11:MR13"/>
-    <mergeCell ref="MS11:MS13"/>
-    <mergeCell ref="MT11:MT13"/>
-    <mergeCell ref="MU11:MU13"/>
-    <mergeCell ref="ML11:ML13"/>
-    <mergeCell ref="MM11:MM13"/>
-    <mergeCell ref="MN11:MN13"/>
-    <mergeCell ref="MO11:MO13"/>
-    <mergeCell ref="MP11:MP13"/>
-    <mergeCell ref="NA11:NA13"/>
-    <mergeCell ref="NB11:NB13"/>
-    <mergeCell ref="NC11:NC13"/>
-    <mergeCell ref="ND11:ND13"/>
-    <mergeCell ref="NE11:NE13"/>
-    <mergeCell ref="MV11:MV13"/>
-    <mergeCell ref="MW11:MW13"/>
-    <mergeCell ref="MX11:MX13"/>
-    <mergeCell ref="MY11:MY13"/>
-    <mergeCell ref="MZ11:MZ13"/>
-    <mergeCell ref="NK11:NK13"/>
-    <mergeCell ref="NL11:NL13"/>
-    <mergeCell ref="NM11:NM13"/>
-    <mergeCell ref="NN11:NN13"/>
-    <mergeCell ref="NO11:NO13"/>
-    <mergeCell ref="NF11:NF13"/>
-    <mergeCell ref="NG11:NG13"/>
-    <mergeCell ref="NH11:NH13"/>
-    <mergeCell ref="NI11:NI13"/>
-    <mergeCell ref="NJ11:NJ13"/>
-    <mergeCell ref="NU11:NU13"/>
-    <mergeCell ref="NV11:NV13"/>
-    <mergeCell ref="NW11:NW13"/>
-    <mergeCell ref="NX11:NX13"/>
-    <mergeCell ref="NY11:NY13"/>
-    <mergeCell ref="NP11:NP13"/>
-    <mergeCell ref="NQ11:NQ13"/>
-    <mergeCell ref="NR11:NR13"/>
-    <mergeCell ref="NS11:NS13"/>
-    <mergeCell ref="NT11:NT13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:OD49">

--- a/Ultimate Excel Gantt Chart 1 year.xlsx
+++ b/Ultimate Excel Gantt Chart 1 year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBACBF-C401-4731-A672-224F31358AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD2F379-B53C-41DA-9CAD-46E24CC2520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
+    <workbookView xWindow="28680" yWindow="-2460" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -522,12 +522,6 @@
     <t>Team Roles</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>Credit to original developer.</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>Tasks/Stages/Projects</t>
+  </si>
+  <si>
+    <t>◁</t>
+  </si>
+  <si>
+    <t>▷</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1413,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1736,14 +1736,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1766,6 +1763,9 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1832,6 +1832,9 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2624,15 +2627,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3080,8 +3083,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AI450"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3115,71 +3118,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="73" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
     </row>
     <row r="2" spans="2:35" s="73" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="P2" s="128" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="P2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="129"/>
+      <c r="Q2" s="128"/>
     </row>
     <row r="3" spans="2:35" s="74" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="G6" s="126" t="s">
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="G6" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="M6" s="126" t="s">
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="M6" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="S6" s="126" t="s">
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="S6" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="X6" s="126" t="s">
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="X6" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AG6" s="126" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AG6" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="76"/>
@@ -3258,7 +3261,7 @@
       <c r="AE8" s="80"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI8" s="77"/>
     </row>
@@ -3961,7 +3964,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M24" s="76"/>
       <c r="N24" s="94"/>
@@ -10281,9 +10284,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:OE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM40" sqref="AM40"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -10622,15 +10625,18 @@
       <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="X7" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC7" s="154" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:394" x14ac:dyDescent="0.3">
-      <c r="X8" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA8" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB8" s="123"/>
+      <c r="X8" s="131"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="154"/>
     </row>
     <row r="9" spans="1:394" ht="4.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
@@ -12151,1487 +12157,1487 @@
       <c r="W11" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="131" cm="1">
+      <c r="X11" s="130" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">timeline_start+scroll_increment</f>
         <v>44326</v>
       </c>
-      <c r="Y11" s="131">
+      <c r="Y11" s="130">
         <f ca="1">X11+1</f>
         <v>44327</v>
       </c>
-      <c r="Z11" s="131">
+      <c r="Z11" s="130">
         <f t="shared" ref="Z11:CK11" ca="1" si="8">Y11+1</f>
         <v>44328</v>
       </c>
-      <c r="AA11" s="131">
+      <c r="AA11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44329</v>
       </c>
-      <c r="AB11" s="131">
+      <c r="AB11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44330</v>
       </c>
-      <c r="AC11" s="131">
+      <c r="AC11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44331</v>
       </c>
-      <c r="AD11" s="131">
+      <c r="AD11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44332</v>
       </c>
-      <c r="AE11" s="131">
+      <c r="AE11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44333</v>
       </c>
-      <c r="AF11" s="131">
+      <c r="AF11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44334</v>
       </c>
-      <c r="AG11" s="131">
+      <c r="AG11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44335</v>
       </c>
-      <c r="AH11" s="131">
+      <c r="AH11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44336</v>
       </c>
-      <c r="AI11" s="131">
+      <c r="AI11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44337</v>
       </c>
-      <c r="AJ11" s="131">
+      <c r="AJ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44338</v>
       </c>
-      <c r="AK11" s="131">
+      <c r="AK11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44339</v>
       </c>
-      <c r="AL11" s="131">
+      <c r="AL11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44340</v>
       </c>
-      <c r="AM11" s="131">
+      <c r="AM11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44341</v>
       </c>
-      <c r="AN11" s="131">
+      <c r="AN11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44342</v>
       </c>
-      <c r="AO11" s="131">
+      <c r="AO11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44343</v>
       </c>
-      <c r="AP11" s="131">
+      <c r="AP11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44344</v>
       </c>
-      <c r="AQ11" s="131">
+      <c r="AQ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44345</v>
       </c>
-      <c r="AR11" s="131">
+      <c r="AR11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44346</v>
       </c>
-      <c r="AS11" s="131">
+      <c r="AS11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44347</v>
       </c>
-      <c r="AT11" s="131">
+      <c r="AT11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44348</v>
       </c>
-      <c r="AU11" s="131">
+      <c r="AU11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44349</v>
       </c>
-      <c r="AV11" s="131">
+      <c r="AV11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44350</v>
       </c>
-      <c r="AW11" s="131">
+      <c r="AW11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44351</v>
       </c>
-      <c r="AX11" s="131">
+      <c r="AX11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44352</v>
       </c>
-      <c r="AY11" s="131">
+      <c r="AY11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44353</v>
       </c>
-      <c r="AZ11" s="131">
+      <c r="AZ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44354</v>
       </c>
-      <c r="BA11" s="131">
+      <c r="BA11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44355</v>
       </c>
-      <c r="BB11" s="131">
+      <c r="BB11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44356</v>
       </c>
-      <c r="BC11" s="131">
+      <c r="BC11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44357</v>
       </c>
-      <c r="BD11" s="131">
+      <c r="BD11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44358</v>
       </c>
-      <c r="BE11" s="131">
+      <c r="BE11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44359</v>
       </c>
-      <c r="BF11" s="131">
+      <c r="BF11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44360</v>
       </c>
-      <c r="BG11" s="131">
+      <c r="BG11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44361</v>
       </c>
-      <c r="BH11" s="131">
+      <c r="BH11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44362</v>
       </c>
-      <c r="BI11" s="131">
+      <c r="BI11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44363</v>
       </c>
-      <c r="BJ11" s="131">
+      <c r="BJ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44364</v>
       </c>
-      <c r="BK11" s="131">
+      <c r="BK11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44365</v>
       </c>
-      <c r="BL11" s="131">
+      <c r="BL11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44366</v>
       </c>
-      <c r="BM11" s="131">
+      <c r="BM11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44367</v>
       </c>
-      <c r="BN11" s="131">
+      <c r="BN11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44368</v>
       </c>
-      <c r="BO11" s="131">
+      <c r="BO11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44369</v>
       </c>
-      <c r="BP11" s="131">
+      <c r="BP11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44370</v>
       </c>
-      <c r="BQ11" s="131">
+      <c r="BQ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44371</v>
       </c>
-      <c r="BR11" s="131">
+      <c r="BR11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44372</v>
       </c>
-      <c r="BS11" s="131">
+      <c r="BS11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44373</v>
       </c>
-      <c r="BT11" s="131">
+      <c r="BT11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44374</v>
       </c>
-      <c r="BU11" s="131">
+      <c r="BU11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44375</v>
       </c>
-      <c r="BV11" s="131">
+      <c r="BV11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44376</v>
       </c>
-      <c r="BW11" s="131">
+      <c r="BW11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44377</v>
       </c>
-      <c r="BX11" s="131">
+      <c r="BX11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44378</v>
       </c>
-      <c r="BY11" s="131">
+      <c r="BY11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44379</v>
       </c>
-      <c r="BZ11" s="131">
+      <c r="BZ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44380</v>
       </c>
-      <c r="CA11" s="131">
+      <c r="CA11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44381</v>
       </c>
-      <c r="CB11" s="131">
+      <c r="CB11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44382</v>
       </c>
-      <c r="CC11" s="131">
+      <c r="CC11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44383</v>
       </c>
-      <c r="CD11" s="131">
+      <c r="CD11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44384</v>
       </c>
-      <c r="CE11" s="131">
+      <c r="CE11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44385</v>
       </c>
-      <c r="CF11" s="131">
+      <c r="CF11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44386</v>
       </c>
-      <c r="CG11" s="131">
+      <c r="CG11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44387</v>
       </c>
-      <c r="CH11" s="131">
+      <c r="CH11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44388</v>
       </c>
-      <c r="CI11" s="131">
+      <c r="CI11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44389</v>
       </c>
-      <c r="CJ11" s="131">
+      <c r="CJ11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44390</v>
       </c>
-      <c r="CK11" s="131">
+      <c r="CK11" s="130">
         <f t="shared" ca="1" si="8"/>
         <v>44391</v>
       </c>
-      <c r="CL11" s="131">
+      <c r="CL11" s="130">
         <f t="shared" ref="CL11:EW11" ca="1" si="9">CK11+1</f>
         <v>44392</v>
       </c>
-      <c r="CM11" s="131">
+      <c r="CM11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44393</v>
       </c>
-      <c r="CN11" s="131">
+      <c r="CN11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44394</v>
       </c>
-      <c r="CO11" s="131">
+      <c r="CO11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44395</v>
       </c>
-      <c r="CP11" s="131">
+      <c r="CP11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44396</v>
       </c>
-      <c r="CQ11" s="131">
+      <c r="CQ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44397</v>
       </c>
-      <c r="CR11" s="131">
+      <c r="CR11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44398</v>
       </c>
-      <c r="CS11" s="131">
+      <c r="CS11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44399</v>
       </c>
-      <c r="CT11" s="131">
+      <c r="CT11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44400</v>
       </c>
-      <c r="CU11" s="131">
+      <c r="CU11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44401</v>
       </c>
-      <c r="CV11" s="131">
+      <c r="CV11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44402</v>
       </c>
-      <c r="CW11" s="131">
+      <c r="CW11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44403</v>
       </c>
-      <c r="CX11" s="131">
+      <c r="CX11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44404</v>
       </c>
-      <c r="CY11" s="131">
+      <c r="CY11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44405</v>
       </c>
-      <c r="CZ11" s="131">
+      <c r="CZ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44406</v>
       </c>
-      <c r="DA11" s="131">
+      <c r="DA11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44407</v>
       </c>
-      <c r="DB11" s="131">
+      <c r="DB11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44408</v>
       </c>
-      <c r="DC11" s="131">
+      <c r="DC11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44409</v>
       </c>
-      <c r="DD11" s="131">
+      <c r="DD11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44410</v>
       </c>
-      <c r="DE11" s="131">
+      <c r="DE11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44411</v>
       </c>
-      <c r="DF11" s="131">
+      <c r="DF11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44412</v>
       </c>
-      <c r="DG11" s="131">
+      <c r="DG11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44413</v>
       </c>
-      <c r="DH11" s="131">
+      <c r="DH11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44414</v>
       </c>
-      <c r="DI11" s="131">
+      <c r="DI11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44415</v>
       </c>
-      <c r="DJ11" s="131">
+      <c r="DJ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44416</v>
       </c>
-      <c r="DK11" s="131">
+      <c r="DK11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44417</v>
       </c>
-      <c r="DL11" s="131">
+      <c r="DL11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44418</v>
       </c>
-      <c r="DM11" s="131">
+      <c r="DM11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44419</v>
       </c>
-      <c r="DN11" s="131">
+      <c r="DN11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44420</v>
       </c>
-      <c r="DO11" s="131">
+      <c r="DO11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44421</v>
       </c>
-      <c r="DP11" s="131">
+      <c r="DP11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44422</v>
       </c>
-      <c r="DQ11" s="131">
+      <c r="DQ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44423</v>
       </c>
-      <c r="DR11" s="131">
+      <c r="DR11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44424</v>
       </c>
-      <c r="DS11" s="131">
+      <c r="DS11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44425</v>
       </c>
-      <c r="DT11" s="131">
+      <c r="DT11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44426</v>
       </c>
-      <c r="DU11" s="131">
+      <c r="DU11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44427</v>
       </c>
-      <c r="DV11" s="131">
+      <c r="DV11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44428</v>
       </c>
-      <c r="DW11" s="131">
+      <c r="DW11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44429</v>
       </c>
-      <c r="DX11" s="131">
+      <c r="DX11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44430</v>
       </c>
-      <c r="DY11" s="131">
+      <c r="DY11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44431</v>
       </c>
-      <c r="DZ11" s="131">
+      <c r="DZ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44432</v>
       </c>
-      <c r="EA11" s="131">
+      <c r="EA11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44433</v>
       </c>
-      <c r="EB11" s="131">
+      <c r="EB11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44434</v>
       </c>
-      <c r="EC11" s="131">
+      <c r="EC11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44435</v>
       </c>
-      <c r="ED11" s="131">
+      <c r="ED11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44436</v>
       </c>
-      <c r="EE11" s="131">
+      <c r="EE11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44437</v>
       </c>
-      <c r="EF11" s="131">
+      <c r="EF11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44438</v>
       </c>
-      <c r="EG11" s="131">
+      <c r="EG11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44439</v>
       </c>
-      <c r="EH11" s="131">
+      <c r="EH11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44440</v>
       </c>
-      <c r="EI11" s="131">
+      <c r="EI11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44441</v>
       </c>
-      <c r="EJ11" s="131">
+      <c r="EJ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44442</v>
       </c>
-      <c r="EK11" s="131">
+      <c r="EK11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44443</v>
       </c>
-      <c r="EL11" s="131">
+      <c r="EL11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44444</v>
       </c>
-      <c r="EM11" s="131">
+      <c r="EM11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44445</v>
       </c>
-      <c r="EN11" s="131">
+      <c r="EN11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44446</v>
       </c>
-      <c r="EO11" s="131">
+      <c r="EO11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44447</v>
       </c>
-      <c r="EP11" s="131">
+      <c r="EP11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44448</v>
       </c>
-      <c r="EQ11" s="131">
+      <c r="EQ11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44449</v>
       </c>
-      <c r="ER11" s="131">
+      <c r="ER11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44450</v>
       </c>
-      <c r="ES11" s="131">
+      <c r="ES11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44451</v>
       </c>
-      <c r="ET11" s="131">
+      <c r="ET11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44452</v>
       </c>
-      <c r="EU11" s="131">
+      <c r="EU11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44453</v>
       </c>
-      <c r="EV11" s="131">
+      <c r="EV11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44454</v>
       </c>
-      <c r="EW11" s="131">
+      <c r="EW11" s="130">
         <f t="shared" ca="1" si="9"/>
         <v>44455</v>
       </c>
-      <c r="EX11" s="131">
+      <c r="EX11" s="130">
         <f t="shared" ref="EX11:HI11" ca="1" si="10">EW11+1</f>
         <v>44456</v>
       </c>
-      <c r="EY11" s="131">
+      <c r="EY11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44457</v>
       </c>
-      <c r="EZ11" s="131">
+      <c r="EZ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44458</v>
       </c>
-      <c r="FA11" s="131">
+      <c r="FA11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44459</v>
       </c>
-      <c r="FB11" s="131">
+      <c r="FB11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44460</v>
       </c>
-      <c r="FC11" s="131">
+      <c r="FC11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44461</v>
       </c>
-      <c r="FD11" s="131">
+      <c r="FD11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44462</v>
       </c>
-      <c r="FE11" s="131">
+      <c r="FE11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44463</v>
       </c>
-      <c r="FF11" s="131">
+      <c r="FF11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44464</v>
       </c>
-      <c r="FG11" s="131">
+      <c r="FG11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44465</v>
       </c>
-      <c r="FH11" s="131">
+      <c r="FH11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44466</v>
       </c>
-      <c r="FI11" s="131">
+      <c r="FI11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44467</v>
       </c>
-      <c r="FJ11" s="131">
+      <c r="FJ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44468</v>
       </c>
-      <c r="FK11" s="131">
+      <c r="FK11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44469</v>
       </c>
-      <c r="FL11" s="131">
+      <c r="FL11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44470</v>
       </c>
-      <c r="FM11" s="131">
+      <c r="FM11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44471</v>
       </c>
-      <c r="FN11" s="131">
+      <c r="FN11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44472</v>
       </c>
-      <c r="FO11" s="131">
+      <c r="FO11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44473</v>
       </c>
-      <c r="FP11" s="131">
+      <c r="FP11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44474</v>
       </c>
-      <c r="FQ11" s="131">
+      <c r="FQ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44475</v>
       </c>
-      <c r="FR11" s="131">
+      <c r="FR11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44476</v>
       </c>
-      <c r="FS11" s="131">
+      <c r="FS11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44477</v>
       </c>
-      <c r="FT11" s="131">
+      <c r="FT11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44478</v>
       </c>
-      <c r="FU11" s="131">
+      <c r="FU11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44479</v>
       </c>
-      <c r="FV11" s="131">
+      <c r="FV11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44480</v>
       </c>
-      <c r="FW11" s="131">
+      <c r="FW11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44481</v>
       </c>
-      <c r="FX11" s="131">
+      <c r="FX11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44482</v>
       </c>
-      <c r="FY11" s="131">
+      <c r="FY11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44483</v>
       </c>
-      <c r="FZ11" s="131">
+      <c r="FZ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44484</v>
       </c>
-      <c r="GA11" s="131">
+      <c r="GA11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44485</v>
       </c>
-      <c r="GB11" s="131">
+      <c r="GB11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44486</v>
       </c>
-      <c r="GC11" s="131">
+      <c r="GC11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44487</v>
       </c>
-      <c r="GD11" s="131">
+      <c r="GD11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44488</v>
       </c>
-      <c r="GE11" s="131">
+      <c r="GE11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44489</v>
       </c>
-      <c r="GF11" s="131">
+      <c r="GF11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44490</v>
       </c>
-      <c r="GG11" s="131">
+      <c r="GG11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44491</v>
       </c>
-      <c r="GH11" s="131">
+      <c r="GH11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44492</v>
       </c>
-      <c r="GI11" s="131">
+      <c r="GI11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44493</v>
       </c>
-      <c r="GJ11" s="131">
+      <c r="GJ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44494</v>
       </c>
-      <c r="GK11" s="131">
+      <c r="GK11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44495</v>
       </c>
-      <c r="GL11" s="131">
+      <c r="GL11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44496</v>
       </c>
-      <c r="GM11" s="131">
+      <c r="GM11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44497</v>
       </c>
-      <c r="GN11" s="131">
+      <c r="GN11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44498</v>
       </c>
-      <c r="GO11" s="131">
+      <c r="GO11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44499</v>
       </c>
-      <c r="GP11" s="131">
+      <c r="GP11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44500</v>
       </c>
-      <c r="GQ11" s="131">
+      <c r="GQ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44501</v>
       </c>
-      <c r="GR11" s="131">
+      <c r="GR11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44502</v>
       </c>
-      <c r="GS11" s="131">
+      <c r="GS11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44503</v>
       </c>
-      <c r="GT11" s="131">
+      <c r="GT11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44504</v>
       </c>
-      <c r="GU11" s="131">
+      <c r="GU11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44505</v>
       </c>
-      <c r="GV11" s="131">
+      <c r="GV11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44506</v>
       </c>
-      <c r="GW11" s="131">
+      <c r="GW11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44507</v>
       </c>
-      <c r="GX11" s="131">
+      <c r="GX11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44508</v>
       </c>
-      <c r="GY11" s="131">
+      <c r="GY11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44509</v>
       </c>
-      <c r="GZ11" s="131">
+      <c r="GZ11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44510</v>
       </c>
-      <c r="HA11" s="131">
+      <c r="HA11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44511</v>
       </c>
-      <c r="HB11" s="131">
+      <c r="HB11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44512</v>
       </c>
-      <c r="HC11" s="131">
+      <c r="HC11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44513</v>
       </c>
-      <c r="HD11" s="131">
+      <c r="HD11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44514</v>
       </c>
-      <c r="HE11" s="131">
+      <c r="HE11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44515</v>
       </c>
-      <c r="HF11" s="131">
+      <c r="HF11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44516</v>
       </c>
-      <c r="HG11" s="131">
+      <c r="HG11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44517</v>
       </c>
-      <c r="HH11" s="131">
+      <c r="HH11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44518</v>
       </c>
-      <c r="HI11" s="131">
+      <c r="HI11" s="130">
         <f t="shared" ca="1" si="10"/>
         <v>44519</v>
       </c>
-      <c r="HJ11" s="131">
+      <c r="HJ11" s="130">
         <f t="shared" ref="HJ11:JU11" ca="1" si="11">HI11+1</f>
         <v>44520</v>
       </c>
-      <c r="HK11" s="131">
+      <c r="HK11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44521</v>
       </c>
-      <c r="HL11" s="131">
+      <c r="HL11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44522</v>
       </c>
-      <c r="HM11" s="131">
+      <c r="HM11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44523</v>
       </c>
-      <c r="HN11" s="131">
+      <c r="HN11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44524</v>
       </c>
-      <c r="HO11" s="131">
+      <c r="HO11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44525</v>
       </c>
-      <c r="HP11" s="131">
+      <c r="HP11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44526</v>
       </c>
-      <c r="HQ11" s="131">
+      <c r="HQ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44527</v>
       </c>
-      <c r="HR11" s="131">
+      <c r="HR11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44528</v>
       </c>
-      <c r="HS11" s="131">
+      <c r="HS11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44529</v>
       </c>
-      <c r="HT11" s="131">
+      <c r="HT11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44530</v>
       </c>
-      <c r="HU11" s="131">
+      <c r="HU11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44531</v>
       </c>
-      <c r="HV11" s="131">
+      <c r="HV11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44532</v>
       </c>
-      <c r="HW11" s="131">
+      <c r="HW11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44533</v>
       </c>
-      <c r="HX11" s="131">
+      <c r="HX11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44534</v>
       </c>
-      <c r="HY11" s="131">
+      <c r="HY11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44535</v>
       </c>
-      <c r="HZ11" s="131">
+      <c r="HZ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44536</v>
       </c>
-      <c r="IA11" s="131">
+      <c r="IA11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44537</v>
       </c>
-      <c r="IB11" s="131">
+      <c r="IB11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44538</v>
       </c>
-      <c r="IC11" s="131">
+      <c r="IC11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44539</v>
       </c>
-      <c r="ID11" s="131">
+      <c r="ID11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44540</v>
       </c>
-      <c r="IE11" s="131">
+      <c r="IE11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44541</v>
       </c>
-      <c r="IF11" s="131">
+      <c r="IF11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44542</v>
       </c>
-      <c r="IG11" s="131">
+      <c r="IG11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44543</v>
       </c>
-      <c r="IH11" s="131">
+      <c r="IH11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44544</v>
       </c>
-      <c r="II11" s="131">
+      <c r="II11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44545</v>
       </c>
-      <c r="IJ11" s="131">
+      <c r="IJ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44546</v>
       </c>
-      <c r="IK11" s="131">
+      <c r="IK11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44547</v>
       </c>
-      <c r="IL11" s="131">
+      <c r="IL11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44548</v>
       </c>
-      <c r="IM11" s="131">
+      <c r="IM11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44549</v>
       </c>
-      <c r="IN11" s="131">
+      <c r="IN11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44550</v>
       </c>
-      <c r="IO11" s="131">
+      <c r="IO11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44551</v>
       </c>
-      <c r="IP11" s="131">
+      <c r="IP11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44552</v>
       </c>
-      <c r="IQ11" s="131">
+      <c r="IQ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44553</v>
       </c>
-      <c r="IR11" s="131">
+      <c r="IR11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44554</v>
       </c>
-      <c r="IS11" s="131">
+      <c r="IS11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44555</v>
       </c>
-      <c r="IT11" s="131">
+      <c r="IT11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44556</v>
       </c>
-      <c r="IU11" s="131">
+      <c r="IU11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44557</v>
       </c>
-      <c r="IV11" s="131">
+      <c r="IV11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44558</v>
       </c>
-      <c r="IW11" s="131">
+      <c r="IW11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44559</v>
       </c>
-      <c r="IX11" s="131">
+      <c r="IX11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44560</v>
       </c>
-      <c r="IY11" s="131">
+      <c r="IY11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44561</v>
       </c>
-      <c r="IZ11" s="131">
+      <c r="IZ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44562</v>
       </c>
-      <c r="JA11" s="131">
+      <c r="JA11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44563</v>
       </c>
-      <c r="JB11" s="131">
+      <c r="JB11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44564</v>
       </c>
-      <c r="JC11" s="131">
+      <c r="JC11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44565</v>
       </c>
-      <c r="JD11" s="131">
+      <c r="JD11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44566</v>
       </c>
-      <c r="JE11" s="131">
+      <c r="JE11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44567</v>
       </c>
-      <c r="JF11" s="131">
+      <c r="JF11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44568</v>
       </c>
-      <c r="JG11" s="131">
+      <c r="JG11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44569</v>
       </c>
-      <c r="JH11" s="131">
+      <c r="JH11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44570</v>
       </c>
-      <c r="JI11" s="131">
+      <c r="JI11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44571</v>
       </c>
-      <c r="JJ11" s="131">
+      <c r="JJ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44572</v>
       </c>
-      <c r="JK11" s="131">
+      <c r="JK11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44573</v>
       </c>
-      <c r="JL11" s="131">
+      <c r="JL11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44574</v>
       </c>
-      <c r="JM11" s="131">
+      <c r="JM11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44575</v>
       </c>
-      <c r="JN11" s="131">
+      <c r="JN11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44576</v>
       </c>
-      <c r="JO11" s="131">
+      <c r="JO11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44577</v>
       </c>
-      <c r="JP11" s="131">
+      <c r="JP11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44578</v>
       </c>
-      <c r="JQ11" s="131">
+      <c r="JQ11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44579</v>
       </c>
-      <c r="JR11" s="131">
+      <c r="JR11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44580</v>
       </c>
-      <c r="JS11" s="131">
+      <c r="JS11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44581</v>
       </c>
-      <c r="JT11" s="131">
+      <c r="JT11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44582</v>
       </c>
-      <c r="JU11" s="131">
+      <c r="JU11" s="130">
         <f t="shared" ca="1" si="11"/>
         <v>44583</v>
       </c>
-      <c r="JV11" s="131">
+      <c r="JV11" s="130">
         <f t="shared" ref="JV11:MG11" ca="1" si="12">JU11+1</f>
         <v>44584</v>
       </c>
-      <c r="JW11" s="131">
+      <c r="JW11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44585</v>
       </c>
-      <c r="JX11" s="131">
+      <c r="JX11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44586</v>
       </c>
-      <c r="JY11" s="131">
+      <c r="JY11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44587</v>
       </c>
-      <c r="JZ11" s="131">
+      <c r="JZ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44588</v>
       </c>
-      <c r="KA11" s="131">
+      <c r="KA11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44589</v>
       </c>
-      <c r="KB11" s="131">
+      <c r="KB11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44590</v>
       </c>
-      <c r="KC11" s="131">
+      <c r="KC11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44591</v>
       </c>
-      <c r="KD11" s="131">
+      <c r="KD11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44592</v>
       </c>
-      <c r="KE11" s="131">
+      <c r="KE11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44593</v>
       </c>
-      <c r="KF11" s="131">
+      <c r="KF11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44594</v>
       </c>
-      <c r="KG11" s="131">
+      <c r="KG11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44595</v>
       </c>
-      <c r="KH11" s="131">
+      <c r="KH11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44596</v>
       </c>
-      <c r="KI11" s="131">
+      <c r="KI11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44597</v>
       </c>
-      <c r="KJ11" s="131">
+      <c r="KJ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44598</v>
       </c>
-      <c r="KK11" s="131">
+      <c r="KK11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44599</v>
       </c>
-      <c r="KL11" s="131">
+      <c r="KL11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44600</v>
       </c>
-      <c r="KM11" s="131">
+      <c r="KM11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44601</v>
       </c>
-      <c r="KN11" s="131">
+      <c r="KN11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44602</v>
       </c>
-      <c r="KO11" s="131">
+      <c r="KO11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44603</v>
       </c>
-      <c r="KP11" s="131">
+      <c r="KP11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44604</v>
       </c>
-      <c r="KQ11" s="131">
+      <c r="KQ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44605</v>
       </c>
-      <c r="KR11" s="131">
+      <c r="KR11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44606</v>
       </c>
-      <c r="KS11" s="131">
+      <c r="KS11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44607</v>
       </c>
-      <c r="KT11" s="131">
+      <c r="KT11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44608</v>
       </c>
-      <c r="KU11" s="131">
+      <c r="KU11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44609</v>
       </c>
-      <c r="KV11" s="131">
+      <c r="KV11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44610</v>
       </c>
-      <c r="KW11" s="131">
+      <c r="KW11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44611</v>
       </c>
-      <c r="KX11" s="131">
+      <c r="KX11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44612</v>
       </c>
-      <c r="KY11" s="131">
+      <c r="KY11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44613</v>
       </c>
-      <c r="KZ11" s="131">
+      <c r="KZ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44614</v>
       </c>
-      <c r="LA11" s="131">
+      <c r="LA11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44615</v>
       </c>
-      <c r="LB11" s="131">
+      <c r="LB11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44616</v>
       </c>
-      <c r="LC11" s="131">
+      <c r="LC11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44617</v>
       </c>
-      <c r="LD11" s="131">
+      <c r="LD11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44618</v>
       </c>
-      <c r="LE11" s="131">
+      <c r="LE11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44619</v>
       </c>
-      <c r="LF11" s="131">
+      <c r="LF11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44620</v>
       </c>
-      <c r="LG11" s="131">
+      <c r="LG11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44621</v>
       </c>
-      <c r="LH11" s="131">
+      <c r="LH11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44622</v>
       </c>
-      <c r="LI11" s="131">
+      <c r="LI11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44623</v>
       </c>
-      <c r="LJ11" s="131">
+      <c r="LJ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44624</v>
       </c>
-      <c r="LK11" s="131">
+      <c r="LK11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44625</v>
       </c>
-      <c r="LL11" s="131">
+      <c r="LL11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44626</v>
       </c>
-      <c r="LM11" s="131">
+      <c r="LM11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44627</v>
       </c>
-      <c r="LN11" s="131">
+      <c r="LN11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44628</v>
       </c>
-      <c r="LO11" s="131">
+      <c r="LO11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44629</v>
       </c>
-      <c r="LP11" s="131">
+      <c r="LP11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44630</v>
       </c>
-      <c r="LQ11" s="131">
+      <c r="LQ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44631</v>
       </c>
-      <c r="LR11" s="131">
+      <c r="LR11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44632</v>
       </c>
-      <c r="LS11" s="131">
+      <c r="LS11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44633</v>
       </c>
-      <c r="LT11" s="131">
+      <c r="LT11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44634</v>
       </c>
-      <c r="LU11" s="131">
+      <c r="LU11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44635</v>
       </c>
-      <c r="LV11" s="131">
+      <c r="LV11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44636</v>
       </c>
-      <c r="LW11" s="131">
+      <c r="LW11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44637</v>
       </c>
-      <c r="LX11" s="131">
+      <c r="LX11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44638</v>
       </c>
-      <c r="LY11" s="131">
+      <c r="LY11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44639</v>
       </c>
-      <c r="LZ11" s="131">
+      <c r="LZ11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44640</v>
       </c>
-      <c r="MA11" s="131">
+      <c r="MA11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44641</v>
       </c>
-      <c r="MB11" s="131">
+      <c r="MB11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44642</v>
       </c>
-      <c r="MC11" s="131">
+      <c r="MC11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44643</v>
       </c>
-      <c r="MD11" s="131">
+      <c r="MD11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44644</v>
       </c>
-      <c r="ME11" s="131">
+      <c r="ME11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44645</v>
       </c>
-      <c r="MF11" s="131">
+      <c r="MF11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44646</v>
       </c>
-      <c r="MG11" s="131">
+      <c r="MG11" s="130">
         <f t="shared" ca="1" si="12"/>
         <v>44647</v>
       </c>
-      <c r="MH11" s="131">
+      <c r="MH11" s="130">
         <f t="shared" ref="MH11:OD11" ca="1" si="13">MG11+1</f>
         <v>44648</v>
       </c>
-      <c r="MI11" s="131">
+      <c r="MI11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44649</v>
       </c>
-      <c r="MJ11" s="131">
+      <c r="MJ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44650</v>
       </c>
-      <c r="MK11" s="131">
+      <c r="MK11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44651</v>
       </c>
-      <c r="ML11" s="131">
+      <c r="ML11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44652</v>
       </c>
-      <c r="MM11" s="131">
+      <c r="MM11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44653</v>
       </c>
-      <c r="MN11" s="131">
+      <c r="MN11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44654</v>
       </c>
-      <c r="MO11" s="131">
+      <c r="MO11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44655</v>
       </c>
-      <c r="MP11" s="131">
+      <c r="MP11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44656</v>
       </c>
-      <c r="MQ11" s="131">
+      <c r="MQ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44657</v>
       </c>
-      <c r="MR11" s="131">
+      <c r="MR11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44658</v>
       </c>
-      <c r="MS11" s="131">
+      <c r="MS11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44659</v>
       </c>
-      <c r="MT11" s="131">
+      <c r="MT11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44660</v>
       </c>
-      <c r="MU11" s="131">
+      <c r="MU11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44661</v>
       </c>
-      <c r="MV11" s="131">
+      <c r="MV11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44662</v>
       </c>
-      <c r="MW11" s="131">
+      <c r="MW11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44663</v>
       </c>
-      <c r="MX11" s="131">
+      <c r="MX11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44664</v>
       </c>
-      <c r="MY11" s="131">
+      <c r="MY11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44665</v>
       </c>
-      <c r="MZ11" s="131">
+      <c r="MZ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44666</v>
       </c>
-      <c r="NA11" s="131">
+      <c r="NA11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44667</v>
       </c>
-      <c r="NB11" s="131">
+      <c r="NB11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44668</v>
       </c>
-      <c r="NC11" s="131">
+      <c r="NC11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44669</v>
       </c>
-      <c r="ND11" s="131">
+      <c r="ND11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44670</v>
       </c>
-      <c r="NE11" s="131">
+      <c r="NE11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44671</v>
       </c>
-      <c r="NF11" s="131">
+      <c r="NF11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44672</v>
       </c>
-      <c r="NG11" s="131">
+      <c r="NG11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44673</v>
       </c>
-      <c r="NH11" s="131">
+      <c r="NH11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44674</v>
       </c>
-      <c r="NI11" s="131">
+      <c r="NI11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44675</v>
       </c>
-      <c r="NJ11" s="131">
+      <c r="NJ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44676</v>
       </c>
-      <c r="NK11" s="131">
+      <c r="NK11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44677</v>
       </c>
-      <c r="NL11" s="131">
+      <c r="NL11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44678</v>
       </c>
-      <c r="NM11" s="131">
+      <c r="NM11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44679</v>
       </c>
-      <c r="NN11" s="131">
+      <c r="NN11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44680</v>
       </c>
-      <c r="NO11" s="131">
+      <c r="NO11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44681</v>
       </c>
-      <c r="NP11" s="131">
+      <c r="NP11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44682</v>
       </c>
-      <c r="NQ11" s="131">
+      <c r="NQ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44683</v>
       </c>
-      <c r="NR11" s="131">
+      <c r="NR11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44684</v>
       </c>
-      <c r="NS11" s="131">
+      <c r="NS11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44685</v>
       </c>
-      <c r="NT11" s="131">
+      <c r="NT11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44686</v>
       </c>
-      <c r="NU11" s="131">
+      <c r="NU11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44687</v>
       </c>
-      <c r="NV11" s="131">
+      <c r="NV11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44688</v>
       </c>
-      <c r="NW11" s="131">
+      <c r="NW11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44689</v>
       </c>
-      <c r="NX11" s="131">
+      <c r="NX11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44690</v>
       </c>
-      <c r="NY11" s="131">
+      <c r="NY11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44691</v>
       </c>
-      <c r="NZ11" s="131">
+      <c r="NZ11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44692</v>
       </c>
-      <c r="OA11" s="131">
+      <c r="OA11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44693</v>
       </c>
-      <c r="OB11" s="131">
+      <c r="OB11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44694</v>
       </c>
-      <c r="OC11" s="131">
+      <c r="OC11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44695</v>
       </c>
-      <c r="OD11" s="131">
+      <c r="OD11" s="130">
         <f t="shared" ca="1" si="13"/>
         <v>44696</v>
       </c>
@@ -13656,377 +13662,377 @@
       <c r="W12" s="60">
         <v>0</v>
       </c>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="131"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="131"/>
-      <c r="AO12" s="131"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="131"/>
-      <c r="AS12" s="131"/>
-      <c r="AT12" s="131"/>
-      <c r="AU12" s="131"/>
-      <c r="AV12" s="131"/>
-      <c r="AW12" s="131"/>
-      <c r="AX12" s="131"/>
-      <c r="AY12" s="131"/>
-      <c r="AZ12" s="131"/>
-      <c r="BA12" s="131"/>
-      <c r="BB12" s="131"/>
-      <c r="BC12" s="131"/>
-      <c r="BD12" s="131"/>
-      <c r="BE12" s="131"/>
-      <c r="BF12" s="131"/>
-      <c r="BG12" s="131"/>
-      <c r="BH12" s="131"/>
-      <c r="BI12" s="131"/>
-      <c r="BJ12" s="131"/>
-      <c r="BK12" s="131"/>
-      <c r="BL12" s="131"/>
-      <c r="BM12" s="131"/>
-      <c r="BN12" s="131"/>
-      <c r="BO12" s="131"/>
-      <c r="BP12" s="131"/>
-      <c r="BQ12" s="131"/>
-      <c r="BR12" s="131"/>
-      <c r="BS12" s="131"/>
-      <c r="BT12" s="131"/>
-      <c r="BU12" s="131"/>
-      <c r="BV12" s="131"/>
-      <c r="BW12" s="131"/>
-      <c r="BX12" s="131"/>
-      <c r="BY12" s="131"/>
-      <c r="BZ12" s="131"/>
-      <c r="CA12" s="131"/>
-      <c r="CB12" s="131"/>
-      <c r="CC12" s="131"/>
-      <c r="CD12" s="131"/>
-      <c r="CE12" s="131"/>
-      <c r="CF12" s="131"/>
-      <c r="CG12" s="131"/>
-      <c r="CH12" s="131"/>
-      <c r="CI12" s="131"/>
-      <c r="CJ12" s="131"/>
-      <c r="CK12" s="131"/>
-      <c r="CL12" s="131"/>
-      <c r="CM12" s="131"/>
-      <c r="CN12" s="131"/>
-      <c r="CO12" s="131"/>
-      <c r="CP12" s="131"/>
-      <c r="CQ12" s="131"/>
-      <c r="CR12" s="131"/>
-      <c r="CS12" s="131"/>
-      <c r="CT12" s="131"/>
-      <c r="CU12" s="131"/>
-      <c r="CV12" s="131"/>
-      <c r="CW12" s="131"/>
-      <c r="CX12" s="131"/>
-      <c r="CY12" s="131"/>
-      <c r="CZ12" s="131"/>
-      <c r="DA12" s="131"/>
-      <c r="DB12" s="131"/>
-      <c r="DC12" s="131"/>
-      <c r="DD12" s="131"/>
-      <c r="DE12" s="131"/>
-      <c r="DF12" s="131"/>
-      <c r="DG12" s="131"/>
-      <c r="DH12" s="131"/>
-      <c r="DI12" s="131"/>
-      <c r="DJ12" s="131"/>
-      <c r="DK12" s="131"/>
-      <c r="DL12" s="131"/>
-      <c r="DM12" s="131"/>
-      <c r="DN12" s="131"/>
-      <c r="DO12" s="131"/>
-      <c r="DP12" s="131"/>
-      <c r="DQ12" s="131"/>
-      <c r="DR12" s="131"/>
-      <c r="DS12" s="131"/>
-      <c r="DT12" s="131"/>
-      <c r="DU12" s="131"/>
-      <c r="DV12" s="131"/>
-      <c r="DW12" s="131"/>
-      <c r="DX12" s="131"/>
-      <c r="DY12" s="131"/>
-      <c r="DZ12" s="131"/>
-      <c r="EA12" s="131"/>
-      <c r="EB12" s="131"/>
-      <c r="EC12" s="131"/>
-      <c r="ED12" s="131"/>
-      <c r="EE12" s="131"/>
-      <c r="EF12" s="131"/>
-      <c r="EG12" s="131"/>
-      <c r="EH12" s="131"/>
-      <c r="EI12" s="131"/>
-      <c r="EJ12" s="131"/>
-      <c r="EK12" s="131"/>
-      <c r="EL12" s="131"/>
-      <c r="EM12" s="131"/>
-      <c r="EN12" s="131"/>
-      <c r="EO12" s="131"/>
-      <c r="EP12" s="131"/>
-      <c r="EQ12" s="131"/>
-      <c r="ER12" s="131"/>
-      <c r="ES12" s="131"/>
-      <c r="ET12" s="131"/>
-      <c r="EU12" s="131"/>
-      <c r="EV12" s="131"/>
-      <c r="EW12" s="131"/>
-      <c r="EX12" s="131"/>
-      <c r="EY12" s="131"/>
-      <c r="EZ12" s="131"/>
-      <c r="FA12" s="131"/>
-      <c r="FB12" s="131"/>
-      <c r="FC12" s="131"/>
-      <c r="FD12" s="131"/>
-      <c r="FE12" s="131"/>
-      <c r="FF12" s="131"/>
-      <c r="FG12" s="131"/>
-      <c r="FH12" s="131"/>
-      <c r="FI12" s="131"/>
-      <c r="FJ12" s="131"/>
-      <c r="FK12" s="131"/>
-      <c r="FL12" s="131"/>
-      <c r="FM12" s="131"/>
-      <c r="FN12" s="131"/>
-      <c r="FO12" s="131"/>
-      <c r="FP12" s="131"/>
-      <c r="FQ12" s="131"/>
-      <c r="FR12" s="131"/>
-      <c r="FS12" s="131"/>
-      <c r="FT12" s="131"/>
-      <c r="FU12" s="131"/>
-      <c r="FV12" s="131"/>
-      <c r="FW12" s="131"/>
-      <c r="FX12" s="131"/>
-      <c r="FY12" s="131"/>
-      <c r="FZ12" s="131"/>
-      <c r="GA12" s="131"/>
-      <c r="GB12" s="131"/>
-      <c r="GC12" s="131"/>
-      <c r="GD12" s="131"/>
-      <c r="GE12" s="131"/>
-      <c r="GF12" s="131"/>
-      <c r="GG12" s="131"/>
-      <c r="GH12" s="131"/>
-      <c r="GI12" s="131"/>
-      <c r="GJ12" s="131"/>
-      <c r="GK12" s="131"/>
-      <c r="GL12" s="131"/>
-      <c r="GM12" s="131"/>
-      <c r="GN12" s="131"/>
-      <c r="GO12" s="131"/>
-      <c r="GP12" s="131"/>
-      <c r="GQ12" s="131"/>
-      <c r="GR12" s="131"/>
-      <c r="GS12" s="131"/>
-      <c r="GT12" s="131"/>
-      <c r="GU12" s="131"/>
-      <c r="GV12" s="131"/>
-      <c r="GW12" s="131"/>
-      <c r="GX12" s="131"/>
-      <c r="GY12" s="131"/>
-      <c r="GZ12" s="131"/>
-      <c r="HA12" s="131"/>
-      <c r="HB12" s="131"/>
-      <c r="HC12" s="131"/>
-      <c r="HD12" s="131"/>
-      <c r="HE12" s="131"/>
-      <c r="HF12" s="131"/>
-      <c r="HG12" s="131"/>
-      <c r="HH12" s="131"/>
-      <c r="HI12" s="131"/>
-      <c r="HJ12" s="131"/>
-      <c r="HK12" s="131"/>
-      <c r="HL12" s="131"/>
-      <c r="HM12" s="131"/>
-      <c r="HN12" s="131"/>
-      <c r="HO12" s="131"/>
-      <c r="HP12" s="131"/>
-      <c r="HQ12" s="131"/>
-      <c r="HR12" s="131"/>
-      <c r="HS12" s="131"/>
-      <c r="HT12" s="131"/>
-      <c r="HU12" s="131"/>
-      <c r="HV12" s="131"/>
-      <c r="HW12" s="131"/>
-      <c r="HX12" s="131"/>
-      <c r="HY12" s="131"/>
-      <c r="HZ12" s="131"/>
-      <c r="IA12" s="131"/>
-      <c r="IB12" s="131"/>
-      <c r="IC12" s="131"/>
-      <c r="ID12" s="131"/>
-      <c r="IE12" s="131"/>
-      <c r="IF12" s="131"/>
-      <c r="IG12" s="131"/>
-      <c r="IH12" s="131"/>
-      <c r="II12" s="131"/>
-      <c r="IJ12" s="131"/>
-      <c r="IK12" s="131"/>
-      <c r="IL12" s="131"/>
-      <c r="IM12" s="131"/>
-      <c r="IN12" s="131"/>
-      <c r="IO12" s="131"/>
-      <c r="IP12" s="131"/>
-      <c r="IQ12" s="131"/>
-      <c r="IR12" s="131"/>
-      <c r="IS12" s="131"/>
-      <c r="IT12" s="131"/>
-      <c r="IU12" s="131"/>
-      <c r="IV12" s="131"/>
-      <c r="IW12" s="131"/>
-      <c r="IX12" s="131"/>
-      <c r="IY12" s="131"/>
-      <c r="IZ12" s="131"/>
-      <c r="JA12" s="131"/>
-      <c r="JB12" s="131"/>
-      <c r="JC12" s="131"/>
-      <c r="JD12" s="131"/>
-      <c r="JE12" s="131"/>
-      <c r="JF12" s="131"/>
-      <c r="JG12" s="131"/>
-      <c r="JH12" s="131"/>
-      <c r="JI12" s="131"/>
-      <c r="JJ12" s="131"/>
-      <c r="JK12" s="131"/>
-      <c r="JL12" s="131"/>
-      <c r="JM12" s="131"/>
-      <c r="JN12" s="131"/>
-      <c r="JO12" s="131"/>
-      <c r="JP12" s="131"/>
-      <c r="JQ12" s="131"/>
-      <c r="JR12" s="131"/>
-      <c r="JS12" s="131"/>
-      <c r="JT12" s="131"/>
-      <c r="JU12" s="131"/>
-      <c r="JV12" s="131"/>
-      <c r="JW12" s="131"/>
-      <c r="JX12" s="131"/>
-      <c r="JY12" s="131"/>
-      <c r="JZ12" s="131"/>
-      <c r="KA12" s="131"/>
-      <c r="KB12" s="131"/>
-      <c r="KC12" s="131"/>
-      <c r="KD12" s="131"/>
-      <c r="KE12" s="131"/>
-      <c r="KF12" s="131"/>
-      <c r="KG12" s="131"/>
-      <c r="KH12" s="131"/>
-      <c r="KI12" s="131"/>
-      <c r="KJ12" s="131"/>
-      <c r="KK12" s="131"/>
-      <c r="KL12" s="131"/>
-      <c r="KM12" s="131"/>
-      <c r="KN12" s="131"/>
-      <c r="KO12" s="131"/>
-      <c r="KP12" s="131"/>
-      <c r="KQ12" s="131"/>
-      <c r="KR12" s="131"/>
-      <c r="KS12" s="131"/>
-      <c r="KT12" s="131"/>
-      <c r="KU12" s="131"/>
-      <c r="KV12" s="131"/>
-      <c r="KW12" s="131"/>
-      <c r="KX12" s="131"/>
-      <c r="KY12" s="131"/>
-      <c r="KZ12" s="131"/>
-      <c r="LA12" s="131"/>
-      <c r="LB12" s="131"/>
-      <c r="LC12" s="131"/>
-      <c r="LD12" s="131"/>
-      <c r="LE12" s="131"/>
-      <c r="LF12" s="131"/>
-      <c r="LG12" s="131"/>
-      <c r="LH12" s="131"/>
-      <c r="LI12" s="131"/>
-      <c r="LJ12" s="131"/>
-      <c r="LK12" s="131"/>
-      <c r="LL12" s="131"/>
-      <c r="LM12" s="131"/>
-      <c r="LN12" s="131"/>
-      <c r="LO12" s="131"/>
-      <c r="LP12" s="131"/>
-      <c r="LQ12" s="131"/>
-      <c r="LR12" s="131"/>
-      <c r="LS12" s="131"/>
-      <c r="LT12" s="131"/>
-      <c r="LU12" s="131"/>
-      <c r="LV12" s="131"/>
-      <c r="LW12" s="131"/>
-      <c r="LX12" s="131"/>
-      <c r="LY12" s="131"/>
-      <c r="LZ12" s="131"/>
-      <c r="MA12" s="131"/>
-      <c r="MB12" s="131"/>
-      <c r="MC12" s="131"/>
-      <c r="MD12" s="131"/>
-      <c r="ME12" s="131"/>
-      <c r="MF12" s="131"/>
-      <c r="MG12" s="131"/>
-      <c r="MH12" s="131"/>
-      <c r="MI12" s="131"/>
-      <c r="MJ12" s="131"/>
-      <c r="MK12" s="131"/>
-      <c r="ML12" s="131"/>
-      <c r="MM12" s="131"/>
-      <c r="MN12" s="131"/>
-      <c r="MO12" s="131"/>
-      <c r="MP12" s="131"/>
-      <c r="MQ12" s="131"/>
-      <c r="MR12" s="131"/>
-      <c r="MS12" s="131"/>
-      <c r="MT12" s="131"/>
-      <c r="MU12" s="131"/>
-      <c r="MV12" s="131"/>
-      <c r="MW12" s="131"/>
-      <c r="MX12" s="131"/>
-      <c r="MY12" s="131"/>
-      <c r="MZ12" s="131"/>
-      <c r="NA12" s="131"/>
-      <c r="NB12" s="131"/>
-      <c r="NC12" s="131"/>
-      <c r="ND12" s="131"/>
-      <c r="NE12" s="131"/>
-      <c r="NF12" s="131"/>
-      <c r="NG12" s="131"/>
-      <c r="NH12" s="131"/>
-      <c r="NI12" s="131"/>
-      <c r="NJ12" s="131"/>
-      <c r="NK12" s="131"/>
-      <c r="NL12" s="131"/>
-      <c r="NM12" s="131"/>
-      <c r="NN12" s="131"/>
-      <c r="NO12" s="131"/>
-      <c r="NP12" s="131"/>
-      <c r="NQ12" s="131"/>
-      <c r="NR12" s="131"/>
-      <c r="NS12" s="131"/>
-      <c r="NT12" s="131"/>
-      <c r="NU12" s="131"/>
-      <c r="NV12" s="131"/>
-      <c r="NW12" s="131"/>
-      <c r="NX12" s="131"/>
-      <c r="NY12" s="131"/>
-      <c r="NZ12" s="131"/>
-      <c r="OA12" s="131"/>
-      <c r="OB12" s="131"/>
-      <c r="OC12" s="131"/>
-      <c r="OD12" s="131"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="130"/>
+      <c r="AU12" s="130"/>
+      <c r="AV12" s="130"/>
+      <c r="AW12" s="130"/>
+      <c r="AX12" s="130"/>
+      <c r="AY12" s="130"/>
+      <c r="AZ12" s="130"/>
+      <c r="BA12" s="130"/>
+      <c r="BB12" s="130"/>
+      <c r="BC12" s="130"/>
+      <c r="BD12" s="130"/>
+      <c r="BE12" s="130"/>
+      <c r="BF12" s="130"/>
+      <c r="BG12" s="130"/>
+      <c r="BH12" s="130"/>
+      <c r="BI12" s="130"/>
+      <c r="BJ12" s="130"/>
+      <c r="BK12" s="130"/>
+      <c r="BL12" s="130"/>
+      <c r="BM12" s="130"/>
+      <c r="BN12" s="130"/>
+      <c r="BO12" s="130"/>
+      <c r="BP12" s="130"/>
+      <c r="BQ12" s="130"/>
+      <c r="BR12" s="130"/>
+      <c r="BS12" s="130"/>
+      <c r="BT12" s="130"/>
+      <c r="BU12" s="130"/>
+      <c r="BV12" s="130"/>
+      <c r="BW12" s="130"/>
+      <c r="BX12" s="130"/>
+      <c r="BY12" s="130"/>
+      <c r="BZ12" s="130"/>
+      <c r="CA12" s="130"/>
+      <c r="CB12" s="130"/>
+      <c r="CC12" s="130"/>
+      <c r="CD12" s="130"/>
+      <c r="CE12" s="130"/>
+      <c r="CF12" s="130"/>
+      <c r="CG12" s="130"/>
+      <c r="CH12" s="130"/>
+      <c r="CI12" s="130"/>
+      <c r="CJ12" s="130"/>
+      <c r="CK12" s="130"/>
+      <c r="CL12" s="130"/>
+      <c r="CM12" s="130"/>
+      <c r="CN12" s="130"/>
+      <c r="CO12" s="130"/>
+      <c r="CP12" s="130"/>
+      <c r="CQ12" s="130"/>
+      <c r="CR12" s="130"/>
+      <c r="CS12" s="130"/>
+      <c r="CT12" s="130"/>
+      <c r="CU12" s="130"/>
+      <c r="CV12" s="130"/>
+      <c r="CW12" s="130"/>
+      <c r="CX12" s="130"/>
+      <c r="CY12" s="130"/>
+      <c r="CZ12" s="130"/>
+      <c r="DA12" s="130"/>
+      <c r="DB12" s="130"/>
+      <c r="DC12" s="130"/>
+      <c r="DD12" s="130"/>
+      <c r="DE12" s="130"/>
+      <c r="DF12" s="130"/>
+      <c r="DG12" s="130"/>
+      <c r="DH12" s="130"/>
+      <c r="DI12" s="130"/>
+      <c r="DJ12" s="130"/>
+      <c r="DK12" s="130"/>
+      <c r="DL12" s="130"/>
+      <c r="DM12" s="130"/>
+      <c r="DN12" s="130"/>
+      <c r="DO12" s="130"/>
+      <c r="DP12" s="130"/>
+      <c r="DQ12" s="130"/>
+      <c r="DR12" s="130"/>
+      <c r="DS12" s="130"/>
+      <c r="DT12" s="130"/>
+      <c r="DU12" s="130"/>
+      <c r="DV12" s="130"/>
+      <c r="DW12" s="130"/>
+      <c r="DX12" s="130"/>
+      <c r="DY12" s="130"/>
+      <c r="DZ12" s="130"/>
+      <c r="EA12" s="130"/>
+      <c r="EB12" s="130"/>
+      <c r="EC12" s="130"/>
+      <c r="ED12" s="130"/>
+      <c r="EE12" s="130"/>
+      <c r="EF12" s="130"/>
+      <c r="EG12" s="130"/>
+      <c r="EH12" s="130"/>
+      <c r="EI12" s="130"/>
+      <c r="EJ12" s="130"/>
+      <c r="EK12" s="130"/>
+      <c r="EL12" s="130"/>
+      <c r="EM12" s="130"/>
+      <c r="EN12" s="130"/>
+      <c r="EO12" s="130"/>
+      <c r="EP12" s="130"/>
+      <c r="EQ12" s="130"/>
+      <c r="ER12" s="130"/>
+      <c r="ES12" s="130"/>
+      <c r="ET12" s="130"/>
+      <c r="EU12" s="130"/>
+      <c r="EV12" s="130"/>
+      <c r="EW12" s="130"/>
+      <c r="EX12" s="130"/>
+      <c r="EY12" s="130"/>
+      <c r="EZ12" s="130"/>
+      <c r="FA12" s="130"/>
+      <c r="FB12" s="130"/>
+      <c r="FC12" s="130"/>
+      <c r="FD12" s="130"/>
+      <c r="FE12" s="130"/>
+      <c r="FF12" s="130"/>
+      <c r="FG12" s="130"/>
+      <c r="FH12" s="130"/>
+      <c r="FI12" s="130"/>
+      <c r="FJ12" s="130"/>
+      <c r="FK12" s="130"/>
+      <c r="FL12" s="130"/>
+      <c r="FM12" s="130"/>
+      <c r="FN12" s="130"/>
+      <c r="FO12" s="130"/>
+      <c r="FP12" s="130"/>
+      <c r="FQ12" s="130"/>
+      <c r="FR12" s="130"/>
+      <c r="FS12" s="130"/>
+      <c r="FT12" s="130"/>
+      <c r="FU12" s="130"/>
+      <c r="FV12" s="130"/>
+      <c r="FW12" s="130"/>
+      <c r="FX12" s="130"/>
+      <c r="FY12" s="130"/>
+      <c r="FZ12" s="130"/>
+      <c r="GA12" s="130"/>
+      <c r="GB12" s="130"/>
+      <c r="GC12" s="130"/>
+      <c r="GD12" s="130"/>
+      <c r="GE12" s="130"/>
+      <c r="GF12" s="130"/>
+      <c r="GG12" s="130"/>
+      <c r="GH12" s="130"/>
+      <c r="GI12" s="130"/>
+      <c r="GJ12" s="130"/>
+      <c r="GK12" s="130"/>
+      <c r="GL12" s="130"/>
+      <c r="GM12" s="130"/>
+      <c r="GN12" s="130"/>
+      <c r="GO12" s="130"/>
+      <c r="GP12" s="130"/>
+      <c r="GQ12" s="130"/>
+      <c r="GR12" s="130"/>
+      <c r="GS12" s="130"/>
+      <c r="GT12" s="130"/>
+      <c r="GU12" s="130"/>
+      <c r="GV12" s="130"/>
+      <c r="GW12" s="130"/>
+      <c r="GX12" s="130"/>
+      <c r="GY12" s="130"/>
+      <c r="GZ12" s="130"/>
+      <c r="HA12" s="130"/>
+      <c r="HB12" s="130"/>
+      <c r="HC12" s="130"/>
+      <c r="HD12" s="130"/>
+      <c r="HE12" s="130"/>
+      <c r="HF12" s="130"/>
+      <c r="HG12" s="130"/>
+      <c r="HH12" s="130"/>
+      <c r="HI12" s="130"/>
+      <c r="HJ12" s="130"/>
+      <c r="HK12" s="130"/>
+      <c r="HL12" s="130"/>
+      <c r="HM12" s="130"/>
+      <c r="HN12" s="130"/>
+      <c r="HO12" s="130"/>
+      <c r="HP12" s="130"/>
+      <c r="HQ12" s="130"/>
+      <c r="HR12" s="130"/>
+      <c r="HS12" s="130"/>
+      <c r="HT12" s="130"/>
+      <c r="HU12" s="130"/>
+      <c r="HV12" s="130"/>
+      <c r="HW12" s="130"/>
+      <c r="HX12" s="130"/>
+      <c r="HY12" s="130"/>
+      <c r="HZ12" s="130"/>
+      <c r="IA12" s="130"/>
+      <c r="IB12" s="130"/>
+      <c r="IC12" s="130"/>
+      <c r="ID12" s="130"/>
+      <c r="IE12" s="130"/>
+      <c r="IF12" s="130"/>
+      <c r="IG12" s="130"/>
+      <c r="IH12" s="130"/>
+      <c r="II12" s="130"/>
+      <c r="IJ12" s="130"/>
+      <c r="IK12" s="130"/>
+      <c r="IL12" s="130"/>
+      <c r="IM12" s="130"/>
+      <c r="IN12" s="130"/>
+      <c r="IO12" s="130"/>
+      <c r="IP12" s="130"/>
+      <c r="IQ12" s="130"/>
+      <c r="IR12" s="130"/>
+      <c r="IS12" s="130"/>
+      <c r="IT12" s="130"/>
+      <c r="IU12" s="130"/>
+      <c r="IV12" s="130"/>
+      <c r="IW12" s="130"/>
+      <c r="IX12" s="130"/>
+      <c r="IY12" s="130"/>
+      <c r="IZ12" s="130"/>
+      <c r="JA12" s="130"/>
+      <c r="JB12" s="130"/>
+      <c r="JC12" s="130"/>
+      <c r="JD12" s="130"/>
+      <c r="JE12" s="130"/>
+      <c r="JF12" s="130"/>
+      <c r="JG12" s="130"/>
+      <c r="JH12" s="130"/>
+      <c r="JI12" s="130"/>
+      <c r="JJ12" s="130"/>
+      <c r="JK12" s="130"/>
+      <c r="JL12" s="130"/>
+      <c r="JM12" s="130"/>
+      <c r="JN12" s="130"/>
+      <c r="JO12" s="130"/>
+      <c r="JP12" s="130"/>
+      <c r="JQ12" s="130"/>
+      <c r="JR12" s="130"/>
+      <c r="JS12" s="130"/>
+      <c r="JT12" s="130"/>
+      <c r="JU12" s="130"/>
+      <c r="JV12" s="130"/>
+      <c r="JW12" s="130"/>
+      <c r="JX12" s="130"/>
+      <c r="JY12" s="130"/>
+      <c r="JZ12" s="130"/>
+      <c r="KA12" s="130"/>
+      <c r="KB12" s="130"/>
+      <c r="KC12" s="130"/>
+      <c r="KD12" s="130"/>
+      <c r="KE12" s="130"/>
+      <c r="KF12" s="130"/>
+      <c r="KG12" s="130"/>
+      <c r="KH12" s="130"/>
+      <c r="KI12" s="130"/>
+      <c r="KJ12" s="130"/>
+      <c r="KK12" s="130"/>
+      <c r="KL12" s="130"/>
+      <c r="KM12" s="130"/>
+      <c r="KN12" s="130"/>
+      <c r="KO12" s="130"/>
+      <c r="KP12" s="130"/>
+      <c r="KQ12" s="130"/>
+      <c r="KR12" s="130"/>
+      <c r="KS12" s="130"/>
+      <c r="KT12" s="130"/>
+      <c r="KU12" s="130"/>
+      <c r="KV12" s="130"/>
+      <c r="KW12" s="130"/>
+      <c r="KX12" s="130"/>
+      <c r="KY12" s="130"/>
+      <c r="KZ12" s="130"/>
+      <c r="LA12" s="130"/>
+      <c r="LB12" s="130"/>
+      <c r="LC12" s="130"/>
+      <c r="LD12" s="130"/>
+      <c r="LE12" s="130"/>
+      <c r="LF12" s="130"/>
+      <c r="LG12" s="130"/>
+      <c r="LH12" s="130"/>
+      <c r="LI12" s="130"/>
+      <c r="LJ12" s="130"/>
+      <c r="LK12" s="130"/>
+      <c r="LL12" s="130"/>
+      <c r="LM12" s="130"/>
+      <c r="LN12" s="130"/>
+      <c r="LO12" s="130"/>
+      <c r="LP12" s="130"/>
+      <c r="LQ12" s="130"/>
+      <c r="LR12" s="130"/>
+      <c r="LS12" s="130"/>
+      <c r="LT12" s="130"/>
+      <c r="LU12" s="130"/>
+      <c r="LV12" s="130"/>
+      <c r="LW12" s="130"/>
+      <c r="LX12" s="130"/>
+      <c r="LY12" s="130"/>
+      <c r="LZ12" s="130"/>
+      <c r="MA12" s="130"/>
+      <c r="MB12" s="130"/>
+      <c r="MC12" s="130"/>
+      <c r="MD12" s="130"/>
+      <c r="ME12" s="130"/>
+      <c r="MF12" s="130"/>
+      <c r="MG12" s="130"/>
+      <c r="MH12" s="130"/>
+      <c r="MI12" s="130"/>
+      <c r="MJ12" s="130"/>
+      <c r="MK12" s="130"/>
+      <c r="ML12" s="130"/>
+      <c r="MM12" s="130"/>
+      <c r="MN12" s="130"/>
+      <c r="MO12" s="130"/>
+      <c r="MP12" s="130"/>
+      <c r="MQ12" s="130"/>
+      <c r="MR12" s="130"/>
+      <c r="MS12" s="130"/>
+      <c r="MT12" s="130"/>
+      <c r="MU12" s="130"/>
+      <c r="MV12" s="130"/>
+      <c r="MW12" s="130"/>
+      <c r="MX12" s="130"/>
+      <c r="MY12" s="130"/>
+      <c r="MZ12" s="130"/>
+      <c r="NA12" s="130"/>
+      <c r="NB12" s="130"/>
+      <c r="NC12" s="130"/>
+      <c r="ND12" s="130"/>
+      <c r="NE12" s="130"/>
+      <c r="NF12" s="130"/>
+      <c r="NG12" s="130"/>
+      <c r="NH12" s="130"/>
+      <c r="NI12" s="130"/>
+      <c r="NJ12" s="130"/>
+      <c r="NK12" s="130"/>
+      <c r="NL12" s="130"/>
+      <c r="NM12" s="130"/>
+      <c r="NN12" s="130"/>
+      <c r="NO12" s="130"/>
+      <c r="NP12" s="130"/>
+      <c r="NQ12" s="130"/>
+      <c r="NR12" s="130"/>
+      <c r="NS12" s="130"/>
+      <c r="NT12" s="130"/>
+      <c r="NU12" s="130"/>
+      <c r="NV12" s="130"/>
+      <c r="NW12" s="130"/>
+      <c r="NX12" s="130"/>
+      <c r="NY12" s="130"/>
+      <c r="NZ12" s="130"/>
+      <c r="OA12" s="130"/>
+      <c r="OB12" s="130"/>
+      <c r="OC12" s="130"/>
+      <c r="OD12" s="130"/>
     </row>
     <row r="13" spans="1:394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="147" t="s">
@@ -14058,377 +14064,377 @@
         <v>44319</v>
       </c>
       <c r="V13" s="152"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="131"/>
-      <c r="AO13" s="131"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="131"/>
-      <c r="AS13" s="131"/>
-      <c r="AT13" s="131"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="131"/>
-      <c r="AW13" s="131"/>
-      <c r="AX13" s="131"/>
-      <c r="AY13" s="131"/>
-      <c r="AZ13" s="131"/>
-      <c r="BA13" s="131"/>
-      <c r="BB13" s="131"/>
-      <c r="BC13" s="131"/>
-      <c r="BD13" s="131"/>
-      <c r="BE13" s="131"/>
-      <c r="BF13" s="131"/>
-      <c r="BG13" s="131"/>
-      <c r="BH13" s="131"/>
-      <c r="BI13" s="131"/>
-      <c r="BJ13" s="131"/>
-      <c r="BK13" s="131"/>
-      <c r="BL13" s="131"/>
-      <c r="BM13" s="131"/>
-      <c r="BN13" s="131"/>
-      <c r="BO13" s="131"/>
-      <c r="BP13" s="131"/>
-      <c r="BQ13" s="131"/>
-      <c r="BR13" s="131"/>
-      <c r="BS13" s="131"/>
-      <c r="BT13" s="131"/>
-      <c r="BU13" s="131"/>
-      <c r="BV13" s="131"/>
-      <c r="BW13" s="131"/>
-      <c r="BX13" s="131"/>
-      <c r="BY13" s="131"/>
-      <c r="BZ13" s="131"/>
-      <c r="CA13" s="131"/>
-      <c r="CB13" s="131"/>
-      <c r="CC13" s="131"/>
-      <c r="CD13" s="131"/>
-      <c r="CE13" s="131"/>
-      <c r="CF13" s="131"/>
-      <c r="CG13" s="131"/>
-      <c r="CH13" s="131"/>
-      <c r="CI13" s="131"/>
-      <c r="CJ13" s="131"/>
-      <c r="CK13" s="131"/>
-      <c r="CL13" s="131"/>
-      <c r="CM13" s="131"/>
-      <c r="CN13" s="131"/>
-      <c r="CO13" s="131"/>
-      <c r="CP13" s="131"/>
-      <c r="CQ13" s="131"/>
-      <c r="CR13" s="131"/>
-      <c r="CS13" s="131"/>
-      <c r="CT13" s="131"/>
-      <c r="CU13" s="131"/>
-      <c r="CV13" s="131"/>
-      <c r="CW13" s="131"/>
-      <c r="CX13" s="131"/>
-      <c r="CY13" s="131"/>
-      <c r="CZ13" s="131"/>
-      <c r="DA13" s="131"/>
-      <c r="DB13" s="131"/>
-      <c r="DC13" s="131"/>
-      <c r="DD13" s="131"/>
-      <c r="DE13" s="131"/>
-      <c r="DF13" s="131"/>
-      <c r="DG13" s="131"/>
-      <c r="DH13" s="131"/>
-      <c r="DI13" s="131"/>
-      <c r="DJ13" s="131"/>
-      <c r="DK13" s="131"/>
-      <c r="DL13" s="131"/>
-      <c r="DM13" s="131"/>
-      <c r="DN13" s="131"/>
-      <c r="DO13" s="131"/>
-      <c r="DP13" s="131"/>
-      <c r="DQ13" s="131"/>
-      <c r="DR13" s="131"/>
-      <c r="DS13" s="131"/>
-      <c r="DT13" s="131"/>
-      <c r="DU13" s="131"/>
-      <c r="DV13" s="131"/>
-      <c r="DW13" s="131"/>
-      <c r="DX13" s="131"/>
-      <c r="DY13" s="131"/>
-      <c r="DZ13" s="131"/>
-      <c r="EA13" s="131"/>
-      <c r="EB13" s="131"/>
-      <c r="EC13" s="131"/>
-      <c r="ED13" s="131"/>
-      <c r="EE13" s="131"/>
-      <c r="EF13" s="131"/>
-      <c r="EG13" s="131"/>
-      <c r="EH13" s="131"/>
-      <c r="EI13" s="131"/>
-      <c r="EJ13" s="131"/>
-      <c r="EK13" s="131"/>
-      <c r="EL13" s="131"/>
-      <c r="EM13" s="131"/>
-      <c r="EN13" s="131"/>
-      <c r="EO13" s="131"/>
-      <c r="EP13" s="131"/>
-      <c r="EQ13" s="131"/>
-      <c r="ER13" s="131"/>
-      <c r="ES13" s="131"/>
-      <c r="ET13" s="131"/>
-      <c r="EU13" s="131"/>
-      <c r="EV13" s="131"/>
-      <c r="EW13" s="131"/>
-      <c r="EX13" s="131"/>
-      <c r="EY13" s="131"/>
-      <c r="EZ13" s="131"/>
-      <c r="FA13" s="131"/>
-      <c r="FB13" s="131"/>
-      <c r="FC13" s="131"/>
-      <c r="FD13" s="131"/>
-      <c r="FE13" s="131"/>
-      <c r="FF13" s="131"/>
-      <c r="FG13" s="131"/>
-      <c r="FH13" s="131"/>
-      <c r="FI13" s="131"/>
-      <c r="FJ13" s="131"/>
-      <c r="FK13" s="131"/>
-      <c r="FL13" s="131"/>
-      <c r="FM13" s="131"/>
-      <c r="FN13" s="131"/>
-      <c r="FO13" s="131"/>
-      <c r="FP13" s="131"/>
-      <c r="FQ13" s="131"/>
-      <c r="FR13" s="131"/>
-      <c r="FS13" s="131"/>
-      <c r="FT13" s="131"/>
-      <c r="FU13" s="131"/>
-      <c r="FV13" s="131"/>
-      <c r="FW13" s="131"/>
-      <c r="FX13" s="131"/>
-      <c r="FY13" s="131"/>
-      <c r="FZ13" s="131"/>
-      <c r="GA13" s="131"/>
-      <c r="GB13" s="131"/>
-      <c r="GC13" s="131"/>
-      <c r="GD13" s="131"/>
-      <c r="GE13" s="131"/>
-      <c r="GF13" s="131"/>
-      <c r="GG13" s="131"/>
-      <c r="GH13" s="131"/>
-      <c r="GI13" s="131"/>
-      <c r="GJ13" s="131"/>
-      <c r="GK13" s="131"/>
-      <c r="GL13" s="131"/>
-      <c r="GM13" s="131"/>
-      <c r="GN13" s="131"/>
-      <c r="GO13" s="131"/>
-      <c r="GP13" s="131"/>
-      <c r="GQ13" s="131"/>
-      <c r="GR13" s="131"/>
-      <c r="GS13" s="131"/>
-      <c r="GT13" s="131"/>
-      <c r="GU13" s="131"/>
-      <c r="GV13" s="131"/>
-      <c r="GW13" s="131"/>
-      <c r="GX13" s="131"/>
-      <c r="GY13" s="131"/>
-      <c r="GZ13" s="131"/>
-      <c r="HA13" s="131"/>
-      <c r="HB13" s="131"/>
-      <c r="HC13" s="131"/>
-      <c r="HD13" s="131"/>
-      <c r="HE13" s="131"/>
-      <c r="HF13" s="131"/>
-      <c r="HG13" s="131"/>
-      <c r="HH13" s="131"/>
-      <c r="HI13" s="131"/>
-      <c r="HJ13" s="131"/>
-      <c r="HK13" s="131"/>
-      <c r="HL13" s="131"/>
-      <c r="HM13" s="131"/>
-      <c r="HN13" s="131"/>
-      <c r="HO13" s="131"/>
-      <c r="HP13" s="131"/>
-      <c r="HQ13" s="131"/>
-      <c r="HR13" s="131"/>
-      <c r="HS13" s="131"/>
-      <c r="HT13" s="131"/>
-      <c r="HU13" s="131"/>
-      <c r="HV13" s="131"/>
-      <c r="HW13" s="131"/>
-      <c r="HX13" s="131"/>
-      <c r="HY13" s="131"/>
-      <c r="HZ13" s="131"/>
-      <c r="IA13" s="131"/>
-      <c r="IB13" s="131"/>
-      <c r="IC13" s="131"/>
-      <c r="ID13" s="131"/>
-      <c r="IE13" s="131"/>
-      <c r="IF13" s="131"/>
-      <c r="IG13" s="131"/>
-      <c r="IH13" s="131"/>
-      <c r="II13" s="131"/>
-      <c r="IJ13" s="131"/>
-      <c r="IK13" s="131"/>
-      <c r="IL13" s="131"/>
-      <c r="IM13" s="131"/>
-      <c r="IN13" s="131"/>
-      <c r="IO13" s="131"/>
-      <c r="IP13" s="131"/>
-      <c r="IQ13" s="131"/>
-      <c r="IR13" s="131"/>
-      <c r="IS13" s="131"/>
-      <c r="IT13" s="131"/>
-      <c r="IU13" s="131"/>
-      <c r="IV13" s="131"/>
-      <c r="IW13" s="131"/>
-      <c r="IX13" s="131"/>
-      <c r="IY13" s="131"/>
-      <c r="IZ13" s="131"/>
-      <c r="JA13" s="131"/>
-      <c r="JB13" s="131"/>
-      <c r="JC13" s="131"/>
-      <c r="JD13" s="131"/>
-      <c r="JE13" s="131"/>
-      <c r="JF13" s="131"/>
-      <c r="JG13" s="131"/>
-      <c r="JH13" s="131"/>
-      <c r="JI13" s="131"/>
-      <c r="JJ13" s="131"/>
-      <c r="JK13" s="131"/>
-      <c r="JL13" s="131"/>
-      <c r="JM13" s="131"/>
-      <c r="JN13" s="131"/>
-      <c r="JO13" s="131"/>
-      <c r="JP13" s="131"/>
-      <c r="JQ13" s="131"/>
-      <c r="JR13" s="131"/>
-      <c r="JS13" s="131"/>
-      <c r="JT13" s="131"/>
-      <c r="JU13" s="131"/>
-      <c r="JV13" s="131"/>
-      <c r="JW13" s="131"/>
-      <c r="JX13" s="131"/>
-      <c r="JY13" s="131"/>
-      <c r="JZ13" s="131"/>
-      <c r="KA13" s="131"/>
-      <c r="KB13" s="131"/>
-      <c r="KC13" s="131"/>
-      <c r="KD13" s="131"/>
-      <c r="KE13" s="131"/>
-      <c r="KF13" s="131"/>
-      <c r="KG13" s="131"/>
-      <c r="KH13" s="131"/>
-      <c r="KI13" s="131"/>
-      <c r="KJ13" s="131"/>
-      <c r="KK13" s="131"/>
-      <c r="KL13" s="131"/>
-      <c r="KM13" s="131"/>
-      <c r="KN13" s="131"/>
-      <c r="KO13" s="131"/>
-      <c r="KP13" s="131"/>
-      <c r="KQ13" s="131"/>
-      <c r="KR13" s="131"/>
-      <c r="KS13" s="131"/>
-      <c r="KT13" s="131"/>
-      <c r="KU13" s="131"/>
-      <c r="KV13" s="131"/>
-      <c r="KW13" s="131"/>
-      <c r="KX13" s="131"/>
-      <c r="KY13" s="131"/>
-      <c r="KZ13" s="131"/>
-      <c r="LA13" s="131"/>
-      <c r="LB13" s="131"/>
-      <c r="LC13" s="131"/>
-      <c r="LD13" s="131"/>
-      <c r="LE13" s="131"/>
-      <c r="LF13" s="131"/>
-      <c r="LG13" s="131"/>
-      <c r="LH13" s="131"/>
-      <c r="LI13" s="131"/>
-      <c r="LJ13" s="131"/>
-      <c r="LK13" s="131"/>
-      <c r="LL13" s="131"/>
-      <c r="LM13" s="131"/>
-      <c r="LN13" s="131"/>
-      <c r="LO13" s="131"/>
-      <c r="LP13" s="131"/>
-      <c r="LQ13" s="131"/>
-      <c r="LR13" s="131"/>
-      <c r="LS13" s="131"/>
-      <c r="LT13" s="131"/>
-      <c r="LU13" s="131"/>
-      <c r="LV13" s="131"/>
-      <c r="LW13" s="131"/>
-      <c r="LX13" s="131"/>
-      <c r="LY13" s="131"/>
-      <c r="LZ13" s="131"/>
-      <c r="MA13" s="131"/>
-      <c r="MB13" s="131"/>
-      <c r="MC13" s="131"/>
-      <c r="MD13" s="131"/>
-      <c r="ME13" s="131"/>
-      <c r="MF13" s="131"/>
-      <c r="MG13" s="131"/>
-      <c r="MH13" s="131"/>
-      <c r="MI13" s="131"/>
-      <c r="MJ13" s="131"/>
-      <c r="MK13" s="131"/>
-      <c r="ML13" s="131"/>
-      <c r="MM13" s="131"/>
-      <c r="MN13" s="131"/>
-      <c r="MO13" s="131"/>
-      <c r="MP13" s="131"/>
-      <c r="MQ13" s="131"/>
-      <c r="MR13" s="131"/>
-      <c r="MS13" s="131"/>
-      <c r="MT13" s="131"/>
-      <c r="MU13" s="131"/>
-      <c r="MV13" s="131"/>
-      <c r="MW13" s="131"/>
-      <c r="MX13" s="131"/>
-      <c r="MY13" s="131"/>
-      <c r="MZ13" s="131"/>
-      <c r="NA13" s="131"/>
-      <c r="NB13" s="131"/>
-      <c r="NC13" s="131"/>
-      <c r="ND13" s="131"/>
-      <c r="NE13" s="131"/>
-      <c r="NF13" s="131"/>
-      <c r="NG13" s="131"/>
-      <c r="NH13" s="131"/>
-      <c r="NI13" s="131"/>
-      <c r="NJ13" s="131"/>
-      <c r="NK13" s="131"/>
-      <c r="NL13" s="131"/>
-      <c r="NM13" s="131"/>
-      <c r="NN13" s="131"/>
-      <c r="NO13" s="131"/>
-      <c r="NP13" s="131"/>
-      <c r="NQ13" s="131"/>
-      <c r="NR13" s="131"/>
-      <c r="NS13" s="131"/>
-      <c r="NT13" s="131"/>
-      <c r="NU13" s="131"/>
-      <c r="NV13" s="131"/>
-      <c r="NW13" s="131"/>
-      <c r="NX13" s="131"/>
-      <c r="NY13" s="131"/>
-      <c r="NZ13" s="131"/>
-      <c r="OA13" s="131"/>
-      <c r="OB13" s="131"/>
-      <c r="OC13" s="131"/>
-      <c r="OD13" s="131"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="130"/>
+      <c r="AJ13" s="130"/>
+      <c r="AK13" s="130"/>
+      <c r="AL13" s="130"/>
+      <c r="AM13" s="130"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="130"/>
+      <c r="AP13" s="130"/>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="130"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="130"/>
+      <c r="AU13" s="130"/>
+      <c r="AV13" s="130"/>
+      <c r="AW13" s="130"/>
+      <c r="AX13" s="130"/>
+      <c r="AY13" s="130"/>
+      <c r="AZ13" s="130"/>
+      <c r="BA13" s="130"/>
+      <c r="BB13" s="130"/>
+      <c r="BC13" s="130"/>
+      <c r="BD13" s="130"/>
+      <c r="BE13" s="130"/>
+      <c r="BF13" s="130"/>
+      <c r="BG13" s="130"/>
+      <c r="BH13" s="130"/>
+      <c r="BI13" s="130"/>
+      <c r="BJ13" s="130"/>
+      <c r="BK13" s="130"/>
+      <c r="BL13" s="130"/>
+      <c r="BM13" s="130"/>
+      <c r="BN13" s="130"/>
+      <c r="BO13" s="130"/>
+      <c r="BP13" s="130"/>
+      <c r="BQ13" s="130"/>
+      <c r="BR13" s="130"/>
+      <c r="BS13" s="130"/>
+      <c r="BT13" s="130"/>
+      <c r="BU13" s="130"/>
+      <c r="BV13" s="130"/>
+      <c r="BW13" s="130"/>
+      <c r="BX13" s="130"/>
+      <c r="BY13" s="130"/>
+      <c r="BZ13" s="130"/>
+      <c r="CA13" s="130"/>
+      <c r="CB13" s="130"/>
+      <c r="CC13" s="130"/>
+      <c r="CD13" s="130"/>
+      <c r="CE13" s="130"/>
+      <c r="CF13" s="130"/>
+      <c r="CG13" s="130"/>
+      <c r="CH13" s="130"/>
+      <c r="CI13" s="130"/>
+      <c r="CJ13" s="130"/>
+      <c r="CK13" s="130"/>
+      <c r="CL13" s="130"/>
+      <c r="CM13" s="130"/>
+      <c r="CN13" s="130"/>
+      <c r="CO13" s="130"/>
+      <c r="CP13" s="130"/>
+      <c r="CQ13" s="130"/>
+      <c r="CR13" s="130"/>
+      <c r="CS13" s="130"/>
+      <c r="CT13" s="130"/>
+      <c r="CU13" s="130"/>
+      <c r="CV13" s="130"/>
+      <c r="CW13" s="130"/>
+      <c r="CX13" s="130"/>
+      <c r="CY13" s="130"/>
+      <c r="CZ13" s="130"/>
+      <c r="DA13" s="130"/>
+      <c r="DB13" s="130"/>
+      <c r="DC13" s="130"/>
+      <c r="DD13" s="130"/>
+      <c r="DE13" s="130"/>
+      <c r="DF13" s="130"/>
+      <c r="DG13" s="130"/>
+      <c r="DH13" s="130"/>
+      <c r="DI13" s="130"/>
+      <c r="DJ13" s="130"/>
+      <c r="DK13" s="130"/>
+      <c r="DL13" s="130"/>
+      <c r="DM13" s="130"/>
+      <c r="DN13" s="130"/>
+      <c r="DO13" s="130"/>
+      <c r="DP13" s="130"/>
+      <c r="DQ13" s="130"/>
+      <c r="DR13" s="130"/>
+      <c r="DS13" s="130"/>
+      <c r="DT13" s="130"/>
+      <c r="DU13" s="130"/>
+      <c r="DV13" s="130"/>
+      <c r="DW13" s="130"/>
+      <c r="DX13" s="130"/>
+      <c r="DY13" s="130"/>
+      <c r="DZ13" s="130"/>
+      <c r="EA13" s="130"/>
+      <c r="EB13" s="130"/>
+      <c r="EC13" s="130"/>
+      <c r="ED13" s="130"/>
+      <c r="EE13" s="130"/>
+      <c r="EF13" s="130"/>
+      <c r="EG13" s="130"/>
+      <c r="EH13" s="130"/>
+      <c r="EI13" s="130"/>
+      <c r="EJ13" s="130"/>
+      <c r="EK13" s="130"/>
+      <c r="EL13" s="130"/>
+      <c r="EM13" s="130"/>
+      <c r="EN13" s="130"/>
+      <c r="EO13" s="130"/>
+      <c r="EP13" s="130"/>
+      <c r="EQ13" s="130"/>
+      <c r="ER13" s="130"/>
+      <c r="ES13" s="130"/>
+      <c r="ET13" s="130"/>
+      <c r="EU13" s="130"/>
+      <c r="EV13" s="130"/>
+      <c r="EW13" s="130"/>
+      <c r="EX13" s="130"/>
+      <c r="EY13" s="130"/>
+      <c r="EZ13" s="130"/>
+      <c r="FA13" s="130"/>
+      <c r="FB13" s="130"/>
+      <c r="FC13" s="130"/>
+      <c r="FD13" s="130"/>
+      <c r="FE13" s="130"/>
+      <c r="FF13" s="130"/>
+      <c r="FG13" s="130"/>
+      <c r="FH13" s="130"/>
+      <c r="FI13" s="130"/>
+      <c r="FJ13" s="130"/>
+      <c r="FK13" s="130"/>
+      <c r="FL13" s="130"/>
+      <c r="FM13" s="130"/>
+      <c r="FN13" s="130"/>
+      <c r="FO13" s="130"/>
+      <c r="FP13" s="130"/>
+      <c r="FQ13" s="130"/>
+      <c r="FR13" s="130"/>
+      <c r="FS13" s="130"/>
+      <c r="FT13" s="130"/>
+      <c r="FU13" s="130"/>
+      <c r="FV13" s="130"/>
+      <c r="FW13" s="130"/>
+      <c r="FX13" s="130"/>
+      <c r="FY13" s="130"/>
+      <c r="FZ13" s="130"/>
+      <c r="GA13" s="130"/>
+      <c r="GB13" s="130"/>
+      <c r="GC13" s="130"/>
+      <c r="GD13" s="130"/>
+      <c r="GE13" s="130"/>
+      <c r="GF13" s="130"/>
+      <c r="GG13" s="130"/>
+      <c r="GH13" s="130"/>
+      <c r="GI13" s="130"/>
+      <c r="GJ13" s="130"/>
+      <c r="GK13" s="130"/>
+      <c r="GL13" s="130"/>
+      <c r="GM13" s="130"/>
+      <c r="GN13" s="130"/>
+      <c r="GO13" s="130"/>
+      <c r="GP13" s="130"/>
+      <c r="GQ13" s="130"/>
+      <c r="GR13" s="130"/>
+      <c r="GS13" s="130"/>
+      <c r="GT13" s="130"/>
+      <c r="GU13" s="130"/>
+      <c r="GV13" s="130"/>
+      <c r="GW13" s="130"/>
+      <c r="GX13" s="130"/>
+      <c r="GY13" s="130"/>
+      <c r="GZ13" s="130"/>
+      <c r="HA13" s="130"/>
+      <c r="HB13" s="130"/>
+      <c r="HC13" s="130"/>
+      <c r="HD13" s="130"/>
+      <c r="HE13" s="130"/>
+      <c r="HF13" s="130"/>
+      <c r="HG13" s="130"/>
+      <c r="HH13" s="130"/>
+      <c r="HI13" s="130"/>
+      <c r="HJ13" s="130"/>
+      <c r="HK13" s="130"/>
+      <c r="HL13" s="130"/>
+      <c r="HM13" s="130"/>
+      <c r="HN13" s="130"/>
+      <c r="HO13" s="130"/>
+      <c r="HP13" s="130"/>
+      <c r="HQ13" s="130"/>
+      <c r="HR13" s="130"/>
+      <c r="HS13" s="130"/>
+      <c r="HT13" s="130"/>
+      <c r="HU13" s="130"/>
+      <c r="HV13" s="130"/>
+      <c r="HW13" s="130"/>
+      <c r="HX13" s="130"/>
+      <c r="HY13" s="130"/>
+      <c r="HZ13" s="130"/>
+      <c r="IA13" s="130"/>
+      <c r="IB13" s="130"/>
+      <c r="IC13" s="130"/>
+      <c r="ID13" s="130"/>
+      <c r="IE13" s="130"/>
+      <c r="IF13" s="130"/>
+      <c r="IG13" s="130"/>
+      <c r="IH13" s="130"/>
+      <c r="II13" s="130"/>
+      <c r="IJ13" s="130"/>
+      <c r="IK13" s="130"/>
+      <c r="IL13" s="130"/>
+      <c r="IM13" s="130"/>
+      <c r="IN13" s="130"/>
+      <c r="IO13" s="130"/>
+      <c r="IP13" s="130"/>
+      <c r="IQ13" s="130"/>
+      <c r="IR13" s="130"/>
+      <c r="IS13" s="130"/>
+      <c r="IT13" s="130"/>
+      <c r="IU13" s="130"/>
+      <c r="IV13" s="130"/>
+      <c r="IW13" s="130"/>
+      <c r="IX13" s="130"/>
+      <c r="IY13" s="130"/>
+      <c r="IZ13" s="130"/>
+      <c r="JA13" s="130"/>
+      <c r="JB13" s="130"/>
+      <c r="JC13" s="130"/>
+      <c r="JD13" s="130"/>
+      <c r="JE13" s="130"/>
+      <c r="JF13" s="130"/>
+      <c r="JG13" s="130"/>
+      <c r="JH13" s="130"/>
+      <c r="JI13" s="130"/>
+      <c r="JJ13" s="130"/>
+      <c r="JK13" s="130"/>
+      <c r="JL13" s="130"/>
+      <c r="JM13" s="130"/>
+      <c r="JN13" s="130"/>
+      <c r="JO13" s="130"/>
+      <c r="JP13" s="130"/>
+      <c r="JQ13" s="130"/>
+      <c r="JR13" s="130"/>
+      <c r="JS13" s="130"/>
+      <c r="JT13" s="130"/>
+      <c r="JU13" s="130"/>
+      <c r="JV13" s="130"/>
+      <c r="JW13" s="130"/>
+      <c r="JX13" s="130"/>
+      <c r="JY13" s="130"/>
+      <c r="JZ13" s="130"/>
+      <c r="KA13" s="130"/>
+      <c r="KB13" s="130"/>
+      <c r="KC13" s="130"/>
+      <c r="KD13" s="130"/>
+      <c r="KE13" s="130"/>
+      <c r="KF13" s="130"/>
+      <c r="KG13" s="130"/>
+      <c r="KH13" s="130"/>
+      <c r="KI13" s="130"/>
+      <c r="KJ13" s="130"/>
+      <c r="KK13" s="130"/>
+      <c r="KL13" s="130"/>
+      <c r="KM13" s="130"/>
+      <c r="KN13" s="130"/>
+      <c r="KO13" s="130"/>
+      <c r="KP13" s="130"/>
+      <c r="KQ13" s="130"/>
+      <c r="KR13" s="130"/>
+      <c r="KS13" s="130"/>
+      <c r="KT13" s="130"/>
+      <c r="KU13" s="130"/>
+      <c r="KV13" s="130"/>
+      <c r="KW13" s="130"/>
+      <c r="KX13" s="130"/>
+      <c r="KY13" s="130"/>
+      <c r="KZ13" s="130"/>
+      <c r="LA13" s="130"/>
+      <c r="LB13" s="130"/>
+      <c r="LC13" s="130"/>
+      <c r="LD13" s="130"/>
+      <c r="LE13" s="130"/>
+      <c r="LF13" s="130"/>
+      <c r="LG13" s="130"/>
+      <c r="LH13" s="130"/>
+      <c r="LI13" s="130"/>
+      <c r="LJ13" s="130"/>
+      <c r="LK13" s="130"/>
+      <c r="LL13" s="130"/>
+      <c r="LM13" s="130"/>
+      <c r="LN13" s="130"/>
+      <c r="LO13" s="130"/>
+      <c r="LP13" s="130"/>
+      <c r="LQ13" s="130"/>
+      <c r="LR13" s="130"/>
+      <c r="LS13" s="130"/>
+      <c r="LT13" s="130"/>
+      <c r="LU13" s="130"/>
+      <c r="LV13" s="130"/>
+      <c r="LW13" s="130"/>
+      <c r="LX13" s="130"/>
+      <c r="LY13" s="130"/>
+      <c r="LZ13" s="130"/>
+      <c r="MA13" s="130"/>
+      <c r="MB13" s="130"/>
+      <c r="MC13" s="130"/>
+      <c r="MD13" s="130"/>
+      <c r="ME13" s="130"/>
+      <c r="MF13" s="130"/>
+      <c r="MG13" s="130"/>
+      <c r="MH13" s="130"/>
+      <c r="MI13" s="130"/>
+      <c r="MJ13" s="130"/>
+      <c r="MK13" s="130"/>
+      <c r="ML13" s="130"/>
+      <c r="MM13" s="130"/>
+      <c r="MN13" s="130"/>
+      <c r="MO13" s="130"/>
+      <c r="MP13" s="130"/>
+      <c r="MQ13" s="130"/>
+      <c r="MR13" s="130"/>
+      <c r="MS13" s="130"/>
+      <c r="MT13" s="130"/>
+      <c r="MU13" s="130"/>
+      <c r="MV13" s="130"/>
+      <c r="MW13" s="130"/>
+      <c r="MX13" s="130"/>
+      <c r="MY13" s="130"/>
+      <c r="MZ13" s="130"/>
+      <c r="NA13" s="130"/>
+      <c r="NB13" s="130"/>
+      <c r="NC13" s="130"/>
+      <c r="ND13" s="130"/>
+      <c r="NE13" s="130"/>
+      <c r="NF13" s="130"/>
+      <c r="NG13" s="130"/>
+      <c r="NH13" s="130"/>
+      <c r="NI13" s="130"/>
+      <c r="NJ13" s="130"/>
+      <c r="NK13" s="130"/>
+      <c r="NL13" s="130"/>
+      <c r="NM13" s="130"/>
+      <c r="NN13" s="130"/>
+      <c r="NO13" s="130"/>
+      <c r="NP13" s="130"/>
+      <c r="NQ13" s="130"/>
+      <c r="NR13" s="130"/>
+      <c r="NS13" s="130"/>
+      <c r="NT13" s="130"/>
+      <c r="NU13" s="130"/>
+      <c r="NV13" s="130"/>
+      <c r="NW13" s="130"/>
+      <c r="NX13" s="130"/>
+      <c r="NY13" s="130"/>
+      <c r="NZ13" s="130"/>
+      <c r="OA13" s="130"/>
+      <c r="OB13" s="130"/>
+      <c r="OC13" s="130"/>
+      <c r="OD13" s="130"/>
     </row>
     <row r="14" spans="1:394" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
@@ -56794,7 +56800,8 @@
       <c r="S54" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="396">
+  <mergeCells count="398">
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="NU11:NU13"/>
     <mergeCell ref="NV11:NV13"/>
     <mergeCell ref="NW11:NW13"/>
@@ -57110,30 +57117,15 @@
     <mergeCell ref="BY11:BY13"/>
     <mergeCell ref="BZ11:BZ13"/>
     <mergeCell ref="CA11:CA13"/>
-    <mergeCell ref="BR11:BR13"/>
-    <mergeCell ref="BS11:BS13"/>
-    <mergeCell ref="BT11:BT13"/>
-    <mergeCell ref="BU11:BU13"/>
-    <mergeCell ref="BV11:BV13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AF11:AF13"/>
     <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="AT11:AT13"/>
     <mergeCell ref="AL11:AL13"/>
     <mergeCell ref="AM11:AM13"/>
     <mergeCell ref="AN11:AN13"/>
     <mergeCell ref="AO11:AO13"/>
     <mergeCell ref="AP11:AP13"/>
     <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
@@ -57143,6 +57135,12 @@
     <mergeCell ref="AC11:AC13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -57163,15 +57161,10 @@
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="AV11:AV13"/>
     <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="NZ11:NZ13"/>
-    <mergeCell ref="OA11:OA13"/>
-    <mergeCell ref="OB11:OB13"/>
-    <mergeCell ref="OC11:OC13"/>
-    <mergeCell ref="OD11:OD13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AF11:AF13"/>
     <mergeCell ref="BL2:BQ2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AK2:AN2"/>
@@ -57182,15 +57175,30 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="BL5:BQ5"/>
     <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="NZ11:NZ13"/>
+    <mergeCell ref="OA11:OA13"/>
+    <mergeCell ref="OB11:OB13"/>
+    <mergeCell ref="OC11:OC13"/>
+    <mergeCell ref="OD11:OD13"/>
     <mergeCell ref="BQ11:BQ13"/>
     <mergeCell ref="BL11:BL13"/>
     <mergeCell ref="BM11:BM13"/>
     <mergeCell ref="BN11:BN13"/>
     <mergeCell ref="BO11:BO13"/>
     <mergeCell ref="BP11:BP13"/>
-    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
     <mergeCell ref="AJ11:AJ13"/>
     <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="BR11:BR13"/>
+    <mergeCell ref="BS11:BS13"/>
+    <mergeCell ref="BT11:BT13"/>
+    <mergeCell ref="BU11:BU13"/>
+    <mergeCell ref="BV11:BV13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:OD49">
@@ -57509,7 +57517,7 @@
       <formula>colour_code=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dropdown Selection Information" prompt="Available Dependency Connection Types:_x000a__x000a_FS = Finish-to-Start (Forward)_x000a_SS = Start-to-Start (Forward)_x000a_SF = Start-to-Finish (Backward)_x000a_FF = Finish-to-Finish (Backward)" sqref="P14" xr:uid="{764FC431-E12D-4D62-8085-50A3B36F7731}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6:AC6" xr:uid="{227706B1-C5B8-4EB1-B09C-69A81F59020D}">
       <formula1>"Default, Project Structure, Team Roles, Issues"</formula1>
@@ -57551,15 +57559,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>23</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -57622,7 +57630,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{398EECAF-DB5B-4A0B-8CE8-8C260DF5E49C}">
           <x14:formula1>
             <xm:f>OFFSET(Settings!$N$9,,,COUNTA(Settings!$N$9:$N$35))</xm:f>
@@ -57703,17 +57711,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="124" t="s">
-        <v>142</v>
+      <c r="B1" s="122" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B2" s="125" t="s">
-        <v>143</v>
+      <c r="B2" s="123" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B4" s="124"/>
+      <c r="B4" s="122"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B398" s="70" t="s">
@@ -57722,17 +57730,17 @@
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B399" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.65">
       <c r="B400" s="71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B401" s="71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.65">
@@ -57742,20 +57750,20 @@
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B404" s="70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B405" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D405" s="72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B407" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
